--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB0A861-267E-4C15-B097-11F9B205EB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A9318C-1774-49A8-AE18-9D6C13603F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="19">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>datenbank oravle vm</t>
+  </si>
+  <si>
+    <t>API und Anwendung</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -431,11 +434,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -459,38 +561,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -505,12 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -529,20 +593,11 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -554,38 +609,121 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,7 +1098,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -979,516 +1117,516 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="15" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-      <c r="P2" s="11" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+      <c r="P2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="Y2" s="15" t="s">
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="Y2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="17"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="19" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="25" t="s">
+      <c r="Q3" s="37"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="24"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="38"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="15">
         <v>43074</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="16">
         <v>0.40625</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29">
+      <c r="E4" s="16"/>
+      <c r="F4" s="17">
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="44" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="15">
         <v>43074</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="16">
         <v>0.40625</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="29">
-        <f>M4-L4-N4</f>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17">
+        <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="44" t="s">
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="15">
         <v>43074</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="16">
         <v>0.40625</v>
       </c>
-      <c r="W4" s="28"/>
-      <c r="X4" s="29">
-        <f>V4-U4-W4</f>
+      <c r="W4" s="16"/>
+      <c r="X4" s="17">
+        <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="30" t="s">
+      <c r="Y4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="40"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="47"/>
     </row>
     <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="15">
         <v>43074</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="18">
         <v>0.75</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="18">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="29">
+      <c r="E5" s="19"/>
+      <c r="F5" s="17">
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="44" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="15">
         <v>43081</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="16">
         <v>0.40625</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29">
-        <f>M5-L5-N5</f>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17">
+        <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="44" t="s">
+      <c r="Q5" s="48"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="27">
+      <c r="T5" s="15">
         <v>43079</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="16">
         <v>0.79166666666666663</v>
       </c>
-      <c r="W5" s="28"/>
-      <c r="X5" s="29">
-        <f>V5-U5-W5</f>
+      <c r="W5" s="16"/>
+      <c r="X5" s="17">
+        <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="33" t="s">
+      <c r="Y5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="41"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="36"/>
     </row>
     <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="15">
         <v>43081</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="16">
         <v>0.40625</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29">
+      <c r="E6" s="16"/>
+      <c r="F6" s="17">
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="44" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="15">
         <v>43081</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="16">
         <v>0.68402777777777779</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="16">
         <v>0.71875</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="29">
-        <f>M6-L6-N6</f>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17">
+        <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="44" t="s">
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="15">
         <v>43081</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="16">
         <v>0.40625</v>
       </c>
-      <c r="W6" s="28"/>
-      <c r="X6" s="29">
-        <f>V6-U6-W6</f>
+      <c r="W6" s="16"/>
+      <c r="X6" s="17">
+        <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="34" t="s">
+      <c r="Y6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="42"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="49"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="15">
         <v>43081</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="16">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="16">
         <v>0.71875</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29">
+      <c r="E7" s="16"/>
+      <c r="F7" s="17">
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="44" t="s">
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="15">
         <v>43083</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="16">
         <v>0.49305555555555558</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="16">
         <v>0.52777777777777779</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="29">
-        <f>M7-L7-N7</f>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17">
+        <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="44" t="s">
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="15">
         <v>43081</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="16">
         <v>0.68402777777777779</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="16">
         <v>0.71875</v>
       </c>
-      <c r="W7" s="28"/>
-      <c r="X7" s="29">
-        <f>V7-U7-W7</f>
+      <c r="W7" s="16"/>
+      <c r="X7" s="17">
+        <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="42"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="49"/>
     </row>
     <row r="8" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="21">
         <v>43083</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="22">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="22">
         <v>0.52777777777777779</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="29">
+      <c r="E8" s="22"/>
+      <c r="F8" s="17">
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="44" t="s">
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="15">
         <v>43086</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="16">
         <v>0.79166666666666663</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="16">
         <v>0.82291666666666663</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="29">
-        <f>M8-L8-N8</f>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17">
+        <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="34" t="s">
+      <c r="P8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="44" t="s">
+      <c r="Q8" s="48"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="27">
+      <c r="T8" s="15">
         <v>43083</v>
       </c>
-      <c r="U8" s="28">
+      <c r="U8" s="16">
         <v>0.49305555555555558</v>
       </c>
-      <c r="V8" s="28">
+      <c r="V8" s="16">
         <v>0.52777777777777779</v>
       </c>
-      <c r="W8" s="28"/>
-      <c r="X8" s="29">
-        <f>V8-U8-W8</f>
+      <c r="W8" s="16"/>
+      <c r="X8" s="17">
+        <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="42"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="49"/>
     </row>
     <row r="9" spans="1:27" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="6">
         <f>SUM(F4:F8)</f>
         <v>0.42361111111111116</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="21">
         <v>43086</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="22">
         <v>0.83333333333333337</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="22">
         <v>0.95833333333333337</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="29">
-        <f>M9-L9-N9</f>
+      <c r="N9" s="22"/>
+      <c r="O9" s="17">
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="45" t="s">
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="36">
+      <c r="T9" s="21">
         <v>43086</v>
       </c>
-      <c r="U9" s="37">
+      <c r="U9" s="22">
         <v>0.83333333333333337</v>
       </c>
-      <c r="V9" s="37">
+      <c r="V9" s="22">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="29">
-        <f>V9-U9-W9</f>
+      <c r="W9" s="22"/>
+      <c r="X9" s="17">
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="39" t="s">
+      <c r="Y9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="43"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="56"/>
     </row>
     <row r="10" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="O10" s="6">
@@ -1504,9 +1642,9 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="L11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1522,416 +1660,437 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
     </row>
     <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="48" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="P14" s="48" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="P14" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
-      <c r="Y14" s="48" t="s">
+      <c r="Q14" s="44"/>
+      <c r="R14" s="45"/>
+      <c r="Y14" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="17"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="19" t="s">
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25" t="s">
+      <c r="Q15" s="37"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="T15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U15" s="21" t="s">
+      <c r="U15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="V15" s="21" t="s">
+      <c r="V15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W15" s="21" t="s">
+      <c r="W15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="22" t="s">
+      <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="23" t="s">
+      <c r="Y15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="24"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="38"/>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="15">
         <v>43091</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29">
+      <c r="E16" s="16"/>
+      <c r="F16" s="17">
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="44" t="s">
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="27">
-        <v>43091</v>
-      </c>
-      <c r="L16" s="28">
+      <c r="K16" s="15">
+        <v>43090</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17">
+        <f t="shared" ref="O16:O21" si="2">M16-L16-N16</f>
+        <v>0.1875</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="T16" s="15">
+        <v>43090</v>
+      </c>
+      <c r="U16" s="16">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="V16" s="16">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="W16" s="16"/>
+      <c r="X16" s="17">
+        <f t="shared" ref="X16:X21" si="3">V16-U16-W16</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="Y16" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="34"/>
+    </row>
+    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="17">
+        <f t="shared" ref="F17:F20" si="4">D17-C17-E17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="15">
+        <v>43090</v>
+      </c>
+      <c r="L17" s="16">
         <v>0.64583333333333337</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M17" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17">
+        <f t="shared" si="2"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="P17" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="15">
+        <v>43090</v>
+      </c>
+      <c r="U17" s="16">
         <v>0.72916666666666663</v>
       </c>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29">
-        <f>M16-L16-N16</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="29">
-        <f>V16-U16-W16</f>
+      <c r="V17" s="16">
+        <v>1</v>
+      </c>
+      <c r="W17" s="16"/>
+      <c r="X17" s="17">
+        <f t="shared" si="3"/>
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="31"/>
+    </row>
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="40"/>
-    </row>
-    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="29">
-        <f t="shared" ref="F17:F20" si="0">D17-C17-E17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="44" t="s">
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29">
-        <f t="shared" ref="O17:O21" si="1">M17-L17-N17</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="29">
-        <f t="shared" ref="X17:X21" si="2">V17-U17-W17</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="41"/>
-    </row>
-    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="29">
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="42"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="15"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29">
-        <f t="shared" si="0"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="44" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="29">
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="42"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="T19" s="15"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="17">
+        <f>V19-U19-W19</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="29">
-        <f t="shared" si="0"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="17">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="44" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="T20" s="27"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="29">
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="42"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="15"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21" s="6">
         <f>SUM(F16:F20)</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="36"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="29">
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="43"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="21"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="56"/>
     </row>
     <row r="22" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="O22" s="6">
         <f>SUM(O16:O21)</f>
-        <v>8.3333333333333259E-2</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="X22" s="6">
         <f>SUM(X16:X21)</f>
-        <v>0</v>
+        <v>0.43750000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -1941,15 +2100,12 @@
       <c r="B25" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="47">
     <mergeCell ref="P21:R21"/>
     <mergeCell ref="Y21:AA21"/>
     <mergeCell ref="Y14:AA14"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="P17:R19"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y18:AA20"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="P20:R20"/>
@@ -1958,27 +2114,19 @@
     <mergeCell ref="Y15:AA15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="P16:R16"/>
-    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y6:AA8"/>
     <mergeCell ref="A13:AA13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="P14:R14"/>
-    <mergeCell ref="G4:I4"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="P8:R8"/>
     <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y6:AA8"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="Y5:AA5"/>
     <mergeCell ref="G5:I5"/>
@@ -1986,6 +2134,20 @@
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P18:R18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A9318C-1774-49A8-AE18-9D6C13603F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050E9ECF-D677-4B59-9DA3-311B897FD007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="20">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>API und Anwendung</t>
+  </si>
+  <si>
+    <t>Gesamte Stunden:</t>
   </si>
 </sst>
 </file>
@@ -161,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -533,11 +536,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -618,22 +647,52 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,49 +704,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,19 +721,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -724,6 +753,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1113,64 +1148,66 @@
     <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="18" width="10.85546875" style="2"/>
     <col min="19" max="19" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.85546875" style="2"/>
+    <col min="20" max="27" width="10.85546875" style="2"/>
+    <col min="28" max="28" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-    </row>
-    <row r="2" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+    </row>
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="43" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
-      <c r="P2" s="41" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="P2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="Y2" s="43" t="s">
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="Y2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45"/>
-    </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="30"/>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1189,11 +1226,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1212,11 +1249,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="39"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -1235,13 +1272,20 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="37" t="s">
+      <c r="Y3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="38"/>
-    </row>
-    <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="61">
+        <f>SUM(X10+O10+F9)</f>
+        <v>1.1979166666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -1259,11 +1303,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -1281,11 +1325,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="47"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1303,13 +1347,13 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="46" t="s">
+      <c r="Y4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="47"/>
-    </row>
-    <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="41"/>
+    </row>
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1327,11 +1371,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1349,11 +1393,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="49"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="37"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -1371,13 +1415,13 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="35" t="s">
+      <c r="Y5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="36"/>
-    </row>
-    <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="33"/>
+    </row>
+    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -1395,11 +1439,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -1417,9 +1461,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="49"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="37"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -1437,13 +1481,13 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="48" t="s">
+      <c r="Y6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="49"/>
-    </row>
-    <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="37"/>
+    </row>
+    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -1461,11 +1505,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -1483,9 +1527,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="49"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="37"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -1503,11 +1547,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="49"/>
-    </row>
-    <row r="8" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="37"/>
+    </row>
+    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -1525,11 +1569,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -1547,11 +1591,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="48" t="s">
+      <c r="P8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -1569,11 +1613,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="49"/>
-    </row>
-    <row r="9" spans="1:27" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="37"/>
+    </row>
+    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="6">
         <f>SUM(F4:F8)</f>
         <v>0.42361111111111116</v>
@@ -1595,11 +1639,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -1617,13 +1661,13 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="55" t="s">
+      <c r="Y9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="56"/>
-    </row>
-    <row r="10" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="27"/>
+    </row>
+    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1641,7 +1685,7 @@
         <v>0.47569444444444436</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1650,7 +1694,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1659,61 +1703,61 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-    </row>
-    <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+    </row>
+    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="57" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="P14" s="57" t="s">
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="P14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="45"/>
-      <c r="Y14" s="57" t="s">
+      <c r="Q14" s="29"/>
+      <c r="R14" s="30"/>
+      <c r="Y14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="45"/>
-    </row>
-    <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="30"/>
+    </row>
+    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -1732,11 +1776,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="9" t="s">
         <v>9</v>
       </c>
@@ -1755,11 +1799,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="37" t="s">
+      <c r="P15" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="39"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -1778,13 +1822,20 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="37" t="s">
+      <c r="Y15" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="38"/>
-    </row>
-    <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC15" s="61">
+        <f>SUM(X22+O22+F21)</f>
+        <v>0.97916666666666674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
@@ -1802,11 +1853,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -1824,11 +1875,11 @@
         <f t="shared" ref="O16:O21" si="2">M16-L16-N16</f>
         <v>0.1875</v>
       </c>
-      <c r="P16" s="32" t="s">
+      <c r="P16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="34"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="44"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -1846,11 +1897,11 @@
         <f t="shared" ref="X16:X21" si="3">V16-U16-W16</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="Y16" s="32" t="s">
+      <c r="Y16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="34"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="44"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
@@ -1864,9 +1915,9 @@
         <f t="shared" ref="F17:F20" si="4">D17-C17-E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -1906,9 +1957,9 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="31"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="54"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
@@ -1922,9 +1973,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -1936,9 +1987,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="34"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="44"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -1949,9 +2000,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="28"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="57"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -1965,9 +2016,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -1979,9 +2030,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="28"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="57"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -1993,9 +2044,9 @@
         <f>V19-U19-W19</f>
         <v>0</v>
       </c>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="28"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="57"/>
     </row>
     <row r="20" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -2009,9 +2060,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2023,9 +2074,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="49"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="37"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2037,9 +2088,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="28"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="57"/>
     </row>
     <row r="21" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21" s="6">
@@ -2057,9 +2108,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="27"/>
       <c r="S21" s="25" t="s">
         <v>8</v>
       </c>
@@ -2071,9 +2122,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="56"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="27"/>
     </row>
     <row r="22" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G22" s="8"/>
@@ -2101,6 +2152,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="P21:R21"/>
     <mergeCell ref="Y21:AA21"/>
     <mergeCell ref="Y14:AA14"/>
@@ -2117,37 +2199,6 @@
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y6:AA8"/>
     <mergeCell ref="A13:AA13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P18:R18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050E9ECF-D677-4B59-9DA3-311B897FD007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5D659-E052-4599-B4BB-C17B6691B82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="25">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>Gesamte Stunden:</t>
+  </si>
+  <si>
+    <t>Dependences</t>
+  </si>
+  <si>
+    <t>Java Dependencies</t>
+  </si>
+  <si>
+    <t>Locale Datenbank testen</t>
+  </si>
+  <si>
+    <t>Frontend &amp; Database</t>
+  </si>
+  <si>
+    <t>Api und Frontend</t>
   </si>
 </sst>
 </file>
@@ -164,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -562,11 +577,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -647,10 +697,78 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,24 +787,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,6 +804,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,6 +833,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,28 +854,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1146,66 +1267,70 @@
     <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="1.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="10.85546875" style="2"/>
+    <col min="11" max="14" width="10.85546875" style="2"/>
+    <col min="15" max="15" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.85546875" style="2"/>
     <col min="19" max="19" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="27" width="10.85546875" style="2"/>
+    <col min="20" max="23" width="10.85546875" style="2"/>
+    <col min="24" max="24" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.85546875" style="2"/>
     <col min="28" max="28" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="31" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-      <c r="P2" s="50" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="P2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="Y2" s="31" t="s">
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="Y2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="30"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="52"/>
     </row>
     <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1226,11 +1351,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1249,11 +1374,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="39"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -1272,15 +1397,15 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Y3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="62" t="s">
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="61">
+      <c r="AC3" s="26">
         <f>SUM(X10+O10+F9)</f>
         <v>1.1979166666666665</v>
       </c>
@@ -1303,11 +1428,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -1325,11 +1450,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1347,11 +1472,11 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="40" t="s">
+      <c r="Y4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="41"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="57"/>
     </row>
     <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -1371,11 +1496,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1393,11 +1518,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="37"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="64"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -1415,11 +1540,11 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="33"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="55"/>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
@@ -1439,11 +1564,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -1461,9 +1586,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="37"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="64"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -1481,11 +1606,11 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="36" t="s">
+      <c r="Y6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="37"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="64"/>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -1505,11 +1630,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -1527,9 +1652,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="37"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="64"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -1547,9 +1672,9 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="37"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="64"/>
     </row>
     <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -1569,11 +1694,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -1591,11 +1716,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="P8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="37"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -1613,9 +1738,9 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="37"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="64"/>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="6">
@@ -1639,11 +1764,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="27"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="78"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -1661,11 +1786,11 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="26" t="s">
+      <c r="Y9" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="27"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="78"/>
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G10" s="8"/>
@@ -1704,58 +1829,70 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="28" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="P14" s="28" t="s">
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
-      <c r="Y14" s="28" t="s">
+      <c r="Q14" s="51"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="30"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="52"/>
     </row>
     <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1776,12 +1913,12 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="9" t="s">
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="85" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="10" t="s">
@@ -1799,11 +1936,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="38" t="s">
+      <c r="P15" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="39"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="62"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -1822,17 +1959,17 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="38" t="s">
+      <c r="Y15" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="62" t="s">
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AC15" s="61">
-        <f>SUM(X22+O22+F21)</f>
-        <v>0.97916666666666674</v>
+      <c r="AC15" s="26">
+        <f>SUM(X26+O26+F24)</f>
+        <v>4.0416666666666679</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -1853,33 +1990,33 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="15">
         <v>43090</v>
       </c>
-      <c r="L16" s="16">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="M16" s="16">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="N16" s="16"/>
+      <c r="L16" s="28">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M16" s="28">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N16" s="15"/>
       <c r="O16" s="17">
-        <f t="shared" ref="O16:O21" si="2">M16-L16-N16</f>
-        <v>0.1875</v>
-      </c>
-      <c r="P16" s="42" t="s">
+        <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="P16" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="44"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="60"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -1887,7 +2024,7 @@
         <v>43090</v>
       </c>
       <c r="U16" s="16">
-        <v>0.35416666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V16" s="16">
         <v>0.52083333333333337</v>
@@ -1895,29 +2032,37 @@
       <c r="W16" s="16"/>
       <c r="X16" s="17">
         <f t="shared" ref="X16:X21" si="3">V16-U16-W16</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="Y16" s="42" t="s">
+        <v>0.18750000000000006</v>
+      </c>
+      <c r="Y16" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="44"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="60"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="15">
+        <v>43098</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="16"/>
       <c r="F17" s="17">
-        <f t="shared" ref="F17:F20" si="4">D17-C17-E17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
+        <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -1935,11 +2080,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="58" t="s">
+      <c r="P17" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="60"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -1957,232 +2102,592 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="54"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="76"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="15">
+        <v>43104</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="16"/>
       <c r="F18" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
+        <v>0.125</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+      <c r="K18" s="15">
+        <v>43090</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="M18" s="16">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="N18" s="16"/>
       <c r="O18" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="44"/>
+        <v>0.1875</v>
+      </c>
+      <c r="P18" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="60"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="15"/>
-      <c r="V18" s="19"/>
+      <c r="T18" s="15">
+        <v>43096</v>
+      </c>
+      <c r="U18" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="V18" s="18">
+        <v>0.5625</v>
+      </c>
       <c r="W18" s="16"/>
       <c r="X18" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="57"/>
+        <v>0.125</v>
+      </c>
+      <c r="Y18" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="60"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="15">
+        <v>43107</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E19" s="19"/>
       <c r="F19" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
+      <c r="K19" s="15">
+        <v>43098</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M19" s="16">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="N19" s="16"/>
       <c r="O19" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
+        <f>M19-L19-N19</f>
+        <v>0.15625</v>
+      </c>
+      <c r="P19" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="60"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T19" s="15"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
+      <c r="T19" s="15">
+        <v>43097</v>
+      </c>
+      <c r="U19" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="V19" s="16">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="W19" s="16"/>
       <c r="X19" s="17">
         <f>V19-U19-W19</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="57"/>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="Y19" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="60"/>
     </row>
-    <row r="20" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="B20" s="35">
+        <v>43107</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="19"/>
       <c r="F20" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
+      <c r="K20" s="15">
+        <v>43107</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0.40625</v>
+      </c>
+      <c r="M20" s="16">
+        <v>0.5</v>
+      </c>
       <c r="N20" s="16"/>
       <c r="O20" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="37"/>
+        <f>M20-L20-N20</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="P20" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="60"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="15"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
+      <c r="T20" s="15">
+        <v>43103</v>
+      </c>
+      <c r="U20" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="V20" s="16">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="W20" s="16"/>
       <c r="X20" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="55"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y20" s="56" t="s">
+        <v>17</v>
+      </c>
       <c r="Z20" s="56"/>
       <c r="AA20" s="57"/>
     </row>
-    <row r="21" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="6">
-        <f>SUM(F16:F20)</f>
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="J21" s="25" t="s">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="15">
+        <v>43108</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="17">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
+      <c r="K21" s="15">
+        <v>43107</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M21" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="N21" s="16"/>
       <c r="O21" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="25" t="s">
+        <f>M21-L21-N21</f>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="P21" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="21"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
+      <c r="T21" s="15">
+        <v>43106</v>
+      </c>
+      <c r="U21" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="V21" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W21" s="16"/>
       <c r="X21" s="17">
         <f t="shared" si="3"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y21" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="80"/>
+    </row>
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="35">
+        <v>43111</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="18">
+        <f>SUM(D22-C22)</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="15">
+        <v>43108</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="M22" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17">
+        <f>M22-L22-N22</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="35">
+        <v>43111</v>
+      </c>
+      <c r="U22" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V22" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="W22" s="19"/>
+      <c r="X22" s="18">
+        <f>SUM(V22-U22)</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y22" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="57"/>
+    </row>
+    <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="84">
+        <v>43112</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D23" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="18">
+        <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="15">
+        <v>43108</v>
+      </c>
+      <c r="L23" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="M23" s="16">
+        <v>1</v>
+      </c>
+      <c r="N23" s="82"/>
+      <c r="O23" s="17">
+        <f>M23-L23-N23</f>
+        <v>0.125</v>
+      </c>
+      <c r="P23" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23" s="35">
+        <v>43111</v>
+      </c>
+      <c r="U23" s="18">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="V23" s="18">
+        <v>1</v>
+      </c>
+      <c r="W23" s="19"/>
+      <c r="X23" s="18">
+        <f>SUM(V23-U23)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y23" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="80"/>
+    </row>
+    <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="6">
+        <f>SUM(F16:F23)</f>
+        <v>1.3055555555555558</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="35">
+        <v>43111</v>
+      </c>
+      <c r="L24" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M24" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="N24" s="19"/>
+      <c r="O24" s="18">
+        <f>SUM(M24-L24)</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="P24" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="35">
+        <v>43112</v>
+      </c>
+      <c r="U24" s="18">
         <v>0</v>
       </c>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="27"/>
+      <c r="V24" s="18">
+        <v>0.125</v>
+      </c>
+      <c r="W24" s="19"/>
+      <c r="X24" s="18">
+        <f>SUM(V24-U24)</f>
+        <v>0.125</v>
+      </c>
+      <c r="Y24" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="80"/>
     </row>
-    <row r="22" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="O22" s="6">
-        <f>SUM(O16:O21)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="X22" s="6">
-        <f>SUM(X16:X21)</f>
-        <v>0.43750000000000006</v>
-      </c>
+    <row r="25" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="84">
+        <v>43112</v>
+      </c>
+      <c r="L25" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M25" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="N25" s="37"/>
+      <c r="O25" s="18">
+        <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P25" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="T25" s="83">
+        <v>43112</v>
+      </c>
+      <c r="U25" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V25" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="W25" s="37"/>
+      <c r="X25" s="18">
+        <f>SUM(V25-U25)</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Y25" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="49"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
+    <row r="26" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="K26" s="3"/>
+      <c r="O26" s="6">
+        <f>SUM(O16:O25)</f>
+        <v>1.3263888888888888</v>
+      </c>
+      <c r="X26" s="6">
+        <f>SUM(X16:X25)</f>
+        <v>1.4097222222222225</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="V28" s="30"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B29" s="31"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="V29" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="65">
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
     <mergeCell ref="Y19:AA19"/>
     <mergeCell ref="Y20:AA20"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P18:R18"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:X14"/>
     <mergeCell ref="Y16:AA17"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="P5:R7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="Y5:AA5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A13:AA13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="P14:R14"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G21:I21"/>
     <mergeCell ref="P21:R21"/>
     <mergeCell ref="Y21:AA21"/>
     <mergeCell ref="Y14:AA14"/>
@@ -2195,10 +2700,18 @@
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="Y15:AA15"/>
     <mergeCell ref="G16:I16"/>
-    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P18:R18"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y6:AA8"/>
-    <mergeCell ref="A13:AA13"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="G22:I22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5D659-E052-4599-B4BB-C17B6691B82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8973C4B-F924-4A9F-98FD-E9006F4A8146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,6 +738,131 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,131 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
@@ -1279,58 +1279,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="53" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-      <c r="P2" s="72" t="s">
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="P2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="Y2" s="53" t="s">
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="Y2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="52"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="78"/>
     </row>
     <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1351,11 +1351,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1374,11 +1374,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="62"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="57"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -1397,11 +1397,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="61" t="s">
+      <c r="Y3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="62"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="57"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -1428,11 +1428,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -1450,11 +1450,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="56" t="s">
+      <c r="P4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1472,11 +1472,11 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="56" t="s">
+      <c r="Y4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="57"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -1496,11 +1496,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1518,11 +1518,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="63" t="s">
+      <c r="P5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="65"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -1540,11 +1540,11 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="54" t="s">
+      <c r="Y5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="55"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="69"/>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
@@ -1564,11 +1564,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -1586,9 +1586,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="65"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -1606,11 +1606,11 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="63" t="s">
+      <c r="Y6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="65"/>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -1630,11 +1630,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -1652,9 +1652,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="65"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -1672,9 +1672,9 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="65"/>
     </row>
     <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -1716,11 +1716,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="63" t="s">
+      <c r="P8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="65"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -1738,9 +1738,9 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="65"/>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="6">
@@ -1764,11 +1764,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="77" t="s">
+      <c r="P9" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="78"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="67"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -1786,11 +1786,11 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="77" t="s">
+      <c r="Y9" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="78"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="67"/>
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G10" s="8"/>
@@ -1829,70 +1829,70 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="50" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="78"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="50" t="s">
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="52"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="78"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="50" t="s">
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="52"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="78"/>
     </row>
     <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1913,12 +1913,12 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="85" t="s">
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="43" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="10" t="s">
@@ -1936,11 +1936,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="61" t="s">
+      <c r="P15" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="62"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -1959,11 +1959,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="61" t="s">
+      <c r="Y15" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="62"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="57"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -1990,11 +1990,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2012,11 +2012,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="58" t="s">
+      <c r="P16" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="60"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="52"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2034,11 +2034,11 @@
         <f t="shared" ref="X16:X21" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="58" t="s">
+      <c r="Y16" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="60"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="52"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
@@ -2058,11 +2058,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2080,11 +2080,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="45" t="s">
+      <c r="P17" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="47"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="55"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2102,9 +2102,9 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="76"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
@@ -2124,11 +2124,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2146,11 +2146,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="58" t="s">
+      <c r="P18" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="60"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="52"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2168,11 +2168,11 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="58" t="s">
+      <c r="Y18" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="60"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="52"/>
     </row>
     <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -2192,11 +2192,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2214,11 +2214,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="58" t="s">
+      <c r="P19" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="60"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="52"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2236,11 +2236,11 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="58" t="s">
+      <c r="Y19" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="60"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="52"/>
     </row>
     <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
@@ -2260,11 +2260,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="69"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2282,11 +2282,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="58" t="s">
+      <c r="P20" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="52"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2304,11 +2304,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="56" t="s">
+      <c r="Y20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="57"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -2328,11 +2328,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="82"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2350,11 +2350,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="45" t="s">
+      <c r="P21" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="47"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="55"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -2372,11 +2372,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="79" t="s">
+      <c r="Y21" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="80"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="47"/>
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
@@ -2396,11 +2396,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -2418,11 +2418,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="39" t="s">
+      <c r="P22" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="41"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="82"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -2440,17 +2440,17 @@
         <f>SUM(V22-U22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="56" t="s">
+      <c r="Y22" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="57"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="42">
         <v>43112</v>
       </c>
       <c r="C23" s="36">
@@ -2475,22 +2475,22 @@
       <c r="K23" s="15">
         <v>43108</v>
       </c>
-      <c r="L23" s="81">
+      <c r="L23" s="39">
         <v>0.875</v>
       </c>
       <c r="M23" s="16">
         <v>1</v>
       </c>
-      <c r="N23" s="82"/>
+      <c r="N23" s="40"/>
       <c r="O23" s="17">
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="45" t="s">
+      <c r="P23" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="47"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="55"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -2508,11 +2508,11 @@
         <f>SUM(V23-U23)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="79" t="s">
+      <c r="Y23" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="80"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="47"/>
     </row>
     <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F24" s="6">
@@ -2536,11 +2536,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="56" t="s">
+      <c r="P24" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="57"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="45"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -2558,17 +2558,17 @@
         <f>SUM(V24-U24)</f>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="79" t="s">
+      <c r="Y24" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="80"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="47"/>
     </row>
     <row r="25" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J25" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="84">
+      <c r="K25" s="42">
         <v>43112</v>
       </c>
       <c r="L25" s="36">
@@ -2590,7 +2590,7 @@
       <c r="S25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="T25" s="83">
+      <c r="T25" s="41">
         <v>43112</v>
       </c>
       <c r="U25" s="36">
@@ -2616,9 +2616,9 @@
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
       <c r="K26" s="3"/>
       <c r="O26" s="6">
         <f>SUM(O16:O25)</f>
@@ -2633,26 +2633,63 @@
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
       <c r="V28" s="30"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
       <c r="V29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y6:AA8"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A13:AA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="P19:R19"/>
     <mergeCell ref="G3:I3"/>
@@ -2669,49 +2706,12 @@
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="P5:R7"/>
     <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A13:AA13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y6:AA8"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8973C4B-F924-4A9F-98FD-E9006F4A8146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73A1807-9244-454F-BAAE-9A365BF7F415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="27">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -114,6 +114,12 @@
   <si>
     <t>Api und Frontend</t>
   </si>
+  <si>
+    <t>Cod Optimirung</t>
+  </si>
+  <si>
+    <t>Test Data Datenbank connection</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -593,15 +599,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -612,11 +609,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -744,14 +817,93 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -765,10 +917,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,19 +944,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -806,6 +967,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -815,70 +988,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1279,58 +1392,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="76" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="P2" s="74" t="s">
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+      <c r="P2" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="Y2" s="76" t="s">
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="Y2" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="78"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="76"/>
     </row>
     <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1351,11 +1464,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1374,11 +1487,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="84"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -1397,11 +1510,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="56" t="s">
+      <c r="Y3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="57"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="84"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -1428,11 +1541,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -1450,11 +1563,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="45"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="71"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1472,11 +1585,11 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="44" t="s">
+      <c r="Y4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="45"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="71"/>
     </row>
     <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -1496,11 +1609,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="69"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1518,11 +1631,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="64" t="s">
+      <c r="P5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="65"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="55"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -1540,11 +1653,11 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="68" t="s">
+      <c r="Y5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="69"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="79"/>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
@@ -1564,11 +1677,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -1586,9 +1699,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="65"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="55"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -1606,11 +1719,11 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="64" t="s">
+      <c r="Y6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="65"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="55"/>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -1630,11 +1743,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -1652,9 +1765,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="65"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="55"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -1672,9 +1785,9 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="65"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="55"/>
     </row>
     <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -1694,11 +1807,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -1716,11 +1829,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="64" t="s">
+      <c r="P8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="65"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -1738,9 +1851,9 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="65"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="55"/>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="6">
@@ -1764,11 +1877,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="66" t="s">
+      <c r="P9" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="67"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -1786,11 +1899,11 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="66" t="s">
+      <c r="Y9" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="67"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="57"/>
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G10" s="8"/>
@@ -1829,70 +1942,70 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="73"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="79" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="79" t="s">
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="78"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="76"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="79" t="s">
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="78"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="76"/>
     </row>
     <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1913,12 +2026,12 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="43" t="s">
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="10" t="s">
@@ -1936,11 +2049,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="56" t="s">
+      <c r="P15" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="57"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="84"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -1959,17 +2072,17 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="56" t="s">
+      <c r="Y15" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="57"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="84"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
       <c r="AC15" s="26">
-        <f>SUM(X26+O26+F24)</f>
-        <v>4.0416666666666679</v>
+        <f>SUM(X29+O28+F24)</f>
+        <v>4.5416666666666679</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -1990,11 +2103,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2012,11 +2125,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="50" t="s">
+      <c r="P16" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="52"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="82"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2031,14 +2144,14 @@
       </c>
       <c r="W16" s="16"/>
       <c r="X16" s="17">
-        <f t="shared" ref="X16:X21" si="3">V16-U16-W16</f>
+        <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="50" t="s">
+      <c r="Y16" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="52"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="82"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
@@ -2058,11 +2171,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2080,11 +2193,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="55"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="63"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2102,9 +2215,9 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="96"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
@@ -2124,11 +2237,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2146,11 +2259,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="50" t="s">
+      <c r="P18" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="52"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="82"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2168,11 +2281,11 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="50" t="s">
+      <c r="Y18" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="52"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="82"/>
     </row>
     <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -2192,11 +2305,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="71"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2214,11 +2327,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="50" t="s">
+      <c r="P19" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="52"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="82"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2236,11 +2349,11 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="50" t="s">
+      <c r="Y19" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="52"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="82"/>
     </row>
     <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
@@ -2260,11 +2373,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="68"/>
-      <c r="I20" s="69"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2282,11 +2395,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="50" t="s">
+      <c r="P20" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="52"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="82"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2304,11 +2417,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="44" t="s">
+      <c r="Y20" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="45"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="71"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -2328,11 +2441,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="80" t="s">
+      <c r="G21" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2350,11 +2463,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="53" t="s">
+      <c r="P21" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="55"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="63"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -2372,11 +2485,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="46" t="s">
+      <c r="Y21" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="47"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="73"/>
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
@@ -2396,11 +2509,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -2418,11 +2531,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="80" t="s">
+      <c r="P22" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="82"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="60"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -2436,21 +2549,21 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="W22" s="19"/>
-      <c r="X22" s="18">
-        <f>SUM(V22-U22)</f>
+      <c r="X22" s="17">
+        <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="44" t="s">
+      <c r="Y22" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="45"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="71"/>
     </row>
     <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="41">
         <v>43112</v>
       </c>
       <c r="C23" s="36">
@@ -2464,11 +2577,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -2486,11 +2599,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="53" t="s">
+      <c r="P23" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="55"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="63"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -2504,15 +2617,15 @@
         <v>1</v>
       </c>
       <c r="W23" s="19"/>
-      <c r="X23" s="18">
-        <f>SUM(V23-U23)</f>
+      <c r="X23" s="17">
+        <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="46" t="s">
+      <c r="Y23" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="47"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="73"/>
     </row>
     <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F24" s="6">
@@ -2536,11 +2649,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="44" t="s">
+      <c r="P24" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="45"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="71"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -2554,108 +2667,252 @@
         <v>0.125</v>
       </c>
       <c r="W24" s="19"/>
-      <c r="X24" s="18">
-        <f>SUM(V24-U24)</f>
+      <c r="X24" s="17">
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="46" t="s">
+      <c r="Y24" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="47"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="73"/>
     </row>
-    <row r="25" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="25" t="s">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="J25" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="43">
         <v>43112</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25" s="44">
         <v>0.625</v>
       </c>
-      <c r="N25" s="37"/>
-      <c r="O25" s="18">
-        <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
+      <c r="N25" s="19"/>
+      <c r="O25" s="44">
+        <f t="shared" ref="O25:O28" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="48" t="s">
+      <c r="P25" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="25" t="s">
+      <c r="Q25" s="66"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T25" s="41">
+      <c r="T25" s="46">
         <v>43112</v>
       </c>
-      <c r="U25" s="36">
+      <c r="U25" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="V25" s="36">
+      <c r="V25" s="44">
         <v>0.625</v>
       </c>
-      <c r="W25" s="37"/>
-      <c r="X25" s="18">
-        <f>SUM(V25-U25)</f>
+      <c r="W25" s="45"/>
+      <c r="X25" s="17">
+        <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="48" t="s">
+      <c r="Y25" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="49"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="67"/>
     </row>
-    <row r="26" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="K26" s="3"/>
-      <c r="O26" s="6">
-        <f>SUM(O16:O25)</f>
-        <v>1.3263888888888888</v>
-      </c>
-      <c r="X26" s="6">
-        <f>SUM(X16:X25)</f>
-        <v>1.4097222222222225</v>
-      </c>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="35">
+        <v>43112</v>
+      </c>
+      <c r="L26" s="18">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="M26" s="18">
+        <v>1</v>
+      </c>
+      <c r="N26" s="19"/>
+      <c r="O26" s="18">
+        <f>SUM(M26-L26)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P26" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="46">
+        <v>43112</v>
+      </c>
+      <c r="U26" s="44">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="V26" s="44">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="W26" s="45"/>
+      <c r="X26" s="47">
+        <f t="shared" si="3"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="Y26" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="67"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="49">
+        <v>43113</v>
+      </c>
+      <c r="L27" s="50">
+        <v>0</v>
+      </c>
+      <c r="M27" s="50">
+        <v>0.15625</v>
+      </c>
+      <c r="N27" s="51"/>
+      <c r="O27" s="52">
+        <f>SUM(M27-L27)</f>
+        <v>0.15625</v>
+      </c>
+      <c r="P27" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="35">
+        <v>43112</v>
+      </c>
+      <c r="U27" s="18">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="V27" s="18">
+        <v>1</v>
+      </c>
+      <c r="W27" s="19"/>
+      <c r="X27" s="17">
+        <f t="shared" si="3"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y27" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="73"/>
+    </row>
+    <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="V28" s="30"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="O28" s="6">
+        <f>SUM(O16:O27)</f>
+        <v>1.5659722222222223</v>
+      </c>
+      <c r="S28" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="T28" s="41">
+        <v>43113</v>
+      </c>
+      <c r="U28" s="36">
+        <v>0</v>
+      </c>
+      <c r="V28" s="36">
+        <v>0.15625</v>
+      </c>
+      <c r="W28" s="37"/>
+      <c r="X28" s="17">
+        <f t="shared" si="3"/>
+        <v>0.15625</v>
+      </c>
+      <c r="Y28" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="69"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="V29" s="30"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="X29" s="6">
+        <f>SUM(X16:X28)</f>
+        <v>1.6701388888888893</v>
+      </c>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="G22:I22"/>
+  <mergeCells count="71">
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A13:AA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="P14:R14"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="P21:R21"/>
     <mergeCell ref="Y21:AA21"/>
@@ -2672,46 +2929,20 @@
     <mergeCell ref="P18:R18"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y6:AA8"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A13:AA13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="P27:R27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\4CHIF\Syp\multiflexlbkv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73A1807-9244-454F-BAAE-9A365BF7F415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50196AFF-E797-46FF-88B5-4C6E6EACBCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -854,29 +854,32 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -887,16 +890,96 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -904,89 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1366,86 +1366,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.85546875" style="2"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.85546875" style="2"/>
-    <col min="15" max="15" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.85546875" style="2"/>
-    <col min="19" max="19" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="10.85546875" style="2"/>
-    <col min="24" max="24" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="10.88671875" style="2"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.88671875" style="2"/>
+    <col min="15" max="15" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.88671875" style="2"/>
+    <col min="19" max="19" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="10.88671875" style="2"/>
+    <col min="24" max="24" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.88671875" style="2"/>
     <col min="28" max="28" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.85546875" style="2"/>
+    <col min="29" max="16384" width="10.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
     </row>
-    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="77" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
-      <c r="P2" s="90" t="s">
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
+      <c r="P2" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="Y2" s="77" t="s">
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="Y2" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="76"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="83"/>
     </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1464,11 +1464,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1487,11 +1487,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="83" t="s">
+      <c r="P3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="84"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="66"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -1510,11 +1510,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="83" t="s">
+      <c r="Y3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="84"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="66"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>1.1979166666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -1541,11 +1541,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -1563,11 +1563,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="71"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="56"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1585,13 +1585,13 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="70" t="s">
+      <c r="Y4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="71"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="56"/>
     </row>
-    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1609,11 +1609,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1631,11 +1631,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="54" t="s">
+      <c r="P5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="55"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="74"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -1653,13 +1653,13 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="78" t="s">
+      <c r="Y5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="79"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="85"/>
     </row>
-    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -1677,11 +1677,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -1699,9 +1699,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="55"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="74"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -1719,13 +1719,13 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="54" t="s">
+      <c r="Y6" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="55"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="74"/>
     </row>
-    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -1743,11 +1743,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -1765,9 +1765,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="55"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="74"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -1785,11 +1785,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="55"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="74"/>
     </row>
-    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -1807,11 +1807,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="92" t="s">
+      <c r="G8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -1829,11 +1829,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="54" t="s">
+      <c r="P8" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="55"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="74"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -1851,11 +1851,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="55"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="74"/>
     </row>
-    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F9" s="6">
         <f>SUM(F4:F8)</f>
         <v>0.42361111111111116</v>
@@ -1877,11 +1877,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="56" t="s">
+      <c r="P9" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="57"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="76"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -1899,13 +1899,13 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="56" t="s">
+      <c r="Y9" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="76"/>
     </row>
-    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1923,7 +1923,7 @@
         <v>0.47569444444444436</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1932,7 +1932,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1941,73 +1941,73 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="85" t="s">
+    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="78"/>
     </row>
-    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="74" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="74" t="s">
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="76"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="83"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="74" t="s">
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="76"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="83"/>
     </row>
-    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -2026,11 +2026,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="83" t="s">
+      <c r="G15" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2049,11 +2049,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="83" t="s">
+      <c r="P15" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="84"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="66"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2072,11 +2072,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="83" t="s">
+      <c r="Y15" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="84"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="66"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>4.5416666666666679</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
@@ -2103,11 +2103,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="71"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2125,11 +2125,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="80" t="s">
+      <c r="P16" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="82"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="61"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2147,13 +2147,13 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="80" t="s">
+      <c r="Y16" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="82"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="61"/>
     </row>
-    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
@@ -2171,11 +2171,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="78" t="s">
+      <c r="G17" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="85"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2193,11 +2193,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="61" t="s">
+      <c r="P17" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="64"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2215,11 +2215,11 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="96"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="72"/>
     </row>
-    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2237,11 +2237,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="70" t="s">
+      <c r="G18" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="71"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2259,11 +2259,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="80" t="s">
+      <c r="P18" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="82"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="61"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2281,13 +2281,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="80" t="s">
+      <c r="Y18" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="82"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
     </row>
-    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
@@ -2305,11 +2305,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="70" t="s">
+      <c r="G19" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="71"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2327,11 +2327,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="80" t="s">
+      <c r="P19" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="82"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="61"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2349,13 +2349,13 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="80" t="s">
+      <c r="Y19" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="82"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="61"/>
     </row>
-    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
@@ -2373,11 +2373,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="78" t="s">
+      <c r="G20" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="79"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2395,11 +2395,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="80" t="s">
+      <c r="P20" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="82"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="61"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2417,13 +2417,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="70" t="s">
+      <c r="Y20" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="71"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="56"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
@@ -2441,11 +2441,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2463,11 +2463,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="61" t="s">
+      <c r="P21" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="64"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -2485,13 +2485,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="72" t="s">
+      <c r="Y21" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="73"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="58"/>
     </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>7</v>
       </c>
@@ -2509,11 +2509,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="70" t="s">
+      <c r="G22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="71"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -2531,11 +2531,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="58" t="s">
+      <c r="P22" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="91"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -2553,13 +2553,13 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="70" t="s">
+      <c r="Y22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="71"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="56"/>
     </row>
-    <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -2577,11 +2577,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="96"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -2599,11 +2599,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="61" t="s">
+      <c r="P23" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="64"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -2621,13 +2621,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="72" t="s">
+      <c r="Y23" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="73"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
     </row>
-    <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" s="6">
         <f>SUM(F16:F23)</f>
         <v>1.3055555555555558</v>
@@ -2649,11 +2649,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="70" t="s">
+      <c r="P24" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="71"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -2671,13 +2671,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="72" t="s">
+      <c r="Y24" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="73"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J25" s="38" t="s">
         <v>9</v>
       </c>
@@ -2692,14 +2692,14 @@
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="44">
-        <f t="shared" ref="O25:O28" si="6">SUM(M25-L25)</f>
+        <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="66" t="s">
+      <c r="P25" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="67"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="54"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -2717,21 +2717,21 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="66" t="s">
+      <c r="Y25" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="67"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="54"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -2749,11 +2749,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="58" t="s">
+      <c r="P26" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="60"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="91"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -2771,13 +2771,13 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="66" t="s">
+      <c r="Y26" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="67"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="54"/>
     </row>
-    <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J27" s="48" t="s">
         <v>9</v>
       </c>
@@ -2817,18 +2817,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="72" t="s">
+      <c r="Y27" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="73"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
     </row>
-    <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -2850,33 +2850,78 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="68" t="s">
+      <c r="Y28" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="69"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="96"/>
     </row>
-    <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y6:AA8"/>
+    <mergeCell ref="A13:AA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="Y19:AA19"/>
     <mergeCell ref="Y20:AA20"/>
     <mergeCell ref="P17:R17"/>
@@ -2893,56 +2938,11 @@
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A13:AA13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y6:AA8"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2963,7 +2963,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\4CHIF\Syp\multiflexlbkv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50196AFF-E797-46FF-88B5-4C6E6EACBCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FD9BAE-7C9E-4223-B9B2-569CF240AB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="31">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -120,6 +120,18 @@
   <si>
     <t>Test Data Datenbank connection</t>
   </si>
+  <si>
+    <t>Fix Frontend</t>
+  </si>
+  <si>
+    <t>Sprint: Januar</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -685,11 +697,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -854,12 +940,66 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -872,6 +1012,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -881,19 +1054,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -907,6 +1083,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -916,82 +1116,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1364,88 +1514,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.88671875" style="2"/>
-    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.88671875" style="2"/>
-    <col min="15" max="15" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.88671875" style="2"/>
-    <col min="19" max="19" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="10.88671875" style="2"/>
-    <col min="24" max="24" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10.88671875" style="2"/>
+    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="10.85546875" style="2"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.85546875" style="2"/>
+    <col min="15" max="15" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.85546875" style="2"/>
+    <col min="19" max="19" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="10.85546875" style="2"/>
+    <col min="24" max="24" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.85546875" style="2"/>
     <col min="28" max="28" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.88671875" style="2"/>
+    <col min="29" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-    </row>
-    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+    </row>
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="81" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83"/>
-      <c r="P2" s="79" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="P2" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="Y2" s="81" t="s">
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="Y2" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="83"/>
-    </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="101"/>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1464,11 +1614,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1487,11 +1637,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="65" t="s">
+      <c r="P3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="66"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="91"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -1510,11 +1660,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="65" t="s">
+      <c r="Y3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="66"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="91"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -1523,7 +1673,7 @@
         <v>1.1979166666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -1541,11 +1691,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -1563,11 +1713,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="56"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="73"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1585,13 +1735,13 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="55" t="s">
+      <c r="Y4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="56"/>
-    </row>
-    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="73"/>
+    </row>
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1609,11 +1759,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1631,11 +1781,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="73" t="s">
+      <c r="P5" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="74"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="93"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -1653,13 +1803,13 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="84" t="s">
+      <c r="Y5" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="85"/>
-    </row>
-    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="86"/>
+    </row>
+    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -1677,11 +1827,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -1699,9 +1849,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="74"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="93"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -1719,13 +1869,13 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="73" t="s">
+      <c r="Y6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="74"/>
-    </row>
-    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="93"/>
+    </row>
+    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -1743,11 +1893,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -1765,9 +1915,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="74"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="93"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -1785,11 +1935,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="74"/>
-    </row>
-    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="93"/>
+    </row>
+    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -1807,11 +1957,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -1829,11 +1979,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="73" t="s">
+      <c r="P8" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="74"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="93"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -1851,11 +2001,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="74"/>
-    </row>
-    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="93"/>
+    </row>
+    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="6">
         <f>SUM(F4:F8)</f>
         <v>0.42361111111111116</v>
@@ -1877,11 +2027,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="75" t="s">
+      <c r="P9" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="76"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="103"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -1899,13 +2049,13 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="75" t="s">
+      <c r="Y9" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="76"/>
-    </row>
-    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="103"/>
+    </row>
+    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1923,7 +2073,7 @@
         <v>0.47569444444444436</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1932,7 +2082,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1941,73 +2091,73 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
+    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-    </row>
-    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+    </row>
+    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="88" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="101"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="88" t="s">
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="83"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="101"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="88" t="s">
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="83"/>
-    </row>
-    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="101"/>
+    </row>
+    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -2026,11 +2176,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2049,11 +2199,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="65" t="s">
+      <c r="P15" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="66"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="91"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2072,11 +2222,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="65" t="s">
+      <c r="Y15" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="66"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="91"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2085,7 +2235,7 @@
         <v>4.5416666666666679</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
@@ -2103,11 +2253,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2125,11 +2275,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="59" t="s">
+      <c r="P16" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="61"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="89"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2147,13 +2297,13 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="59" t="s">
+      <c r="Y16" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="61"/>
-    </row>
-    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="89"/>
+    </row>
+    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
@@ -2171,11 +2321,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G17" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="86"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2193,11 +2343,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="62" t="s">
+      <c r="P17" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="64"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="80"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2215,11 +2365,11 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="72"/>
-    </row>
-    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="108"/>
+      <c r="AA17" s="109"/>
+    </row>
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2237,11 +2387,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2259,11 +2409,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="59" t="s">
+      <c r="P18" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="61"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="89"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2281,13 +2431,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="59" t="s">
+      <c r="Y18" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-    </row>
-    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="89"/>
+    </row>
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
@@ -2305,11 +2455,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2327,11 +2477,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="59" t="s">
+      <c r="P19" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="61"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="89"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2349,13 +2499,13 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="59" t="s">
+      <c r="Y19" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="61"/>
-    </row>
-    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="89"/>
+    </row>
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
@@ -2373,11 +2523,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="G20" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="86"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2395,11 +2545,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="59" t="s">
+      <c r="P20" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="61"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="89"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2417,13 +2567,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="55" t="s">
+      <c r="Y20" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="56"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="73"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
@@ -2441,11 +2591,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="89" t="s">
+      <c r="G21" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="90"/>
-      <c r="I21" s="91"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="83"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2463,11 +2613,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="62" t="s">
+      <c r="P21" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="64"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="80"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -2485,13 +2635,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="57" t="s">
+      <c r="Y21" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="58"/>
-    </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="75"/>
+    </row>
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>7</v>
       </c>
@@ -2509,11 +2659,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -2531,11 +2681,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="89" t="s">
+      <c r="P22" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="91"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="83"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -2553,13 +2703,13 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="55" t="s">
+      <c r="Y22" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="56"/>
-    </row>
-    <row r="23" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="73"/>
+    </row>
+    <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -2577,11 +2727,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="95" t="s">
+      <c r="G23" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="95"/>
-      <c r="I23" s="96"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -2599,11 +2749,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="62" t="s">
+      <c r="P23" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="80"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -2621,13 +2771,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="57" t="s">
+      <c r="Y23" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="58"/>
-    </row>
-    <row r="24" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="75"/>
+    </row>
+    <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F24" s="6">
         <f>SUM(F16:F23)</f>
         <v>1.3055555555555558</v>
@@ -2649,11 +2799,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="55" t="s">
+      <c r="P24" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="73"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -2671,13 +2821,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="57" t="s">
+      <c r="Y24" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="58"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="75"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J25" s="38" t="s">
         <v>9</v>
       </c>
@@ -2695,11 +2845,11 @@
         <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="53" t="s">
+      <c r="P25" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="54"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="69"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -2717,21 +2867,21 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="53" t="s">
+      <c r="Y25" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="54"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="69"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -2749,11 +2899,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="89" t="s">
+      <c r="P26" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="91"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="83"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -2771,13 +2921,13 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="53" t="s">
+      <c r="Y26" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="54"/>
-    </row>
-    <row r="27" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="69"/>
+    </row>
+    <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J27" s="48" t="s">
         <v>9</v>
       </c>
@@ -2795,11 +2945,11 @@
         <f>SUM(M27-L27)</f>
         <v>0.15625</v>
       </c>
-      <c r="P27" s="97" t="s">
+      <c r="P27" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="98"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="77"/>
       <c r="S27" s="38" t="s">
         <v>8</v>
       </c>
@@ -2817,18 +2967,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="57" t="s">
+      <c r="Y27" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="58"/>
-    </row>
-    <row r="28" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z27" s="74"/>
+      <c r="AA27" s="75"/>
+    </row>
+    <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -2850,49 +3000,919 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="95" t="s">
+      <c r="Y28" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="96"/>
-    </row>
-    <row r="29" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="71"/>
+    </row>
+    <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+    </row>
+    <row r="31" spans="1:27" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+    </row>
+    <row r="32" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="100"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="96"/>
+      <c r="V32" s="97"/>
+      <c r="W32" s="97"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="101"/>
+    </row>
+    <row r="33" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="90"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="91"/>
+      <c r="S33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC33" s="26">
+        <f>SUM(F40+O40+X42)</f>
+        <v>1.479166666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="35">
+        <v>43116</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="18">
+        <f t="shared" ref="F34:F38" si="7">SUM(D34-C34)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G34" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="88"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="35">
+        <v>43116</v>
+      </c>
+      <c r="L34" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M34" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N34" s="19"/>
+      <c r="O34" s="18">
+        <f t="shared" ref="O34:O38" si="8">SUM(M34-L34)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P34" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T34" s="35">
+        <v>43116</v>
+      </c>
+      <c r="U34" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V34" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W34" s="19"/>
+      <c r="X34" s="18">
+        <f t="shared" ref="X34:X35" si="9">SUM(V34-U34)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y34" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="89"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="15">
+        <v>43118</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D35" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="18">
+        <f t="shared" si="7"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G35" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="88"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="15">
+        <v>43118</v>
+      </c>
+      <c r="L35" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="N35" s="19"/>
+      <c r="O35" s="18">
+        <f t="shared" si="8"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="P35" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="89"/>
+      <c r="S35" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="15">
+        <v>43118</v>
+      </c>
+      <c r="U35" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V35" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="W35" s="19"/>
+      <c r="X35" s="18">
+        <f t="shared" si="9"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y35" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z35" s="88"/>
+      <c r="AA35" s="89"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="15">
+        <v>43123</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="18">
+        <f t="shared" si="7"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G36" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="88"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="15">
+        <v>43123</v>
+      </c>
+      <c r="L36" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M36" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N36" s="16"/>
+      <c r="O36" s="18">
+        <f t="shared" si="8"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P36" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T36" s="15">
+        <v>43120</v>
+      </c>
+      <c r="U36" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="V36" s="16">
+        <v>1</v>
+      </c>
+      <c r="W36" s="16"/>
+      <c r="X36" s="18">
+        <f t="shared" ref="X36:X37" si="10">SUM(V36-U36)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y36" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z36" s="88"/>
+      <c r="AA36" s="89"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="15">
+        <v>43125</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D37" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="18">
+        <f t="shared" si="7"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G37" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="88"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="15">
+        <v>43125</v>
+      </c>
+      <c r="L37" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M37" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="N37" s="19"/>
+      <c r="O37" s="18">
+        <f t="shared" si="8"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="P37" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T37" s="15">
+        <v>43121</v>
+      </c>
+      <c r="U37" s="16">
+        <v>0</v>
+      </c>
+      <c r="V37" s="16">
+        <v>6.25E-2</v>
+      </c>
+      <c r="W37" s="16"/>
+      <c r="X37" s="18">
+        <f t="shared" si="10"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Y37" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="80"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="15">
+        <v>43126</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="18">
+        <f>SUM(D38-C38)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G38" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="88"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="15">
+        <v>43126</v>
+      </c>
+      <c r="L38" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M38" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="N38" s="16"/>
+      <c r="O38" s="18">
+        <f>SUM(M38-L38)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P38" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T38" s="15">
+        <v>43123</v>
+      </c>
+      <c r="U38" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V38" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W38" s="16"/>
+      <c r="X38" s="18">
+        <f t="shared" ref="X38:X40" si="11">SUM(V38-U38)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y38" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z38" s="88"/>
+      <c r="AA38" s="89"/>
+    </row>
+    <row r="39" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="54">
+        <v>43127</v>
+      </c>
+      <c r="C39" s="55">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D39" s="55">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="18">
+        <f>SUM(D39-C39)</f>
+        <v>0.125</v>
+      </c>
+      <c r="G39" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="117"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="54">
+        <v>43127</v>
+      </c>
+      <c r="L39" s="55">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M39" s="55">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N39" s="55"/>
+      <c r="O39" s="18">
+        <f>SUM(M39-L39)</f>
+        <v>0.125</v>
+      </c>
+      <c r="P39" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="118"/>
+      <c r="S39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T39" s="15">
+        <v>43125</v>
+      </c>
+      <c r="U39" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V39" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="W39" s="19"/>
+      <c r="X39" s="18">
+        <f t="shared" si="11"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y39" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z39" s="88"/>
+      <c r="AA39" s="89"/>
+    </row>
+    <row r="40" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="115">
+        <f>SUM(F34:F39)</f>
+        <v>0.44444444444444453</v>
+      </c>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="115">
+        <f>SUM(O34:O39)</f>
+        <v>0.44444444444444453</v>
+      </c>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T40" s="15">
+        <v>43126</v>
+      </c>
+      <c r="U40" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V40" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="W40" s="16"/>
+      <c r="X40" s="18">
+        <f>SUM(V40-U40)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y40" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z40" s="88"/>
+      <c r="AA40" s="89"/>
+    </row>
+    <row r="41" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="54">
+        <v>43127</v>
+      </c>
+      <c r="U41" s="55">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V41" s="55">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="W41" s="55"/>
+      <c r="X41" s="18">
+        <f>SUM(V41-U41)</f>
+        <v>0.125</v>
+      </c>
+      <c r="Y41" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z41" s="117"/>
+      <c r="AA41" s="118"/>
+    </row>
+    <row r="42" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="115">
+        <f>SUM(X34:X41)</f>
+        <v>0.5902777777777779</v>
+      </c>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="65"/>
+    </row>
+    <row r="43" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="112"/>
+      <c r="Q43" s="112"/>
+      <c r="R43" s="112"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="112"/>
+      <c r="Z43" s="112"/>
+      <c r="AA43" s="112"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="112"/>
+      <c r="Q44" s="112"/>
+      <c r="R44" s="112"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="58"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="58"/>
+      <c r="Y44" s="112"/>
+      <c r="Z44" s="112"/>
+      <c r="AA44" s="112"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="112"/>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="112"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="112"/>
+      <c r="Z45" s="112"/>
+      <c r="AA45" s="112"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="58"/>
+      <c r="V46" s="58"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="112"/>
+      <c r="Z46" s="112"/>
+      <c r="AA46" s="112"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="60"/>
+      <c r="Y47" s="113"/>
+      <c r="Z47" s="113"/>
+      <c r="AA47" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y14:AA14"/>
+  <mergeCells count="118">
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A31:AA31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="P20:R20"/>
     <mergeCell ref="G15:I15"/>
@@ -2905,44 +3925,40 @@
     <mergeCell ref="A13:AA13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:F14"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P19:R19"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="P5:R7"/>
     <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="G18:I18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y21:AA21"/>
     <mergeCell ref="Y26:AA26"/>
     <mergeCell ref="Y22:AA22"/>
     <mergeCell ref="Y23:AA23"/>
     <mergeCell ref="Y24:AA24"/>
     <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P23:R23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2963,7 +3979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\4CHIF\Syp\multiflexlbkv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FD9BAE-7C9E-4223-B9B2-569CF240AB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B46C8-CFB3-4408-99A2-945886576105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="37">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -132,6 +132,24 @@
   <si>
     <t>Frontend</t>
   </si>
+  <si>
+    <t>Sprint: Februar</t>
+  </si>
+  <si>
+    <t>Regal einfügen</t>
+  </si>
+  <si>
+    <t>Fix Frontend + Regal einfügen</t>
+  </si>
+  <si>
+    <t>Regal einfügen + Fix Regalsuche</t>
+  </si>
+  <si>
+    <t>Mapstruct</t>
+  </si>
+  <si>
+    <t>Mapstruct aufgegeben</t>
+  </si>
 </sst>
 </file>
 
@@ -982,40 +1000,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,45 +1051,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1092,56 +1078,88 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1514,88 +1532,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC47"/>
+  <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="AA56" sqref="AA56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.85546875" style="2"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.85546875" style="2"/>
-    <col min="15" max="15" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.85546875" style="2"/>
-    <col min="19" max="19" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="10.85546875" style="2"/>
-    <col min="24" max="24" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="10.88671875" style="2"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.88671875" style="2"/>
+    <col min="15" max="15" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.88671875" style="2"/>
+    <col min="19" max="19" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="10.88671875" style="2"/>
+    <col min="24" max="24" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.88671875" style="2"/>
     <col min="28" max="28" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.85546875" style="2"/>
+    <col min="29" max="16384" width="10.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-    </row>
-    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+    </row>
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="106" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101"/>
-      <c r="P2" s="104" t="s">
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
+      <c r="P2" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="Y2" s="106" t="s">
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="Y2" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="101"/>
-    </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="90"/>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1614,11 +1632,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="91"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1637,11 +1655,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="90" t="s">
+      <c r="P3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="91"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -1660,11 +1678,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="90" t="s">
+      <c r="Y3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="91"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="79"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -1673,7 +1691,7 @@
         <v>1.1979166666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -1691,11 +1709,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="95"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -1713,11 +1731,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="73"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="95"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1735,13 +1753,13 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="72" t="s">
+      <c r="Y4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="73"/>
-    </row>
-    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="95"/>
+    </row>
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1759,11 +1777,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1781,11 +1799,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="92" t="s">
+      <c r="P5" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="93"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="102"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -1803,13 +1821,13 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="85" t="s">
+      <c r="Y5" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="86"/>
-    </row>
-    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="100"/>
+    </row>
+    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -1827,11 +1845,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -1849,9 +1867,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="93"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="102"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -1869,13 +1887,13 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="92" t="s">
+      <c r="Y6" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="93"/>
-    </row>
-    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="102"/>
+    </row>
+    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -1893,11 +1911,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="86"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="100"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -1915,9 +1933,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="93"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="102"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -1935,11 +1953,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="93"/>
-    </row>
-    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="102"/>
+    </row>
+    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -1957,11 +1975,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="110" t="s">
+      <c r="G8" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="111"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -1979,11 +1997,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="92" t="s">
+      <c r="P8" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="93"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="102"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -2001,11 +2019,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="93"/>
-    </row>
-    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="102"/>
+    </row>
+    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F9" s="6">
         <f>SUM(F4:F8)</f>
         <v>0.42361111111111116</v>
@@ -2027,11 +2045,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="102" t="s">
+      <c r="P9" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="104"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -2049,13 +2067,13 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="102" t="s">
+      <c r="Y9" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="103"/>
-    </row>
-    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="104"/>
+    </row>
+    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2073,7 +2091,7 @@
         <v>0.47569444444444436</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2082,7 +2100,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2091,73 +2109,73 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
+    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-    </row>
-    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+    </row>
+    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="99" t="s">
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="101"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="99" t="s">
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="101"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="90"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="99" t="s">
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="101"/>
-    </row>
-    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="90"/>
+    </row>
+    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -2176,11 +2194,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="90" t="s">
+      <c r="G15" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2199,11 +2217,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="90" t="s">
+      <c r="P15" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="91"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="79"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2222,11 +2240,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="90" t="s">
+      <c r="Y15" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="91"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="79"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2235,7 +2253,7 @@
         <v>4.5416666666666679</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
@@ -2253,11 +2271,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="95"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2275,11 +2293,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="P16" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="89"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="74"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2297,13 +2315,13 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="87" t="s">
+      <c r="Y16" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="89"/>
-    </row>
-    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="74"/>
+    </row>
+    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
@@ -2321,11 +2339,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="85" t="s">
+      <c r="G17" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="100"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2343,11 +2361,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="78" t="s">
+      <c r="P17" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="80"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="82"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2365,11 +2383,11 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="108"/>
-      <c r="AA17" s="109"/>
-    </row>
-    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="93"/>
+    </row>
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2387,11 +2405,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="95"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2409,11 +2427,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="87" t="s">
+      <c r="P18" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="89"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="74"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2431,13 +2449,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="87" t="s">
+      <c r="Y18" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="89"/>
-    </row>
-    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="74"/>
+    </row>
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
@@ -2455,11 +2473,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="95"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2477,11 +2495,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="87" t="s">
+      <c r="P19" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="89"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="74"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2499,13 +2517,13 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="87" t="s">
+      <c r="Y19" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="89"/>
-    </row>
-    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="74"/>
+    </row>
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
@@ -2523,11 +2541,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="85" t="s">
+      <c r="G20" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="86"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2545,11 +2563,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="87" t="s">
+      <c r="P20" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="89"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="74"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2567,13 +2585,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="72" t="s">
+      <c r="Y20" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="73"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="95"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
@@ -2591,11 +2609,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="82"/>
-      <c r="I21" s="83"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="109"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2613,11 +2631,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="78" t="s">
+      <c r="P21" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="80"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="82"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -2635,13 +2653,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="74" t="s">
+      <c r="Y21" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="75"/>
-    </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="111"/>
+    </row>
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>7</v>
       </c>
@@ -2659,11 +2677,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="95"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -2681,11 +2699,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="81" t="s">
+      <c r="P22" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="83"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="109"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -2703,13 +2721,13 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="72" t="s">
+      <c r="Y22" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="73"/>
-    </row>
-    <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="95"/>
+    </row>
+    <row r="23" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -2727,11 +2745,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="116"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -2749,11 +2767,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="78" t="s">
+      <c r="P23" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="80"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="82"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -2771,13 +2789,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="74" t="s">
+      <c r="Y23" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="75"/>
-    </row>
-    <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="111"/>
+    </row>
+    <row r="24" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" s="6">
         <f>SUM(F16:F23)</f>
         <v>1.3055555555555558</v>
@@ -2799,11 +2817,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="72" t="s">
+      <c r="P24" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="73"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="95"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -2821,13 +2839,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="74" t="s">
+      <c r="Y24" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="75"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="111"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J25" s="38" t="s">
         <v>9</v>
       </c>
@@ -2845,11 +2863,11 @@
         <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="68" t="s">
+      <c r="P25" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="69"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="113"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -2867,21 +2885,21 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="68" t="s">
+      <c r="Y25" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="69"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="113"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -2899,11 +2917,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="81" t="s">
+      <c r="P26" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="83"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="109"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -2921,13 +2939,13 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="68" t="s">
+      <c r="Y26" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="69"/>
-    </row>
-    <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="113"/>
+    </row>
+    <row r="27" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J27" s="48" t="s">
         <v>9</v>
       </c>
@@ -2945,11 +2963,11 @@
         <f>SUM(M27-L27)</f>
         <v>0.15625</v>
       </c>
-      <c r="P27" s="76" t="s">
+      <c r="P27" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="77"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="118"/>
       <c r="S27" s="38" t="s">
         <v>8</v>
       </c>
@@ -2967,18 +2985,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="74" t="s">
+      <c r="Y27" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="74"/>
-      <c r="AA27" s="75"/>
-    </row>
-    <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="111"/>
+    </row>
+    <row r="28" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -3000,93 +3018,93 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="70" t="s">
+      <c r="Y28" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="70"/>
-      <c r="AA28" s="71"/>
-    </row>
-    <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z28" s="115"/>
+      <c r="AA28" s="116"/>
+    </row>
+    <row r="29" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="67"/>
-    </row>
-    <row r="31" spans="1:27" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="94" t="s">
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+    </row>
+    <row r="31" spans="1:27" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-    </row>
-    <row r="32" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="84"/>
+      <c r="W31" s="84"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="84"/>
+      <c r="AA31" s="84"/>
+    </row>
+    <row r="32" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="99" t="s">
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="100"/>
-      <c r="I32" s="101"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="90"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="99" t="s">
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="101"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="90"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="97"/>
-      <c r="W32" s="97"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="99" t="s">
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" s="100"/>
-      <c r="AA32" s="101"/>
-    </row>
-    <row r="33" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="90"/>
+    </row>
+    <row r="33" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -3105,11 +3123,11 @@
       <c r="F33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="90" t="s">
+      <c r="G33" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="90"/>
-      <c r="I33" s="91"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="79"/>
       <c r="J33" s="42" t="s">
         <v>9</v>
       </c>
@@ -3128,11 +3146,11 @@
       <c r="O33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="90" t="s">
+      <c r="P33" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="91"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="79"/>
       <c r="S33" s="13" t="s">
         <v>8</v>
       </c>
@@ -3151,11 +3169,11 @@
       <c r="X33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="90" t="s">
+      <c r="Y33" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="90"/>
-      <c r="AA33" s="91"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="79"/>
       <c r="AB33" s="27" t="s">
         <v>19</v>
       </c>
@@ -3164,7 +3182,7 @@
         <v>1.479166666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -3179,14 +3197,14 @@
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="18">
-        <f t="shared" ref="F34:F38" si="7">SUM(D34-C34)</f>
+        <f t="shared" ref="F34:F37" si="7">SUM(D34-C34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="88"/>
-      <c r="I34" s="89"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="23" t="s">
         <v>9</v>
       </c>
@@ -3201,14 +3219,14 @@
       </c>
       <c r="N34" s="19"/>
       <c r="O34" s="18">
-        <f t="shared" ref="O34:O38" si="8">SUM(M34-L34)</f>
+        <f t="shared" ref="O34:O37" si="8">SUM(M34-L34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P34" s="87" t="s">
+      <c r="P34" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="89"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="74"/>
       <c r="S34" s="38" t="s">
         <v>8</v>
       </c>
@@ -3226,13 +3244,13 @@
         <f t="shared" ref="X34:X35" si="9">SUM(V34-U34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y34" s="87" t="s">
+      <c r="Y34" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="Z34" s="88"/>
-      <c r="AA34" s="89"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="74"/>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>7</v>
       </c>
@@ -3250,11 +3268,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G35" s="87" t="s">
+      <c r="G35" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="88"/>
-      <c r="I35" s="89"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="74"/>
       <c r="J35" s="23" t="s">
         <v>9</v>
       </c>
@@ -3272,11 +3290,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P35" s="87" t="s">
+      <c r="P35" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="89"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="74"/>
       <c r="S35" s="38" t="s">
         <v>8</v>
       </c>
@@ -3294,13 +3312,13 @@
         <f t="shared" si="9"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y35" s="87" t="s">
+      <c r="Y35" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="88"/>
-      <c r="AA35" s="89"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="74"/>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
@@ -3318,11 +3336,11 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G36" s="87" t="s">
+      <c r="G36" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="88"/>
-      <c r="I36" s="89"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="23" t="s">
         <v>9</v>
       </c>
@@ -3340,11 +3358,11 @@
         <f t="shared" si="8"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P36" s="87" t="s">
+      <c r="P36" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="89"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="74"/>
       <c r="S36" s="38" t="s">
         <v>8</v>
       </c>
@@ -3362,13 +3380,13 @@
         <f t="shared" ref="X36:X37" si="10">SUM(V36-U36)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y36" s="87" t="s">
+      <c r="Y36" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="Z36" s="88"/>
-      <c r="AA36" s="89"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z36" s="73"/>
+      <c r="AA36" s="74"/>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>7</v>
       </c>
@@ -3386,11 +3404,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G37" s="87" t="s">
+      <c r="G37" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="88"/>
-      <c r="I37" s="89"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="74"/>
       <c r="J37" s="23" t="s">
         <v>9</v>
       </c>
@@ -3408,11 +3426,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P37" s="87" t="s">
+      <c r="P37" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="89"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="74"/>
       <c r="S37" s="38" t="s">
         <v>8</v>
       </c>
@@ -3430,13 +3448,13 @@
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Y37" s="78" t="s">
+      <c r="Y37" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" s="79"/>
-      <c r="AA37" s="80"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z37" s="81"/>
+      <c r="AA37" s="82"/>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>7</v>
       </c>
@@ -3454,11 +3472,11 @@
         <f>SUM(D38-C38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G38" s="87" t="s">
+      <c r="G38" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="88"/>
-      <c r="I38" s="89"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="23" t="s">
         <v>9</v>
       </c>
@@ -3476,11 +3494,11 @@
         <f>SUM(M38-L38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P38" s="87" t="s">
+      <c r="P38" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="89"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="74"/>
       <c r="S38" s="38" t="s">
         <v>8</v>
       </c>
@@ -3495,16 +3513,16 @@
       </c>
       <c r="W38" s="16"/>
       <c r="X38" s="18">
-        <f t="shared" ref="X38:X40" si="11">SUM(V38-U38)</f>
+        <f t="shared" ref="X38:X39" si="11">SUM(V38-U38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y38" s="87" t="s">
+      <c r="Y38" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="Z38" s="88"/>
-      <c r="AA38" s="89"/>
-    </row>
-    <row r="39" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="74"/>
+    </row>
+    <row r="39" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
         <v>7</v>
       </c>
@@ -3522,11 +3540,11 @@
         <f>SUM(D39-C39)</f>
         <v>0.125</v>
       </c>
-      <c r="G39" s="116" t="s">
+      <c r="G39" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="77"/>
       <c r="J39" s="25" t="s">
         <v>9</v>
       </c>
@@ -3544,11 +3562,11 @@
         <f>SUM(M39-L39)</f>
         <v>0.125</v>
       </c>
-      <c r="P39" s="116" t="s">
+      <c r="P39" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="118"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="77"/>
       <c r="S39" s="38" t="s">
         <v>8</v>
       </c>
@@ -3566,19 +3584,19 @@
         <f t="shared" si="11"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y39" s="87" t="s">
+      <c r="Y39" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="Z39" s="88"/>
-      <c r="AA39" s="89"/>
-    </row>
-    <row r="40" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="74"/>
+    </row>
+    <row r="40" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="62"/>
       <c r="B40" s="63"/>
       <c r="C40" s="64"/>
       <c r="D40" s="64"/>
       <c r="E40" s="64"/>
-      <c r="F40" s="115">
+      <c r="F40" s="67">
         <f>SUM(F34:F39)</f>
         <v>0.44444444444444453</v>
       </c>
@@ -3590,7 +3608,7 @@
       <c r="L40" s="64"/>
       <c r="M40" s="64"/>
       <c r="N40" s="64"/>
-      <c r="O40" s="115">
+      <c r="O40" s="67">
         <f>SUM(O34:O39)</f>
         <v>0.44444444444444453</v>
       </c>
@@ -3614,31 +3632,31 @@
         <f>SUM(V40-U40)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y40" s="87" t="s">
+      <c r="Y40" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="Z40" s="88"/>
-      <c r="AA40" s="89"/>
-    </row>
-    <row r="41" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="74"/>
+    </row>
+    <row r="41" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="57"/>
       <c r="B41" s="46"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
       <c r="E41" s="4"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="57"/>
-      <c r="K41" s="114"/>
+      <c r="K41" s="66"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
       <c r="N41" s="4"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="84"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
       <c r="S41" s="56" t="s">
         <v>8</v>
       </c>
@@ -3656,13 +3674,13 @@
         <f>SUM(V41-U41)</f>
         <v>0.125</v>
       </c>
-      <c r="Y41" s="116" t="s">
+      <c r="Y41" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="Z41" s="117"/>
-      <c r="AA41" s="118"/>
-    </row>
-    <row r="42" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z41" s="76"/>
+      <c r="AA41" s="77"/>
+    </row>
+    <row r="42" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="59"/>
       <c r="C42" s="4"/>
@@ -3678,15 +3696,15 @@
       <c r="M42" s="58"/>
       <c r="N42" s="4"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
       <c r="S42" s="62"/>
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
       <c r="V42" s="64"/>
       <c r="W42" s="64"/>
-      <c r="X42" s="115">
+      <c r="X42" s="67">
         <f>SUM(X34:X41)</f>
         <v>0.5902777777777779</v>
       </c>
@@ -3694,7 +3712,7 @@
       <c r="Z42" s="65"/>
       <c r="AA42" s="65"/>
     </row>
-    <row r="43" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="59"/>
       <c r="C43" s="4"/>
@@ -3710,209 +3728,786 @@
       <c r="M43" s="58"/>
       <c r="N43" s="4"/>
       <c r="O43" s="58"/>
-      <c r="P43" s="112"/>
-      <c r="Q43" s="112"/>
-      <c r="R43" s="112"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
       <c r="S43" s="57"/>
       <c r="T43" s="46"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
       <c r="W43" s="4"/>
       <c r="X43" s="58"/>
-      <c r="Y43" s="112"/>
-      <c r="Z43" s="112"/>
-      <c r="AA43" s="112"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="34"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+    </row>
+    <row r="44" spans="1:56" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
       <c r="G44" s="84"/>
       <c r="H44" s="84"/>
       <c r="I44" s="84"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="112"/>
-      <c r="Q44" s="112"/>
-      <c r="R44" s="112"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="58"/>
-      <c r="V44" s="58"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="58"/>
-      <c r="Y44" s="112"/>
-      <c r="Z44" s="112"/>
-      <c r="AA44" s="112"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="112"/>
-      <c r="Q45" s="112"/>
-      <c r="R45" s="112"/>
-      <c r="S45" s="57"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="58"/>
-      <c r="V45" s="58"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="58"/>
-      <c r="Y45" s="112"/>
-      <c r="Z45" s="112"/>
-      <c r="AA45" s="112"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="57"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="58"/>
-      <c r="V46" s="58"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="58"/>
-      <c r="Y46" s="112"/>
-      <c r="Z46" s="112"/>
-      <c r="AA46" s="112"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="60"/>
-      <c r="Y47" s="113"/>
-      <c r="Z47" s="113"/>
-      <c r="AA47" s="113"/>
-    </row>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="84"/>
+      <c r="S44" s="84"/>
+      <c r="T44" s="84"/>
+      <c r="U44" s="84"/>
+      <c r="V44" s="84"/>
+      <c r="W44" s="84"/>
+      <c r="X44" s="84"/>
+      <c r="Y44" s="84"/>
+      <c r="Z44" s="84"/>
+      <c r="AA44" s="84"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="32"/>
+      <c r="AF44" s="33"/>
+      <c r="AG44" s="33"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="34"/>
+      <c r="AJ44" s="71"/>
+      <c r="AK44" s="71"/>
+      <c r="AL44" s="71"/>
+      <c r="AM44" s="57"/>
+      <c r="AN44" s="46"/>
+      <c r="AO44" s="58"/>
+      <c r="AP44" s="58"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="58"/>
+      <c r="AS44" s="68"/>
+      <c r="AT44" s="68"/>
+      <c r="AU44" s="68"/>
+      <c r="AV44" s="57"/>
+      <c r="AW44" s="46"/>
+      <c r="AX44" s="58"/>
+      <c r="AY44" s="58"/>
+      <c r="AZ44" s="4"/>
+      <c r="BA44" s="58"/>
+      <c r="BB44" s="68"/>
+      <c r="BC44" s="68"/>
+      <c r="BD44" s="68"/>
+    </row>
+    <row r="45" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="89"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="88" t="str">
+        <f>G45</f>
+        <v>Sprint: Februar</v>
+      </c>
+      <c r="Q45" s="89"/>
+      <c r="R45" s="90"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="86"/>
+      <c r="W45" s="86"/>
+      <c r="X45" s="87"/>
+      <c r="Y45" s="88" t="str">
+        <f>G45</f>
+        <v>Sprint: Februar</v>
+      </c>
+      <c r="Z45" s="89"/>
+      <c r="AA45" s="90"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="59"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="57"/>
+      <c r="AN45" s="46"/>
+      <c r="AO45" s="58"/>
+      <c r="AP45" s="58"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="58"/>
+      <c r="AS45" s="68"/>
+      <c r="AT45" s="68"/>
+      <c r="AU45" s="68"/>
+      <c r="AV45" s="57"/>
+      <c r="AW45" s="46"/>
+      <c r="AX45" s="58"/>
+      <c r="AY45" s="58"/>
+      <c r="AZ45" s="4"/>
+      <c r="BA45" s="58"/>
+      <c r="BB45" s="68"/>
+      <c r="BC45" s="68"/>
+      <c r="BD45" s="68"/>
+    </row>
+    <row r="46" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="78"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="79"/>
+      <c r="S46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="V46" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="78"/>
+      <c r="AA46" s="79"/>
+      <c r="AB46" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC46" s="26">
+        <f>SUM(F53+O53+X55)</f>
+        <v>1.6625000000000005</v>
+      </c>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="46"/>
+      <c r="AF46" s="58"/>
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="69"/>
+      <c r="AK46" s="69"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="4"/>
+      <c r="AP46" s="4"/>
+      <c r="AQ46" s="4"/>
+      <c r="AR46" s="60"/>
+      <c r="AS46" s="4"/>
+      <c r="AT46" s="4"/>
+      <c r="AU46" s="4"/>
+      <c r="AV46" s="57"/>
+      <c r="AW46" s="46"/>
+      <c r="AX46" s="58"/>
+      <c r="AY46" s="58"/>
+      <c r="AZ46" s="4"/>
+      <c r="BA46" s="58"/>
+      <c r="BB46" s="68"/>
+      <c r="BC46" s="68"/>
+      <c r="BD46" s="68"/>
+    </row>
+    <row r="47" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="35">
+        <v>43130</v>
+      </c>
+      <c r="C47" s="18">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D47" s="18">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="18">
+        <f t="shared" ref="F47:F50" si="12">SUM(D47-C47)</f>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="G47" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="73"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="35">
+        <v>43130</v>
+      </c>
+      <c r="L47" s="18">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="M47" s="18">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="N47" s="19"/>
+      <c r="O47" s="18">
+        <f t="shared" ref="O47:O50" si="13">SUM(M47-L47)</f>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="35">
+        <v>43130</v>
+      </c>
+      <c r="U47" s="18">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="V47" s="18">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="W47" s="19"/>
+      <c r="X47" s="18">
+        <f t="shared" ref="X47:X52" si="14">SUM(V47-U47)</f>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="Y47" s="72"/>
+      <c r="Z47" s="73"/>
+      <c r="AA47" s="74"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="61"/>
+      <c r="AF47" s="58"/>
+      <c r="AG47" s="58"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="70"/>
+      <c r="AK47" s="70"/>
+      <c r="AL47" s="4"/>
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="4"/>
+      <c r="AO47" s="4"/>
+      <c r="AP47" s="4"/>
+      <c r="AQ47" s="4"/>
+      <c r="AR47" s="4"/>
+      <c r="AS47" s="4"/>
+      <c r="AT47" s="4"/>
+      <c r="AU47" s="4"/>
+      <c r="AV47" s="4"/>
+      <c r="AW47" s="4"/>
+      <c r="AX47" s="4"/>
+      <c r="AY47" s="4"/>
+      <c r="AZ47" s="4"/>
+      <c r="BA47" s="60"/>
+      <c r="BB47" s="70"/>
+      <c r="BC47" s="70"/>
+      <c r="BD47" s="70"/>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="15">
+        <v>43132</v>
+      </c>
+      <c r="C48" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D48" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="18">
+        <f t="shared" si="12"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G48" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="73"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="15">
+        <v>43132</v>
+      </c>
+      <c r="L48" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M48" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="N48" s="19"/>
+      <c r="O48" s="18">
+        <f t="shared" si="13"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="15">
+        <v>43132</v>
+      </c>
+      <c r="U48" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V48" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="W48" s="19"/>
+      <c r="X48" s="18">
+        <f t="shared" si="14"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y48" s="72"/>
+      <c r="Z48" s="73"/>
+      <c r="AA48" s="74"/>
+      <c r="AE48" s="3"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="35">
+        <v>43137</v>
+      </c>
+      <c r="C49" s="18">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D49" s="18">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="18">
+        <f t="shared" si="12"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="G49" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="35">
+        <v>43137</v>
+      </c>
+      <c r="L49" s="18">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="M49" s="18">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="N49" s="16"/>
+      <c r="O49" s="18">
+        <f t="shared" si="13"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="74"/>
+      <c r="S49" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="35">
+        <v>43137</v>
+      </c>
+      <c r="U49" s="18">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="V49" s="18">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="W49" s="16"/>
+      <c r="X49" s="18">
+        <f t="shared" si="14"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="Y49" s="72"/>
+      <c r="Z49" s="73"/>
+      <c r="AA49" s="74"/>
+      <c r="AE49" s="3"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="15">
+        <v>43141</v>
+      </c>
+      <c r="C50" s="18">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="D50" s="18">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="18">
+        <f t="shared" si="12"/>
+        <v>0.23125000000000007</v>
+      </c>
+      <c r="G50" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="73"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="15"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T50" s="15"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="81"/>
+      <c r="AA50" s="82"/>
+      <c r="AE50" s="3"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="15">
+        <v>43142</v>
+      </c>
+      <c r="C51" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0.65625</v>
+      </c>
+      <c r="E51" s="16">
+        <v>30.020833333333332</v>
+      </c>
+      <c r="F51" s="18">
+        <f>SUM(D51-C51)</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="G51" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="73"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="15"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="18">
+        <f>SUM(M51-L51)</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="74"/>
+      <c r="S51" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T51" s="15"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="72"/>
+      <c r="Z51" s="73"/>
+      <c r="AA51" s="74"/>
+      <c r="AE51" s="3"/>
+    </row>
+    <row r="52" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="15">
+        <v>43143</v>
+      </c>
+      <c r="C52" s="55">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D52" s="55">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="E52" s="55"/>
+      <c r="F52" s="18">
+        <f>SUM(D52-C52)</f>
+        <v>0.17083333333333339</v>
+      </c>
+      <c r="G52" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="73"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="54"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="18">
+        <f>SUM(M52-L52)</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="75"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="77"/>
+      <c r="S52" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="15"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="72"/>
+      <c r="Z52" s="73"/>
+      <c r="AA52" s="74"/>
+      <c r="AE52" s="3"/>
+    </row>
+    <row r="53" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="62"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="67">
+        <f>SUM(F47:F52)</f>
+        <v>1.0375000000000003</v>
+      </c>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="67">
+        <f>SUM(O47:O52)</f>
+        <v>0.31250000000000011</v>
+      </c>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="65"/>
+      <c r="S53" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T53" s="15"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="18">
+        <f>SUM(V53-U53)</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="72"/>
+      <c r="Z53" s="73"/>
+      <c r="AA53" s="74"/>
+      <c r="AE53" s="3"/>
+    </row>
+    <row r="54" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="57"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="54"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="55"/>
+      <c r="W54" s="55"/>
+      <c r="X54" s="18">
+        <f>SUM(V54-U54)</f>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="75"/>
+      <c r="Z54" s="76"/>
+      <c r="AA54" s="77"/>
+      <c r="AE54" s="3"/>
+    </row>
+    <row r="55" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="71"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="63"/>
+      <c r="U55" s="64"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="64"/>
+      <c r="X55" s="67">
+        <f>SUM(X47:X54)</f>
+        <v>0.31250000000000011</v>
+      </c>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="1:31" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="118">
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="G46:H46"/>
+  <mergeCells count="154">
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="Y52:AA52"/>
     <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="P47:R47"/>
     <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A31:AA31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="P22:R22"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="P20:R20"/>
     <mergeCell ref="G15:I15"/>
@@ -3937,28 +4532,90 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="A31:AA31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="BB45:BD45"/>
+    <mergeCell ref="AJ46:AK46"/>
+    <mergeCell ref="BB46:BD46"/>
+    <mergeCell ref="AJ47:AK47"/>
+    <mergeCell ref="BB47:BD47"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AS44:AU44"/>
+    <mergeCell ref="BB44:BD44"/>
+    <mergeCell ref="A44:AA44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="P46:R46"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3979,7 +4636,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\4CHIF\Syp\multiflexlbkv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B46C8-CFB3-4408-99A2-945886576105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F95834-65DB-4574-B4DE-0D355D27C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="37">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -215,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -789,11 +789,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1010,47 +1023,101 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1078,6 +1145,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1087,80 +1175,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1532,88 +1561,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD56"/>
+  <dimension ref="A1:BD55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="AA56" sqref="AA56"/>
+      <selection activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.88671875" style="2"/>
-    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.88671875" style="2"/>
-    <col min="15" max="15" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.88671875" style="2"/>
-    <col min="19" max="19" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="10.88671875" style="2"/>
-    <col min="24" max="24" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10.88671875" style="2"/>
+    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="10.85546875" style="2"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.85546875" style="2"/>
+    <col min="15" max="15" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.85546875" style="2"/>
+    <col min="19" max="19" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="10.85546875" style="2"/>
+    <col min="24" max="24" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.85546875" style="2"/>
     <col min="28" max="28" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.88671875" style="2"/>
+    <col min="29" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-    </row>
-    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
+    </row>
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="98" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
-      <c r="P2" s="96" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
+      <c r="P2" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="Y2" s="98" t="s">
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="Y2" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="90"/>
-    </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="108"/>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1632,11 +1661,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1655,11 +1684,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="78" t="s">
+      <c r="P3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="79"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="81"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -1678,11 +1707,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="78" t="s">
+      <c r="Y3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="79"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="81"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -1691,7 +1720,7 @@
         <v>1.1979166666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -1709,11 +1738,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -1731,11 +1760,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="95"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1753,13 +1782,13 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="94" t="s">
+      <c r="Y4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="95"/>
-    </row>
-    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="89"/>
+    </row>
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1777,11 +1806,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1799,11 +1828,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="101" t="s">
+      <c r="P5" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="102"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="100"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -1821,13 +1850,13 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="99" t="s">
+      <c r="Y5" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="100"/>
-    </row>
-    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="98"/>
+    </row>
+    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -1845,11 +1874,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="98"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -1867,9 +1896,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="102"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="100"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -1887,13 +1916,13 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="101" t="s">
+      <c r="Y6" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="101"/>
-      <c r="AA6" s="102"/>
-    </row>
-    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="100"/>
+    </row>
+    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -1911,11 +1940,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="99" t="s">
+      <c r="G7" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="100"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="98"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -1933,9 +1962,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="102"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="100"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -1953,11 +1982,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="102"/>
-    </row>
-    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="100"/>
+    </row>
+    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -1975,11 +2004,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="105" t="s">
+      <c r="G8" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -1997,11 +2026,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="101" t="s">
+      <c r="P8" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="102"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="100"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -2019,11 +2048,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="102"/>
-    </row>
-    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="100"/>
+    </row>
+    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="6">
         <f>SUM(F4:F8)</f>
         <v>0.42361111111111116</v>
@@ -2045,11 +2074,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="103" t="s">
+      <c r="P9" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="104"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="110"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -2067,13 +2096,13 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="103" t="s">
+      <c r="Y9" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="104"/>
-    </row>
-    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="110"/>
+    </row>
+    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2091,7 +2120,7 @@
         <v>0.47569444444444436</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2100,7 +2129,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2109,73 +2138,73 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-    </row>
-    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+    </row>
+    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="88" t="s">
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="108"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="88" t="s">
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="90"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="108"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="88" t="s">
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="90"/>
-    </row>
-    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="108"/>
+    </row>
+    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -2194,11 +2223,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="78" t="s">
+      <c r="G15" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2217,11 +2246,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="78" t="s">
+      <c r="P15" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="79"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="81"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2240,11 +2269,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="78" t="s">
+      <c r="Y15" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="79"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="81"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2253,7 +2282,7 @@
         <v>4.5416666666666679</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
@@ -2271,11 +2300,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="94" t="s">
+      <c r="G16" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="94"/>
-      <c r="I16" s="95"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="89"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2293,11 +2322,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="72" t="s">
+      <c r="P16" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="74"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="71"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2315,13 +2344,13 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="72" t="s">
+      <c r="Y16" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="74"/>
-    </row>
-    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="71"/>
+    </row>
+    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
@@ -2339,11 +2368,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="99" t="s">
+      <c r="G17" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="99"/>
-      <c r="I17" s="100"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="98"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2361,11 +2390,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="80" t="s">
+      <c r="P17" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="79"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2383,11 +2412,11 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="93"/>
-    </row>
-    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="118"/>
+    </row>
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2405,11 +2434,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="94" t="s">
+      <c r="G18" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="94"/>
-      <c r="I18" s="95"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="89"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2427,11 +2456,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="72" t="s">
+      <c r="P18" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="74"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="71"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2449,13 +2478,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="72" t="s">
+      <c r="Y18" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="74"/>
-    </row>
-    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="71"/>
+    </row>
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
@@ -2473,11 +2502,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="94" t="s">
+      <c r="G19" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="94"/>
-      <c r="I19" s="95"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="89"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2495,11 +2524,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="72" t="s">
+      <c r="P19" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="74"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="71"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2517,13 +2546,13 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="72" t="s">
+      <c r="Y19" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="74"/>
-    </row>
-    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="71"/>
+    </row>
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
@@ -2541,11 +2570,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="99" t="s">
+      <c r="G20" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="98"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2563,11 +2592,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="72" t="s">
+      <c r="P20" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="74"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="71"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2585,13 +2614,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="94" t="s">
+      <c r="Y20" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="95"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="89"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
@@ -2609,11 +2638,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="107" t="s">
+      <c r="G21" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="108"/>
-      <c r="I21" s="109"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="96"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2631,11 +2660,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="80" t="s">
+      <c r="P21" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="82"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="79"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -2653,13 +2682,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="110" t="s">
+      <c r="Y21" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="111"/>
-    </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="91"/>
+    </row>
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>7</v>
       </c>
@@ -2677,11 +2706,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="94" t="s">
+      <c r="G22" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="94"/>
-      <c r="I22" s="95"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -2699,11 +2728,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="107" t="s">
+      <c r="P22" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="109"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="96"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -2721,13 +2750,13 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="94" t="s">
+      <c r="Y22" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="95"/>
-    </row>
-    <row r="23" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="89"/>
+    </row>
+    <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -2745,11 +2774,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="115" t="s">
+      <c r="G23" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="87"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -2767,11 +2796,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="80" t="s">
+      <c r="P23" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="82"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="79"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -2789,13 +2818,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="110" t="s">
+      <c r="Y23" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="111"/>
-    </row>
-    <row r="24" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="91"/>
+    </row>
+    <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F24" s="6">
         <f>SUM(F16:F23)</f>
         <v>1.3055555555555558</v>
@@ -2817,11 +2846,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="94" t="s">
+      <c r="P24" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="95"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="89"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -2839,13 +2868,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="110" t="s">
+      <c r="Y24" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="111"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="91"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J25" s="38" t="s">
         <v>9</v>
       </c>
@@ -2863,11 +2892,11 @@
         <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="112" t="s">
+      <c r="P25" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="113"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="85"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -2885,21 +2914,21 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="112" t="s">
+      <c r="Y25" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="113"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="85"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -2917,11 +2946,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="107" t="s">
+      <c r="P26" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="109"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="96"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -2939,13 +2968,13 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="112" t="s">
+      <c r="Y26" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="113"/>
-    </row>
-    <row r="27" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z26" s="84"/>
+      <c r="AA26" s="85"/>
+    </row>
+    <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J27" s="48" t="s">
         <v>9</v>
       </c>
@@ -2963,11 +2992,11 @@
         <f>SUM(M27-L27)</f>
         <v>0.15625</v>
       </c>
-      <c r="P27" s="117" t="s">
+      <c r="P27" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="118"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="93"/>
       <c r="S27" s="38" t="s">
         <v>8</v>
       </c>
@@ -2985,18 +3014,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="110" t="s">
+      <c r="Y27" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="111"/>
-    </row>
-    <row r="28" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="91"/>
+    </row>
+    <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -3018,93 +3047,93 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="115" t="s">
+      <c r="Y28" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="115"/>
-      <c r="AA28" s="116"/>
-    </row>
-    <row r="29" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="87"/>
+    </row>
+    <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="114"/>
-    </row>
-    <row r="31" spans="1:27" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+    </row>
+    <row r="31" spans="1:27" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-    </row>
-    <row r="32" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+    </row>
+    <row r="32" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="88" t="s">
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="89"/>
-      <c r="I32" s="90"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="108"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="88" t="s">
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="90"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="108"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="88" t="s">
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="105"/>
+      <c r="Y32" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="90"/>
-    </row>
-    <row r="33" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="108"/>
+    </row>
+    <row r="33" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -3123,11 +3152,11 @@
       <c r="F33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="78" t="s">
+      <c r="G33" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="78"/>
-      <c r="I33" s="79"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="81"/>
       <c r="J33" s="42" t="s">
         <v>9</v>
       </c>
@@ -3146,11 +3175,11 @@
       <c r="O33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="78" t="s">
+      <c r="P33" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="79"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="81"/>
       <c r="S33" s="13" t="s">
         <v>8</v>
       </c>
@@ -3169,11 +3198,11 @@
       <c r="X33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="78" t="s">
+      <c r="Y33" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="79"/>
+      <c r="Z33" s="80"/>
+      <c r="AA33" s="81"/>
       <c r="AB33" s="27" t="s">
         <v>19</v>
       </c>
@@ -3182,7 +3211,7 @@
         <v>1.479166666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -3200,11 +3229,11 @@
         <f t="shared" ref="F34:F37" si="7">SUM(D34-C34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="G34" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="73"/>
-      <c r="I34" s="74"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
       <c r="J34" s="23" t="s">
         <v>9</v>
       </c>
@@ -3222,11 +3251,11 @@
         <f t="shared" ref="O34:O37" si="8">SUM(M34-L34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P34" s="72" t="s">
+      <c r="P34" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="74"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="71"/>
       <c r="S34" s="38" t="s">
         <v>8</v>
       </c>
@@ -3244,13 +3273,13 @@
         <f t="shared" ref="X34:X35" si="9">SUM(V34-U34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y34" s="72" t="s">
+      <c r="Y34" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="74"/>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="71"/>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>7</v>
       </c>
@@ -3268,11 +3297,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="73"/>
-      <c r="I35" s="74"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="71"/>
       <c r="J35" s="23" t="s">
         <v>9</v>
       </c>
@@ -3290,11 +3319,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P35" s="72" t="s">
+      <c r="P35" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="74"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="71"/>
       <c r="S35" s="38" t="s">
         <v>8</v>
       </c>
@@ -3312,13 +3341,13 @@
         <f t="shared" si="9"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y35" s="72" t="s">
+      <c r="Y35" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="74"/>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Z35" s="70"/>
+      <c r="AA35" s="71"/>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
@@ -3336,11 +3365,11 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G36" s="72" t="s">
+      <c r="G36" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="73"/>
-      <c r="I36" s="74"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="71"/>
       <c r="J36" s="23" t="s">
         <v>9</v>
       </c>
@@ -3358,11 +3387,11 @@
         <f t="shared" si="8"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P36" s="72" t="s">
+      <c r="P36" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="74"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="71"/>
       <c r="S36" s="38" t="s">
         <v>8</v>
       </c>
@@ -3380,13 +3409,13 @@
         <f t="shared" ref="X36:X37" si="10">SUM(V36-U36)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y36" s="72" t="s">
+      <c r="Y36" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="Z36" s="73"/>
-      <c r="AA36" s="74"/>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Z36" s="70"/>
+      <c r="AA36" s="71"/>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>7</v>
       </c>
@@ -3404,11 +3433,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G37" s="72" t="s">
+      <c r="G37" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="73"/>
-      <c r="I37" s="74"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="71"/>
       <c r="J37" s="23" t="s">
         <v>9</v>
       </c>
@@ -3426,11 +3455,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P37" s="72" t="s">
+      <c r="P37" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="74"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="71"/>
       <c r="S37" s="38" t="s">
         <v>8</v>
       </c>
@@ -3448,13 +3477,13 @@
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Y37" s="80" t="s">
+      <c r="Y37" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="82"/>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Z37" s="78"/>
+      <c r="AA37" s="79"/>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>7</v>
       </c>
@@ -3472,11 +3501,11 @@
         <f>SUM(D38-C38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="73"/>
-      <c r="I38" s="74"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="71"/>
       <c r="J38" s="23" t="s">
         <v>9</v>
       </c>
@@ -3494,11 +3523,11 @@
         <f>SUM(M38-L38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P38" s="72" t="s">
+      <c r="P38" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="74"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="71"/>
       <c r="S38" s="38" t="s">
         <v>8</v>
       </c>
@@ -3516,13 +3545,13 @@
         <f t="shared" ref="X38:X39" si="11">SUM(V38-U38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y38" s="72" t="s">
+      <c r="Y38" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Z38" s="73"/>
-      <c r="AA38" s="74"/>
-    </row>
-    <row r="39" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="71"/>
+    </row>
+    <row r="39" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>7</v>
       </c>
@@ -3540,11 +3569,11 @@
         <f>SUM(D39-C39)</f>
         <v>0.125</v>
       </c>
-      <c r="G39" s="75" t="s">
+      <c r="G39" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="76"/>
-      <c r="I39" s="77"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="76"/>
       <c r="J39" s="25" t="s">
         <v>9</v>
       </c>
@@ -3562,11 +3591,11 @@
         <f>SUM(M39-L39)</f>
         <v>0.125</v>
       </c>
-      <c r="P39" s="75" t="s">
+      <c r="P39" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="77"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="76"/>
       <c r="S39" s="38" t="s">
         <v>8</v>
       </c>
@@ -3584,13 +3613,13 @@
         <f t="shared" si="11"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y39" s="72" t="s">
+      <c r="Y39" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Z39" s="73"/>
-      <c r="AA39" s="74"/>
-    </row>
-    <row r="40" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z39" s="70"/>
+      <c r="AA39" s="71"/>
+    </row>
+    <row r="40" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="62"/>
       <c r="B40" s="63"/>
       <c r="C40" s="64"/>
@@ -3632,31 +3661,31 @@
         <f>SUM(V40-U40)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y40" s="72" t="s">
+      <c r="Y40" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Z40" s="73"/>
-      <c r="AA40" s="74"/>
-    </row>
-    <row r="41" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z40" s="70"/>
+      <c r="AA40" s="71"/>
+    </row>
+    <row r="41" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
       <c r="B41" s="46"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
       <c r="E41" s="4"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
       <c r="J41" s="57"/>
       <c r="K41" s="66"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
       <c r="N41" s="4"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
       <c r="S41" s="56" t="s">
         <v>8</v>
       </c>
@@ -3674,13 +3703,13 @@
         <f>SUM(V41-U41)</f>
         <v>0.125</v>
       </c>
-      <c r="Y41" s="75" t="s">
+      <c r="Y41" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="Z41" s="76"/>
-      <c r="AA41" s="77"/>
-    </row>
-    <row r="42" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z41" s="75"/>
+      <c r="AA41" s="76"/>
+    </row>
+    <row r="42" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="59"/>
       <c r="C42" s="4"/>
@@ -3696,9 +3725,9 @@
       <c r="M42" s="58"/>
       <c r="N42" s="4"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
       <c r="S42" s="62"/>
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
@@ -3712,7 +3741,7 @@
       <c r="Z42" s="65"/>
       <c r="AA42" s="65"/>
     </row>
-    <row r="43" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="59"/>
       <c r="C43" s="4"/>
@@ -3728,113 +3757,113 @@
       <c r="M43" s="58"/>
       <c r="N43" s="4"/>
       <c r="O43" s="58"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
       <c r="S43" s="57"/>
       <c r="T43" s="46"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
       <c r="W43" s="4"/>
       <c r="X43" s="58"/>
-      <c r="Y43" s="68"/>
-      <c r="Z43" s="68"/>
-      <c r="AA43" s="68"/>
-    </row>
-    <row r="44" spans="1:56" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="83" t="s">
+      <c r="Y43" s="72"/>
+      <c r="Z43" s="72"/>
+      <c r="AA43" s="72"/>
+    </row>
+    <row r="44" spans="1:56" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="84"/>
-      <c r="R44" s="84"/>
-      <c r="S44" s="84"/>
-      <c r="T44" s="84"/>
-      <c r="U44" s="84"/>
-      <c r="V44" s="84"/>
-      <c r="W44" s="84"/>
-      <c r="X44" s="84"/>
-      <c r="Y44" s="84"/>
-      <c r="Z44" s="84"/>
-      <c r="AA44" s="84"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="102"/>
+      <c r="O44" s="102"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="102"/>
+      <c r="R44" s="102"/>
+      <c r="S44" s="102"/>
+      <c r="T44" s="102"/>
+      <c r="U44" s="102"/>
+      <c r="V44" s="102"/>
+      <c r="W44" s="102"/>
+      <c r="X44" s="102"/>
+      <c r="Y44" s="102"/>
+      <c r="Z44" s="102"/>
+      <c r="AA44" s="102"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="33"/>
       <c r="AG44" s="33"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="34"/>
-      <c r="AJ44" s="71"/>
-      <c r="AK44" s="71"/>
-      <c r="AL44" s="71"/>
+      <c r="AJ44" s="73"/>
+      <c r="AK44" s="73"/>
+      <c r="AL44" s="73"/>
       <c r="AM44" s="57"/>
       <c r="AN44" s="46"/>
       <c r="AO44" s="58"/>
       <c r="AP44" s="58"/>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="58"/>
-      <c r="AS44" s="68"/>
-      <c r="AT44" s="68"/>
-      <c r="AU44" s="68"/>
+      <c r="AS44" s="72"/>
+      <c r="AT44" s="72"/>
+      <c r="AU44" s="72"/>
       <c r="AV44" s="57"/>
       <c r="AW44" s="46"/>
       <c r="AX44" s="58"/>
       <c r="AY44" s="58"/>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="58"/>
-      <c r="BB44" s="68"/>
-      <c r="BC44" s="68"/>
-      <c r="BD44" s="68"/>
-    </row>
-    <row r="45" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BB44" s="72"/>
+      <c r="BC44" s="72"/>
+      <c r="BD44" s="72"/>
+    </row>
+    <row r="45" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="88" t="s">
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="89"/>
-      <c r="I45" s="90"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="108"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="88" t="str">
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="106" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Q45" s="89"/>
-      <c r="R45" s="90"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="108"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="85"/>
-      <c r="U45" s="85"/>
-      <c r="V45" s="86"/>
-      <c r="W45" s="86"/>
-      <c r="X45" s="87"/>
-      <c r="Y45" s="88" t="str">
+      <c r="T45" s="103"/>
+      <c r="U45" s="103"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="104"/>
+      <c r="X45" s="105"/>
+      <c r="Y45" s="106" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Z45" s="89"/>
-      <c r="AA45" s="90"/>
+      <c r="Z45" s="107"/>
+      <c r="AA45" s="108"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="4"/>
@@ -3850,20 +3879,20 @@
       <c r="AP45" s="58"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="58"/>
-      <c r="AS45" s="68"/>
-      <c r="AT45" s="68"/>
-      <c r="AU45" s="68"/>
+      <c r="AS45" s="72"/>
+      <c r="AT45" s="72"/>
+      <c r="AU45" s="72"/>
       <c r="AV45" s="57"/>
       <c r="AW45" s="46"/>
       <c r="AX45" s="58"/>
       <c r="AY45" s="58"/>
       <c r="AZ45" s="4"/>
       <c r="BA45" s="58"/>
-      <c r="BB45" s="68"/>
-      <c r="BC45" s="68"/>
-      <c r="BD45" s="68"/>
-    </row>
-    <row r="46" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BB45" s="72"/>
+      <c r="BC45" s="72"/>
+      <c r="BD45" s="72"/>
+    </row>
+    <row r="46" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>7</v>
       </c>
@@ -3882,11 +3911,11 @@
       <c r="F46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="78" t="s">
+      <c r="G46" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="78"/>
-      <c r="I46" s="79"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="81"/>
       <c r="J46" s="42" t="s">
         <v>9</v>
       </c>
@@ -3905,11 +3934,11 @@
       <c r="O46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P46" s="78" t="s">
+      <c r="P46" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="78"/>
-      <c r="R46" s="79"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="81"/>
       <c r="S46" s="13" t="s">
         <v>8</v>
       </c>
@@ -3928,17 +3957,17 @@
       <c r="X46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y46" s="78" t="s">
+      <c r="Y46" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="Z46" s="78"/>
-      <c r="AA46" s="79"/>
+      <c r="Z46" s="80"/>
+      <c r="AA46" s="81"/>
       <c r="AB46" s="27" t="s">
         <v>19</v>
       </c>
       <c r="AC46" s="26">
-        <f>SUM(F53+O53+X55)</f>
-        <v>1.6625000000000005</v>
+        <f>SUM(F53+O53+X53)</f>
+        <v>2.7250000000000005</v>
       </c>
       <c r="AD46" s="4"/>
       <c r="AE46" s="46"/>
@@ -3946,8 +3975,8 @@
       <c r="AG46" s="58"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="69"/>
-      <c r="AK46" s="69"/>
+      <c r="AJ46" s="82"/>
+      <c r="AK46" s="82"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
@@ -3964,11 +3993,11 @@
       <c r="AY46" s="58"/>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="58"/>
-      <c r="BB46" s="68"/>
-      <c r="BC46" s="68"/>
-      <c r="BD46" s="68"/>
-    </row>
-    <row r="47" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="BB46" s="72"/>
+      <c r="BC46" s="72"/>
+      <c r="BD46" s="72"/>
+    </row>
+    <row r="47" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>7</v>
       </c>
@@ -3986,11 +4015,11 @@
         <f t="shared" ref="F47:F50" si="12">SUM(D47-C47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="G47" s="72" t="s">
+      <c r="G47" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="73"/>
-      <c r="I47" s="74"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="71"/>
       <c r="J47" s="23" t="s">
         <v>9</v>
       </c>
@@ -4005,12 +4034,14 @@
       </c>
       <c r="N47" s="19"/>
       <c r="O47" s="18">
-        <f t="shared" ref="O47:O50" si="13">SUM(M47-L47)</f>
+        <f t="shared" ref="O47:O52" si="13">SUM(M47-L47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="73"/>
-      <c r="R47" s="74"/>
+      <c r="P47" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="71"/>
       <c r="S47" s="38" t="s">
         <v>8</v>
       </c>
@@ -4028,17 +4059,19 @@
         <f t="shared" ref="X47:X52" si="14">SUM(V47-U47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Y47" s="72"/>
-      <c r="Z47" s="73"/>
-      <c r="AA47" s="74"/>
+      <c r="Y47" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z47" s="70"/>
+      <c r="AA47" s="71"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="61"/>
       <c r="AF47" s="58"/>
       <c r="AG47" s="58"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="70"/>
-      <c r="AK47" s="70"/>
+      <c r="AJ47" s="119"/>
+      <c r="AK47" s="119"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
@@ -4055,11 +4088,11 @@
       <c r="AY47" s="4"/>
       <c r="AZ47" s="4"/>
       <c r="BA47" s="60"/>
-      <c r="BB47" s="70"/>
-      <c r="BC47" s="70"/>
-      <c r="BD47" s="70"/>
-    </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BB47" s="119"/>
+      <c r="BC47" s="119"/>
+      <c r="BD47" s="119"/>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>7</v>
       </c>
@@ -4077,11 +4110,11 @@
         <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G48" s="72" t="s">
+      <c r="G48" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="73"/>
-      <c r="I48" s="74"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="71"/>
       <c r="J48" s="23" t="s">
         <v>9</v>
       </c>
@@ -4099,9 +4132,11 @@
         <f t="shared" si="13"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="74"/>
+      <c r="P48" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="71"/>
       <c r="S48" s="38" t="s">
         <v>8</v>
       </c>
@@ -4119,12 +4154,14 @@
         <f t="shared" si="14"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y48" s="72"/>
-      <c r="Z48" s="73"/>
-      <c r="AA48" s="74"/>
+      <c r="Y48" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z48" s="70"/>
+      <c r="AA48" s="71"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>7</v>
       </c>
@@ -4142,11 +4179,11 @@
         <f t="shared" si="12"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G49" s="72" t="s">
+      <c r="G49" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="73"/>
-      <c r="I49" s="74"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="71"/>
       <c r="J49" s="23" t="s">
         <v>9</v>
       </c>
@@ -4164,9 +4201,11 @@
         <f t="shared" si="13"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="74"/>
+      <c r="P49" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="71"/>
       <c r="S49" s="38" t="s">
         <v>8</v>
       </c>
@@ -4184,12 +4223,14 @@
         <f t="shared" si="14"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="Y49" s="72"/>
-      <c r="Z49" s="73"/>
-      <c r="AA49" s="74"/>
+      <c r="Y49" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z49" s="70"/>
+      <c r="AA49" s="71"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>7</v>
       </c>
@@ -4207,42 +4248,58 @@
         <f t="shared" si="12"/>
         <v>0.23125000000000007</v>
       </c>
-      <c r="G50" s="72" t="s">
+      <c r="G50" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="73"/>
-      <c r="I50" s="74"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="15"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
+      <c r="K50" s="15">
+        <v>43139</v>
+      </c>
+      <c r="L50" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M50" s="18">
+        <v>0.75</v>
+      </c>
       <c r="N50" s="19"/>
       <c r="O50" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="73"/>
-      <c r="R50" s="74"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P50" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="71"/>
       <c r="S50" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T50" s="15"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
+      <c r="T50" s="15">
+        <v>43139</v>
+      </c>
+      <c r="U50" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V50" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="W50" s="19"/>
       <c r="X50" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="80"/>
-      <c r="Z50" s="81"/>
-      <c r="AA50" s="82"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y50" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z50" s="70"/>
+      <c r="AA50" s="71"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>7</v>
       </c>
@@ -4262,42 +4319,58 @@
         <f>SUM(D51-C51)</f>
         <v>0.32291666666666669</v>
       </c>
-      <c r="G51" s="72" t="s">
+      <c r="G51" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="73"/>
-      <c r="I51" s="74"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="71"/>
       <c r="J51" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
+      <c r="K51" s="15">
+        <v>43141</v>
+      </c>
+      <c r="L51" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="M51" s="16">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="N51" s="16"/>
       <c r="O51" s="18">
         <f>SUM(M51-L51)</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="73"/>
-      <c r="R51" s="74"/>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="P51" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="71"/>
       <c r="S51" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T51" s="15"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
+      <c r="T51" s="15">
+        <v>43141</v>
+      </c>
+      <c r="U51" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="V51" s="16">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="W51" s="16"/>
       <c r="X51" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y51" s="72"/>
-      <c r="Z51" s="73"/>
-      <c r="AA51" s="74"/>
+        <f>SUM(V51-U51)</f>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="Y51" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z51" s="70"/>
+      <c r="AA51" s="71"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>7</v>
       </c>
@@ -4315,42 +4388,58 @@
         <f>SUM(D52-C52)</f>
         <v>0.17083333333333339</v>
       </c>
-      <c r="G52" s="72" t="s">
+      <c r="G52" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="73"/>
-      <c r="I52" s="74"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="71"/>
       <c r="J52" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="54"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="55"/>
+      <c r="K52" s="54">
+        <v>43142</v>
+      </c>
+      <c r="L52" s="55">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M52" s="55">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="N52" s="55"/>
       <c r="O52" s="18">
-        <f>SUM(M52-L52)</f>
-        <v>0</v>
-      </c>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="77"/>
-      <c r="S52" s="38" t="s">
+        <f t="shared" si="13"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P52" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="15"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y52" s="72"/>
-      <c r="Z52" s="73"/>
-      <c r="AA52" s="74"/>
+      <c r="T52" s="21">
+        <v>43142</v>
+      </c>
+      <c r="U52" s="22">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="V52" s="22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W52" s="22"/>
+      <c r="X52" s="121">
+        <f t="shared" ref="X52" si="15">SUM(V52-U52)</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Y52" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z52" s="122"/>
+      <c r="AA52" s="123"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="63"/>
       <c r="C53" s="64"/>
@@ -4370,63 +4459,56 @@
       <c r="N53" s="64"/>
       <c r="O53" s="67">
         <f>SUM(O47:O52)</f>
-        <v>0.31250000000000011</v>
+        <v>0.84375000000000022</v>
       </c>
       <c r="P53" s="65"/>
       <c r="Q53" s="65"/>
       <c r="R53" s="65"/>
-      <c r="S53" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="T53" s="15"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="18">
-        <f>SUM(V53-U53)</f>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="72"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="120">
+        <f>SUM(X47:X52)</f>
+        <v>0.84375000000000022</v>
+      </c>
+      <c r="Y53" s="73"/>
       <c r="Z53" s="73"/>
-      <c r="AA53" s="74"/>
+      <c r="AA53" s="73"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A54" s="57"/>
       <c r="B54" s="46"/>
       <c r="C54" s="58"/>
       <c r="D54" s="58"/>
       <c r="E54" s="4"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
       <c r="J54" s="57"/>
       <c r="K54" s="66"/>
       <c r="L54" s="58"/>
       <c r="M54" s="58"/>
       <c r="N54" s="4"/>
       <c r="O54" s="58"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="71"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="T54" s="54"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="55"/>
-      <c r="W54" s="55"/>
-      <c r="X54" s="18">
-        <f>SUM(V54-U54)</f>
-        <v>0</v>
-      </c>
-      <c r="Y54" s="75"/>
-      <c r="Z54" s="76"/>
-      <c r="AA54" s="77"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="57"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="58"/>
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="72"/>
+      <c r="AA54" s="72"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="59"/>
       <c r="C55" s="4"/>
@@ -4442,72 +4524,105 @@
       <c r="M55" s="58"/>
       <c r="N55" s="4"/>
       <c r="O55" s="58"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="71"/>
-      <c r="R55" s="71"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="64"/>
-      <c r="V55" s="64"/>
-      <c r="W55" s="64"/>
-      <c r="X55" s="67">
-        <f>SUM(X47:X54)</f>
-        <v>0.31250000000000011</v>
-      </c>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="Y55" s="68"/>
+      <c r="Z55" s="68"/>
+      <c r="AA55" s="68"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" spans="1:31" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="BB45:BD45"/>
+    <mergeCell ref="AJ46:AK46"/>
+    <mergeCell ref="BB46:BD46"/>
+    <mergeCell ref="AJ47:AK47"/>
+    <mergeCell ref="BB47:BD47"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AS44:AU44"/>
+    <mergeCell ref="BB44:BD44"/>
+    <mergeCell ref="A44:AA44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A31:AA31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="P20:R20"/>
     <mergeCell ref="G15:I15"/>
@@ -4532,90 +4647,52 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="A31:AA31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="BB45:BD45"/>
-    <mergeCell ref="AJ46:AK46"/>
-    <mergeCell ref="BB46:BD46"/>
-    <mergeCell ref="AJ47:AK47"/>
-    <mergeCell ref="BB47:BD47"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AS44:AU44"/>
-    <mergeCell ref="BB44:BD44"/>
-    <mergeCell ref="A44:AA44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="Y52:AA52"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4636,7 +4713,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F95834-65DB-4574-B4DE-0D355D27C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DC0897-558F-4817-BF9E-E9966FB0C9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="37">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -215,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -802,11 +802,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1020,6 +1188,91 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1032,19 +1285,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,48 +1342,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1113,16 +1357,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1175,21 +1410,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD55"/>
+  <dimension ref="A1:BD69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="W42" sqref="W42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1589,58 +1823,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="113" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="108"/>
-      <c r="P2" s="111" t="s">
+      <c r="H2" s="129"/>
+      <c r="I2" s="130"/>
+      <c r="P2" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="Y2" s="113" t="s">
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="Y2" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="108"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="130"/>
     </row>
     <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1661,11 +1895,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="103"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1684,11 +1918,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="80" t="s">
+      <c r="P3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="81"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -1707,11 +1941,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="80" t="s">
+      <c r="Y3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="81"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="103"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -1738,11 +1972,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="89"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="111"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -1760,11 +1994,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="89"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="111"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1782,11 +2016,11 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="88" t="s">
+      <c r="Y4" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="89"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="111"/>
     </row>
     <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -1806,11 +2040,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="123"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1828,11 +2062,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="99" t="s">
+      <c r="P5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="100"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="124"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -1850,11 +2084,11 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="97" t="s">
+      <c r="Y5" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="98"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="123"/>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
@@ -1874,11 +2108,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="98"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -1896,9 +2130,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="100"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="124"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -1916,11 +2150,11 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="99" t="s">
+      <c r="Y6" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="100"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="124"/>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -1940,11 +2174,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="123"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -1962,9 +2196,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="124"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -1982,9 +2216,9 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="100"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="124"/>
     </row>
     <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -2004,11 +2238,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="114"/>
-      <c r="I8" s="115"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -2026,11 +2260,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="99" t="s">
+      <c r="P8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="100"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="124"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -2048,9 +2282,9 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="100"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="124"/>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="6">
@@ -2074,11 +2308,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="109" t="s">
+      <c r="P9" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="110"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="132"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -2096,11 +2330,11 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="109" t="s">
+      <c r="Y9" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="110"/>
+      <c r="Z9" s="131"/>
+      <c r="AA9" s="132"/>
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G10" s="8"/>
@@ -2139,70 +2373,70 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="102"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106" t="s">
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="107"/>
-      <c r="I14" s="108"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="106" t="s">
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="108"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="130"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="103"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="106" t="s">
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="126"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="108"/>
+      <c r="Z14" s="129"/>
+      <c r="AA14" s="130"/>
     </row>
     <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -2223,11 +2457,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="103"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2246,11 +2480,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="80" t="s">
+      <c r="P15" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="81"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="103"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2269,11 +2503,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="80" t="s">
+      <c r="Y15" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="81"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="103"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2300,11 +2534,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="88" t="s">
+      <c r="G16" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="89"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2322,11 +2556,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="69" t="s">
+      <c r="P16" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="71"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="99"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2344,11 +2578,11 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="69" t="s">
+      <c r="Y16" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="71"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="99"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
@@ -2368,11 +2602,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="97" t="s">
+      <c r="G17" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="97"/>
-      <c r="I17" s="98"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2390,11 +2624,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="77" t="s">
+      <c r="P17" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="79"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="118"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2412,9 +2646,9 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="116"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="118"/>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="140"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
@@ -2434,11 +2668,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="88" t="s">
+      <c r="G18" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="89"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="111"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2456,11 +2690,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="69" t="s">
+      <c r="P18" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="71"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="99"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2478,11 +2712,11 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="69" t="s">
+      <c r="Y18" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="71"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="99"/>
     </row>
     <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -2502,11 +2736,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="88" t="s">
+      <c r="G19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="88"/>
-      <c r="I19" s="89"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="111"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2524,11 +2758,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="69" t="s">
+      <c r="P19" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="71"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="99"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2546,11 +2780,11 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="69" t="s">
+      <c r="Y19" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="71"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="99"/>
     </row>
     <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
@@ -2570,11 +2804,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="97" t="s">
+      <c r="G20" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="97"/>
-      <c r="I20" s="98"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="123"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2592,11 +2826,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="69" t="s">
+      <c r="P20" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="71"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="99"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2614,11 +2848,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="88" t="s">
+      <c r="Y20" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="89"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="111"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -2638,11 +2872,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="94" t="s">
+      <c r="G21" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="95"/>
-      <c r="I21" s="96"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="121"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2660,11 +2894,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="77" t="s">
+      <c r="P21" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="79"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="118"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -2682,11 +2916,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="90" t="s">
+      <c r="Y21" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="91"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="113"/>
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
@@ -2706,11 +2940,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="88" t="s">
+      <c r="G22" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="111"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -2728,11 +2962,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="94" t="s">
+      <c r="P22" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="121"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -2750,11 +2984,11 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="88" t="s">
+      <c r="Y22" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="111"/>
     </row>
     <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
@@ -2774,11 +3008,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="86" t="s">
+      <c r="G23" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="86"/>
-      <c r="I23" s="87"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="109"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -2796,11 +3030,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="77" t="s">
+      <c r="P23" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="79"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="118"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -2818,11 +3052,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="90" t="s">
+      <c r="Y23" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="91"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="113"/>
     </row>
     <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F24" s="6">
@@ -2846,11 +3080,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="88" t="s">
+      <c r="P24" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="89"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="111"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -2868,11 +3102,11 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="90" t="s">
+      <c r="Y24" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="91"/>
+      <c r="Z24" s="112"/>
+      <c r="AA24" s="113"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J25" s="38" t="s">
@@ -2892,11 +3126,11 @@
         <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="84" t="s">
+      <c r="P25" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="85"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="107"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -2914,11 +3148,11 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="84" t="s">
+      <c r="Y25" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="85"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="107"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B26" s="32"/>
@@ -2926,9 +3160,9 @@
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -2946,11 +3180,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="94" t="s">
+      <c r="P26" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="96"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="121"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -2968,11 +3202,11 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="84" t="s">
+      <c r="Y26" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="85"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="107"/>
     </row>
     <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J27" s="48" t="s">
@@ -2992,11 +3226,11 @@
         <f>SUM(M27-L27)</f>
         <v>0.15625</v>
       </c>
-      <c r="P27" s="92" t="s">
+      <c r="P27" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="93"/>
+      <c r="Q27" s="114"/>
+      <c r="R27" s="115"/>
       <c r="S27" s="38" t="s">
         <v>8</v>
       </c>
@@ -3014,18 +3248,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="90" t="s">
+      <c r="Y27" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="91"/>
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="113"/>
     </row>
     <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -3047,91 +3281,91 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="86" t="s">
+      <c r="Y28" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="87"/>
+      <c r="Z28" s="108"/>
+      <c r="AA28" s="109"/>
     </row>
     <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="83"/>
-      <c r="Z29" s="83"/>
-      <c r="AA29" s="83"/>
+      <c r="Y29" s="105"/>
+      <c r="Z29" s="105"/>
+      <c r="AA29" s="105"/>
     </row>
     <row r="31" spans="1:27" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="102"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="102"/>
-      <c r="V31" s="102"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="102"/>
-      <c r="AA31" s="102"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94"/>
     </row>
     <row r="32" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="106" t="s">
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="107"/>
-      <c r="I32" s="108"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="106" t="s">
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="108"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="130"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="104"/>
-      <c r="W32" s="104"/>
-      <c r="X32" s="105"/>
-      <c r="Y32" s="106" t="s">
+      <c r="T32" s="125"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="126"/>
+      <c r="W32" s="126"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" s="107"/>
-      <c r="AA32" s="108"/>
+      <c r="Z32" s="129"/>
+      <c r="AA32" s="130"/>
     </row>
     <row r="33" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -3152,11 +3386,11 @@
       <c r="F33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="80" t="s">
+      <c r="G33" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="103"/>
       <c r="J33" s="42" t="s">
         <v>9</v>
       </c>
@@ -3175,11 +3409,11 @@
       <c r="O33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="80" t="s">
+      <c r="P33" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="81"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="103"/>
       <c r="S33" s="13" t="s">
         <v>8</v>
       </c>
@@ -3198,11 +3432,11 @@
       <c r="X33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="80" t="s">
+      <c r="Y33" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="80"/>
-      <c r="AA33" s="81"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="103"/>
       <c r="AB33" s="27" t="s">
         <v>19</v>
       </c>
@@ -3229,11 +3463,11 @@
         <f t="shared" ref="F34:F37" si="7">SUM(D34-C34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G34" s="69" t="s">
+      <c r="G34" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="70"/>
-      <c r="I34" s="71"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="99"/>
       <c r="J34" s="23" t="s">
         <v>9</v>
       </c>
@@ -3251,11 +3485,11 @@
         <f t="shared" ref="O34:O37" si="8">SUM(M34-L34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P34" s="69" t="s">
+      <c r="P34" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="70"/>
-      <c r="R34" s="71"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="99"/>
       <c r="S34" s="38" t="s">
         <v>8</v>
       </c>
@@ -3273,11 +3507,11 @@
         <f t="shared" ref="X34:X35" si="9">SUM(V34-U34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y34" s="69" t="s">
+      <c r="Y34" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="Z34" s="70"/>
-      <c r="AA34" s="71"/>
+      <c r="Z34" s="98"/>
+      <c r="AA34" s="99"/>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
@@ -3297,11 +3531,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G35" s="69" t="s">
+      <c r="G35" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="70"/>
-      <c r="I35" s="71"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="99"/>
       <c r="J35" s="23" t="s">
         <v>9</v>
       </c>
@@ -3319,11 +3553,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P35" s="69" t="s">
+      <c r="P35" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="71"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="99"/>
       <c r="S35" s="38" t="s">
         <v>8</v>
       </c>
@@ -3341,11 +3575,11 @@
         <f t="shared" si="9"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y35" s="69" t="s">
+      <c r="Y35" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="70"/>
-      <c r="AA35" s="71"/>
+      <c r="Z35" s="98"/>
+      <c r="AA35" s="99"/>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
@@ -3365,11 +3599,11 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G36" s="69" t="s">
+      <c r="G36" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="70"/>
-      <c r="I36" s="71"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="99"/>
       <c r="J36" s="23" t="s">
         <v>9</v>
       </c>
@@ -3387,11 +3621,11 @@
         <f t="shared" si="8"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P36" s="69" t="s">
+      <c r="P36" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="71"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="99"/>
       <c r="S36" s="38" t="s">
         <v>8</v>
       </c>
@@ -3409,11 +3643,11 @@
         <f t="shared" ref="X36:X37" si="10">SUM(V36-U36)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y36" s="69" t="s">
+      <c r="Y36" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="Z36" s="70"/>
-      <c r="AA36" s="71"/>
+      <c r="Z36" s="98"/>
+      <c r="AA36" s="99"/>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
@@ -3433,11 +3667,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G37" s="69" t="s">
+      <c r="G37" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="70"/>
-      <c r="I37" s="71"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="99"/>
       <c r="J37" s="23" t="s">
         <v>9</v>
       </c>
@@ -3455,11 +3689,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P37" s="69" t="s">
+      <c r="P37" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="70"/>
-      <c r="R37" s="71"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="99"/>
       <c r="S37" s="38" t="s">
         <v>8</v>
       </c>
@@ -3477,11 +3711,11 @@
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Y37" s="77" t="s">
+      <c r="Y37" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="79"/>
+      <c r="Z37" s="117"/>
+      <c r="AA37" s="118"/>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
@@ -3501,11 +3735,11 @@
         <f>SUM(D38-C38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G38" s="69" t="s">
+      <c r="G38" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="71"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="99"/>
       <c r="J38" s="23" t="s">
         <v>9</v>
       </c>
@@ -3523,11 +3757,11 @@
         <f>SUM(M38-L38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P38" s="69" t="s">
+      <c r="P38" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="71"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="99"/>
       <c r="S38" s="38" t="s">
         <v>8</v>
       </c>
@@ -3545,11 +3779,11 @@
         <f t="shared" ref="X38:X39" si="11">SUM(V38-U38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y38" s="69" t="s">
+      <c r="Y38" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="Z38" s="70"/>
-      <c r="AA38" s="71"/>
+      <c r="Z38" s="98"/>
+      <c r="AA38" s="99"/>
     </row>
     <row r="39" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
@@ -3569,11 +3803,11 @@
         <f>SUM(D39-C39)</f>
         <v>0.125</v>
       </c>
-      <c r="G39" s="74" t="s">
+      <c r="G39" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="143"/>
       <c r="J39" s="25" t="s">
         <v>9</v>
       </c>
@@ -3591,11 +3825,11 @@
         <f>SUM(M39-L39)</f>
         <v>0.125</v>
       </c>
-      <c r="P39" s="74" t="s">
+      <c r="P39" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="76"/>
+      <c r="Q39" s="142"/>
+      <c r="R39" s="143"/>
       <c r="S39" s="38" t="s">
         <v>8</v>
       </c>
@@ -3613,11 +3847,11 @@
         <f t="shared" si="11"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y39" s="69" t="s">
+      <c r="Y39" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="Z39" s="70"/>
-      <c r="AA39" s="71"/>
+      <c r="Z39" s="98"/>
+      <c r="AA39" s="99"/>
     </row>
     <row r="40" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="62"/>
@@ -3661,11 +3895,11 @@
         <f>SUM(V40-U40)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y40" s="69" t="s">
+      <c r="Y40" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="Z40" s="70"/>
-      <c r="AA40" s="71"/>
+      <c r="Z40" s="98"/>
+      <c r="AA40" s="99"/>
     </row>
     <row r="41" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
@@ -3674,18 +3908,18 @@
       <c r="D41" s="58"/>
       <c r="E41" s="4"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
       <c r="J41" s="57"/>
       <c r="K41" s="66"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
       <c r="N41" s="4"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
       <c r="S41" s="56" t="s">
         <v>8</v>
       </c>
@@ -3703,11 +3937,11 @@
         <f>SUM(V41-U41)</f>
         <v>0.125</v>
       </c>
-      <c r="Y41" s="74" t="s">
+      <c r="Y41" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="Z41" s="75"/>
-      <c r="AA41" s="76"/>
+      <c r="Z41" s="142"/>
+      <c r="AA41" s="143"/>
     </row>
     <row r="42" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -3725,9 +3959,9 @@
       <c r="M42" s="58"/>
       <c r="N42" s="4"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
       <c r="S42" s="62"/>
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
@@ -3757,113 +3991,113 @@
       <c r="M43" s="58"/>
       <c r="N43" s="4"/>
       <c r="O43" s="58"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96"/>
       <c r="S43" s="57"/>
       <c r="T43" s="46"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
       <c r="W43" s="4"/>
       <c r="X43" s="58"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="72"/>
+      <c r="Y43" s="96"/>
+      <c r="Z43" s="96"/>
+      <c r="AA43" s="96"/>
     </row>
     <row r="44" spans="1:56" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="102"/>
-      <c r="O44" s="102"/>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="102"/>
-      <c r="R44" s="102"/>
-      <c r="S44" s="102"/>
-      <c r="T44" s="102"/>
-      <c r="U44" s="102"/>
-      <c r="V44" s="102"/>
-      <c r="W44" s="102"/>
-      <c r="X44" s="102"/>
-      <c r="Y44" s="102"/>
-      <c r="Z44" s="102"/>
-      <c r="AA44" s="102"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="94"/>
+      <c r="Y44" s="94"/>
+      <c r="Z44" s="94"/>
+      <c r="AA44" s="94"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="33"/>
       <c r="AG44" s="33"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="34"/>
-      <c r="AJ44" s="73"/>
-      <c r="AK44" s="73"/>
-      <c r="AL44" s="73"/>
+      <c r="AJ44" s="95"/>
+      <c r="AK44" s="95"/>
+      <c r="AL44" s="95"/>
       <c r="AM44" s="57"/>
       <c r="AN44" s="46"/>
       <c r="AO44" s="58"/>
       <c r="AP44" s="58"/>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="58"/>
-      <c r="AS44" s="72"/>
-      <c r="AT44" s="72"/>
-      <c r="AU44" s="72"/>
+      <c r="AS44" s="96"/>
+      <c r="AT44" s="96"/>
+      <c r="AU44" s="96"/>
       <c r="AV44" s="57"/>
       <c r="AW44" s="46"/>
       <c r="AX44" s="58"/>
       <c r="AY44" s="58"/>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="58"/>
-      <c r="BB44" s="72"/>
-      <c r="BC44" s="72"/>
-      <c r="BD44" s="72"/>
+      <c r="BB44" s="96"/>
+      <c r="BC44" s="96"/>
+      <c r="BD44" s="96"/>
     </row>
     <row r="45" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="106" t="s">
+      <c r="B45" s="125"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="107"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="130"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="104"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="105"/>
-      <c r="P45" s="106" t="str">
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="126"/>
+      <c r="N45" s="126"/>
+      <c r="O45" s="127"/>
+      <c r="P45" s="128" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Q45" s="107"/>
-      <c r="R45" s="108"/>
+      <c r="Q45" s="129"/>
+      <c r="R45" s="130"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="103"/>
-      <c r="U45" s="103"/>
-      <c r="V45" s="104"/>
-      <c r="W45" s="104"/>
-      <c r="X45" s="105"/>
-      <c r="Y45" s="106" t="str">
+      <c r="T45" s="125"/>
+      <c r="U45" s="125"/>
+      <c r="V45" s="126"/>
+      <c r="W45" s="126"/>
+      <c r="X45" s="127"/>
+      <c r="Y45" s="128" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Z45" s="107"/>
-      <c r="AA45" s="108"/>
+      <c r="Z45" s="129"/>
+      <c r="AA45" s="130"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="4"/>
@@ -3879,18 +4113,18 @@
       <c r="AP45" s="58"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="58"/>
-      <c r="AS45" s="72"/>
-      <c r="AT45" s="72"/>
-      <c r="AU45" s="72"/>
+      <c r="AS45" s="96"/>
+      <c r="AT45" s="96"/>
+      <c r="AU45" s="96"/>
       <c r="AV45" s="57"/>
       <c r="AW45" s="46"/>
       <c r="AX45" s="58"/>
       <c r="AY45" s="58"/>
       <c r="AZ45" s="4"/>
       <c r="BA45" s="58"/>
-      <c r="BB45" s="72"/>
-      <c r="BC45" s="72"/>
-      <c r="BD45" s="72"/>
+      <c r="BB45" s="96"/>
+      <c r="BC45" s="96"/>
+      <c r="BD45" s="96"/>
     </row>
     <row r="46" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
@@ -3911,11 +4145,11 @@
       <c r="F46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="80" t="s">
+      <c r="G46" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="80"/>
-      <c r="I46" s="81"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="103"/>
       <c r="J46" s="42" t="s">
         <v>9</v>
       </c>
@@ -3934,11 +4168,11 @@
       <c r="O46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P46" s="80" t="s">
+      <c r="P46" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="80"/>
-      <c r="R46" s="81"/>
+      <c r="Q46" s="102"/>
+      <c r="R46" s="103"/>
       <c r="S46" s="13" t="s">
         <v>8</v>
       </c>
@@ -3957,11 +4191,11 @@
       <c r="X46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y46" s="80" t="s">
+      <c r="Y46" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="Z46" s="80"/>
-      <c r="AA46" s="81"/>
+      <c r="Z46" s="102"/>
+      <c r="AA46" s="103"/>
       <c r="AB46" s="27" t="s">
         <v>19</v>
       </c>
@@ -3975,8 +4209,8 @@
       <c r="AG46" s="58"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="82"/>
-      <c r="AK46" s="82"/>
+      <c r="AJ46" s="104"/>
+      <c r="AK46" s="104"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
@@ -3993,9 +4227,9 @@
       <c r="AY46" s="58"/>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="58"/>
-      <c r="BB46" s="72"/>
-      <c r="BC46" s="72"/>
-      <c r="BD46" s="72"/>
+      <c r="BB46" s="96"/>
+      <c r="BC46" s="96"/>
+      <c r="BD46" s="96"/>
     </row>
     <row r="47" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
@@ -4015,11 +4249,11 @@
         <f t="shared" ref="F47:F50" si="12">SUM(D47-C47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="G47" s="69" t="s">
+      <c r="G47" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="70"/>
-      <c r="I47" s="71"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="99"/>
       <c r="J47" s="23" t="s">
         <v>9</v>
       </c>
@@ -4037,11 +4271,11 @@
         <f t="shared" ref="O47:O52" si="13">SUM(M47-L47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="P47" s="69" t="s">
+      <c r="P47" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="70"/>
-      <c r="R47" s="71"/>
+      <c r="Q47" s="98"/>
+      <c r="R47" s="99"/>
       <c r="S47" s="38" t="s">
         <v>8</v>
       </c>
@@ -4056,22 +4290,22 @@
       </c>
       <c r="W47" s="19"/>
       <c r="X47" s="18">
-        <f t="shared" ref="X47:X52" si="14">SUM(V47-U47)</f>
+        <f t="shared" ref="X47:X50" si="14">SUM(V47-U47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Y47" s="69" t="s">
+      <c r="Y47" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="70"/>
-      <c r="AA47" s="71"/>
+      <c r="Z47" s="98"/>
+      <c r="AA47" s="99"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="61"/>
       <c r="AF47" s="58"/>
       <c r="AG47" s="58"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="119"/>
-      <c r="AK47" s="119"/>
+      <c r="AJ47" s="144"/>
+      <c r="AK47" s="144"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
@@ -4088,9 +4322,9 @@
       <c r="AY47" s="4"/>
       <c r="AZ47" s="4"/>
       <c r="BA47" s="60"/>
-      <c r="BB47" s="119"/>
-      <c r="BC47" s="119"/>
-      <c r="BD47" s="119"/>
+      <c r="BB47" s="144"/>
+      <c r="BC47" s="144"/>
+      <c r="BD47" s="144"/>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
@@ -4110,11 +4344,11 @@
         <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G48" s="69" t="s">
+      <c r="G48" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="70"/>
-      <c r="I48" s="71"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="99"/>
       <c r="J48" s="23" t="s">
         <v>9</v>
       </c>
@@ -4132,11 +4366,11 @@
         <f t="shared" si="13"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P48" s="69" t="s">
+      <c r="P48" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="71"/>
+      <c r="Q48" s="98"/>
+      <c r="R48" s="99"/>
       <c r="S48" s="38" t="s">
         <v>8</v>
       </c>
@@ -4154,11 +4388,11 @@
         <f t="shared" si="14"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y48" s="69" t="s">
+      <c r="Y48" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="Z48" s="70"/>
-      <c r="AA48" s="71"/>
+      <c r="Z48" s="98"/>
+      <c r="AA48" s="99"/>
       <c r="AE48" s="3"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
@@ -4179,11 +4413,11 @@
         <f t="shared" si="12"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G49" s="69" t="s">
+      <c r="G49" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="70"/>
-      <c r="I49" s="71"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="99"/>
       <c r="J49" s="23" t="s">
         <v>9</v>
       </c>
@@ -4201,11 +4435,11 @@
         <f t="shared" si="13"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="P49" s="69" t="s">
+      <c r="P49" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="71"/>
+      <c r="Q49" s="98"/>
+      <c r="R49" s="99"/>
       <c r="S49" s="38" t="s">
         <v>8</v>
       </c>
@@ -4223,11 +4457,11 @@
         <f t="shared" si="14"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="Y49" s="69" t="s">
+      <c r="Y49" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="70"/>
-      <c r="AA49" s="71"/>
+      <c r="Z49" s="98"/>
+      <c r="AA49" s="99"/>
       <c r="AE49" s="3"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
@@ -4248,11 +4482,11 @@
         <f t="shared" si="12"/>
         <v>0.23125000000000007</v>
       </c>
-      <c r="G50" s="69" t="s">
+      <c r="G50" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="70"/>
-      <c r="I50" s="71"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="99"/>
       <c r="J50" s="23" t="s">
         <v>9</v>
       </c>
@@ -4270,11 +4504,11 @@
         <f t="shared" si="13"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P50" s="69" t="s">
+      <c r="P50" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" s="70"/>
-      <c r="R50" s="71"/>
+      <c r="Q50" s="98"/>
+      <c r="R50" s="99"/>
       <c r="S50" s="38" t="s">
         <v>8</v>
       </c>
@@ -4292,11 +4526,11 @@
         <f t="shared" si="14"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y50" s="69" t="s">
+      <c r="Y50" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="Z50" s="70"/>
-      <c r="AA50" s="71"/>
+      <c r="Z50" s="98"/>
+      <c r="AA50" s="99"/>
       <c r="AE50" s="3"/>
     </row>
     <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4319,11 +4553,11 @@
         <f>SUM(D51-C51)</f>
         <v>0.32291666666666669</v>
       </c>
-      <c r="G51" s="69" t="s">
+      <c r="G51" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="70"/>
-      <c r="I51" s="71"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="99"/>
       <c r="J51" s="23" t="s">
         <v>9</v>
       </c>
@@ -4341,11 +4575,11 @@
         <f>SUM(M51-L51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="P51" s="69" t="s">
+      <c r="P51" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="70"/>
-      <c r="R51" s="71"/>
+      <c r="Q51" s="98"/>
+      <c r="R51" s="99"/>
       <c r="S51" s="38" t="s">
         <v>8</v>
       </c>
@@ -4363,11 +4597,11 @@
         <f>SUM(V51-U51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="Y51" s="69" t="s">
+      <c r="Y51" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="Z51" s="70"/>
-      <c r="AA51" s="71"/>
+      <c r="Z51" s="98"/>
+      <c r="AA51" s="99"/>
       <c r="AE51" s="3"/>
     </row>
     <row r="52" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4388,11 +4622,11 @@
         <f>SUM(D52-C52)</f>
         <v>0.17083333333333339</v>
       </c>
-      <c r="G52" s="69" t="s">
+      <c r="G52" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="70"/>
-      <c r="I52" s="71"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="99"/>
       <c r="J52" s="25" t="s">
         <v>9</v>
       </c>
@@ -4410,11 +4644,11 @@
         <f t="shared" si="13"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="P52" s="69" t="s">
+      <c r="P52" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="70"/>
+      <c r="Q52" s="98"/>
+      <c r="R52" s="98"/>
       <c r="S52" s="25" t="s">
         <v>8</v>
       </c>
@@ -4428,15 +4662,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="W52" s="22"/>
-      <c r="X52" s="121">
+      <c r="X52" s="69">
         <f t="shared" ref="X52" si="15">SUM(V52-U52)</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="Y52" s="122" t="s">
+      <c r="Y52" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="Z52" s="122"/>
-      <c r="AA52" s="123"/>
+      <c r="Z52" s="100"/>
+      <c r="AA52" s="101"/>
       <c r="AE52" s="3"/>
     </row>
     <row r="53" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4469,13 +4703,13 @@
       <c r="U53" s="33"/>
       <c r="V53" s="33"/>
       <c r="W53" s="33"/>
-      <c r="X53" s="120">
+      <c r="X53" s="68">
         <f>SUM(X47:X52)</f>
         <v>0.84375000000000022</v>
       </c>
-      <c r="Y53" s="73"/>
-      <c r="Z53" s="73"/>
-      <c r="AA53" s="73"/>
+      <c r="Y53" s="95"/>
+      <c r="Z53" s="95"/>
+      <c r="AA53" s="95"/>
       <c r="AE53" s="3"/>
     </row>
     <row r="54" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -4485,60 +4719,862 @@
       <c r="D54" s="58"/>
       <c r="E54" s="4"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
       <c r="J54" s="57"/>
       <c r="K54" s="66"/>
       <c r="L54" s="58"/>
       <c r="M54" s="58"/>
       <c r="N54" s="4"/>
       <c r="O54" s="58"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="73"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="95"/>
       <c r="S54" s="57"/>
       <c r="T54" s="32"/>
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
       <c r="W54" s="33"/>
       <c r="X54" s="58"/>
-      <c r="Y54" s="72"/>
-      <c r="Z54" s="72"/>
-      <c r="AA54" s="72"/>
+      <c r="Y54" s="96"/>
+      <c r="Z54" s="96"/>
+      <c r="AA54" s="96"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="73"/>
-      <c r="R55" s="73"/>
-      <c r="S55" s="57"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="Y55" s="68"/>
-      <c r="Z55" s="68"/>
-      <c r="AA55" s="68"/>
+    <row r="55" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="91"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="92"/>
+      <c r="L55" s="92"/>
+      <c r="M55" s="92"/>
+      <c r="N55" s="92"/>
+      <c r="O55" s="92"/>
+      <c r="P55" s="92"/>
+      <c r="Q55" s="92"/>
+      <c r="R55" s="92"/>
+      <c r="S55" s="92"/>
+      <c r="T55" s="92"/>
+      <c r="U55" s="92"/>
+      <c r="V55" s="92"/>
+      <c r="W55" s="92"/>
+      <c r="X55" s="92"/>
+      <c r="Y55" s="92"/>
+      <c r="Z55" s="92"/>
+      <c r="AA55" s="92"/>
       <c r="AE55" s="3"/>
     </row>
+    <row r="56" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="91"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="92"/>
+      <c r="N56" s="92"/>
+      <c r="O56" s="92"/>
+      <c r="P56" s="92"/>
+      <c r="Q56" s="92"/>
+      <c r="R56" s="92"/>
+      <c r="S56" s="92"/>
+      <c r="T56" s="92"/>
+      <c r="U56" s="92"/>
+      <c r="V56" s="92"/>
+      <c r="W56" s="92"/>
+      <c r="X56" s="92"/>
+      <c r="Y56" s="92"/>
+      <c r="Z56" s="92"/>
+      <c r="AA56" s="92"/>
+    </row>
+    <row r="57" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="94"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="94"/>
+      <c r="O57" s="94"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="94"/>
+      <c r="S57" s="94"/>
+      <c r="T57" s="94"/>
+      <c r="U57" s="94"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
+      <c r="X57" s="94"/>
+      <c r="Y57" s="94"/>
+      <c r="Z57" s="94"/>
+      <c r="AA57" s="94"/>
+    </row>
+    <row r="58" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="70"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="89"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="70"/>
+      <c r="O58" s="70"/>
+      <c r="P58" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="90"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="70"/>
+      <c r="U58" s="70"/>
+      <c r="V58" s="70"/>
+      <c r="W58" s="70"/>
+      <c r="X58" s="70"/>
+      <c r="Y58" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z58" s="89"/>
+      <c r="AA58" s="90"/>
+    </row>
+    <row r="59" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="86"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="86"/>
+      <c r="R59" s="86"/>
+      <c r="S59" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U59" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="V59" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="86"/>
+      <c r="AA59" s="87"/>
+      <c r="AB59" s="145" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC59" s="26">
+        <f>SUM(X69+O69+F69)</f>
+        <v>2.8437500000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="35">
+        <v>43144</v>
+      </c>
+      <c r="C60" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D60" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="18">
+        <f>SUM(D60-C60)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G60" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="81"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="35">
+        <v>43144</v>
+      </c>
+      <c r="L60" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M60" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N60" s="19"/>
+      <c r="O60" s="18">
+        <f>SUM(M60-L60)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P60" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="82"/>
+      <c r="S60" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="35">
+        <v>43144</v>
+      </c>
+      <c r="U60" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V60" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W60" s="19"/>
+      <c r="X60" s="18">
+        <f>SUM(V60-U60)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y60" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z60" s="81"/>
+      <c r="AA60" s="82"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="35">
+        <v>43144</v>
+      </c>
+      <c r="C61" s="18">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D61" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="18">
+        <f t="shared" ref="F61:F68" si="16">SUM(D61-C61)</f>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="G61" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="81"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="35">
+        <v>43144</v>
+      </c>
+      <c r="L61" s="18">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="M61" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="N61" s="19"/>
+      <c r="O61" s="18">
+        <f t="shared" ref="O61:O68" si="17">SUM(M61-L61)</f>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="P61" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" s="81"/>
+      <c r="R61" s="82"/>
+      <c r="S61" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T61" s="35">
+        <v>43144</v>
+      </c>
+      <c r="U61" s="18">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="V61" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="W61" s="19"/>
+      <c r="X61" s="18">
+        <f t="shared" ref="X61:X68" si="18">SUM(V61-U61)</f>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="Y61" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z61" s="81"/>
+      <c r="AA61" s="82"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="35">
+        <v>43146</v>
+      </c>
+      <c r="C62" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D62" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="18">
+        <f t="shared" si="16"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G62" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="81"/>
+      <c r="I62" s="82"/>
+      <c r="J62" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="35">
+        <v>43146</v>
+      </c>
+      <c r="L62" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M62" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="N62" s="19"/>
+      <c r="O62" s="18">
+        <f t="shared" si="17"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="P62" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="81"/>
+      <c r="R62" s="82"/>
+      <c r="S62" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="35">
+        <v>43146</v>
+      </c>
+      <c r="U62" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V62" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="W62" s="19"/>
+      <c r="X62" s="18">
+        <f t="shared" si="18"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y62" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z62" s="81"/>
+      <c r="AA62" s="82"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="35">
+        <v>43154</v>
+      </c>
+      <c r="C63" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D63" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E63" s="19"/>
+      <c r="F63" s="18">
+        <f t="shared" si="16"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="G63" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="81"/>
+      <c r="I63" s="82"/>
+      <c r="J63" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="35">
+        <v>43154</v>
+      </c>
+      <c r="L63" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M63" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="N63" s="19"/>
+      <c r="O63" s="18">
+        <f t="shared" si="17"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="P63" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" s="81"/>
+      <c r="R63" s="82"/>
+      <c r="S63" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T63" s="35">
+        <v>43154</v>
+      </c>
+      <c r="U63" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="V63" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="W63" s="19"/>
+      <c r="X63" s="18">
+        <f t="shared" si="18"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="Y63" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z63" s="81"/>
+      <c r="AA63" s="82"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="35">
+        <v>43158</v>
+      </c>
+      <c r="C64" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D64" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E64" s="19"/>
+      <c r="F64" s="18">
+        <f t="shared" si="16"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G64" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="81"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" s="35">
+        <v>43158</v>
+      </c>
+      <c r="L64" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M64" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N64" s="19"/>
+      <c r="O64" s="18">
+        <f t="shared" si="17"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P64" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" s="81"/>
+      <c r="R64" s="82"/>
+      <c r="S64" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T64" s="35">
+        <v>43158</v>
+      </c>
+      <c r="U64" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V64" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W64" s="19"/>
+      <c r="X64" s="18">
+        <f t="shared" si="18"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y64" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z64" s="81"/>
+      <c r="AA64" s="82"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="35">
+        <v>43160</v>
+      </c>
+      <c r="C65" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D65" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="18">
+        <f t="shared" si="16"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G65" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="81"/>
+      <c r="I65" s="82"/>
+      <c r="J65" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" s="35">
+        <v>43160</v>
+      </c>
+      <c r="L65" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M65" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="N65" s="19"/>
+      <c r="O65" s="18">
+        <f t="shared" si="17"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="P65" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q65" s="81"/>
+      <c r="R65" s="82"/>
+      <c r="S65" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T65" s="35">
+        <v>43160</v>
+      </c>
+      <c r="U65" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V65" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="W65" s="19"/>
+      <c r="X65" s="18">
+        <f t="shared" si="18"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y65" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z65" s="81"/>
+      <c r="AA65" s="82"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="35">
+        <v>43161</v>
+      </c>
+      <c r="C66" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="D66" s="18">
+        <v>0.875</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="18">
+        <f t="shared" si="16"/>
+        <v>0.125</v>
+      </c>
+      <c r="G66" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" s="81"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="35">
+        <v>43161</v>
+      </c>
+      <c r="L66" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="M66" s="18">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N66" s="19"/>
+      <c r="O66" s="18">
+        <f t="shared" si="17"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P66" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q66" s="81"/>
+      <c r="R66" s="82"/>
+      <c r="S66" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="35">
+        <v>43161</v>
+      </c>
+      <c r="U66" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="V66" s="18">
+        <v>0.875</v>
+      </c>
+      <c r="W66" s="19"/>
+      <c r="X66" s="18">
+        <f t="shared" si="18"/>
+        <v>0.125</v>
+      </c>
+      <c r="Y66" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z66" s="81"/>
+      <c r="AA66" s="82"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="35">
+        <v>43162</v>
+      </c>
+      <c r="C67" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="D67" s="18">
+        <v>0.875</v>
+      </c>
+      <c r="E67" s="19"/>
+      <c r="F67" s="18">
+        <f t="shared" si="16"/>
+        <v>0.125</v>
+      </c>
+      <c r="G67" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="81"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="35">
+        <v>43162</v>
+      </c>
+      <c r="L67" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="M67" s="18">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N67" s="19"/>
+      <c r="O67" s="18">
+        <f t="shared" si="17"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P67" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q67" s="81"/>
+      <c r="R67" s="82"/>
+      <c r="S67" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T67" s="35">
+        <v>43162</v>
+      </c>
+      <c r="U67" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="V67" s="18">
+        <v>0.875</v>
+      </c>
+      <c r="W67" s="19"/>
+      <c r="X67" s="18">
+        <f t="shared" si="18"/>
+        <v>0.125</v>
+      </c>
+      <c r="Y67" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z67" s="81"/>
+      <c r="AA67" s="82"/>
+    </row>
+    <row r="68" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="76">
+        <v>43163</v>
+      </c>
+      <c r="C68" s="77">
+        <v>0.75</v>
+      </c>
+      <c r="D68" s="77">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E68" s="79"/>
+      <c r="F68" s="18">
+        <f t="shared" si="16"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="G68" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" s="83"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="76">
+        <v>43163</v>
+      </c>
+      <c r="L68" s="77">
+        <v>0.75</v>
+      </c>
+      <c r="M68" s="77">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="N68" s="79"/>
+      <c r="O68" s="18">
+        <f t="shared" si="17"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="P68" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q68" s="83"/>
+      <c r="R68" s="84"/>
+      <c r="S68" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" s="76">
+        <v>43163</v>
+      </c>
+      <c r="U68" s="77">
+        <v>0.75</v>
+      </c>
+      <c r="V68" s="77">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="W68" s="79"/>
+      <c r="X68" s="18">
+        <f t="shared" si="18"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="Y68" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z68" s="83"/>
+      <c r="AA68" s="84"/>
+    </row>
+    <row r="69" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="78">
+        <f>SUM(F60:F68)</f>
+        <v>0.97569444444444453</v>
+      </c>
+      <c r="K69" s="3"/>
+      <c r="O69" s="78">
+        <f>SUM(O60:O68)</f>
+        <v>0.89236111111111127</v>
+      </c>
+      <c r="T69" s="3"/>
+      <c r="X69" s="78">
+        <f>SUM(X60:X68)</f>
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="154">
+  <mergeCells count="189">
     <mergeCell ref="AS45:AU45"/>
     <mergeCell ref="BB45:BD45"/>
     <mergeCell ref="AJ46:AK46"/>
@@ -4683,7 +5719,6 @@
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="P54:R54"/>
     <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="P55:R55"/>
     <mergeCell ref="G50:I50"/>
     <mergeCell ref="P50:R50"/>
     <mergeCell ref="Y50:AA50"/>
@@ -4693,6 +5728,42 @@
     <mergeCell ref="G52:I52"/>
     <mergeCell ref="P52:R52"/>
     <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="A55:AA55"/>
+    <mergeCell ref="A56:AA56"/>
+    <mergeCell ref="A57:AA57"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P58:R58"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\4CHIF\Syp\multiflexlbkv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DC0897-558F-4817-BF9E-E9966FB0C9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD341B3-8D96-4274-A3BC-A542385A0A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="38">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -150,6 +150,9 @@
   <si>
     <t>Mapstruct aufgegeben</t>
   </si>
+  <si>
+    <t>Sprint: Februar-März</t>
+  </si>
 </sst>
 </file>
 
@@ -1228,6 +1231,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1421,9 +1427,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1797,86 +1800,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.85546875" style="2"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.85546875" style="2"/>
-    <col min="15" max="15" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.85546875" style="2"/>
-    <col min="19" max="19" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="10.85546875" style="2"/>
-    <col min="24" max="24" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="10.88671875" style="2"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.88671875" style="2"/>
+    <col min="15" max="15" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.88671875" style="2"/>
+    <col min="19" max="19" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="10.88671875" style="2"/>
+    <col min="24" max="24" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.88671875" style="2"/>
     <col min="28" max="28" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.85546875" style="2"/>
+    <col min="29" max="16384" width="10.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-    </row>
-    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+    </row>
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="135" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="130"/>
-      <c r="P2" s="133" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
+      <c r="P2" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="Y2" s="135" t="s">
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="Y2" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="130"/>
-    </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="131"/>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1895,11 +1898,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1918,11 +1921,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="102" t="s">
+      <c r="P3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -1941,11 +1944,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="102" t="s">
+      <c r="Y3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="104"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -1954,7 +1957,7 @@
         <v>1.1979166666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -1972,11 +1975,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="112"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -1994,11 +1997,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="112"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -2016,13 +2019,13 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="110" t="s">
+      <c r="Y4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="111"/>
-    </row>
-    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="112"/>
+    </row>
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2040,11 +2043,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="122"/>
-      <c r="I5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -2062,11 +2065,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="81" t="s">
+      <c r="P5" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="124"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="125"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -2084,13 +2087,13 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="122" t="s">
+      <c r="Y5" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="123"/>
-    </row>
-    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="124"/>
+    </row>
+    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -2108,11 +2111,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="122"/>
-      <c r="I6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="124"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -2130,9 +2133,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="124"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="125"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -2150,13 +2153,13 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="81" t="s">
+      <c r="Y6" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="124"/>
-    </row>
-    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="125"/>
+    </row>
+    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -2174,11 +2177,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="124"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -2196,9 +2199,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="124"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="125"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -2216,11 +2219,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="124"/>
-    </row>
-    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="125"/>
+    </row>
+    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -2238,11 +2241,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -2260,11 +2263,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="81" t="s">
+      <c r="P8" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="124"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="125"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -2282,11 +2285,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="124"/>
-    </row>
-    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="125"/>
+    </row>
+    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F9" s="6">
         <f>SUM(F4:F8)</f>
         <v>0.42361111111111116</v>
@@ -2308,11 +2311,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="131" t="s">
+      <c r="P9" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="133"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -2330,13 +2333,13 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="131" t="s">
+      <c r="Y9" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="131"/>
-      <c r="AA9" s="132"/>
-    </row>
-    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="133"/>
+    </row>
+    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2354,7 +2357,7 @@
         <v>0.47569444444444436</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2363,7 +2366,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2372,73 +2375,73 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="93" t="s">
+    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-    </row>
-    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+    </row>
+    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="128" t="s">
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="128" t="s">
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="131"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="125"/>
-      <c r="U14" s="125"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="128" t="s">
+      <c r="T14" s="126"/>
+      <c r="U14" s="126"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="129"/>
-      <c r="AA14" s="130"/>
-    </row>
-    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="130"/>
+      <c r="AA14" s="131"/>
+    </row>
+    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -2457,11 +2460,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="102" t="s">
+      <c r="G15" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="104"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2480,11 +2483,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="102" t="s">
+      <c r="P15" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="104"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2503,11 +2506,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="102" t="s">
+      <c r="Y15" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="103"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="104"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>4.5416666666666679</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
@@ -2534,11 +2537,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="110" t="s">
+      <c r="G16" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="112"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2556,11 +2559,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="97" t="s">
+      <c r="P16" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="100"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2578,13 +2581,13 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="97" t="s">
+      <c r="Y16" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="99"/>
-    </row>
-    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="100"/>
+    </row>
+    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
@@ -2602,11 +2605,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="122" t="s">
+      <c r="G17" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="124"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2624,11 +2627,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="116" t="s">
+      <c r="P17" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="119"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2646,11 +2649,11 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="138"/>
-      <c r="Z17" s="139"/>
-      <c r="AA17" s="140"/>
-    </row>
-    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="140"/>
+      <c r="AA17" s="141"/>
+    </row>
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2668,11 +2671,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="110" t="s">
+      <c r="G18" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="110"/>
-      <c r="I18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="112"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2690,11 +2693,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="97" t="s">
+      <c r="P18" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="100"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2712,13 +2715,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="97" t="s">
+      <c r="Y18" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="99"/>
-    </row>
-    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="100"/>
+    </row>
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
@@ -2736,11 +2739,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="110" t="s">
+      <c r="G19" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="110"/>
-      <c r="I19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="112"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2758,11 +2761,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="97" t="s">
+      <c r="P19" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="100"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2780,13 +2783,13 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="97" t="s">
+      <c r="Y19" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="99"/>
-    </row>
-    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="100"/>
+    </row>
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
@@ -2804,11 +2807,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="122" t="s">
+      <c r="G20" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="122"/>
-      <c r="I20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="124"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2826,11 +2829,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="97" t="s">
+      <c r="P20" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="100"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2848,13 +2851,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="110" t="s">
+      <c r="Y20" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="110"/>
-      <c r="AA20" s="111"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="112"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
@@ -2872,11 +2875,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="119" t="s">
+      <c r="G21" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="122"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2894,11 +2897,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="116" t="s">
+      <c r="P21" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="119"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -2916,13 +2919,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="112" t="s">
+      <c r="Y21" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="112"/>
-      <c r="AA21" s="113"/>
-    </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="114"/>
+    </row>
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>7</v>
       </c>
@@ -2940,11 +2943,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="110" t="s">
+      <c r="G22" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="110"/>
-      <c r="I22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="112"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -2962,11 +2965,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="119" t="s">
+      <c r="P22" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="121"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="122"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -2984,13 +2987,13 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="110" t="s">
+      <c r="Y22" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="111"/>
-    </row>
-    <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="112"/>
+    </row>
+    <row r="23" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3008,11 +3011,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="108" t="s">
+      <c r="G23" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="108"/>
-      <c r="I23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="110"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -3030,11 +3033,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="116" t="s">
+      <c r="P23" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="119"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -3052,13 +3055,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="112" t="s">
+      <c r="Y23" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="112"/>
-      <c r="AA23" s="113"/>
-    </row>
-    <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="114"/>
+    </row>
+    <row r="24" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" s="6">
         <f>SUM(F16:F23)</f>
         <v>1.3055555555555558</v>
@@ -3080,11 +3083,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="110" t="s">
+      <c r="P24" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -3102,13 +3105,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="112" t="s">
+      <c r="Y24" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="112"/>
-      <c r="AA24" s="113"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="114"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J25" s="38" t="s">
         <v>9</v>
       </c>
@@ -3126,11 +3129,11 @@
         <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="106" t="s">
+      <c r="P25" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="108"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -3148,21 +3151,21 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="106" t="s">
+      <c r="Y25" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="107"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="108"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -3180,11 +3183,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="119" t="s">
+      <c r="P26" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="122"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -3202,13 +3205,13 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="106" t="s">
+      <c r="Y26" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="107"/>
-    </row>
-    <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="108"/>
+    </row>
+    <row r="27" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J27" s="48" t="s">
         <v>9</v>
       </c>
@@ -3226,11 +3229,11 @@
         <f>SUM(M27-L27)</f>
         <v>0.15625</v>
       </c>
-      <c r="P27" s="114" t="s">
+      <c r="P27" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="115"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="116"/>
       <c r="S27" s="38" t="s">
         <v>8</v>
       </c>
@@ -3248,18 +3251,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="112" t="s">
+      <c r="Y27" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="113"/>
-    </row>
-    <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="114"/>
+    </row>
+    <row r="28" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -3281,93 +3284,93 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="108" t="s">
+      <c r="Y28" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="108"/>
-      <c r="AA28" s="109"/>
-    </row>
-    <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="110"/>
+    </row>
+    <row r="29" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="105"/>
-      <c r="Z29" s="105"/>
-      <c r="AA29" s="105"/>
-    </row>
-    <row r="31" spans="1:27" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="93" t="s">
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+    </row>
+    <row r="31" spans="1:27" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-    </row>
-    <row r="32" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+    </row>
+    <row r="32" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="128" t="s">
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="129"/>
-      <c r="I32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="131"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="128" t="s">
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="129"/>
-      <c r="R32" s="130"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="131"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="125"/>
-      <c r="U32" s="125"/>
-      <c r="V32" s="126"/>
-      <c r="W32" s="126"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="128" t="s">
+      <c r="T32" s="126"/>
+      <c r="U32" s="126"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" s="129"/>
-      <c r="AA32" s="130"/>
-    </row>
-    <row r="33" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z32" s="130"/>
+      <c r="AA32" s="131"/>
+    </row>
+    <row r="33" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -3386,11 +3389,11 @@
       <c r="F33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="102" t="s">
+      <c r="G33" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="102"/>
-      <c r="I33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="104"/>
       <c r="J33" s="42" t="s">
         <v>9</v>
       </c>
@@ -3409,11 +3412,11 @@
       <c r="O33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="102" t="s">
+      <c r="P33" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="104"/>
       <c r="S33" s="13" t="s">
         <v>8</v>
       </c>
@@ -3432,11 +3435,11 @@
       <c r="X33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="102" t="s">
+      <c r="Y33" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="102"/>
-      <c r="AA33" s="103"/>
+      <c r="Z33" s="103"/>
+      <c r="AA33" s="104"/>
       <c r="AB33" s="27" t="s">
         <v>19</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>1.479166666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -3463,11 +3466,11 @@
         <f t="shared" ref="F34:F37" si="7">SUM(D34-C34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G34" s="97" t="s">
+      <c r="G34" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="98"/>
-      <c r="I34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
       <c r="J34" s="23" t="s">
         <v>9</v>
       </c>
@@ -3485,11 +3488,11 @@
         <f t="shared" ref="O34:O37" si="8">SUM(M34-L34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P34" s="97" t="s">
+      <c r="P34" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="98"/>
-      <c r="R34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="100"/>
       <c r="S34" s="38" t="s">
         <v>8</v>
       </c>
@@ -3507,13 +3510,13 @@
         <f t="shared" ref="X34:X35" si="9">SUM(V34-U34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y34" s="97" t="s">
+      <c r="Y34" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="Z34" s="98"/>
-      <c r="AA34" s="99"/>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="100"/>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>7</v>
       </c>
@@ -3531,11 +3534,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G35" s="97" t="s">
+      <c r="G35" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="98"/>
-      <c r="I35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="100"/>
       <c r="J35" s="23" t="s">
         <v>9</v>
       </c>
@@ -3553,11 +3556,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P35" s="97" t="s">
+      <c r="P35" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="100"/>
       <c r="S35" s="38" t="s">
         <v>8</v>
       </c>
@@ -3575,13 +3578,13 @@
         <f t="shared" si="9"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y35" s="97" t="s">
+      <c r="Y35" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="98"/>
-      <c r="AA35" s="99"/>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="100"/>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
@@ -3599,11 +3602,11 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G36" s="97" t="s">
+      <c r="G36" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="98"/>
-      <c r="I36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
       <c r="J36" s="23" t="s">
         <v>9</v>
       </c>
@@ -3621,11 +3624,11 @@
         <f t="shared" si="8"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P36" s="97" t="s">
+      <c r="P36" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="98"/>
-      <c r="R36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="100"/>
       <c r="S36" s="38" t="s">
         <v>8</v>
       </c>
@@ -3643,13 +3646,13 @@
         <f t="shared" ref="X36:X37" si="10">SUM(V36-U36)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y36" s="97" t="s">
+      <c r="Y36" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="Z36" s="98"/>
-      <c r="AA36" s="99"/>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="Z36" s="99"/>
+      <c r="AA36" s="100"/>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>7</v>
       </c>
@@ -3667,11 +3670,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G37" s="97" t="s">
+      <c r="G37" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="98"/>
-      <c r="I37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="100"/>
       <c r="J37" s="23" t="s">
         <v>9</v>
       </c>
@@ -3689,11 +3692,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P37" s="97" t="s">
+      <c r="P37" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="98"/>
-      <c r="R37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="100"/>
       <c r="S37" s="38" t="s">
         <v>8</v>
       </c>
@@ -3711,13 +3714,13 @@
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Y37" s="116" t="s">
+      <c r="Y37" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" s="117"/>
-      <c r="AA37" s="118"/>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="Z37" s="118"/>
+      <c r="AA37" s="119"/>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>7</v>
       </c>
@@ -3735,11 +3738,11 @@
         <f>SUM(D38-C38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G38" s="97" t="s">
+      <c r="G38" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="98"/>
-      <c r="I38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
       <c r="J38" s="23" t="s">
         <v>9</v>
       </c>
@@ -3757,11 +3760,11 @@
         <f>SUM(M38-L38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P38" s="97" t="s">
+      <c r="P38" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="98"/>
-      <c r="R38" s="99"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="100"/>
       <c r="S38" s="38" t="s">
         <v>8</v>
       </c>
@@ -3779,13 +3782,13 @@
         <f t="shared" ref="X38:X39" si="11">SUM(V38-U38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y38" s="97" t="s">
+      <c r="Y38" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="Z38" s="98"/>
-      <c r="AA38" s="99"/>
-    </row>
-    <row r="39" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z38" s="99"/>
+      <c r="AA38" s="100"/>
+    </row>
+    <row r="39" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
         <v>7</v>
       </c>
@@ -3803,11 +3806,11 @@
         <f>SUM(D39-C39)</f>
         <v>0.125</v>
       </c>
-      <c r="G39" s="141" t="s">
+      <c r="G39" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="142"/>
-      <c r="I39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="144"/>
       <c r="J39" s="25" t="s">
         <v>9</v>
       </c>
@@ -3825,11 +3828,11 @@
         <f>SUM(M39-L39)</f>
         <v>0.125</v>
       </c>
-      <c r="P39" s="141" t="s">
+      <c r="P39" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="142"/>
-      <c r="R39" s="143"/>
+      <c r="Q39" s="143"/>
+      <c r="R39" s="144"/>
       <c r="S39" s="38" t="s">
         <v>8</v>
       </c>
@@ -3847,13 +3850,13 @@
         <f t="shared" si="11"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y39" s="97" t="s">
+      <c r="Y39" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="Z39" s="98"/>
-      <c r="AA39" s="99"/>
-    </row>
-    <row r="40" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="99"/>
+      <c r="AA39" s="100"/>
+    </row>
+    <row r="40" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="62"/>
       <c r="B40" s="63"/>
       <c r="C40" s="64"/>
@@ -3895,31 +3898,31 @@
         <f>SUM(V40-U40)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y40" s="97" t="s">
+      <c r="Y40" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="Z40" s="98"/>
-      <c r="AA40" s="99"/>
-    </row>
-    <row r="41" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z40" s="99"/>
+      <c r="AA40" s="100"/>
+    </row>
+    <row r="41" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="57"/>
       <c r="B41" s="46"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
       <c r="E41" s="4"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
       <c r="J41" s="57"/>
       <c r="K41" s="66"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
       <c r="N41" s="4"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="96"/>
+      <c r="R41" s="96"/>
       <c r="S41" s="56" t="s">
         <v>8</v>
       </c>
@@ -3937,13 +3940,13 @@
         <f>SUM(V41-U41)</f>
         <v>0.125</v>
       </c>
-      <c r="Y41" s="141" t="s">
+      <c r="Y41" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="Z41" s="142"/>
-      <c r="AA41" s="143"/>
-    </row>
-    <row r="42" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z41" s="143"/>
+      <c r="AA41" s="144"/>
+    </row>
+    <row r="42" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="59"/>
       <c r="C42" s="4"/>
@@ -3959,9 +3962,9 @@
       <c r="M42" s="58"/>
       <c r="N42" s="4"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="96"/>
       <c r="S42" s="62"/>
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
@@ -3975,7 +3978,7 @@
       <c r="Z42" s="65"/>
       <c r="AA42" s="65"/>
     </row>
-    <row r="43" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="59"/>
       <c r="C43" s="4"/>
@@ -3991,113 +3994,113 @@
       <c r="M43" s="58"/>
       <c r="N43" s="4"/>
       <c r="O43" s="58"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
       <c r="S43" s="57"/>
       <c r="T43" s="46"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
       <c r="W43" s="4"/>
       <c r="X43" s="58"/>
-      <c r="Y43" s="96"/>
-      <c r="Z43" s="96"/>
-      <c r="AA43" s="96"/>
-    </row>
-    <row r="44" spans="1:56" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="93" t="s">
+      <c r="Y43" s="97"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="97"/>
+    </row>
+    <row r="44" spans="1:56" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="94"/>
-      <c r="X44" s="94"/>
-      <c r="Y44" s="94"/>
-      <c r="Z44" s="94"/>
-      <c r="AA44" s="94"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="95"/>
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="33"/>
       <c r="AG44" s="33"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="34"/>
-      <c r="AJ44" s="95"/>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
+      <c r="AJ44" s="96"/>
+      <c r="AK44" s="96"/>
+      <c r="AL44" s="96"/>
       <c r="AM44" s="57"/>
       <c r="AN44" s="46"/>
       <c r="AO44" s="58"/>
       <c r="AP44" s="58"/>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="58"/>
-      <c r="AS44" s="96"/>
-      <c r="AT44" s="96"/>
-      <c r="AU44" s="96"/>
+      <c r="AS44" s="97"/>
+      <c r="AT44" s="97"/>
+      <c r="AU44" s="97"/>
       <c r="AV44" s="57"/>
       <c r="AW44" s="46"/>
       <c r="AX44" s="58"/>
       <c r="AY44" s="58"/>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="58"/>
-      <c r="BB44" s="96"/>
-      <c r="BC44" s="96"/>
-      <c r="BD44" s="96"/>
-    </row>
-    <row r="45" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BB44" s="97"/>
+      <c r="BC44" s="97"/>
+      <c r="BD44" s="97"/>
+    </row>
+    <row r="45" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="125"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="128" t="s">
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="129"/>
-      <c r="I45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="131"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="126"/>
-      <c r="N45" s="126"/>
-      <c r="O45" s="127"/>
-      <c r="P45" s="128" t="str">
+      <c r="K45" s="126"/>
+      <c r="L45" s="126"/>
+      <c r="M45" s="127"/>
+      <c r="N45" s="127"/>
+      <c r="O45" s="128"/>
+      <c r="P45" s="129" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Q45" s="129"/>
-      <c r="R45" s="130"/>
+      <c r="Q45" s="130"/>
+      <c r="R45" s="131"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="125"/>
-      <c r="U45" s="125"/>
-      <c r="V45" s="126"/>
-      <c r="W45" s="126"/>
-      <c r="X45" s="127"/>
-      <c r="Y45" s="128" t="str">
+      <c r="T45" s="126"/>
+      <c r="U45" s="126"/>
+      <c r="V45" s="127"/>
+      <c r="W45" s="127"/>
+      <c r="X45" s="128"/>
+      <c r="Y45" s="129" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Z45" s="129"/>
-      <c r="AA45" s="130"/>
+      <c r="Z45" s="130"/>
+      <c r="AA45" s="131"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="4"/>
@@ -4113,20 +4116,20 @@
       <c r="AP45" s="58"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="58"/>
-      <c r="AS45" s="96"/>
-      <c r="AT45" s="96"/>
-      <c r="AU45" s="96"/>
+      <c r="AS45" s="97"/>
+      <c r="AT45" s="97"/>
+      <c r="AU45" s="97"/>
       <c r="AV45" s="57"/>
       <c r="AW45" s="46"/>
       <c r="AX45" s="58"/>
       <c r="AY45" s="58"/>
       <c r="AZ45" s="4"/>
       <c r="BA45" s="58"/>
-      <c r="BB45" s="96"/>
-      <c r="BC45" s="96"/>
-      <c r="BD45" s="96"/>
-    </row>
-    <row r="46" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BB45" s="97"/>
+      <c r="BC45" s="97"/>
+      <c r="BD45" s="97"/>
+    </row>
+    <row r="46" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>7</v>
       </c>
@@ -4145,11 +4148,11 @@
       <c r="F46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="102" t="s">
+      <c r="G46" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="102"/>
-      <c r="I46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="104"/>
       <c r="J46" s="42" t="s">
         <v>9</v>
       </c>
@@ -4168,11 +4171,11 @@
       <c r="O46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P46" s="102" t="s">
+      <c r="P46" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="102"/>
-      <c r="R46" s="103"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="104"/>
       <c r="S46" s="13" t="s">
         <v>8</v>
       </c>
@@ -4191,11 +4194,11 @@
       <c r="X46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y46" s="102" t="s">
+      <c r="Y46" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="Z46" s="102"/>
-      <c r="AA46" s="103"/>
+      <c r="Z46" s="103"/>
+      <c r="AA46" s="104"/>
       <c r="AB46" s="27" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4212,8 @@
       <c r="AG46" s="58"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="104"/>
-      <c r="AK46" s="104"/>
+      <c r="AJ46" s="105"/>
+      <c r="AK46" s="105"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
@@ -4227,11 +4230,11 @@
       <c r="AY46" s="58"/>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="58"/>
-      <c r="BB46" s="96"/>
-      <c r="BC46" s="96"/>
-      <c r="BD46" s="96"/>
-    </row>
-    <row r="47" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="BB46" s="97"/>
+      <c r="BC46" s="97"/>
+      <c r="BD46" s="97"/>
+    </row>
+    <row r="47" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>7</v>
       </c>
@@ -4249,11 +4252,11 @@
         <f t="shared" ref="F47:F50" si="12">SUM(D47-C47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="G47" s="97" t="s">
+      <c r="G47" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="98"/>
-      <c r="I47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="100"/>
       <c r="J47" s="23" t="s">
         <v>9</v>
       </c>
@@ -4271,11 +4274,11 @@
         <f t="shared" ref="O47:O52" si="13">SUM(M47-L47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="P47" s="97" t="s">
+      <c r="P47" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="98"/>
-      <c r="R47" s="99"/>
+      <c r="Q47" s="99"/>
+      <c r="R47" s="100"/>
       <c r="S47" s="38" t="s">
         <v>8</v>
       </c>
@@ -4293,19 +4296,19 @@
         <f t="shared" ref="X47:X50" si="14">SUM(V47-U47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Y47" s="97" t="s">
+      <c r="Y47" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="98"/>
-      <c r="AA47" s="99"/>
+      <c r="Z47" s="99"/>
+      <c r="AA47" s="100"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="61"/>
       <c r="AF47" s="58"/>
       <c r="AG47" s="58"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="144"/>
-      <c r="AK47" s="144"/>
+      <c r="AJ47" s="145"/>
+      <c r="AK47" s="145"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
@@ -4322,11 +4325,11 @@
       <c r="AY47" s="4"/>
       <c r="AZ47" s="4"/>
       <c r="BA47" s="60"/>
-      <c r="BB47" s="144"/>
-      <c r="BC47" s="144"/>
-      <c r="BD47" s="144"/>
-    </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="BB47" s="145"/>
+      <c r="BC47" s="145"/>
+      <c r="BD47" s="145"/>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>7</v>
       </c>
@@ -4344,11 +4347,11 @@
         <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G48" s="97" t="s">
+      <c r="G48" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="98"/>
-      <c r="I48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="100"/>
       <c r="J48" s="23" t="s">
         <v>9</v>
       </c>
@@ -4366,11 +4369,11 @@
         <f t="shared" si="13"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P48" s="97" t="s">
+      <c r="P48" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" s="98"/>
-      <c r="R48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="100"/>
       <c r="S48" s="38" t="s">
         <v>8</v>
       </c>
@@ -4388,14 +4391,14 @@
         <f t="shared" si="14"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y48" s="97" t="s">
+      <c r="Y48" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Z48" s="98"/>
-      <c r="AA48" s="99"/>
+      <c r="Z48" s="99"/>
+      <c r="AA48" s="100"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>7</v>
       </c>
@@ -4413,11 +4416,11 @@
         <f t="shared" si="12"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G49" s="97" t="s">
+      <c r="G49" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="98"/>
-      <c r="I49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="100"/>
       <c r="J49" s="23" t="s">
         <v>9</v>
       </c>
@@ -4435,11 +4438,11 @@
         <f t="shared" si="13"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="P49" s="97" t="s">
+      <c r="P49" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Q49" s="98"/>
-      <c r="R49" s="99"/>
+      <c r="Q49" s="99"/>
+      <c r="R49" s="100"/>
       <c r="S49" s="38" t="s">
         <v>8</v>
       </c>
@@ -4457,14 +4460,14 @@
         <f t="shared" si="14"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="Y49" s="97" t="s">
+      <c r="Y49" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="98"/>
-      <c r="AA49" s="99"/>
+      <c r="Z49" s="99"/>
+      <c r="AA49" s="100"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>7</v>
       </c>
@@ -4482,11 +4485,11 @@
         <f t="shared" si="12"/>
         <v>0.23125000000000007</v>
       </c>
-      <c r="G50" s="97" t="s">
+      <c r="G50" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="98"/>
-      <c r="I50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="100"/>
       <c r="J50" s="23" t="s">
         <v>9</v>
       </c>
@@ -4504,11 +4507,11 @@
         <f t="shared" si="13"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P50" s="97" t="s">
+      <c r="P50" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" s="98"/>
-      <c r="R50" s="99"/>
+      <c r="Q50" s="99"/>
+      <c r="R50" s="100"/>
       <c r="S50" s="38" t="s">
         <v>8</v>
       </c>
@@ -4526,14 +4529,14 @@
         <f t="shared" si="14"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y50" s="97" t="s">
+      <c r="Y50" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="Z50" s="98"/>
-      <c r="AA50" s="99"/>
+      <c r="Z50" s="99"/>
+      <c r="AA50" s="100"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>7</v>
       </c>
@@ -4553,11 +4556,11 @@
         <f>SUM(D51-C51)</f>
         <v>0.32291666666666669</v>
       </c>
-      <c r="G51" s="97" t="s">
+      <c r="G51" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="98"/>
-      <c r="I51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="100"/>
       <c r="J51" s="23" t="s">
         <v>9</v>
       </c>
@@ -4575,11 +4578,11 @@
         <f>SUM(M51-L51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="P51" s="97" t="s">
+      <c r="P51" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="98"/>
-      <c r="R51" s="99"/>
+      <c r="Q51" s="99"/>
+      <c r="R51" s="100"/>
       <c r="S51" s="38" t="s">
         <v>8</v>
       </c>
@@ -4597,14 +4600,14 @@
         <f>SUM(V51-U51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="Y51" s="97" t="s">
+      <c r="Y51" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="Z51" s="98"/>
-      <c r="AA51" s="99"/>
+      <c r="Z51" s="99"/>
+      <c r="AA51" s="100"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="53" t="s">
         <v>7</v>
       </c>
@@ -4622,11 +4625,11 @@
         <f>SUM(D52-C52)</f>
         <v>0.17083333333333339</v>
       </c>
-      <c r="G52" s="97" t="s">
+      <c r="G52" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="100"/>
       <c r="J52" s="25" t="s">
         <v>9</v>
       </c>
@@ -4644,11 +4647,11 @@
         <f t="shared" si="13"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="P52" s="97" t="s">
+      <c r="P52" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="Q52" s="98"/>
-      <c r="R52" s="98"/>
+      <c r="Q52" s="99"/>
+      <c r="R52" s="99"/>
       <c r="S52" s="25" t="s">
         <v>8</v>
       </c>
@@ -4666,14 +4669,14 @@
         <f t="shared" ref="X52" si="15">SUM(V52-U52)</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="Y52" s="100" t="s">
+      <c r="Y52" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="Z52" s="100"/>
-      <c r="AA52" s="101"/>
+      <c r="Z52" s="101"/>
+      <c r="AA52" s="102"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62"/>
       <c r="B53" s="63"/>
       <c r="C53" s="64"/>
@@ -4707,167 +4710,169 @@
         <f>SUM(X47:X52)</f>
         <v>0.84375000000000022</v>
       </c>
-      <c r="Y53" s="95"/>
-      <c r="Z53" s="95"/>
-      <c r="AA53" s="95"/>
+      <c r="Y53" s="96"/>
+      <c r="Z53" s="96"/>
+      <c r="AA53" s="96"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57"/>
       <c r="B54" s="46"/>
       <c r="C54" s="58"/>
       <c r="D54" s="58"/>
       <c r="E54" s="4"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="97"/>
       <c r="J54" s="57"/>
       <c r="K54" s="66"/>
       <c r="L54" s="58"/>
       <c r="M54" s="58"/>
       <c r="N54" s="4"/>
       <c r="O54" s="58"/>
-      <c r="P54" s="95"/>
-      <c r="Q54" s="95"/>
-      <c r="R54" s="95"/>
+      <c r="P54" s="96"/>
+      <c r="Q54" s="96"/>
+      <c r="R54" s="96"/>
       <c r="S54" s="57"/>
       <c r="T54" s="32"/>
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
       <c r="W54" s="33"/>
       <c r="X54" s="58"/>
-      <c r="Y54" s="96"/>
-      <c r="Z54" s="96"/>
-      <c r="AA54" s="96"/>
+      <c r="Y54" s="97"/>
+      <c r="Z54" s="97"/>
+      <c r="AA54" s="97"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="91"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="92"/>
-      <c r="L55" s="92"/>
-      <c r="M55" s="92"/>
-      <c r="N55" s="92"/>
-      <c r="O55" s="92"/>
-      <c r="P55" s="92"/>
-      <c r="Q55" s="92"/>
-      <c r="R55" s="92"/>
-      <c r="S55" s="92"/>
-      <c r="T55" s="92"/>
-      <c r="U55" s="92"/>
-      <c r="V55" s="92"/>
-      <c r="W55" s="92"/>
-      <c r="X55" s="92"/>
-      <c r="Y55" s="92"/>
-      <c r="Z55" s="92"/>
-      <c r="AA55" s="92"/>
+    <row r="55" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="92"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="93"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="93"/>
+      <c r="O55" s="93"/>
+      <c r="P55" s="93"/>
+      <c r="Q55" s="93"/>
+      <c r="R55" s="93"/>
+      <c r="S55" s="93"/>
+      <c r="T55" s="93"/>
+      <c r="U55" s="93"/>
+      <c r="V55" s="93"/>
+      <c r="W55" s="93"/>
+      <c r="X55" s="93"/>
+      <c r="Y55" s="93"/>
+      <c r="Z55" s="93"/>
+      <c r="AA55" s="93"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="91"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="92"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="92"/>
-      <c r="N56" s="92"/>
-      <c r="O56" s="92"/>
-      <c r="P56" s="92"/>
-      <c r="Q56" s="92"/>
-      <c r="R56" s="92"/>
-      <c r="S56" s="92"/>
-      <c r="T56" s="92"/>
-      <c r="U56" s="92"/>
-      <c r="V56" s="92"/>
-      <c r="W56" s="92"/>
-      <c r="X56" s="92"/>
-      <c r="Y56" s="92"/>
-      <c r="Z56" s="92"/>
-      <c r="AA56" s="92"/>
-    </row>
-    <row r="57" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="93" t="s">
+    <row r="56" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="92"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="93"/>
+      <c r="L56" s="93"/>
+      <c r="M56" s="93"/>
+      <c r="N56" s="93"/>
+      <c r="O56" s="93"/>
+      <c r="P56" s="93"/>
+      <c r="Q56" s="93"/>
+      <c r="R56" s="93"/>
+      <c r="S56" s="93"/>
+      <c r="T56" s="93"/>
+      <c r="U56" s="93"/>
+      <c r="V56" s="93"/>
+      <c r="W56" s="93"/>
+      <c r="X56" s="93"/>
+      <c r="Y56" s="93"/>
+      <c r="Z56" s="93"/>
+      <c r="AA56" s="93"/>
+    </row>
+    <row r="57" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="94"/>
-      <c r="T57" s="94"/>
-      <c r="U57" s="94"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
-      <c r="X57" s="94"/>
-      <c r="Y57" s="94"/>
-      <c r="Z57" s="94"/>
-      <c r="AA57" s="94"/>
-    </row>
-    <row r="58" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
+      <c r="N57" s="95"/>
+      <c r="O57" s="95"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="95"/>
+      <c r="R57" s="95"/>
+      <c r="S57" s="95"/>
+      <c r="T57" s="95"/>
+      <c r="U57" s="95"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
+      <c r="X57" s="95"/>
+      <c r="Y57" s="95"/>
+      <c r="Z57" s="95"/>
+      <c r="AA57" s="95"/>
+    </row>
+    <row r="58" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="70"/>
       <c r="B58" s="71"/>
       <c r="C58" s="70"/>
       <c r="D58" s="70"/>
       <c r="E58" s="70"/>
       <c r="F58" s="70"/>
-      <c r="G58" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="89"/>
-      <c r="I58" s="90"/>
+      <c r="G58" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="90"/>
+      <c r="I58" s="91"/>
       <c r="J58" s="70"/>
       <c r="K58" s="70"/>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
       <c r="N58" s="70"/>
       <c r="O58" s="70"/>
-      <c r="P58" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q58" s="89"/>
-      <c r="R58" s="90"/>
+      <c r="P58" s="89" t="str">
+        <f>G58</f>
+        <v>Sprint: Februar-März</v>
+      </c>
+      <c r="Q58" s="90"/>
+      <c r="R58" s="91"/>
       <c r="S58" s="70"/>
       <c r="T58" s="70"/>
       <c r="U58" s="70"/>
       <c r="V58" s="70"/>
       <c r="W58" s="70"/>
       <c r="X58" s="70"/>
-      <c r="Y58" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z58" s="89"/>
-      <c r="AA58" s="90"/>
-    </row>
-    <row r="59" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y58" s="89" t="str">
+        <f>G58</f>
+        <v>Sprint: Februar-März</v>
+      </c>
+      <c r="Z58" s="90"/>
+      <c r="AA58" s="91"/>
+    </row>
+    <row r="59" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="72" t="s">
         <v>7</v>
       </c>
@@ -4886,11 +4891,11 @@
       <c r="F59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="85" t="s">
+      <c r="G59" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
       <c r="J59" s="80" t="s">
         <v>9</v>
       </c>
@@ -4909,11 +4914,11 @@
       <c r="O59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P59" s="85" t="s">
+      <c r="P59" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="86"/>
-      <c r="R59" s="86"/>
+      <c r="Q59" s="87"/>
+      <c r="R59" s="87"/>
       <c r="S59" s="80" t="s">
         <v>8</v>
       </c>
@@ -4932,12 +4937,12 @@
       <c r="X59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="Y59" s="85" t="s">
+      <c r="Y59" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="Z59" s="86"/>
-      <c r="AA59" s="87"/>
-      <c r="AB59" s="145" t="s">
+      <c r="Z59" s="87"/>
+      <c r="AA59" s="88"/>
+      <c r="AB59" s="81" t="s">
         <v>19</v>
       </c>
       <c r="AC59" s="26">
@@ -4945,7 +4950,7 @@
         <v>2.8437500000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>7</v>
       </c>
@@ -4963,11 +4968,11 @@
         <f>SUM(D60-C60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G60" s="81" t="s">
+      <c r="G60" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="81"/>
-      <c r="I60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="83"/>
       <c r="J60" s="74" t="s">
         <v>9</v>
       </c>
@@ -4985,11 +4990,11 @@
         <f>SUM(M60-L60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P60" s="81" t="s">
+      <c r="P60" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="Q60" s="81"/>
-      <c r="R60" s="82"/>
+      <c r="Q60" s="82"/>
+      <c r="R60" s="83"/>
       <c r="S60" s="74" t="s">
         <v>8</v>
       </c>
@@ -5007,13 +5012,13 @@
         <f>SUM(V60-U60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y60" s="81" t="s">
+      <c r="Y60" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="Z60" s="81"/>
-      <c r="AA60" s="82"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z60" s="82"/>
+      <c r="AA60" s="83"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>7</v>
       </c>
@@ -5031,11 +5036,11 @@
         <f t="shared" ref="F61:F68" si="16">SUM(D61-C61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G61" s="81" t="s">
+      <c r="G61" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="81"/>
-      <c r="I61" s="82"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="83"/>
       <c r="J61" s="74" t="s">
         <v>9</v>
       </c>
@@ -5053,11 +5058,11 @@
         <f t="shared" ref="O61:O68" si="17">SUM(M61-L61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P61" s="81" t="s">
+      <c r="P61" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="Q61" s="81"/>
-      <c r="R61" s="82"/>
+      <c r="Q61" s="82"/>
+      <c r="R61" s="83"/>
       <c r="S61" s="74" t="s">
         <v>8</v>
       </c>
@@ -5075,13 +5080,13 @@
         <f t="shared" ref="X61:X68" si="18">SUM(V61-U61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y61" s="81" t="s">
+      <c r="Y61" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="Z61" s="81"/>
-      <c r="AA61" s="82"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z61" s="82"/>
+      <c r="AA61" s="83"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>7</v>
       </c>
@@ -5099,11 +5104,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G62" s="81" t="s">
+      <c r="G62" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="81"/>
-      <c r="I62" s="82"/>
+      <c r="H62" s="82"/>
+      <c r="I62" s="83"/>
       <c r="J62" s="74" t="s">
         <v>9</v>
       </c>
@@ -5121,11 +5126,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P62" s="81" t="s">
+      <c r="P62" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="Q62" s="81"/>
-      <c r="R62" s="82"/>
+      <c r="Q62" s="82"/>
+      <c r="R62" s="83"/>
       <c r="S62" s="74" t="s">
         <v>8</v>
       </c>
@@ -5143,13 +5148,13 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y62" s="81" t="s">
+      <c r="Y62" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="Z62" s="81"/>
-      <c r="AA62" s="82"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z62" s="82"/>
+      <c r="AA62" s="83"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>7</v>
       </c>
@@ -5167,11 +5172,11 @@
         <f t="shared" si="16"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="G63" s="81" t="s">
+      <c r="G63" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="81"/>
-      <c r="I63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="83"/>
       <c r="J63" s="74" t="s">
         <v>9</v>
       </c>
@@ -5189,11 +5194,11 @@
         <f t="shared" si="17"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P63" s="81" t="s">
+      <c r="P63" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="Q63" s="81"/>
-      <c r="R63" s="82"/>
+      <c r="Q63" s="82"/>
+      <c r="R63" s="83"/>
       <c r="S63" s="74" t="s">
         <v>8</v>
       </c>
@@ -5211,13 +5216,13 @@
         <f t="shared" si="18"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="Y63" s="81" t="s">
+      <c r="Y63" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="Z63" s="81"/>
-      <c r="AA63" s="82"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z63" s="82"/>
+      <c r="AA63" s="83"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>7</v>
       </c>
@@ -5235,11 +5240,11 @@
         <f t="shared" si="16"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G64" s="81" t="s">
+      <c r="G64" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="81"/>
-      <c r="I64" s="82"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="83"/>
       <c r="J64" s="74" t="s">
         <v>9</v>
       </c>
@@ -5257,11 +5262,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P64" s="81" t="s">
+      <c r="P64" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="Q64" s="81"/>
-      <c r="R64" s="82"/>
+      <c r="Q64" s="82"/>
+      <c r="R64" s="83"/>
       <c r="S64" s="74" t="s">
         <v>8</v>
       </c>
@@ -5279,13 +5284,13 @@
         <f t="shared" si="18"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y64" s="81" t="s">
+      <c r="Y64" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="Z64" s="81"/>
-      <c r="AA64" s="82"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z64" s="82"/>
+      <c r="AA64" s="83"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>7</v>
       </c>
@@ -5303,11 +5308,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G65" s="81" t="s">
+      <c r="G65" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="81"/>
-      <c r="I65" s="82"/>
+      <c r="H65" s="82"/>
+      <c r="I65" s="83"/>
       <c r="J65" s="74" t="s">
         <v>9</v>
       </c>
@@ -5325,11 +5330,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P65" s="81" t="s">
+      <c r="P65" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="81"/>
-      <c r="R65" s="82"/>
+      <c r="Q65" s="82"/>
+      <c r="R65" s="83"/>
       <c r="S65" s="74" t="s">
         <v>8</v>
       </c>
@@ -5347,13 +5352,13 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y65" s="81" t="s">
+      <c r="Y65" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="Z65" s="81"/>
-      <c r="AA65" s="82"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z65" s="82"/>
+      <c r="AA65" s="83"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>7</v>
       </c>
@@ -5371,11 +5376,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G66" s="81" t="s">
+      <c r="G66" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="81"/>
-      <c r="I66" s="82"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="83"/>
       <c r="J66" s="74" t="s">
         <v>9</v>
       </c>
@@ -5393,11 +5398,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P66" s="81" t="s">
+      <c r="P66" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="Q66" s="81"/>
-      <c r="R66" s="82"/>
+      <c r="Q66" s="82"/>
+      <c r="R66" s="83"/>
       <c r="S66" s="74" t="s">
         <v>8</v>
       </c>
@@ -5415,13 +5420,13 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y66" s="81" t="s">
+      <c r="Y66" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="Z66" s="81"/>
-      <c r="AA66" s="82"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z66" s="82"/>
+      <c r="AA66" s="83"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>7</v>
       </c>
@@ -5439,11 +5444,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G67" s="81" t="s">
+      <c r="G67" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="81"/>
-      <c r="I67" s="82"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="83"/>
       <c r="J67" s="74" t="s">
         <v>9</v>
       </c>
@@ -5461,11 +5466,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P67" s="81" t="s">
+      <c r="P67" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="Q67" s="81"/>
-      <c r="R67" s="82"/>
+      <c r="Q67" s="82"/>
+      <c r="R67" s="83"/>
       <c r="S67" s="74" t="s">
         <v>8</v>
       </c>
@@ -5483,13 +5488,13 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y67" s="81" t="s">
+      <c r="Y67" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="Z67" s="81"/>
-      <c r="AA67" s="82"/>
-    </row>
-    <row r="68" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z67" s="82"/>
+      <c r="AA67" s="83"/>
+    </row>
+    <row r="68" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="75" t="s">
         <v>7</v>
       </c>
@@ -5507,11 +5512,11 @@
         <f t="shared" si="16"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G68" s="83" t="s">
+      <c r="G68" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="83"/>
-      <c r="I68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="85"/>
       <c r="J68" s="75" t="s">
         <v>9</v>
       </c>
@@ -5529,11 +5534,11 @@
         <f t="shared" si="17"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="P68" s="83" t="s">
+      <c r="P68" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="83"/>
-      <c r="R68" s="84"/>
+      <c r="Q68" s="84"/>
+      <c r="R68" s="85"/>
       <c r="S68" s="75" t="s">
         <v>8</v>
       </c>
@@ -5551,13 +5556,13 @@
         <f t="shared" si="18"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="Y68" s="83" t="s">
+      <c r="Y68" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="Z68" s="83"/>
-      <c r="AA68" s="84"/>
-    </row>
-    <row r="69" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z68" s="84"/>
+      <c r="AA68" s="85"/>
+    </row>
+    <row r="69" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F69" s="78">
         <f>SUM(F60:F68)</f>
         <v>0.97569444444444453</v>
@@ -5784,7 +5789,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\4CHIF\Syp\multiflexlbkv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD341B3-8D96-4274-A3BC-A542385A0A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55220072-AB13-4D1C-842F-3B41CD6F0A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="38">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -218,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -973,11 +973,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1234,136 +1299,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1386,47 +1337,188 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1798,88 +1890,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD69"/>
+  <dimension ref="A1:BD83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q86" sqref="Q86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.88671875" style="2"/>
-    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.88671875" style="2"/>
-    <col min="15" max="15" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.88671875" style="2"/>
-    <col min="19" max="19" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="10.88671875" style="2"/>
-    <col min="24" max="24" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10.88671875" style="2"/>
+    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="10.85546875" style="2"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.85546875" style="2"/>
+    <col min="15" max="15" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.85546875" style="2"/>
+    <col min="19" max="19" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="10.85546875" style="2"/>
+    <col min="24" max="24" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.85546875" style="2"/>
     <col min="28" max="28" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.88671875" style="2"/>
+    <col min="29" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-    </row>
-    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+    </row>
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="136" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="131"/>
-      <c r="P2" s="134" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="93"/>
+      <c r="P2" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="Y2" s="136" t="s">
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="Y2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="131"/>
-    </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="93"/>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1898,11 +1990,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="95"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1921,11 +2013,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="103" t="s">
+      <c r="P3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="104"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="95"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -1944,11 +2036,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="103" t="s">
+      <c r="Y3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="104"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="95"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -1957,7 +2049,7 @@
         <v>1.1979166666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -1975,11 +2067,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -1997,11 +2089,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="112"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="109"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -2019,13 +2111,13 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="111" t="s">
+      <c r="Y4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="112"/>
-    </row>
-    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="109"/>
+    </row>
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2043,11 +2135,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="123" t="s">
+      <c r="G5" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -2065,11 +2157,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="82" t="s">
+      <c r="P5" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="125"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="116"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -2087,13 +2179,13 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="123" t="s">
+      <c r="Y5" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="124"/>
-    </row>
-    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="114"/>
+    </row>
+    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -2111,11 +2203,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="123" t="s">
+      <c r="G6" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="123"/>
-      <c r="I6" s="124"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -2133,9 +2225,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="125"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="116"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -2153,13 +2245,13 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="82" t="s">
+      <c r="Y6" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="125"/>
-    </row>
-    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z6" s="115"/>
+      <c r="AA6" s="116"/>
+    </row>
+    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -2177,11 +2269,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="123" t="s">
+      <c r="G7" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="124"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -2199,9 +2291,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="125"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="116"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -2219,11 +2311,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="125"/>
-    </row>
-    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="116"/>
+    </row>
+    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -2241,11 +2333,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -2263,11 +2355,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="82" t="s">
+      <c r="P8" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="125"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="116"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -2285,11 +2377,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="125"/>
-    </row>
-    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="116"/>
+    </row>
+    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="6">
         <f>SUM(F4:F8)</f>
         <v>0.42361111111111116</v>
@@ -2311,11 +2403,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="132" t="s">
+      <c r="P9" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="133"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="118"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -2333,13 +2425,13 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="132" t="s">
+      <c r="Y9" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="133"/>
-    </row>
-    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="118"/>
+    </row>
+    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2357,7 +2449,7 @@
         <v>0.47569444444444436</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2366,7 +2458,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2375,73 +2467,73 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
+    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-    </row>
-    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+    </row>
+    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="129" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="129" t="s">
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="131"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="93"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="126"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="129" t="s">
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="130"/>
-      <c r="AA14" s="131"/>
-    </row>
-    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="93"/>
+    </row>
+    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -2460,11 +2552,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="103"/>
-      <c r="I15" s="104"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="95"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2483,11 +2575,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="103" t="s">
+      <c r="P15" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="104"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2506,11 +2598,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="103" t="s">
+      <c r="Y15" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="104"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="95"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2519,7 +2611,7 @@
         <v>4.5416666666666679</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
@@ -2537,11 +2629,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="111" t="s">
+      <c r="G16" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="112"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="109"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2559,11 +2651,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="98" t="s">
+      <c r="P16" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="100"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2581,13 +2673,13 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="98" t="s">
+      <c r="Y16" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="100"/>
-    </row>
-    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="98"/>
+    </row>
+    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
@@ -2605,11 +2697,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="123" t="s">
+      <c r="G17" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="114"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2627,11 +2719,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="117" t="s">
+      <c r="P17" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="119"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="104"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2649,11 +2741,11 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="139"/>
-      <c r="Z17" s="140"/>
-      <c r="AA17" s="141"/>
-    </row>
-    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="107"/>
+    </row>
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2671,11 +2763,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="111" t="s">
+      <c r="G18" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="109"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2693,11 +2785,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="98" t="s">
+      <c r="P18" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="100"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2715,13 +2807,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="98" t="s">
+      <c r="Y18" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="100"/>
-    </row>
-    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="98"/>
+    </row>
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
@@ -2739,11 +2831,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="111" t="s">
+      <c r="G19" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="111"/>
-      <c r="I19" s="112"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="109"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2761,11 +2853,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="98" t="s">
+      <c r="P19" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="100"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2783,13 +2875,13 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="98" t="s">
+      <c r="Y19" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="100"/>
-    </row>
-    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="98"/>
+    </row>
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
@@ -2807,11 +2899,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="123" t="s">
+      <c r="G20" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="123"/>
-      <c r="I20" s="124"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="114"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2829,11 +2921,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="98" t="s">
+      <c r="P20" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="100"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2851,13 +2943,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="111" t="s">
+      <c r="Y20" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="111"/>
-      <c r="AA20" s="112"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="109"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
@@ -2875,11 +2967,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="120" t="s">
+      <c r="G21" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2897,11 +2989,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="117" t="s">
+      <c r="P21" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="119"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="104"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -2919,13 +3011,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="113" t="s">
+      <c r="Y21" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="114"/>
-    </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="125"/>
+    </row>
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>7</v>
       </c>
@@ -2943,11 +3035,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="111" t="s">
+      <c r="G22" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="111"/>
-      <c r="I22" s="112"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -2965,11 +3057,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="120" t="s">
+      <c r="P22" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="123"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -2987,13 +3079,13 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="111" t="s">
+      <c r="Y22" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="111"/>
-      <c r="AA22" s="112"/>
-    </row>
-    <row r="23" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="109"/>
+    </row>
+    <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3011,11 +3103,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="109" t="s">
+      <c r="G23" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="109"/>
-      <c r="I23" s="110"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -3033,11 +3125,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="117" t="s">
+      <c r="P23" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="119"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="104"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -3055,13 +3147,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="113" t="s">
+      <c r="Y23" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="114"/>
-    </row>
-    <row r="24" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z23" s="124"/>
+      <c r="AA23" s="125"/>
+    </row>
+    <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F24" s="6">
         <f>SUM(F16:F23)</f>
         <v>1.3055555555555558</v>
@@ -3083,11 +3175,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="111" t="s">
+      <c r="P24" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="109"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -3105,13 +3197,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="113" t="s">
+      <c r="Y24" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="114"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z24" s="124"/>
+      <c r="AA24" s="125"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J25" s="38" t="s">
         <v>9</v>
       </c>
@@ -3129,11 +3221,11 @@
         <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="107" t="s">
+      <c r="P25" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="108"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="127"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -3151,21 +3243,21 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="107" t="s">
+      <c r="Y25" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="108"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="127"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -3183,11 +3275,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="120" t="s">
+      <c r="P26" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="123"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -3205,13 +3297,13 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="107" t="s">
+      <c r="Y26" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="107"/>
-      <c r="AA26" s="108"/>
-    </row>
-    <row r="27" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z26" s="126"/>
+      <c r="AA26" s="127"/>
+    </row>
+    <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J27" s="48" t="s">
         <v>9</v>
       </c>
@@ -3229,11 +3321,11 @@
         <f>SUM(M27-L27)</f>
         <v>0.15625</v>
       </c>
-      <c r="P27" s="115" t="s">
+      <c r="P27" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="116"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="132"/>
       <c r="S27" s="38" t="s">
         <v>8</v>
       </c>
@@ -3251,18 +3343,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="113" t="s">
+      <c r="Y27" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="113"/>
-      <c r="AA27" s="114"/>
-    </row>
-    <row r="28" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z27" s="124"/>
+      <c r="AA27" s="125"/>
+    </row>
+    <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -3284,93 +3376,93 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="109" t="s">
+      <c r="Y28" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="109"/>
-      <c r="AA28" s="110"/>
-    </row>
-    <row r="29" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z28" s="129"/>
+      <c r="AA28" s="130"/>
+    </row>
+    <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-    </row>
-    <row r="31" spans="1:27" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="94" t="s">
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+    </row>
+    <row r="31" spans="1:27" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-    </row>
-    <row r="32" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="87"/>
+    </row>
+    <row r="32" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="129" t="s">
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="130"/>
-      <c r="I32" s="131"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="129" t="s">
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="131"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="93"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="126"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="129" t="s">
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" s="130"/>
-      <c r="AA32" s="131"/>
-    </row>
-    <row r="33" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="93"/>
+    </row>
+    <row r="33" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -3389,11 +3481,11 @@
       <c r="F33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="103" t="s">
+      <c r="G33" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="103"/>
-      <c r="I33" s="104"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="95"/>
       <c r="J33" s="42" t="s">
         <v>9</v>
       </c>
@@ -3412,11 +3504,11 @@
       <c r="O33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="103" t="s">
+      <c r="P33" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="104"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
       <c r="S33" s="13" t="s">
         <v>8</v>
       </c>
@@ -3435,11 +3527,11 @@
       <c r="X33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="103" t="s">
+      <c r="Y33" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="104"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="95"/>
       <c r="AB33" s="27" t="s">
         <v>19</v>
       </c>
@@ -3448,7 +3540,7 @@
         <v>1.479166666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -3466,11 +3558,11 @@
         <f t="shared" ref="F34:F37" si="7">SUM(D34-C34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G34" s="98" t="s">
+      <c r="G34" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="98"/>
       <c r="J34" s="23" t="s">
         <v>9</v>
       </c>
@@ -3488,11 +3580,11 @@
         <f t="shared" ref="O34:O37" si="8">SUM(M34-L34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P34" s="98" t="s">
+      <c r="P34" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="100"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="98"/>
       <c r="S34" s="38" t="s">
         <v>8</v>
       </c>
@@ -3510,13 +3602,13 @@
         <f t="shared" ref="X34:X35" si="9">SUM(V34-U34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y34" s="98" t="s">
+      <c r="Y34" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="Z34" s="99"/>
-      <c r="AA34" s="100"/>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="98"/>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>7</v>
       </c>
@@ -3534,11 +3626,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G35" s="98" t="s">
+      <c r="G35" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="99"/>
-      <c r="I35" s="100"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="98"/>
       <c r="J35" s="23" t="s">
         <v>9</v>
       </c>
@@ -3556,11 +3648,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P35" s="98" t="s">
+      <c r="P35" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="100"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="98"/>
       <c r="S35" s="38" t="s">
         <v>8</v>
       </c>
@@ -3578,13 +3670,13 @@
         <f t="shared" si="9"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y35" s="98" t="s">
+      <c r="Y35" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="100"/>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="98"/>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
@@ -3602,11 +3694,11 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G36" s="98" t="s">
+      <c r="G36" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="99"/>
-      <c r="I36" s="100"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
       <c r="J36" s="23" t="s">
         <v>9</v>
       </c>
@@ -3624,11 +3716,11 @@
         <f t="shared" si="8"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P36" s="98" t="s">
+      <c r="P36" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="100"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="98"/>
       <c r="S36" s="38" t="s">
         <v>8</v>
       </c>
@@ -3646,13 +3738,13 @@
         <f t="shared" ref="X36:X37" si="10">SUM(V36-U36)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y36" s="98" t="s">
+      <c r="Y36" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="Z36" s="99"/>
-      <c r="AA36" s="100"/>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="98"/>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>7</v>
       </c>
@@ -3670,11 +3762,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G37" s="98" t="s">
+      <c r="G37" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="99"/>
-      <c r="I37" s="100"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="98"/>
       <c r="J37" s="23" t="s">
         <v>9</v>
       </c>
@@ -3692,11 +3784,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P37" s="98" t="s">
+      <c r="P37" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="100"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="98"/>
       <c r="S37" s="38" t="s">
         <v>8</v>
       </c>
@@ -3714,13 +3806,13 @@
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Y37" s="117" t="s">
+      <c r="Y37" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" s="118"/>
-      <c r="AA37" s="119"/>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Z37" s="103"/>
+      <c r="AA37" s="104"/>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>7</v>
       </c>
@@ -3738,11 +3830,11 @@
         <f>SUM(D38-C38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G38" s="98" t="s">
+      <c r="G38" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="99"/>
-      <c r="I38" s="100"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
       <c r="J38" s="23" t="s">
         <v>9</v>
       </c>
@@ -3760,11 +3852,11 @@
         <f>SUM(M38-L38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P38" s="98" t="s">
+      <c r="P38" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="99"/>
-      <c r="R38" s="100"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="98"/>
       <c r="S38" s="38" t="s">
         <v>8</v>
       </c>
@@ -3782,13 +3874,13 @@
         <f t="shared" ref="X38:X39" si="11">SUM(V38-U38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y38" s="98" t="s">
+      <c r="Y38" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="Z38" s="99"/>
-      <c r="AA38" s="100"/>
-    </row>
-    <row r="39" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z38" s="97"/>
+      <c r="AA38" s="98"/>
+    </row>
+    <row r="39" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>7</v>
       </c>
@@ -3806,11 +3898,11 @@
         <f>SUM(D39-C39)</f>
         <v>0.125</v>
       </c>
-      <c r="G39" s="142" t="s">
+      <c r="G39" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="143"/>
-      <c r="I39" s="144"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="101"/>
       <c r="J39" s="25" t="s">
         <v>9</v>
       </c>
@@ -3828,11 +3920,11 @@
         <f>SUM(M39-L39)</f>
         <v>0.125</v>
       </c>
-      <c r="P39" s="142" t="s">
+      <c r="P39" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="143"/>
-      <c r="R39" s="144"/>
+      <c r="Q39" s="100"/>
+      <c r="R39" s="101"/>
       <c r="S39" s="38" t="s">
         <v>8</v>
       </c>
@@ -3850,13 +3942,13 @@
         <f t="shared" si="11"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y39" s="98" t="s">
+      <c r="Y39" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="Z39" s="99"/>
-      <c r="AA39" s="100"/>
-    </row>
-    <row r="40" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z39" s="97"/>
+      <c r="AA39" s="98"/>
+    </row>
+    <row r="40" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="62"/>
       <c r="B40" s="63"/>
       <c r="C40" s="64"/>
@@ -3898,31 +3990,31 @@
         <f>SUM(V40-U40)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y40" s="98" t="s">
+      <c r="Y40" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="Z40" s="99"/>
-      <c r="AA40" s="100"/>
-    </row>
-    <row r="41" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z40" s="97"/>
+      <c r="AA40" s="98"/>
+    </row>
+    <row r="41" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
       <c r="B41" s="46"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
       <c r="E41" s="4"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
       <c r="J41" s="57"/>
       <c r="K41" s="66"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
       <c r="N41" s="4"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85"/>
       <c r="S41" s="56" t="s">
         <v>8</v>
       </c>
@@ -3940,13 +4032,13 @@
         <f>SUM(V41-U41)</f>
         <v>0.125</v>
       </c>
-      <c r="Y41" s="142" t="s">
+      <c r="Y41" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="Z41" s="143"/>
-      <c r="AA41" s="144"/>
-    </row>
-    <row r="42" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z41" s="100"/>
+      <c r="AA41" s="101"/>
+    </row>
+    <row r="42" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="59"/>
       <c r="C42" s="4"/>
@@ -3962,9 +4054,9 @@
       <c r="M42" s="58"/>
       <c r="N42" s="4"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
       <c r="S42" s="62"/>
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
@@ -3978,7 +4070,7 @@
       <c r="Z42" s="65"/>
       <c r="AA42" s="65"/>
     </row>
-    <row r="43" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="59"/>
       <c r="C43" s="4"/>
@@ -3994,113 +4086,113 @@
       <c r="M43" s="58"/>
       <c r="N43" s="4"/>
       <c r="O43" s="58"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="97"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
       <c r="S43" s="57"/>
       <c r="T43" s="46"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
       <c r="W43" s="4"/>
       <c r="X43" s="58"/>
-      <c r="Y43" s="97"/>
-      <c r="Z43" s="97"/>
-      <c r="AA43" s="97"/>
-    </row>
-    <row r="44" spans="1:56" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="94" t="s">
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="82"/>
+    </row>
+    <row r="44" spans="1:56" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="95"/>
-      <c r="AA44" s="95"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="87"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="87"/>
+      <c r="Z44" s="87"/>
+      <c r="AA44" s="87"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="33"/>
       <c r="AG44" s="33"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="34"/>
-      <c r="AJ44" s="96"/>
-      <c r="AK44" s="96"/>
-      <c r="AL44" s="96"/>
+      <c r="AJ44" s="85"/>
+      <c r="AK44" s="85"/>
+      <c r="AL44" s="85"/>
       <c r="AM44" s="57"/>
       <c r="AN44" s="46"/>
       <c r="AO44" s="58"/>
       <c r="AP44" s="58"/>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="58"/>
-      <c r="AS44" s="97"/>
-      <c r="AT44" s="97"/>
-      <c r="AU44" s="97"/>
+      <c r="AS44" s="82"/>
+      <c r="AT44" s="82"/>
+      <c r="AU44" s="82"/>
       <c r="AV44" s="57"/>
       <c r="AW44" s="46"/>
       <c r="AX44" s="58"/>
       <c r="AY44" s="58"/>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="58"/>
-      <c r="BB44" s="97"/>
-      <c r="BC44" s="97"/>
-      <c r="BD44" s="97"/>
-    </row>
-    <row r="45" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BB44" s="82"/>
+      <c r="BC44" s="82"/>
+      <c r="BD44" s="82"/>
+    </row>
+    <row r="45" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="129" t="s">
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="130"/>
-      <c r="I45" s="131"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="93"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="126"/>
-      <c r="M45" s="127"/>
-      <c r="N45" s="127"/>
-      <c r="O45" s="128"/>
-      <c r="P45" s="129" t="str">
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="91" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Q45" s="130"/>
-      <c r="R45" s="131"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="93"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="126"/>
-      <c r="U45" s="126"/>
-      <c r="V45" s="127"/>
-      <c r="W45" s="127"/>
-      <c r="X45" s="128"/>
-      <c r="Y45" s="129" t="str">
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="89"/>
+      <c r="W45" s="89"/>
+      <c r="X45" s="90"/>
+      <c r="Y45" s="91" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Z45" s="130"/>
-      <c r="AA45" s="131"/>
+      <c r="Z45" s="92"/>
+      <c r="AA45" s="93"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="4"/>
@@ -4116,20 +4208,20 @@
       <c r="AP45" s="58"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="58"/>
-      <c r="AS45" s="97"/>
-      <c r="AT45" s="97"/>
-      <c r="AU45" s="97"/>
+      <c r="AS45" s="82"/>
+      <c r="AT45" s="82"/>
+      <c r="AU45" s="82"/>
       <c r="AV45" s="57"/>
       <c r="AW45" s="46"/>
       <c r="AX45" s="58"/>
       <c r="AY45" s="58"/>
       <c r="AZ45" s="4"/>
       <c r="BA45" s="58"/>
-      <c r="BB45" s="97"/>
-      <c r="BC45" s="97"/>
-      <c r="BD45" s="97"/>
-    </row>
-    <row r="46" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BB45" s="82"/>
+      <c r="BC45" s="82"/>
+      <c r="BD45" s="82"/>
+    </row>
+    <row r="46" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>7</v>
       </c>
@@ -4148,11 +4240,11 @@
       <c r="F46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="103" t="s">
+      <c r="G46" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="103"/>
-      <c r="I46" s="104"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="95"/>
       <c r="J46" s="42" t="s">
         <v>9</v>
       </c>
@@ -4171,11 +4263,11 @@
       <c r="O46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P46" s="103" t="s">
+      <c r="P46" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="104"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="95"/>
       <c r="S46" s="13" t="s">
         <v>8</v>
       </c>
@@ -4194,11 +4286,11 @@
       <c r="X46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y46" s="103" t="s">
+      <c r="Y46" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Z46" s="103"/>
-      <c r="AA46" s="104"/>
+      <c r="Z46" s="94"/>
+      <c r="AA46" s="95"/>
       <c r="AB46" s="27" t="s">
         <v>19</v>
       </c>
@@ -4212,8 +4304,8 @@
       <c r="AG46" s="58"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="105"/>
-      <c r="AK46" s="105"/>
+      <c r="AJ46" s="83"/>
+      <c r="AK46" s="83"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
@@ -4230,11 +4322,11 @@
       <c r="AY46" s="58"/>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="58"/>
-      <c r="BB46" s="97"/>
-      <c r="BC46" s="97"/>
-      <c r="BD46" s="97"/>
-    </row>
-    <row r="47" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="BB46" s="82"/>
+      <c r="BC46" s="82"/>
+      <c r="BD46" s="82"/>
+    </row>
+    <row r="47" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>7</v>
       </c>
@@ -4252,11 +4344,11 @@
         <f t="shared" ref="F47:F50" si="12">SUM(D47-C47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="G47" s="98" t="s">
+      <c r="G47" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="99"/>
-      <c r="I47" s="100"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="98"/>
       <c r="J47" s="23" t="s">
         <v>9</v>
       </c>
@@ -4274,11 +4366,11 @@
         <f t="shared" ref="O47:O52" si="13">SUM(M47-L47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="P47" s="98" t="s">
+      <c r="P47" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="99"/>
-      <c r="R47" s="100"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="98"/>
       <c r="S47" s="38" t="s">
         <v>8</v>
       </c>
@@ -4296,19 +4388,19 @@
         <f t="shared" ref="X47:X50" si="14">SUM(V47-U47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Y47" s="98" t="s">
+      <c r="Y47" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="99"/>
-      <c r="AA47" s="100"/>
+      <c r="Z47" s="97"/>
+      <c r="AA47" s="98"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="61"/>
       <c r="AF47" s="58"/>
       <c r="AG47" s="58"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="145"/>
-      <c r="AK47" s="145"/>
+      <c r="AJ47" s="84"/>
+      <c r="AK47" s="84"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
@@ -4325,11 +4417,11 @@
       <c r="AY47" s="4"/>
       <c r="AZ47" s="4"/>
       <c r="BA47" s="60"/>
-      <c r="BB47" s="145"/>
-      <c r="BC47" s="145"/>
-      <c r="BD47" s="145"/>
-    </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BB47" s="84"/>
+      <c r="BC47" s="84"/>
+      <c r="BD47" s="84"/>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>7</v>
       </c>
@@ -4347,11 +4439,11 @@
         <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G48" s="98" t="s">
+      <c r="G48" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="99"/>
-      <c r="I48" s="100"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="98"/>
       <c r="J48" s="23" t="s">
         <v>9</v>
       </c>
@@ -4369,11 +4461,11 @@
         <f t="shared" si="13"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P48" s="98" t="s">
+      <c r="P48" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" s="99"/>
-      <c r="R48" s="100"/>
+      <c r="Q48" s="97"/>
+      <c r="R48" s="98"/>
       <c r="S48" s="38" t="s">
         <v>8</v>
       </c>
@@ -4391,14 +4483,14 @@
         <f t="shared" si="14"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y48" s="98" t="s">
+      <c r="Y48" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="Z48" s="99"/>
-      <c r="AA48" s="100"/>
+      <c r="Z48" s="97"/>
+      <c r="AA48" s="98"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>7</v>
       </c>
@@ -4416,11 +4508,11 @@
         <f t="shared" si="12"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G49" s="98" t="s">
+      <c r="G49" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="99"/>
-      <c r="I49" s="100"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="98"/>
       <c r="J49" s="23" t="s">
         <v>9</v>
       </c>
@@ -4438,11 +4530,11 @@
         <f t="shared" si="13"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="P49" s="98" t="s">
+      <c r="P49" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="100"/>
+      <c r="Q49" s="97"/>
+      <c r="R49" s="98"/>
       <c r="S49" s="38" t="s">
         <v>8</v>
       </c>
@@ -4460,14 +4552,14 @@
         <f t="shared" si="14"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="Y49" s="98" t="s">
+      <c r="Y49" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="99"/>
-      <c r="AA49" s="100"/>
+      <c r="Z49" s="97"/>
+      <c r="AA49" s="98"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>7</v>
       </c>
@@ -4485,11 +4577,11 @@
         <f t="shared" si="12"/>
         <v>0.23125000000000007</v>
       </c>
-      <c r="G50" s="98" t="s">
+      <c r="G50" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="99"/>
-      <c r="I50" s="100"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="98"/>
       <c r="J50" s="23" t="s">
         <v>9</v>
       </c>
@@ -4507,11 +4599,11 @@
         <f t="shared" si="13"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P50" s="98" t="s">
+      <c r="P50" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" s="99"/>
-      <c r="R50" s="100"/>
+      <c r="Q50" s="97"/>
+      <c r="R50" s="98"/>
       <c r="S50" s="38" t="s">
         <v>8</v>
       </c>
@@ -4529,14 +4621,14 @@
         <f t="shared" si="14"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y50" s="98" t="s">
+      <c r="Y50" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="Z50" s="99"/>
-      <c r="AA50" s="100"/>
+      <c r="Z50" s="97"/>
+      <c r="AA50" s="98"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>7</v>
       </c>
@@ -4556,11 +4648,11 @@
         <f>SUM(D51-C51)</f>
         <v>0.32291666666666669</v>
       </c>
-      <c r="G51" s="98" t="s">
+      <c r="G51" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="99"/>
-      <c r="I51" s="100"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="98"/>
       <c r="J51" s="23" t="s">
         <v>9</v>
       </c>
@@ -4578,11 +4670,11 @@
         <f>SUM(M51-L51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="P51" s="98" t="s">
+      <c r="P51" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="99"/>
-      <c r="R51" s="100"/>
+      <c r="Q51" s="97"/>
+      <c r="R51" s="98"/>
       <c r="S51" s="38" t="s">
         <v>8</v>
       </c>
@@ -4600,14 +4692,14 @@
         <f>SUM(V51-U51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="Y51" s="98" t="s">
+      <c r="Y51" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="Z51" s="99"/>
-      <c r="AA51" s="100"/>
+      <c r="Z51" s="97"/>
+      <c r="AA51" s="98"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>7</v>
       </c>
@@ -4625,11 +4717,11 @@
         <f>SUM(D52-C52)</f>
         <v>0.17083333333333339</v>
       </c>
-      <c r="G52" s="98" t="s">
+      <c r="G52" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="99"/>
-      <c r="I52" s="100"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="98"/>
       <c r="J52" s="25" t="s">
         <v>9</v>
       </c>
@@ -4647,11 +4739,11 @@
         <f t="shared" si="13"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="P52" s="98" t="s">
+      <c r="P52" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="Q52" s="99"/>
-      <c r="R52" s="99"/>
+      <c r="Q52" s="97"/>
+      <c r="R52" s="97"/>
       <c r="S52" s="25" t="s">
         <v>8</v>
       </c>
@@ -4669,14 +4761,14 @@
         <f t="shared" ref="X52" si="15">SUM(V52-U52)</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="Y52" s="101" t="s">
+      <c r="Y52" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="Z52" s="101"/>
-      <c r="AA52" s="102"/>
+      <c r="Z52" s="133"/>
+      <c r="AA52" s="134"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="63"/>
       <c r="C53" s="64"/>
@@ -4710,169 +4802,169 @@
         <f>SUM(X47:X52)</f>
         <v>0.84375000000000022</v>
       </c>
-      <c r="Y53" s="96"/>
-      <c r="Z53" s="96"/>
-      <c r="AA53" s="96"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="85"/>
+      <c r="AA53" s="85"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="1:31" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A54" s="57"/>
       <c r="B54" s="46"/>
       <c r="C54" s="58"/>
       <c r="D54" s="58"/>
       <c r="E54" s="4"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
       <c r="J54" s="57"/>
       <c r="K54" s="66"/>
       <c r="L54" s="58"/>
       <c r="M54" s="58"/>
       <c r="N54" s="4"/>
       <c r="O54" s="58"/>
-      <c r="P54" s="96"/>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="96"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="85"/>
       <c r="S54" s="57"/>
       <c r="T54" s="32"/>
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
       <c r="W54" s="33"/>
       <c r="X54" s="58"/>
-      <c r="Y54" s="97"/>
-      <c r="Z54" s="97"/>
-      <c r="AA54" s="97"/>
+      <c r="Y54" s="82"/>
+      <c r="Z54" s="82"/>
+      <c r="AA54" s="82"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="92"/>
-      <c r="B55" s="93"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="93"/>
-      <c r="K55" s="93"/>
-      <c r="L55" s="93"/>
-      <c r="M55" s="93"/>
-      <c r="N55" s="93"/>
-      <c r="O55" s="93"/>
-      <c r="P55" s="93"/>
-      <c r="Q55" s="93"/>
-      <c r="R55" s="93"/>
-      <c r="S55" s="93"/>
-      <c r="T55" s="93"/>
-      <c r="U55" s="93"/>
-      <c r="V55" s="93"/>
-      <c r="W55" s="93"/>
-      <c r="X55" s="93"/>
-      <c r="Y55" s="93"/>
-      <c r="Z55" s="93"/>
-      <c r="AA55" s="93"/>
+    <row r="55" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="135"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="136"/>
+      <c r="G55" s="136"/>
+      <c r="H55" s="136"/>
+      <c r="I55" s="136"/>
+      <c r="J55" s="136"/>
+      <c r="K55" s="136"/>
+      <c r="L55" s="136"/>
+      <c r="M55" s="136"/>
+      <c r="N55" s="136"/>
+      <c r="O55" s="136"/>
+      <c r="P55" s="136"/>
+      <c r="Q55" s="136"/>
+      <c r="R55" s="136"/>
+      <c r="S55" s="136"/>
+      <c r="T55" s="136"/>
+      <c r="U55" s="136"/>
+      <c r="V55" s="136"/>
+      <c r="W55" s="136"/>
+      <c r="X55" s="136"/>
+      <c r="Y55" s="136"/>
+      <c r="Z55" s="136"/>
+      <c r="AA55" s="136"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="92"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="93"/>
-      <c r="K56" s="93"/>
-      <c r="L56" s="93"/>
-      <c r="M56" s="93"/>
-      <c r="N56" s="93"/>
-      <c r="O56" s="93"/>
-      <c r="P56" s="93"/>
-      <c r="Q56" s="93"/>
-      <c r="R56" s="93"/>
-      <c r="S56" s="93"/>
-      <c r="T56" s="93"/>
-      <c r="U56" s="93"/>
-      <c r="V56" s="93"/>
-      <c r="W56" s="93"/>
-      <c r="X56" s="93"/>
-      <c r="Y56" s="93"/>
-      <c r="Z56" s="93"/>
-      <c r="AA56" s="93"/>
-    </row>
-    <row r="57" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="94" t="s">
+    <row r="56" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="135"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
+      <c r="K56" s="136"/>
+      <c r="L56" s="136"/>
+      <c r="M56" s="136"/>
+      <c r="N56" s="136"/>
+      <c r="O56" s="136"/>
+      <c r="P56" s="136"/>
+      <c r="Q56" s="136"/>
+      <c r="R56" s="136"/>
+      <c r="S56" s="136"/>
+      <c r="T56" s="136"/>
+      <c r="U56" s="136"/>
+      <c r="V56" s="136"/>
+      <c r="W56" s="136"/>
+      <c r="X56" s="136"/>
+      <c r="Y56" s="136"/>
+      <c r="Z56" s="136"/>
+      <c r="AA56" s="136"/>
+    </row>
+    <row r="57" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="95"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="95"/>
-      <c r="L57" s="95"/>
-      <c r="M57" s="95"/>
-      <c r="N57" s="95"/>
-      <c r="O57" s="95"/>
-      <c r="P57" s="95"/>
-      <c r="Q57" s="95"/>
-      <c r="R57" s="95"/>
-      <c r="S57" s="95"/>
-      <c r="T57" s="95"/>
-      <c r="U57" s="95"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
-      <c r="X57" s="95"/>
-      <c r="Y57" s="95"/>
-      <c r="Z57" s="95"/>
-      <c r="AA57" s="95"/>
-    </row>
-    <row r="58" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="87"/>
+      <c r="M57" s="87"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="87"/>
+      <c r="P57" s="87"/>
+      <c r="Q57" s="87"/>
+      <c r="R57" s="87"/>
+      <c r="S57" s="87"/>
+      <c r="T57" s="87"/>
+      <c r="U57" s="87"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
+      <c r="X57" s="87"/>
+      <c r="Y57" s="87"/>
+      <c r="Z57" s="87"/>
+      <c r="AA57" s="87"/>
+    </row>
+    <row r="58" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="70"/>
       <c r="B58" s="71"/>
       <c r="C58" s="70"/>
       <c r="D58" s="70"/>
       <c r="E58" s="70"/>
       <c r="F58" s="70"/>
-      <c r="G58" s="89" t="s">
+      <c r="G58" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="90"/>
-      <c r="I58" s="91"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="144"/>
       <c r="J58" s="70"/>
       <c r="K58" s="70"/>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
       <c r="N58" s="70"/>
       <c r="O58" s="70"/>
-      <c r="P58" s="89" t="str">
+      <c r="P58" s="142" t="str">
         <f>G58</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Q58" s="90"/>
-      <c r="R58" s="91"/>
+      <c r="Q58" s="143"/>
+      <c r="R58" s="144"/>
       <c r="S58" s="70"/>
       <c r="T58" s="70"/>
       <c r="U58" s="70"/>
       <c r="V58" s="70"/>
       <c r="W58" s="70"/>
       <c r="X58" s="70"/>
-      <c r="Y58" s="89" t="str">
+      <c r="Y58" s="142" t="str">
         <f>G58</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Z58" s="90"/>
-      <c r="AA58" s="91"/>
-    </row>
-    <row r="59" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z58" s="143"/>
+      <c r="AA58" s="144"/>
+    </row>
+    <row r="59" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="72" t="s">
         <v>7</v>
       </c>
@@ -4891,11 +4983,11 @@
       <c r="F59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="86" t="s">
+      <c r="G59" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="H59" s="141"/>
+      <c r="I59" s="141"/>
       <c r="J59" s="80" t="s">
         <v>9</v>
       </c>
@@ -4914,11 +5006,11 @@
       <c r="O59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P59" s="86" t="s">
+      <c r="P59" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="87"/>
-      <c r="R59" s="87"/>
+      <c r="Q59" s="141"/>
+      <c r="R59" s="141"/>
       <c r="S59" s="80" t="s">
         <v>8</v>
       </c>
@@ -4937,11 +5029,11 @@
       <c r="X59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="Y59" s="86" t="s">
+      <c r="Y59" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="Z59" s="87"/>
-      <c r="AA59" s="88"/>
+      <c r="Z59" s="141"/>
+      <c r="AA59" s="145"/>
       <c r="AB59" s="81" t="s">
         <v>19</v>
       </c>
@@ -4950,7 +5042,7 @@
         <v>2.8437500000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>7</v>
       </c>
@@ -4968,11 +5060,11 @@
         <f>SUM(D60-C60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G60" s="82" t="s">
+      <c r="G60" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="82"/>
-      <c r="I60" s="83"/>
+      <c r="H60" s="115"/>
+      <c r="I60" s="137"/>
       <c r="J60" s="74" t="s">
         <v>9</v>
       </c>
@@ -4990,11 +5082,11 @@
         <f>SUM(M60-L60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P60" s="82" t="s">
+      <c r="P60" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Q60" s="82"/>
-      <c r="R60" s="83"/>
+      <c r="Q60" s="115"/>
+      <c r="R60" s="137"/>
       <c r="S60" s="74" t="s">
         <v>8</v>
       </c>
@@ -5012,13 +5104,13 @@
         <f>SUM(V60-U60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y60" s="82" t="s">
+      <c r="Y60" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Z60" s="82"/>
-      <c r="AA60" s="83"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z60" s="115"/>
+      <c r="AA60" s="137"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>7</v>
       </c>
@@ -5036,11 +5128,11 @@
         <f t="shared" ref="F61:F68" si="16">SUM(D61-C61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G61" s="82" t="s">
+      <c r="G61" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="82"/>
-      <c r="I61" s="83"/>
+      <c r="H61" s="115"/>
+      <c r="I61" s="137"/>
       <c r="J61" s="74" t="s">
         <v>9</v>
       </c>
@@ -5058,11 +5150,11 @@
         <f t="shared" ref="O61:O68" si="17">SUM(M61-L61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P61" s="82" t="s">
+      <c r="P61" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Q61" s="82"/>
-      <c r="R61" s="83"/>
+      <c r="Q61" s="115"/>
+      <c r="R61" s="137"/>
       <c r="S61" s="74" t="s">
         <v>8</v>
       </c>
@@ -5080,13 +5172,13 @@
         <f t="shared" ref="X61:X68" si="18">SUM(V61-U61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y61" s="82" t="s">
+      <c r="Y61" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Z61" s="82"/>
-      <c r="AA61" s="83"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z61" s="115"/>
+      <c r="AA61" s="137"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>7</v>
       </c>
@@ -5104,11 +5196,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G62" s="82" t="s">
+      <c r="G62" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="82"/>
-      <c r="I62" s="83"/>
+      <c r="H62" s="115"/>
+      <c r="I62" s="137"/>
       <c r="J62" s="74" t="s">
         <v>9</v>
       </c>
@@ -5126,11 +5218,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P62" s="82" t="s">
+      <c r="P62" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Q62" s="82"/>
-      <c r="R62" s="83"/>
+      <c r="Q62" s="115"/>
+      <c r="R62" s="137"/>
       <c r="S62" s="74" t="s">
         <v>8</v>
       </c>
@@ -5148,13 +5240,13 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y62" s="82" t="s">
+      <c r="Y62" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Z62" s="82"/>
-      <c r="AA62" s="83"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z62" s="115"/>
+      <c r="AA62" s="137"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>7</v>
       </c>
@@ -5172,11 +5264,11 @@
         <f t="shared" si="16"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="G63" s="82" t="s">
+      <c r="G63" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="82"/>
-      <c r="I63" s="83"/>
+      <c r="H63" s="115"/>
+      <c r="I63" s="137"/>
       <c r="J63" s="74" t="s">
         <v>9</v>
       </c>
@@ -5194,11 +5286,11 @@
         <f t="shared" si="17"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P63" s="82" t="s">
+      <c r="P63" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Q63" s="82"/>
-      <c r="R63" s="83"/>
+      <c r="Q63" s="115"/>
+      <c r="R63" s="137"/>
       <c r="S63" s="74" t="s">
         <v>8</v>
       </c>
@@ -5216,13 +5308,13 @@
         <f t="shared" si="18"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="Y63" s="82" t="s">
+      <c r="Y63" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Z63" s="82"/>
-      <c r="AA63" s="83"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z63" s="115"/>
+      <c r="AA63" s="137"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>7</v>
       </c>
@@ -5240,11 +5332,11 @@
         <f t="shared" si="16"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G64" s="82" t="s">
+      <c r="G64" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="82"/>
-      <c r="I64" s="83"/>
+      <c r="H64" s="115"/>
+      <c r="I64" s="137"/>
       <c r="J64" s="74" t="s">
         <v>9</v>
       </c>
@@ -5262,11 +5354,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P64" s="82" t="s">
+      <c r="P64" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Q64" s="82"/>
-      <c r="R64" s="83"/>
+      <c r="Q64" s="115"/>
+      <c r="R64" s="137"/>
       <c r="S64" s="74" t="s">
         <v>8</v>
       </c>
@@ -5284,13 +5376,13 @@
         <f t="shared" si="18"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y64" s="82" t="s">
+      <c r="Y64" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Z64" s="82"/>
-      <c r="AA64" s="83"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z64" s="115"/>
+      <c r="AA64" s="137"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>7</v>
       </c>
@@ -5308,11 +5400,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G65" s="82" t="s">
+      <c r="G65" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="82"/>
-      <c r="I65" s="83"/>
+      <c r="H65" s="115"/>
+      <c r="I65" s="137"/>
       <c r="J65" s="74" t="s">
         <v>9</v>
       </c>
@@ -5330,11 +5422,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P65" s="82" t="s">
+      <c r="P65" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="82"/>
-      <c r="R65" s="83"/>
+      <c r="Q65" s="115"/>
+      <c r="R65" s="137"/>
       <c r="S65" s="74" t="s">
         <v>8</v>
       </c>
@@ -5352,13 +5444,13 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y65" s="82" t="s">
+      <c r="Y65" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="Z65" s="82"/>
-      <c r="AA65" s="83"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z65" s="115"/>
+      <c r="AA65" s="137"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>7</v>
       </c>
@@ -5376,11 +5468,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G66" s="82" t="s">
+      <c r="G66" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="82"/>
-      <c r="I66" s="83"/>
+      <c r="H66" s="115"/>
+      <c r="I66" s="137"/>
       <c r="J66" s="74" t="s">
         <v>9</v>
       </c>
@@ -5398,11 +5490,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P66" s="82" t="s">
+      <c r="P66" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="Q66" s="82"/>
-      <c r="R66" s="83"/>
+      <c r="Q66" s="115"/>
+      <c r="R66" s="137"/>
       <c r="S66" s="74" t="s">
         <v>8</v>
       </c>
@@ -5420,13 +5512,13 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y66" s="82" t="s">
+      <c r="Y66" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="Z66" s="82"/>
-      <c r="AA66" s="83"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z66" s="115"/>
+      <c r="AA66" s="137"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>7</v>
       </c>
@@ -5444,11 +5536,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G67" s="82" t="s">
+      <c r="G67" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="82"/>
-      <c r="I67" s="83"/>
+      <c r="H67" s="115"/>
+      <c r="I67" s="137"/>
       <c r="J67" s="74" t="s">
         <v>9</v>
       </c>
@@ -5466,11 +5558,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P67" s="82" t="s">
+      <c r="P67" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="Q67" s="82"/>
-      <c r="R67" s="83"/>
+      <c r="Q67" s="115"/>
+      <c r="R67" s="137"/>
       <c r="S67" s="74" t="s">
         <v>8</v>
       </c>
@@ -5488,13 +5580,13 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y67" s="82" t="s">
+      <c r="Y67" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="Z67" s="82"/>
-      <c r="AA67" s="83"/>
-    </row>
-    <row r="68" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z67" s="115"/>
+      <c r="AA67" s="137"/>
+    </row>
+    <row r="68" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="75" t="s">
         <v>7</v>
       </c>
@@ -5512,11 +5604,11 @@
         <f t="shared" si="16"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G68" s="84" t="s">
+      <c r="G68" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="84"/>
-      <c r="I68" s="85"/>
+      <c r="H68" s="138"/>
+      <c r="I68" s="139"/>
       <c r="J68" s="75" t="s">
         <v>9</v>
       </c>
@@ -5534,11 +5626,11 @@
         <f t="shared" si="17"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="P68" s="84" t="s">
+      <c r="P68" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="84"/>
-      <c r="R68" s="85"/>
+      <c r="Q68" s="138"/>
+      <c r="R68" s="139"/>
       <c r="S68" s="75" t="s">
         <v>8</v>
       </c>
@@ -5556,13 +5648,13 @@
         <f t="shared" si="18"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="Y68" s="84" t="s">
+      <c r="Y68" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="Z68" s="84"/>
-      <c r="AA68" s="85"/>
-    </row>
-    <row r="69" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z68" s="138"/>
+      <c r="AA68" s="139"/>
+    </row>
+    <row r="69" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F69" s="78">
         <f>SUM(F60:F68)</f>
         <v>0.97569444444444453</v>
@@ -5578,8 +5670,960 @@
         <v>0.97569444444444453</v>
       </c>
     </row>
+    <row r="71" spans="1:29" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="87"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="87"/>
+      <c r="K71" s="87"/>
+      <c r="L71" s="87"/>
+      <c r="M71" s="87"/>
+      <c r="N71" s="87"/>
+      <c r="O71" s="87"/>
+      <c r="P71" s="87"/>
+      <c r="Q71" s="87"/>
+      <c r="R71" s="87"/>
+      <c r="S71" s="87"/>
+      <c r="T71" s="87"/>
+      <c r="U71" s="87"/>
+      <c r="V71" s="87"/>
+      <c r="W71" s="87"/>
+      <c r="X71" s="87"/>
+      <c r="Y71" s="87"/>
+      <c r="Z71" s="87"/>
+      <c r="AA71" s="87"/>
+    </row>
+    <row r="72" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="70"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" s="143"/>
+      <c r="I72" s="144"/>
+      <c r="J72" s="70"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="70"/>
+      <c r="M72" s="70"/>
+      <c r="N72" s="70"/>
+      <c r="O72" s="70"/>
+      <c r="P72" s="142" t="str">
+        <f>G72</f>
+        <v>Sprint: Februar-März</v>
+      </c>
+      <c r="Q72" s="143"/>
+      <c r="R72" s="144"/>
+      <c r="S72" s="70"/>
+      <c r="T72" s="70"/>
+      <c r="U72" s="70"/>
+      <c r="V72" s="70"/>
+      <c r="W72" s="70"/>
+      <c r="X72" s="70"/>
+      <c r="Y72" s="142" t="str">
+        <f>G72</f>
+        <v>Sprint: Februar-März</v>
+      </c>
+      <c r="Z72" s="143"/>
+      <c r="AA72" s="144"/>
+    </row>
+    <row r="73" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="141"/>
+      <c r="I73" s="141"/>
+      <c r="J73" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="L73" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="N73" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="O73" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="P73" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q73" s="141"/>
+      <c r="R73" s="141"/>
+      <c r="S73" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="T73" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U73" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="V73" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="W73" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="X73" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z73" s="141"/>
+      <c r="AA73" s="145"/>
+      <c r="AB73" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC73" s="26">
+        <f>SUM(X83+O83+F82)</f>
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="35">
+        <v>43165</v>
+      </c>
+      <c r="C74" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D74" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="18">
+        <f>SUM(D74-C74)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G74" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="115"/>
+      <c r="I74" s="137"/>
+      <c r="J74" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" s="35">
+        <v>43165</v>
+      </c>
+      <c r="L74" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M74" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N74" s="19"/>
+      <c r="O74" s="18">
+        <f>SUM(M74-L74)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P74" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q74" s="115"/>
+      <c r="R74" s="137"/>
+      <c r="S74" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T74" s="35">
+        <v>43165</v>
+      </c>
+      <c r="U74" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V74" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W74" s="19"/>
+      <c r="X74" s="18">
+        <f>SUM(V74-U74)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y74" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z74" s="115"/>
+      <c r="AA74" s="137"/>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="35">
+        <v>43165</v>
+      </c>
+      <c r="C75" s="18">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D75" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="E75" s="19"/>
+      <c r="F75" s="18">
+        <f t="shared" ref="F75:F81" si="19">SUM(D75-C75)</f>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="G75" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="115"/>
+      <c r="I75" s="137"/>
+      <c r="J75" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="35">
+        <v>43165</v>
+      </c>
+      <c r="L75" s="18">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="M75" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="N75" s="19"/>
+      <c r="O75" s="18">
+        <f t="shared" ref="O75:O81" si="20">SUM(M75-L75)</f>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="P75" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q75" s="115"/>
+      <c r="R75" s="137"/>
+      <c r="S75" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T75" s="35">
+        <v>43165</v>
+      </c>
+      <c r="U75" s="18">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="V75" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="W75" s="19"/>
+      <c r="X75" s="18">
+        <f t="shared" ref="X75:X81" si="21">SUM(V75-U75)</f>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="Y75" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z75" s="115"/>
+      <c r="AA75" s="137"/>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="35">
+        <v>43167</v>
+      </c>
+      <c r="C76" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D76" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E76" s="19"/>
+      <c r="F76" s="18">
+        <f t="shared" si="19"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G76" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="115"/>
+      <c r="I76" s="137"/>
+      <c r="J76" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="35">
+        <v>43167</v>
+      </c>
+      <c r="L76" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M76" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="N76" s="19"/>
+      <c r="O76" s="18">
+        <f t="shared" si="20"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="P76" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q76" s="115"/>
+      <c r="R76" s="137"/>
+      <c r="S76" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="35">
+        <v>43167</v>
+      </c>
+      <c r="U76" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V76" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="W76" s="19"/>
+      <c r="X76" s="18">
+        <f t="shared" si="21"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y76" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z76" s="115"/>
+      <c r="AA76" s="137"/>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="35">
+        <v>43168</v>
+      </c>
+      <c r="C77" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D77" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E77" s="19"/>
+      <c r="F77" s="18">
+        <f t="shared" si="19"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G77" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" s="115"/>
+      <c r="I77" s="137"/>
+      <c r="J77" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77" s="35">
+        <v>43168</v>
+      </c>
+      <c r="L77" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M77" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N77" s="19"/>
+      <c r="O77" s="18">
+        <f t="shared" si="20"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="P77" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q77" s="115"/>
+      <c r="R77" s="137"/>
+      <c r="S77" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T77" s="35">
+        <v>43168</v>
+      </c>
+      <c r="U77" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="V77" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W77" s="19"/>
+      <c r="X77" s="18">
+        <f t="shared" si="21"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="Y77" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z77" s="115"/>
+      <c r="AA77" s="137"/>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="35">
+        <v>43172</v>
+      </c>
+      <c r="C78" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D78" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="18">
+        <f t="shared" si="19"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G78" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" s="115"/>
+      <c r="I78" s="137"/>
+      <c r="J78" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="35">
+        <v>43172</v>
+      </c>
+      <c r="L78" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M78" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N78" s="19"/>
+      <c r="O78" s="18">
+        <f t="shared" si="20"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P78" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q78" s="115"/>
+      <c r="R78" s="137"/>
+      <c r="S78" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T78" s="35">
+        <v>43172</v>
+      </c>
+      <c r="U78" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V78" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W78" s="19"/>
+      <c r="X78" s="18">
+        <f t="shared" si="21"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y78" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z78" s="115"/>
+      <c r="AA78" s="137"/>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="35">
+        <v>43172</v>
+      </c>
+      <c r="C79" s="18">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D79" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="E79" s="19"/>
+      <c r="F79" s="18">
+        <f t="shared" si="19"/>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="G79" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="115"/>
+      <c r="I79" s="137"/>
+      <c r="J79" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="35">
+        <v>43172</v>
+      </c>
+      <c r="L79" s="18">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="M79" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="N79" s="19"/>
+      <c r="O79" s="18">
+        <f t="shared" si="20"/>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="P79" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q79" s="115"/>
+      <c r="R79" s="137"/>
+      <c r="S79" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T79" s="35">
+        <v>43172</v>
+      </c>
+      <c r="U79" s="18">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="V79" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="W79" s="19"/>
+      <c r="X79" s="18">
+        <f t="shared" si="21"/>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="Y79" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z79" s="115"/>
+      <c r="AA79" s="137"/>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="35">
+        <v>43174</v>
+      </c>
+      <c r="C80" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D80" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E80" s="19"/>
+      <c r="F80" s="18">
+        <f t="shared" si="19"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G80" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="115"/>
+      <c r="I80" s="137"/>
+      <c r="J80" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" s="35">
+        <v>43174</v>
+      </c>
+      <c r="L80" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M80" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="N80" s="19"/>
+      <c r="O80" s="18">
+        <f t="shared" si="20"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="P80" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q80" s="115"/>
+      <c r="R80" s="137"/>
+      <c r="S80" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T80" s="35">
+        <v>43174</v>
+      </c>
+      <c r="U80" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V80" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="W80" s="19"/>
+      <c r="X80" s="18">
+        <f t="shared" si="21"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y80" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z80" s="115"/>
+      <c r="AA80" s="137"/>
+    </row>
+    <row r="81" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="76">
+        <v>43175</v>
+      </c>
+      <c r="C81" s="77">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D81" s="77">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E81" s="79"/>
+      <c r="F81" s="18">
+        <f t="shared" si="19"/>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="G81" s="138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="138"/>
+      <c r="I81" s="139"/>
+      <c r="J81" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="35">
+        <v>43175</v>
+      </c>
+      <c r="L81" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M81" s="18">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="N81" s="153"/>
+      <c r="O81" s="18">
+        <f t="shared" si="20"/>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="P81" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q81" s="115"/>
+      <c r="R81" s="137"/>
+      <c r="S81" s="152" t="s">
+        <v>8</v>
+      </c>
+      <c r="T81" s="35">
+        <v>43175</v>
+      </c>
+      <c r="U81" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="V81" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W81" s="153"/>
+      <c r="X81" s="18">
+        <f t="shared" si="21"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="Y81" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z81" s="115"/>
+      <c r="AA81" s="137"/>
+    </row>
+    <row r="82" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="78">
+        <f>SUM(F74:F81)</f>
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="J82" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="147">
+        <v>43178</v>
+      </c>
+      <c r="L82" s="148">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M82" s="148">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="N82" s="154">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="O82" s="52">
+        <f>SUM(M82-L82-N82)</f>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="P82" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q82" s="150"/>
+      <c r="R82" s="151"/>
+      <c r="S82" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="T82" s="147">
+        <v>43178</v>
+      </c>
+      <c r="U82" s="148">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V82" s="148">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W82" s="149"/>
+      <c r="X82" s="52">
+        <f t="shared" ref="X82:X83" si="22">SUM(V82-U82)</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="Y82" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z82" s="150"/>
+      <c r="AA82" s="151"/>
+    </row>
+    <row r="83" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K83" s="3"/>
+      <c r="O83" s="78">
+        <f>SUM(O75:O82)</f>
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="T83" s="3"/>
+      <c r="X83" s="78">
+        <f>SUM(X75:X82)</f>
+        <v>0.59027777777777779</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="189">
+  <mergeCells count="222">
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="A71:AA71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="A55:AA55"/>
+    <mergeCell ref="A56:AA56"/>
+    <mergeCell ref="A57:AA57"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y6:AA8"/>
+    <mergeCell ref="A13:AA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="A31:AA31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Y39:AA39"/>
     <mergeCell ref="AS45:AU45"/>
     <mergeCell ref="BB45:BD45"/>
     <mergeCell ref="AJ46:AK46"/>
@@ -5604,171 +6648,6 @@
     <mergeCell ref="Y45:AA45"/>
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="P46:R46"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A31:AA31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y6:AA8"/>
-    <mergeCell ref="A13:AA13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="A55:AA55"/>
-    <mergeCell ref="A56:AA56"/>
-    <mergeCell ref="A57:AA57"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P58:R58"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5789,7 +6668,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55220072-AB13-4D1C-842F-3B41CD6F0A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D76DF1A-AEBD-4E38-B695-1B995462331F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1299,22 +1299,163 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,19 +1478,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1361,164 +1517,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q86" sqref="Q86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1918,58 +1918,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="112" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="93"/>
-      <c r="P2" s="110" t="s">
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
+      <c r="P2" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="Y2" s="112" t="s">
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="Y2" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="93"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="140"/>
     </row>
     <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1990,11 +1990,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="113"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2013,11 +2013,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="94" t="s">
+      <c r="P3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="95"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="113"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -2036,11 +2036,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="94" t="s">
+      <c r="Y3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="95"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="113"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -2067,11 +2067,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -2089,11 +2089,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="109"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="121"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -2111,11 +2111,11 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="108" t="s">
+      <c r="Y4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="109"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="121"/>
     </row>
     <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -2135,11 +2135,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="113"/>
-      <c r="I5" s="114"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="133"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -2157,11 +2157,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="115" t="s">
+      <c r="P5" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="116"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="134"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -2179,11 +2179,11 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="113" t="s">
+      <c r="Y5" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="114"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="133"/>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
@@ -2203,11 +2203,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="133"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -2225,9 +2225,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="116"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="134"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -2245,11 +2245,11 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="115" t="s">
+      <c r="Y6" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="115"/>
-      <c r="AA6" s="116"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="134"/>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -2269,11 +2269,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -2291,9 +2291,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="116"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="134"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -2311,9 +2311,9 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="116"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="134"/>
     </row>
     <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -2333,11 +2333,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="120"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -2355,11 +2355,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="115" t="s">
+      <c r="P8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="116"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="134"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -2377,9 +2377,9 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="116"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="134"/>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="6">
@@ -2403,11 +2403,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="117" t="s">
+      <c r="P9" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="118"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="142"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -2425,11 +2425,11 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="Y9" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="117"/>
-      <c r="AA9" s="118"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="142"/>
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G10" s="8"/>
@@ -2468,70 +2468,70 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96"/>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91" t="s">
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="140"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91" t="s">
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="93"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="140"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="91" t="s">
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="93"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="140"/>
     </row>
     <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -2552,11 +2552,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="94" t="s">
+      <c r="G15" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="95"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="113"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2575,11 +2575,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="94" t="s">
+      <c r="P15" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="95"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="113"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2598,11 +2598,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="94" t="s">
+      <c r="Y15" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="95"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="113"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2629,11 +2629,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="108" t="s">
+      <c r="G16" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="108"/>
-      <c r="I16" s="109"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2651,11 +2651,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="96" t="s">
+      <c r="P16" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="98"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="109"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2673,11 +2673,11 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="96" t="s">
+      <c r="Y16" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="98"/>
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="109"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
@@ -2697,11 +2697,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="113" t="s">
+      <c r="G17" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="113"/>
-      <c r="I17" s="114"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2719,11 +2719,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="102" t="s">
+      <c r="P17" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="104"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="128"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2741,9 +2741,9 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="105"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="107"/>
+      <c r="Y17" s="148"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="150"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
@@ -2763,11 +2763,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="108" t="s">
+      <c r="G18" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2785,11 +2785,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="96" t="s">
+      <c r="P18" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="98"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="109"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2807,11 +2807,11 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="96" t="s">
+      <c r="Y18" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="98"/>
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="109"/>
     </row>
     <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -2831,11 +2831,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="108" t="s">
+      <c r="G19" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="108"/>
-      <c r="I19" s="109"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2853,11 +2853,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="96" t="s">
+      <c r="P19" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="98"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2875,11 +2875,11 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="96" t="s">
+      <c r="Y19" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="98"/>
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="109"/>
     </row>
     <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
@@ -2899,11 +2899,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="113" t="s">
+      <c r="G20" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="133"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2921,11 +2921,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="96" t="s">
+      <c r="P20" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="98"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="109"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2943,11 +2943,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="108" t="s">
+      <c r="Y20" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="108"/>
-      <c r="AA20" s="109"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="121"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -2967,11 +2967,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="121" t="s">
+      <c r="G21" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2989,11 +2989,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="102" t="s">
+      <c r="P21" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="104"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="128"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -3011,11 +3011,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="124" t="s">
+      <c r="Y21" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="124"/>
-      <c r="AA21" s="125"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="123"/>
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
@@ -3035,11 +3035,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="108" t="s">
+      <c r="G22" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -3057,11 +3057,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="121" t="s">
+      <c r="P22" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="123"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="131"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -3079,11 +3079,11 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="108" t="s">
+      <c r="Y22" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="108"/>
-      <c r="AA22" s="109"/>
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="121"/>
     </row>
     <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
@@ -3103,11 +3103,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="129" t="s">
+      <c r="G23" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -3125,11 +3125,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="102" t="s">
+      <c r="P23" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="104"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="128"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -3147,11 +3147,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="124" t="s">
+      <c r="Y23" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="124"/>
-      <c r="AA23" s="125"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="123"/>
     </row>
     <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F24" s="6">
@@ -3175,11 +3175,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="108" t="s">
+      <c r="P24" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="109"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="121"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -3197,11 +3197,11 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="124" t="s">
+      <c r="Y24" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="124"/>
-      <c r="AA24" s="125"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="123"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J25" s="38" t="s">
@@ -3221,11 +3221,11 @@
         <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="126" t="s">
+      <c r="P25" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="127"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="117"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -3243,11 +3243,11 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="126" t="s">
+      <c r="Y25" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="127"/>
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="117"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B26" s="32"/>
@@ -3255,9 +3255,9 @@
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -3275,11 +3275,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="121" t="s">
+      <c r="P26" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="123"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="131"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -3297,11 +3297,11 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="126" t="s">
+      <c r="Y26" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="127"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="117"/>
     </row>
     <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J27" s="48" t="s">
@@ -3321,11 +3321,11 @@
         <f>SUM(M27-L27)</f>
         <v>0.15625</v>
       </c>
-      <c r="P27" s="131" t="s">
+      <c r="P27" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="132"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="125"/>
       <c r="S27" s="38" t="s">
         <v>8</v>
       </c>
@@ -3343,18 +3343,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="124" t="s">
+      <c r="Y27" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="124"/>
-      <c r="AA27" s="125"/>
+      <c r="Z27" s="122"/>
+      <c r="AA27" s="123"/>
     </row>
     <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -3376,91 +3376,91 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="129" t="s">
+      <c r="Y28" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="129"/>
-      <c r="AA28" s="130"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="119"/>
     </row>
     <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
+      <c r="Y29" s="115"/>
+      <c r="Z29" s="115"/>
+      <c r="AA29" s="115"/>
     </row>
     <row r="31" spans="1:27" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="87"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="96"/>
+      <c r="AA31" s="96"/>
     </row>
     <row r="32" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="91" t="s">
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="140"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="91" t="s">
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="137"/>
+      <c r="P32" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="93"/>
+      <c r="Q32" s="139"/>
+      <c r="R32" s="140"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="88"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="91" t="s">
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="136"/>
+      <c r="W32" s="136"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="93"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="140"/>
     </row>
     <row r="33" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -3481,11 +3481,11 @@
       <c r="F33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="94" t="s">
+      <c r="G33" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="94"/>
-      <c r="I33" s="95"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="113"/>
       <c r="J33" s="42" t="s">
         <v>9</v>
       </c>
@@ -3504,11 +3504,11 @@
       <c r="O33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="94" t="s">
+      <c r="P33" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="95"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="113"/>
       <c r="S33" s="13" t="s">
         <v>8</v>
       </c>
@@ -3527,11 +3527,11 @@
       <c r="X33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="94" t="s">
+      <c r="Y33" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="95"/>
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="113"/>
       <c r="AB33" s="27" t="s">
         <v>19</v>
       </c>
@@ -3558,11 +3558,11 @@
         <f t="shared" ref="F34:F37" si="7">SUM(D34-C34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G34" s="96" t="s">
+      <c r="G34" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="97"/>
-      <c r="I34" s="98"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="109"/>
       <c r="J34" s="23" t="s">
         <v>9</v>
       </c>
@@ -3580,11 +3580,11 @@
         <f t="shared" ref="O34:O37" si="8">SUM(M34-L34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P34" s="96" t="s">
+      <c r="P34" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="98"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="109"/>
       <c r="S34" s="38" t="s">
         <v>8</v>
       </c>
@@ -3602,11 +3602,11 @@
         <f t="shared" ref="X34:X35" si="9">SUM(V34-U34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y34" s="96" t="s">
+      <c r="Y34" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="98"/>
+      <c r="Z34" s="108"/>
+      <c r="AA34" s="109"/>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
@@ -3626,11 +3626,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G35" s="96" t="s">
+      <c r="G35" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="97"/>
-      <c r="I35" s="98"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="109"/>
       <c r="J35" s="23" t="s">
         <v>9</v>
       </c>
@@ -3648,11 +3648,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P35" s="96" t="s">
+      <c r="P35" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="98"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="109"/>
       <c r="S35" s="38" t="s">
         <v>8</v>
       </c>
@@ -3670,11 +3670,11 @@
         <f t="shared" si="9"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y35" s="96" t="s">
+      <c r="Y35" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="98"/>
+      <c r="Z35" s="108"/>
+      <c r="AA35" s="109"/>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
@@ -3694,11 +3694,11 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G36" s="96" t="s">
+      <c r="G36" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="109"/>
       <c r="J36" s="23" t="s">
         <v>9</v>
       </c>
@@ -3716,11 +3716,11 @@
         <f t="shared" si="8"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P36" s="96" t="s">
+      <c r="P36" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="98"/>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="109"/>
       <c r="S36" s="38" t="s">
         <v>8</v>
       </c>
@@ -3738,11 +3738,11 @@
         <f t="shared" ref="X36:X37" si="10">SUM(V36-U36)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y36" s="96" t="s">
+      <c r="Y36" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="98"/>
+      <c r="Z36" s="108"/>
+      <c r="AA36" s="109"/>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
@@ -3762,11 +3762,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G37" s="96" t="s">
+      <c r="G37" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="97"/>
-      <c r="I37" s="98"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="109"/>
       <c r="J37" s="23" t="s">
         <v>9</v>
       </c>
@@ -3784,11 +3784,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P37" s="96" t="s">
+      <c r="P37" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="98"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="109"/>
       <c r="S37" s="38" t="s">
         <v>8</v>
       </c>
@@ -3806,11 +3806,11 @@
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Y37" s="102" t="s">
+      <c r="Y37" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" s="103"/>
-      <c r="AA37" s="104"/>
+      <c r="Z37" s="127"/>
+      <c r="AA37" s="128"/>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
@@ -3830,11 +3830,11 @@
         <f>SUM(D38-C38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G38" s="96" t="s">
+      <c r="G38" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="97"/>
-      <c r="I38" s="98"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="109"/>
       <c r="J38" s="23" t="s">
         <v>9</v>
       </c>
@@ -3852,11 +3852,11 @@
         <f>SUM(M38-L38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P38" s="96" t="s">
+      <c r="P38" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="97"/>
-      <c r="R38" s="98"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="109"/>
       <c r="S38" s="38" t="s">
         <v>8</v>
       </c>
@@ -3874,11 +3874,11 @@
         <f t="shared" ref="X38:X39" si="11">SUM(V38-U38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y38" s="96" t="s">
+      <c r="Y38" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z38" s="97"/>
-      <c r="AA38" s="98"/>
+      <c r="Z38" s="108"/>
+      <c r="AA38" s="109"/>
     </row>
     <row r="39" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
@@ -3898,11 +3898,11 @@
         <f>SUM(D39-C39)</f>
         <v>0.125</v>
       </c>
-      <c r="G39" s="99" t="s">
+      <c r="G39" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="100"/>
-      <c r="I39" s="101"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="153"/>
       <c r="J39" s="25" t="s">
         <v>9</v>
       </c>
@@ -3920,11 +3920,11 @@
         <f>SUM(M39-L39)</f>
         <v>0.125</v>
       </c>
-      <c r="P39" s="99" t="s">
+      <c r="P39" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="100"/>
-      <c r="R39" s="101"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="153"/>
       <c r="S39" s="38" t="s">
         <v>8</v>
       </c>
@@ -3942,11 +3942,11 @@
         <f t="shared" si="11"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y39" s="96" t="s">
+      <c r="Y39" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z39" s="97"/>
-      <c r="AA39" s="98"/>
+      <c r="Z39" s="108"/>
+      <c r="AA39" s="109"/>
     </row>
     <row r="40" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="62"/>
@@ -3990,11 +3990,11 @@
         <f>SUM(V40-U40)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y40" s="96" t="s">
+      <c r="Y40" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z40" s="97"/>
-      <c r="AA40" s="98"/>
+      <c r="Z40" s="108"/>
+      <c r="AA40" s="109"/>
     </row>
     <row r="41" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
@@ -4003,18 +4003,18 @@
       <c r="D41" s="58"/>
       <c r="E41" s="4"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
       <c r="J41" s="57"/>
       <c r="K41" s="66"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
       <c r="N41" s="4"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="85"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="105"/>
+      <c r="R41" s="105"/>
       <c r="S41" s="56" t="s">
         <v>8</v>
       </c>
@@ -4032,11 +4032,11 @@
         <f>SUM(V41-U41)</f>
         <v>0.125</v>
       </c>
-      <c r="Y41" s="99" t="s">
+      <c r="Y41" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="Z41" s="100"/>
-      <c r="AA41" s="101"/>
+      <c r="Z41" s="152"/>
+      <c r="AA41" s="153"/>
     </row>
     <row r="42" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -4054,9 +4054,9 @@
       <c r="M42" s="58"/>
       <c r="N42" s="4"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="85"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="105"/>
       <c r="S42" s="62"/>
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
@@ -4086,113 +4086,113 @@
       <c r="M43" s="58"/>
       <c r="N43" s="4"/>
       <c r="O43" s="58"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="106"/>
+      <c r="R43" s="106"/>
       <c r="S43" s="57"/>
       <c r="T43" s="46"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
       <c r="W43" s="4"/>
       <c r="X43" s="58"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="82"/>
+      <c r="Y43" s="106"/>
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="106"/>
     </row>
     <row r="44" spans="1:56" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="86" t="s">
+      <c r="A44" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="87"/>
-      <c r="U44" s="87"/>
-      <c r="V44" s="87"/>
-      <c r="W44" s="87"/>
-      <c r="X44" s="87"/>
-      <c r="Y44" s="87"/>
-      <c r="Z44" s="87"/>
-      <c r="AA44" s="87"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="96"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="96"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="96"/>
+      <c r="V44" s="96"/>
+      <c r="W44" s="96"/>
+      <c r="X44" s="96"/>
+      <c r="Y44" s="96"/>
+      <c r="Z44" s="96"/>
+      <c r="AA44" s="96"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="33"/>
       <c r="AG44" s="33"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="34"/>
-      <c r="AJ44" s="85"/>
-      <c r="AK44" s="85"/>
-      <c r="AL44" s="85"/>
+      <c r="AJ44" s="105"/>
+      <c r="AK44" s="105"/>
+      <c r="AL44" s="105"/>
       <c r="AM44" s="57"/>
       <c r="AN44" s="46"/>
       <c r="AO44" s="58"/>
       <c r="AP44" s="58"/>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="58"/>
-      <c r="AS44" s="82"/>
-      <c r="AT44" s="82"/>
-      <c r="AU44" s="82"/>
+      <c r="AS44" s="106"/>
+      <c r="AT44" s="106"/>
+      <c r="AU44" s="106"/>
       <c r="AV44" s="57"/>
       <c r="AW44" s="46"/>
       <c r="AX44" s="58"/>
       <c r="AY44" s="58"/>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="58"/>
-      <c r="BB44" s="82"/>
-      <c r="BC44" s="82"/>
-      <c r="BD44" s="82"/>
+      <c r="BB44" s="106"/>
+      <c r="BC44" s="106"/>
+      <c r="BD44" s="106"/>
     </row>
     <row r="45" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="91" t="s">
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="92"/>
-      <c r="I45" s="93"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="140"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="90"/>
-      <c r="P45" s="91" t="str">
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="137"/>
+      <c r="P45" s="138" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="93"/>
+      <c r="Q45" s="139"/>
+      <c r="R45" s="140"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="89"/>
-      <c r="W45" s="89"/>
-      <c r="X45" s="90"/>
-      <c r="Y45" s="91" t="str">
+      <c r="T45" s="135"/>
+      <c r="U45" s="135"/>
+      <c r="V45" s="136"/>
+      <c r="W45" s="136"/>
+      <c r="X45" s="137"/>
+      <c r="Y45" s="138" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Z45" s="92"/>
-      <c r="AA45" s="93"/>
+      <c r="Z45" s="139"/>
+      <c r="AA45" s="140"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="4"/>
@@ -4208,18 +4208,18 @@
       <c r="AP45" s="58"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="58"/>
-      <c r="AS45" s="82"/>
-      <c r="AT45" s="82"/>
-      <c r="AU45" s="82"/>
+      <c r="AS45" s="106"/>
+      <c r="AT45" s="106"/>
+      <c r="AU45" s="106"/>
       <c r="AV45" s="57"/>
       <c r="AW45" s="46"/>
       <c r="AX45" s="58"/>
       <c r="AY45" s="58"/>
       <c r="AZ45" s="4"/>
       <c r="BA45" s="58"/>
-      <c r="BB45" s="82"/>
-      <c r="BC45" s="82"/>
-      <c r="BD45" s="82"/>
+      <c r="BB45" s="106"/>
+      <c r="BC45" s="106"/>
+      <c r="BD45" s="106"/>
     </row>
     <row r="46" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
@@ -4240,11 +4240,11 @@
       <c r="F46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="94" t="s">
+      <c r="G46" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="94"/>
-      <c r="I46" s="95"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="113"/>
       <c r="J46" s="42" t="s">
         <v>9</v>
       </c>
@@ -4263,11 +4263,11 @@
       <c r="O46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P46" s="94" t="s">
+      <c r="P46" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="95"/>
+      <c r="Q46" s="112"/>
+      <c r="R46" s="113"/>
       <c r="S46" s="13" t="s">
         <v>8</v>
       </c>
@@ -4286,11 +4286,11 @@
       <c r="X46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y46" s="94" t="s">
+      <c r="Y46" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Z46" s="94"/>
-      <c r="AA46" s="95"/>
+      <c r="Z46" s="112"/>
+      <c r="AA46" s="113"/>
       <c r="AB46" s="27" t="s">
         <v>19</v>
       </c>
@@ -4304,8 +4304,8 @@
       <c r="AG46" s="58"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="83"/>
-      <c r="AK46" s="83"/>
+      <c r="AJ46" s="114"/>
+      <c r="AK46" s="114"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
@@ -4322,9 +4322,9 @@
       <c r="AY46" s="58"/>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="58"/>
-      <c r="BB46" s="82"/>
-      <c r="BC46" s="82"/>
-      <c r="BD46" s="82"/>
+      <c r="BB46" s="106"/>
+      <c r="BC46" s="106"/>
+      <c r="BD46" s="106"/>
     </row>
     <row r="47" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
@@ -4344,11 +4344,11 @@
         <f t="shared" ref="F47:F50" si="12">SUM(D47-C47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="G47" s="96" t="s">
+      <c r="G47" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="97"/>
-      <c r="I47" s="98"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="109"/>
       <c r="J47" s="23" t="s">
         <v>9</v>
       </c>
@@ -4366,11 +4366,11 @@
         <f t="shared" ref="O47:O52" si="13">SUM(M47-L47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="P47" s="96" t="s">
+      <c r="P47" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="97"/>
-      <c r="R47" s="98"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="109"/>
       <c r="S47" s="38" t="s">
         <v>8</v>
       </c>
@@ -4388,19 +4388,19 @@
         <f t="shared" ref="X47:X50" si="14">SUM(V47-U47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Y47" s="96" t="s">
+      <c r="Y47" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="97"/>
-      <c r="AA47" s="98"/>
+      <c r="Z47" s="108"/>
+      <c r="AA47" s="109"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="61"/>
       <c r="AF47" s="58"/>
       <c r="AG47" s="58"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="84"/>
-      <c r="AK47" s="84"/>
+      <c r="AJ47" s="154"/>
+      <c r="AK47" s="154"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
@@ -4417,9 +4417,9 @@
       <c r="AY47" s="4"/>
       <c r="AZ47" s="4"/>
       <c r="BA47" s="60"/>
-      <c r="BB47" s="84"/>
-      <c r="BC47" s="84"/>
-      <c r="BD47" s="84"/>
+      <c r="BB47" s="154"/>
+      <c r="BC47" s="154"/>
+      <c r="BD47" s="154"/>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
@@ -4439,11 +4439,11 @@
         <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G48" s="96" t="s">
+      <c r="G48" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="97"/>
-      <c r="I48" s="98"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="109"/>
       <c r="J48" s="23" t="s">
         <v>9</v>
       </c>
@@ -4461,11 +4461,11 @@
         <f t="shared" si="13"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P48" s="96" t="s">
+      <c r="P48" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" s="97"/>
-      <c r="R48" s="98"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="109"/>
       <c r="S48" s="38" t="s">
         <v>8</v>
       </c>
@@ -4483,11 +4483,11 @@
         <f t="shared" si="14"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y48" s="96" t="s">
+      <c r="Y48" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Z48" s="97"/>
-      <c r="AA48" s="98"/>
+      <c r="Z48" s="108"/>
+      <c r="AA48" s="109"/>
       <c r="AE48" s="3"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
@@ -4508,11 +4508,11 @@
         <f t="shared" si="12"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G49" s="96" t="s">
+      <c r="G49" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="97"/>
-      <c r="I49" s="98"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="109"/>
       <c r="J49" s="23" t="s">
         <v>9</v>
       </c>
@@ -4530,11 +4530,11 @@
         <f t="shared" si="13"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="P49" s="96" t="s">
+      <c r="P49" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Q49" s="97"/>
-      <c r="R49" s="98"/>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="109"/>
       <c r="S49" s="38" t="s">
         <v>8</v>
       </c>
@@ -4552,11 +4552,11 @@
         <f t="shared" si="14"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="Y49" s="96" t="s">
+      <c r="Y49" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="97"/>
-      <c r="AA49" s="98"/>
+      <c r="Z49" s="108"/>
+      <c r="AA49" s="109"/>
       <c r="AE49" s="3"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
@@ -4577,11 +4577,11 @@
         <f t="shared" si="12"/>
         <v>0.23125000000000007</v>
       </c>
-      <c r="G50" s="96" t="s">
+      <c r="G50" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="97"/>
-      <c r="I50" s="98"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="109"/>
       <c r="J50" s="23" t="s">
         <v>9</v>
       </c>
@@ -4599,11 +4599,11 @@
         <f t="shared" si="13"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P50" s="96" t="s">
+      <c r="P50" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" s="97"/>
-      <c r="R50" s="98"/>
+      <c r="Q50" s="108"/>
+      <c r="R50" s="109"/>
       <c r="S50" s="38" t="s">
         <v>8</v>
       </c>
@@ -4621,11 +4621,11 @@
         <f t="shared" si="14"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y50" s="96" t="s">
+      <c r="Y50" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z50" s="97"/>
-      <c r="AA50" s="98"/>
+      <c r="Z50" s="108"/>
+      <c r="AA50" s="109"/>
       <c r="AE50" s="3"/>
     </row>
     <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4648,11 +4648,11 @@
         <f>SUM(D51-C51)</f>
         <v>0.32291666666666669</v>
       </c>
-      <c r="G51" s="96" t="s">
+      <c r="G51" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="97"/>
-      <c r="I51" s="98"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="109"/>
       <c r="J51" s="23" t="s">
         <v>9</v>
       </c>
@@ -4670,11 +4670,11 @@
         <f>SUM(M51-L51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="P51" s="96" t="s">
+      <c r="P51" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="97"/>
-      <c r="R51" s="98"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="109"/>
       <c r="S51" s="38" t="s">
         <v>8</v>
       </c>
@@ -4692,11 +4692,11 @@
         <f>SUM(V51-U51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="Y51" s="96" t="s">
+      <c r="Y51" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z51" s="97"/>
-      <c r="AA51" s="98"/>
+      <c r="Z51" s="108"/>
+      <c r="AA51" s="109"/>
       <c r="AE51" s="3"/>
     </row>
     <row r="52" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4717,11 +4717,11 @@
         <f>SUM(D52-C52)</f>
         <v>0.17083333333333339</v>
       </c>
-      <c r="G52" s="96" t="s">
+      <c r="G52" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="97"/>
-      <c r="I52" s="98"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="109"/>
       <c r="J52" s="25" t="s">
         <v>9</v>
       </c>
@@ -4739,11 +4739,11 @@
         <f t="shared" si="13"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="P52" s="96" t="s">
+      <c r="P52" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="Q52" s="97"/>
-      <c r="R52" s="97"/>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
       <c r="S52" s="25" t="s">
         <v>8</v>
       </c>
@@ -4761,11 +4761,11 @@
         <f t="shared" ref="X52" si="15">SUM(V52-U52)</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="Y52" s="133" t="s">
+      <c r="Y52" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="Z52" s="133"/>
-      <c r="AA52" s="134"/>
+      <c r="Z52" s="110"/>
+      <c r="AA52" s="111"/>
       <c r="AE52" s="3"/>
     </row>
     <row r="53" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4802,9 +4802,9 @@
         <f>SUM(X47:X52)</f>
         <v>0.84375000000000022</v>
       </c>
-      <c r="Y53" s="85"/>
-      <c r="Z53" s="85"/>
-      <c r="AA53" s="85"/>
+      <c r="Y53" s="105"/>
+      <c r="Z53" s="105"/>
+      <c r="AA53" s="105"/>
       <c r="AE53" s="3"/>
     </row>
     <row r="54" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -4814,118 +4814,118 @@
       <c r="D54" s="58"/>
       <c r="E54" s="4"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
       <c r="J54" s="57"/>
       <c r="K54" s="66"/>
       <c r="L54" s="58"/>
       <c r="M54" s="58"/>
       <c r="N54" s="4"/>
       <c r="O54" s="58"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="85"/>
-      <c r="R54" s="85"/>
+      <c r="P54" s="105"/>
+      <c r="Q54" s="105"/>
+      <c r="R54" s="105"/>
       <c r="S54" s="57"/>
       <c r="T54" s="32"/>
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
       <c r="W54" s="33"/>
       <c r="X54" s="58"/>
-      <c r="Y54" s="82"/>
-      <c r="Z54" s="82"/>
-      <c r="AA54" s="82"/>
+      <c r="Y54" s="106"/>
+      <c r="Z54" s="106"/>
+      <c r="AA54" s="106"/>
       <c r="AE54" s="3"/>
     </row>
     <row r="55" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="135"/>
-      <c r="B55" s="136"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="136"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="136"/>
-      <c r="L55" s="136"/>
-      <c r="M55" s="136"/>
-      <c r="N55" s="136"/>
-      <c r="O55" s="136"/>
-      <c r="P55" s="136"/>
-      <c r="Q55" s="136"/>
-      <c r="R55" s="136"/>
-      <c r="S55" s="136"/>
-      <c r="T55" s="136"/>
-      <c r="U55" s="136"/>
-      <c r="V55" s="136"/>
-      <c r="W55" s="136"/>
-      <c r="X55" s="136"/>
-      <c r="Y55" s="136"/>
-      <c r="Z55" s="136"/>
-      <c r="AA55" s="136"/>
+      <c r="A55" s="103"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="104"/>
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104"/>
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
+      <c r="R55" s="104"/>
+      <c r="S55" s="104"/>
+      <c r="T55" s="104"/>
+      <c r="U55" s="104"/>
+      <c r="V55" s="104"/>
+      <c r="W55" s="104"/>
+      <c r="X55" s="104"/>
+      <c r="Y55" s="104"/>
+      <c r="Z55" s="104"/>
+      <c r="AA55" s="104"/>
       <c r="AE55" s="3"/>
     </row>
     <row r="56" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="135"/>
-      <c r="B56" s="136"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="136"/>
-      <c r="L56" s="136"/>
-      <c r="M56" s="136"/>
-      <c r="N56" s="136"/>
-      <c r="O56" s="136"/>
-      <c r="P56" s="136"/>
-      <c r="Q56" s="136"/>
-      <c r="R56" s="136"/>
-      <c r="S56" s="136"/>
-      <c r="T56" s="136"/>
-      <c r="U56" s="136"/>
-      <c r="V56" s="136"/>
-      <c r="W56" s="136"/>
-      <c r="X56" s="136"/>
-      <c r="Y56" s="136"/>
-      <c r="Z56" s="136"/>
-      <c r="AA56" s="136"/>
+      <c r="A56" s="103"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="104"/>
+      <c r="U56" s="104"/>
+      <c r="V56" s="104"/>
+      <c r="W56" s="104"/>
+      <c r="X56" s="104"/>
+      <c r="Y56" s="104"/>
+      <c r="Z56" s="104"/>
+      <c r="AA56" s="104"/>
     </row>
     <row r="57" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="87"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="87"/>
-      <c r="O57" s="87"/>
-      <c r="P57" s="87"/>
-      <c r="Q57" s="87"/>
-      <c r="R57" s="87"/>
-      <c r="S57" s="87"/>
-      <c r="T57" s="87"/>
-      <c r="U57" s="87"/>
-      <c r="V57" s="87"/>
-      <c r="W57" s="87"/>
-      <c r="X57" s="87"/>
-      <c r="Y57" s="87"/>
-      <c r="Z57" s="87"/>
-      <c r="AA57" s="87"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="96"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="96"/>
+      <c r="R57" s="96"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="96"/>
+      <c r="U57" s="96"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
+      <c r="X57" s="96"/>
+      <c r="Y57" s="96"/>
+      <c r="Z57" s="96"/>
+      <c r="AA57" s="96"/>
     </row>
     <row r="58" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="70"/>
@@ -4934,35 +4934,35 @@
       <c r="D58" s="70"/>
       <c r="E58" s="70"/>
       <c r="F58" s="70"/>
-      <c r="G58" s="142" t="s">
+      <c r="G58" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="143"/>
-      <c r="I58" s="144"/>
+      <c r="H58" s="98"/>
+      <c r="I58" s="99"/>
       <c r="J58" s="70"/>
       <c r="K58" s="70"/>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
       <c r="N58" s="70"/>
       <c r="O58" s="70"/>
-      <c r="P58" s="142" t="str">
+      <c r="P58" s="97" t="str">
         <f>G58</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Q58" s="143"/>
-      <c r="R58" s="144"/>
+      <c r="Q58" s="98"/>
+      <c r="R58" s="99"/>
       <c r="S58" s="70"/>
       <c r="T58" s="70"/>
       <c r="U58" s="70"/>
       <c r="V58" s="70"/>
       <c r="W58" s="70"/>
       <c r="X58" s="70"/>
-      <c r="Y58" s="142" t="str">
+      <c r="Y58" s="97" t="str">
         <f>G58</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Z58" s="143"/>
-      <c r="AA58" s="144"/>
+      <c r="Z58" s="98"/>
+      <c r="AA58" s="99"/>
     </row>
     <row r="59" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="72" t="s">
@@ -4983,11 +4983,11 @@
       <c r="F59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="140" t="s">
+      <c r="G59" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
       <c r="J59" s="80" t="s">
         <v>9</v>
       </c>
@@ -5006,11 +5006,11 @@
       <c r="O59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P59" s="140" t="s">
+      <c r="P59" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="141"/>
-      <c r="R59" s="141"/>
+      <c r="Q59" s="101"/>
+      <c r="R59" s="101"/>
       <c r="S59" s="80" t="s">
         <v>8</v>
       </c>
@@ -5029,11 +5029,11 @@
       <c r="X59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="Y59" s="140" t="s">
+      <c r="Y59" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="Z59" s="141"/>
-      <c r="AA59" s="145"/>
+      <c r="Z59" s="101"/>
+      <c r="AA59" s="102"/>
       <c r="AB59" s="81" t="s">
         <v>19</v>
       </c>
@@ -5060,11 +5060,11 @@
         <f>SUM(D60-C60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G60" s="115" t="s">
+      <c r="G60" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="115"/>
-      <c r="I60" s="137"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="90"/>
       <c r="J60" s="74" t="s">
         <v>9</v>
       </c>
@@ -5082,11 +5082,11 @@
         <f>SUM(M60-L60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P60" s="115" t="s">
+      <c r="P60" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q60" s="115"/>
-      <c r="R60" s="137"/>
+      <c r="Q60" s="89"/>
+      <c r="R60" s="90"/>
       <c r="S60" s="74" t="s">
         <v>8</v>
       </c>
@@ -5104,11 +5104,11 @@
         <f>SUM(V60-U60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y60" s="115" t="s">
+      <c r="Y60" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z60" s="115"/>
-      <c r="AA60" s="137"/>
+      <c r="Z60" s="89"/>
+      <c r="AA60" s="90"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
@@ -5128,11 +5128,11 @@
         <f t="shared" ref="F61:F68" si="16">SUM(D61-C61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G61" s="115" t="s">
+      <c r="G61" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="115"/>
-      <c r="I61" s="137"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="90"/>
       <c r="J61" s="74" t="s">
         <v>9</v>
       </c>
@@ -5150,11 +5150,11 @@
         <f t="shared" ref="O61:O68" si="17">SUM(M61-L61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P61" s="115" t="s">
+      <c r="P61" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q61" s="115"/>
-      <c r="R61" s="137"/>
+      <c r="Q61" s="89"/>
+      <c r="R61" s="90"/>
       <c r="S61" s="74" t="s">
         <v>8</v>
       </c>
@@ -5172,11 +5172,11 @@
         <f t="shared" ref="X61:X68" si="18">SUM(V61-U61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y61" s="115" t="s">
+      <c r="Y61" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z61" s="115"/>
-      <c r="AA61" s="137"/>
+      <c r="Z61" s="89"/>
+      <c r="AA61" s="90"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
@@ -5196,11 +5196,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G62" s="115" t="s">
+      <c r="G62" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="115"/>
-      <c r="I62" s="137"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="90"/>
       <c r="J62" s="74" t="s">
         <v>9</v>
       </c>
@@ -5218,11 +5218,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P62" s="115" t="s">
+      <c r="P62" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q62" s="115"/>
-      <c r="R62" s="137"/>
+      <c r="Q62" s="89"/>
+      <c r="R62" s="90"/>
       <c r="S62" s="74" t="s">
         <v>8</v>
       </c>
@@ -5240,11 +5240,11 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y62" s="115" t="s">
+      <c r="Y62" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z62" s="115"/>
-      <c r="AA62" s="137"/>
+      <c r="Z62" s="89"/>
+      <c r="AA62" s="90"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
@@ -5264,11 +5264,11 @@
         <f t="shared" si="16"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="G63" s="115" t="s">
+      <c r="G63" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="115"/>
-      <c r="I63" s="137"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="90"/>
       <c r="J63" s="74" t="s">
         <v>9</v>
       </c>
@@ -5286,11 +5286,11 @@
         <f t="shared" si="17"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P63" s="115" t="s">
+      <c r="P63" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q63" s="115"/>
-      <c r="R63" s="137"/>
+      <c r="Q63" s="89"/>
+      <c r="R63" s="90"/>
       <c r="S63" s="74" t="s">
         <v>8</v>
       </c>
@@ -5308,11 +5308,11 @@
         <f t="shared" si="18"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="Y63" s="115" t="s">
+      <c r="Y63" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z63" s="115"/>
-      <c r="AA63" s="137"/>
+      <c r="Z63" s="89"/>
+      <c r="AA63" s="90"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
@@ -5332,11 +5332,11 @@
         <f t="shared" si="16"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G64" s="115" t="s">
+      <c r="G64" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="115"/>
-      <c r="I64" s="137"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="90"/>
       <c r="J64" s="74" t="s">
         <v>9</v>
       </c>
@@ -5354,11 +5354,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P64" s="115" t="s">
+      <c r="P64" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q64" s="115"/>
-      <c r="R64" s="137"/>
+      <c r="Q64" s="89"/>
+      <c r="R64" s="90"/>
       <c r="S64" s="74" t="s">
         <v>8</v>
       </c>
@@ -5376,11 +5376,11 @@
         <f t="shared" si="18"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y64" s="115" t="s">
+      <c r="Y64" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z64" s="115"/>
-      <c r="AA64" s="137"/>
+      <c r="Z64" s="89"/>
+      <c r="AA64" s="90"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
@@ -5400,11 +5400,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G65" s="115" t="s">
+      <c r="G65" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="115"/>
-      <c r="I65" s="137"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="90"/>
       <c r="J65" s="74" t="s">
         <v>9</v>
       </c>
@@ -5422,11 +5422,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P65" s="115" t="s">
+      <c r="P65" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="115"/>
-      <c r="R65" s="137"/>
+      <c r="Q65" s="89"/>
+      <c r="R65" s="90"/>
       <c r="S65" s="74" t="s">
         <v>8</v>
       </c>
@@ -5444,11 +5444,11 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y65" s="115" t="s">
+      <c r="Y65" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z65" s="115"/>
-      <c r="AA65" s="137"/>
+      <c r="Z65" s="89"/>
+      <c r="AA65" s="90"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
@@ -5468,11 +5468,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G66" s="115" t="s">
+      <c r="G66" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="115"/>
-      <c r="I66" s="137"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="90"/>
       <c r="J66" s="74" t="s">
         <v>9</v>
       </c>
@@ -5490,11 +5490,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P66" s="115" t="s">
+      <c r="P66" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q66" s="115"/>
-      <c r="R66" s="137"/>
+      <c r="Q66" s="89"/>
+      <c r="R66" s="90"/>
       <c r="S66" s="74" t="s">
         <v>8</v>
       </c>
@@ -5512,11 +5512,11 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y66" s="115" t="s">
+      <c r="Y66" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z66" s="115"/>
-      <c r="AA66" s="137"/>
+      <c r="Z66" s="89"/>
+      <c r="AA66" s="90"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
@@ -5536,11 +5536,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G67" s="115" t="s">
+      <c r="G67" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="115"/>
-      <c r="I67" s="137"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="90"/>
       <c r="J67" s="74" t="s">
         <v>9</v>
       </c>
@@ -5558,11 +5558,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P67" s="115" t="s">
+      <c r="P67" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q67" s="115"/>
-      <c r="R67" s="137"/>
+      <c r="Q67" s="89"/>
+      <c r="R67" s="90"/>
       <c r="S67" s="74" t="s">
         <v>8</v>
       </c>
@@ -5580,11 +5580,11 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y67" s="115" t="s">
+      <c r="Y67" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z67" s="115"/>
-      <c r="AA67" s="137"/>
+      <c r="Z67" s="89"/>
+      <c r="AA67" s="90"/>
     </row>
     <row r="68" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="75" t="s">
@@ -5604,11 +5604,11 @@
         <f t="shared" si="16"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G68" s="138" t="s">
+      <c r="G68" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="138"/>
-      <c r="I68" s="139"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="92"/>
       <c r="J68" s="75" t="s">
         <v>9</v>
       </c>
@@ -5626,11 +5626,11 @@
         <f t="shared" si="17"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="P68" s="138" t="s">
+      <c r="P68" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="138"/>
-      <c r="R68" s="139"/>
+      <c r="Q68" s="91"/>
+      <c r="R68" s="92"/>
       <c r="S68" s="75" t="s">
         <v>8</v>
       </c>
@@ -5648,11 +5648,11 @@
         <f t="shared" si="18"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="Y68" s="138" t="s">
+      <c r="Y68" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Z68" s="138"/>
-      <c r="AA68" s="139"/>
+      <c r="Z68" s="91"/>
+      <c r="AA68" s="92"/>
     </row>
     <row r="69" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F69" s="78">
@@ -5671,35 +5671,35 @@
       </c>
     </row>
     <row r="71" spans="1:29" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="86" t="s">
+      <c r="A71" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="87"/>
-      <c r="J71" s="87"/>
-      <c r="K71" s="87"/>
-      <c r="L71" s="87"/>
-      <c r="M71" s="87"/>
-      <c r="N71" s="87"/>
-      <c r="O71" s="87"/>
-      <c r="P71" s="87"/>
-      <c r="Q71" s="87"/>
-      <c r="R71" s="87"/>
-      <c r="S71" s="87"/>
-      <c r="T71" s="87"/>
-      <c r="U71" s="87"/>
-      <c r="V71" s="87"/>
-      <c r="W71" s="87"/>
-      <c r="X71" s="87"/>
-      <c r="Y71" s="87"/>
-      <c r="Z71" s="87"/>
-      <c r="AA71" s="87"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="96"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="96"/>
+      <c r="H71" s="96"/>
+      <c r="I71" s="96"/>
+      <c r="J71" s="96"/>
+      <c r="K71" s="96"/>
+      <c r="L71" s="96"/>
+      <c r="M71" s="96"/>
+      <c r="N71" s="96"/>
+      <c r="O71" s="96"/>
+      <c r="P71" s="96"/>
+      <c r="Q71" s="96"/>
+      <c r="R71" s="96"/>
+      <c r="S71" s="96"/>
+      <c r="T71" s="96"/>
+      <c r="U71" s="96"/>
+      <c r="V71" s="96"/>
+      <c r="W71" s="96"/>
+      <c r="X71" s="96"/>
+      <c r="Y71" s="96"/>
+      <c r="Z71" s="96"/>
+      <c r="AA71" s="96"/>
     </row>
     <row r="72" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="70"/>
@@ -5708,35 +5708,35 @@
       <c r="D72" s="70"/>
       <c r="E72" s="70"/>
       <c r="F72" s="70"/>
-      <c r="G72" s="142" t="s">
+      <c r="G72" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="143"/>
-      <c r="I72" s="144"/>
+      <c r="H72" s="98"/>
+      <c r="I72" s="99"/>
       <c r="J72" s="70"/>
       <c r="K72" s="70"/>
       <c r="L72" s="70"/>
       <c r="M72" s="70"/>
       <c r="N72" s="70"/>
       <c r="O72" s="70"/>
-      <c r="P72" s="142" t="str">
+      <c r="P72" s="97" t="str">
         <f>G72</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Q72" s="143"/>
-      <c r="R72" s="144"/>
+      <c r="Q72" s="98"/>
+      <c r="R72" s="99"/>
       <c r="S72" s="70"/>
       <c r="T72" s="70"/>
       <c r="U72" s="70"/>
       <c r="V72" s="70"/>
       <c r="W72" s="70"/>
       <c r="X72" s="70"/>
-      <c r="Y72" s="142" t="str">
+      <c r="Y72" s="97" t="str">
         <f>G72</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Z72" s="143"/>
-      <c r="AA72" s="144"/>
+      <c r="Z72" s="98"/>
+      <c r="AA72" s="99"/>
     </row>
     <row r="73" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="72" t="s">
@@ -5757,11 +5757,11 @@
       <c r="F73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="140" t="s">
+      <c r="G73" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="141"/>
-      <c r="I73" s="141"/>
+      <c r="H73" s="101"/>
+      <c r="I73" s="101"/>
       <c r="J73" s="80" t="s">
         <v>9</v>
       </c>
@@ -5780,11 +5780,11 @@
       <c r="O73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P73" s="140" t="s">
+      <c r="P73" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="Q73" s="141"/>
-      <c r="R73" s="141"/>
+      <c r="Q73" s="101"/>
+      <c r="R73" s="101"/>
       <c r="S73" s="80" t="s">
         <v>8</v>
       </c>
@@ -5803,17 +5803,17 @@
       <c r="X73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="Y73" s="140" t="s">
+      <c r="Y73" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="Z73" s="141"/>
-      <c r="AA73" s="145"/>
+      <c r="Z73" s="101"/>
+      <c r="AA73" s="102"/>
       <c r="AB73" s="81" t="s">
         <v>19</v>
       </c>
       <c r="AC73" s="26">
         <f>SUM(X83+O83+F82)</f>
-        <v>2.166666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -5834,11 +5834,11 @@
         <f>SUM(D74-C74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G74" s="115" t="s">
+      <c r="G74" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="115"/>
-      <c r="I74" s="137"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="90"/>
       <c r="J74" s="74" t="s">
         <v>9</v>
       </c>
@@ -5856,11 +5856,11 @@
         <f>SUM(M74-L74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P74" s="115" t="s">
+      <c r="P74" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q74" s="115"/>
-      <c r="R74" s="137"/>
+      <c r="Q74" s="89"/>
+      <c r="R74" s="90"/>
       <c r="S74" s="74" t="s">
         <v>8</v>
       </c>
@@ -5878,11 +5878,11 @@
         <f>SUM(V74-U74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y74" s="115" t="s">
+      <c r="Y74" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z74" s="115"/>
-      <c r="AA74" s="137"/>
+      <c r="Z74" s="89"/>
+      <c r="AA74" s="90"/>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
@@ -5902,11 +5902,11 @@
         <f t="shared" ref="F75:F81" si="19">SUM(D75-C75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G75" s="115" t="s">
+      <c r="G75" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="115"/>
-      <c r="I75" s="137"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="90"/>
       <c r="J75" s="74" t="s">
         <v>9</v>
       </c>
@@ -5924,11 +5924,11 @@
         <f t="shared" ref="O75:O81" si="20">SUM(M75-L75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P75" s="115" t="s">
+      <c r="P75" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q75" s="115"/>
-      <c r="R75" s="137"/>
+      <c r="Q75" s="89"/>
+      <c r="R75" s="90"/>
       <c r="S75" s="74" t="s">
         <v>8</v>
       </c>
@@ -5946,11 +5946,11 @@
         <f t="shared" ref="X75:X81" si="21">SUM(V75-U75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y75" s="115" t="s">
+      <c r="Y75" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z75" s="115"/>
-      <c r="AA75" s="137"/>
+      <c r="Z75" s="89"/>
+      <c r="AA75" s="90"/>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
@@ -5970,11 +5970,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G76" s="115" t="s">
+      <c r="G76" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="115"/>
-      <c r="I76" s="137"/>
+      <c r="H76" s="89"/>
+      <c r="I76" s="90"/>
       <c r="J76" s="74" t="s">
         <v>9</v>
       </c>
@@ -5992,11 +5992,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P76" s="115" t="s">
+      <c r="P76" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q76" s="115"/>
-      <c r="R76" s="137"/>
+      <c r="Q76" s="89"/>
+      <c r="R76" s="90"/>
       <c r="S76" s="74" t="s">
         <v>8</v>
       </c>
@@ -6014,11 +6014,11 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y76" s="115" t="s">
+      <c r="Y76" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z76" s="115"/>
-      <c r="AA76" s="137"/>
+      <c r="Z76" s="89"/>
+      <c r="AA76" s="90"/>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
@@ -6038,11 +6038,11 @@
         <f t="shared" si="19"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G77" s="115" t="s">
+      <c r="G77" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H77" s="115"/>
-      <c r="I77" s="137"/>
+      <c r="H77" s="89"/>
+      <c r="I77" s="90"/>
       <c r="J77" s="74" t="s">
         <v>9</v>
       </c>
@@ -6060,11 +6060,11 @@
         <f t="shared" si="20"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="P77" s="115" t="s">
+      <c r="P77" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q77" s="115"/>
-      <c r="R77" s="137"/>
+      <c r="Q77" s="89"/>
+      <c r="R77" s="90"/>
       <c r="S77" s="74" t="s">
         <v>8</v>
       </c>
@@ -6082,11 +6082,11 @@
         <f t="shared" si="21"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Y77" s="115" t="s">
+      <c r="Y77" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z77" s="115"/>
-      <c r="AA77" s="137"/>
+      <c r="Z77" s="89"/>
+      <c r="AA77" s="90"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
@@ -6106,11 +6106,11 @@
         <f t="shared" si="19"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G78" s="115" t="s">
+      <c r="G78" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H78" s="115"/>
-      <c r="I78" s="137"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="90"/>
       <c r="J78" s="74" t="s">
         <v>9</v>
       </c>
@@ -6128,11 +6128,11 @@
         <f t="shared" si="20"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P78" s="115" t="s">
+      <c r="P78" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q78" s="115"/>
-      <c r="R78" s="137"/>
+      <c r="Q78" s="89"/>
+      <c r="R78" s="90"/>
       <c r="S78" s="74" t="s">
         <v>8</v>
       </c>
@@ -6150,11 +6150,11 @@
         <f t="shared" si="21"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y78" s="115" t="s">
+      <c r="Y78" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z78" s="115"/>
-      <c r="AA78" s="137"/>
+      <c r="Z78" s="89"/>
+      <c r="AA78" s="90"/>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
@@ -6174,11 +6174,11 @@
         <f t="shared" si="19"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G79" s="115" t="s">
+      <c r="G79" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H79" s="115"/>
-      <c r="I79" s="137"/>
+      <c r="H79" s="89"/>
+      <c r="I79" s="90"/>
       <c r="J79" s="74" t="s">
         <v>9</v>
       </c>
@@ -6196,11 +6196,11 @@
         <f t="shared" si="20"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P79" s="115" t="s">
+      <c r="P79" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q79" s="115"/>
-      <c r="R79" s="137"/>
+      <c r="Q79" s="89"/>
+      <c r="R79" s="90"/>
       <c r="S79" s="74" t="s">
         <v>8</v>
       </c>
@@ -6218,11 +6218,11 @@
         <f t="shared" si="21"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y79" s="115" t="s">
+      <c r="Y79" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z79" s="115"/>
-      <c r="AA79" s="137"/>
+      <c r="Z79" s="89"/>
+      <c r="AA79" s="90"/>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
@@ -6242,11 +6242,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G80" s="115" t="s">
+      <c r="G80" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="115"/>
-      <c r="I80" s="137"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="90"/>
       <c r="J80" s="74" t="s">
         <v>9</v>
       </c>
@@ -6264,11 +6264,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P80" s="115" t="s">
+      <c r="P80" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q80" s="115"/>
-      <c r="R80" s="137"/>
+      <c r="Q80" s="89"/>
+      <c r="R80" s="90"/>
       <c r="S80" s="74" t="s">
         <v>8</v>
       </c>
@@ -6286,11 +6286,11 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y80" s="115" t="s">
+      <c r="Y80" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z80" s="115"/>
-      <c r="AA80" s="137"/>
+      <c r="Z80" s="89"/>
+      <c r="AA80" s="90"/>
     </row>
     <row r="81" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="75" t="s">
@@ -6303,19 +6303,19 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D81" s="77">
-        <v>0.79166666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="E81" s="79"/>
       <c r="F81" s="18">
         <f t="shared" si="19"/>
-        <v>0.20833333333333326</v>
-      </c>
-      <c r="G81" s="138" t="s">
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="G81" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="H81" s="138"/>
-      <c r="I81" s="139"/>
-      <c r="J81" s="152" t="s">
+      <c r="H81" s="91"/>
+      <c r="I81" s="92"/>
+      <c r="J81" s="86" t="s">
         <v>9</v>
       </c>
       <c r="K81" s="35">
@@ -6325,19 +6325,19 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="M81" s="18">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="N81" s="153"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="N81" s="87"/>
       <c r="O81" s="18">
         <f t="shared" si="20"/>
-        <v>0.20833333333333326</v>
-      </c>
-      <c r="P81" s="115" t="s">
+        <v>0.125</v>
+      </c>
+      <c r="P81" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q81" s="115"/>
-      <c r="R81" s="137"/>
-      <c r="S81" s="152" t="s">
+      <c r="Q81" s="89"/>
+      <c r="R81" s="90"/>
+      <c r="S81" s="86" t="s">
         <v>8</v>
       </c>
       <c r="T81" s="35">
@@ -6349,197 +6349,167 @@
       <c r="V81" s="18">
         <v>0.66666666666666663</v>
       </c>
-      <c r="W81" s="153"/>
+      <c r="W81" s="87"/>
       <c r="X81" s="18">
         <f t="shared" si="21"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Y81" s="115" t="s">
+      <c r="Y81" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z81" s="115"/>
-      <c r="AA81" s="137"/>
+      <c r="Z81" s="89"/>
+      <c r="AA81" s="90"/>
     </row>
     <row r="82" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F82" s="78">
         <f>SUM(F74:F81)</f>
-        <v>0.75694444444444442</v>
-      </c>
-      <c r="J82" s="146" t="s">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="J82" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="K82" s="147">
+      <c r="K82" s="83">
         <v>43178</v>
       </c>
-      <c r="L82" s="148">
+      <c r="L82" s="84">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M82" s="148">
+      <c r="M82" s="84">
         <v>0.70833333333333337</v>
       </c>
-      <c r="N82" s="154">
+      <c r="N82" s="88">
         <v>0.14583333333333334</v>
       </c>
       <c r="O82" s="52">
         <f>SUM(M82-L82-N82)</f>
         <v>0.14583333333333334</v>
       </c>
-      <c r="P82" s="150" t="s">
+      <c r="P82" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="Q82" s="150"/>
-      <c r="R82" s="151"/>
-      <c r="S82" s="146" t="s">
+      <c r="Q82" s="93"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="T82" s="147">
+      <c r="T82" s="83">
         <v>43178</v>
       </c>
-      <c r="U82" s="148">
+      <c r="U82" s="84">
         <v>0.66666666666666663</v>
       </c>
-      <c r="V82" s="148">
+      <c r="V82" s="84">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W82" s="149"/>
+      <c r="W82" s="85"/>
       <c r="X82" s="52">
-        <f t="shared" ref="X82:X83" si="22">SUM(V82-U82)</f>
+        <f t="shared" ref="X82" si="22">SUM(V82-U82)</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="Y82" s="150" t="s">
+      <c r="Y82" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="Z82" s="150"/>
-      <c r="AA82" s="151"/>
+      <c r="Z82" s="93"/>
+      <c r="AA82" s="94"/>
     </row>
     <row r="83" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K83" s="3"/>
       <c r="O83" s="78">
-        <f>SUM(O75:O82)</f>
-        <v>0.81944444444444442</v>
+        <f>SUM(O74:O82)</f>
+        <v>0.81944444444444453</v>
       </c>
       <c r="T83" s="3"/>
       <c r="X83" s="78">
-        <f>SUM(X75:X82)</f>
-        <v>0.59027777777777779</v>
+        <f>SUM(X74:X82)</f>
+        <v>0.67361111111111116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="222">
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="A71:AA71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="A55:AA55"/>
-    <mergeCell ref="A56:AA56"/>
-    <mergeCell ref="A57:AA57"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="BB45:BD45"/>
+    <mergeCell ref="AJ46:AK46"/>
+    <mergeCell ref="BB46:BD46"/>
+    <mergeCell ref="AJ47:AK47"/>
+    <mergeCell ref="BB47:BD47"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AS44:AU44"/>
+    <mergeCell ref="BB44:BD44"/>
+    <mergeCell ref="A44:AA44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A31:AA31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="P20:R20"/>
     <mergeCell ref="G15:I15"/>
@@ -6564,90 +6534,120 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="A31:AA31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="BB45:BD45"/>
-    <mergeCell ref="AJ46:AK46"/>
-    <mergeCell ref="BB46:BD46"/>
-    <mergeCell ref="AJ47:AK47"/>
-    <mergeCell ref="BB47:BD47"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AS44:AU44"/>
-    <mergeCell ref="BB44:BD44"/>
-    <mergeCell ref="A44:AA44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="A55:AA55"/>
+    <mergeCell ref="A56:AA56"/>
+    <mergeCell ref="A57:AA57"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="A71:AA71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="Y79:AA79"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\4CHIF\Syp\multiflexlbkv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D76DF1A-AEBD-4E38-B695-1B995462331F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BB8B9A-EA4F-4026-B23A-8BD420A2B0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1320,142 +1320,22 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,46 +1358,166 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1892,86 +1892,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.85546875" style="2"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.85546875" style="2"/>
-    <col min="15" max="15" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.85546875" style="2"/>
-    <col min="19" max="19" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="10.85546875" style="2"/>
-    <col min="24" max="24" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="10.88671875" style="2"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.88671875" style="2"/>
+    <col min="15" max="15" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.88671875" style="2"/>
+    <col min="19" max="19" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="10.88671875" style="2"/>
+    <col min="24" max="24" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.88671875" style="2"/>
     <col min="28" max="28" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.85546875" style="2"/>
+    <col min="29" max="16384" width="10.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-    </row>
-    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+    </row>
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="145" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
-      <c r="P2" s="143" t="s">
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="P2" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="Y2" s="145" t="s">
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="Y2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="140"/>
-    </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="100"/>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1990,11 +1990,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2013,11 +2013,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="112" t="s">
+      <c r="P3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="113"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="102"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -2036,11 +2036,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="112" t="s">
+      <c r="Y3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="113"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="102"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>1.1979166666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -2067,11 +2067,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="120" t="s">
+      <c r="G4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="116"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -2089,11 +2089,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="121"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="116"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -2111,13 +2111,13 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="120" t="s">
+      <c r="Y4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="121"/>
-    </row>
-    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="116"/>
+    </row>
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2135,11 +2135,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="132" t="s">
+      <c r="G5" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="132"/>
-      <c r="I5" s="133"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="121"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -2157,11 +2157,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="89" t="s">
+      <c r="P5" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="134"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="123"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -2179,13 +2179,13 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="132" t="s">
+      <c r="Y5" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="133"/>
-    </row>
-    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="121"/>
+    </row>
+    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -2203,11 +2203,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="132" t="s">
+      <c r="G6" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="132"/>
-      <c r="I6" s="133"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -2225,9 +2225,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="134"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="123"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -2245,13 +2245,13 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="89" t="s">
+      <c r="Y6" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="134"/>
-    </row>
-    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="123"/>
+    </row>
+    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -2269,11 +2269,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="132" t="s">
+      <c r="G7" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -2291,9 +2291,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="134"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="123"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -2311,11 +2311,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="134"/>
-    </row>
-    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="123"/>
+    </row>
+    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -2333,11 +2333,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="146" t="s">
+      <c r="G8" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -2355,11 +2355,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="89" t="s">
+      <c r="P8" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="134"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="123"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -2377,11 +2377,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="134"/>
-    </row>
-    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="123"/>
+    </row>
+    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F9" s="6">
         <f>SUM(F4:F8)</f>
         <v>0.42361111111111116</v>
@@ -2403,11 +2403,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="141" t="s">
+      <c r="P9" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="142"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="125"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -2425,13 +2425,13 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="141" t="s">
+      <c r="Y9" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="142"/>
-    </row>
-    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="125"/>
+    </row>
+    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2449,7 +2449,7 @@
         <v>0.47569444444444436</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2458,7 +2458,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2467,73 +2467,73 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
+    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-    </row>
-    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+    </row>
+    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="138" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="138" t="s">
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="140"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="100"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="138" t="s">
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="140"/>
-    </row>
-    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="100"/>
+    </row>
+    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -2552,11 +2552,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="112"/>
-      <c r="I15" s="113"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2575,11 +2575,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="112" t="s">
+      <c r="P15" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="113"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="102"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2598,11 +2598,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="112" t="s">
+      <c r="Y15" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="112"/>
-      <c r="AA15" s="113"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="102"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>4.5416666666666679</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
@@ -2629,11 +2629,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="120" t="s">
+      <c r="G16" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2651,11 +2651,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="107" t="s">
+      <c r="P16" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="109"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="105"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2673,13 +2673,13 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="107" t="s">
+      <c r="Y16" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="109"/>
-    </row>
-    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="105"/>
+    </row>
+    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
@@ -2697,11 +2697,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="132" t="s">
+      <c r="G17" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="132"/>
-      <c r="I17" s="133"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2719,11 +2719,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="126" t="s">
+      <c r="P17" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="128"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="111"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2741,11 +2741,11 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="150"/>
-    </row>
-    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="112"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="114"/>
+    </row>
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2763,11 +2763,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="120" t="s">
+      <c r="G18" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="116"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2785,11 +2785,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="107" t="s">
+      <c r="P18" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="109"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="105"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2807,13 +2807,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="107" t="s">
+      <c r="Y18" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="108"/>
-      <c r="AA18" s="109"/>
-    </row>
-    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="105"/>
+    </row>
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
@@ -2831,11 +2831,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="120" t="s">
+      <c r="G19" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2853,11 +2853,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="107" t="s">
+      <c r="P19" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="105"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2875,13 +2875,13 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="107" t="s">
+      <c r="Y19" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="108"/>
-      <c r="AA19" s="109"/>
-    </row>
-    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="105"/>
+    </row>
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
@@ -2899,11 +2899,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="132" t="s">
+      <c r="G20" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="132"/>
-      <c r="I20" s="133"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2921,11 +2921,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="107" t="s">
+      <c r="P20" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="109"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="105"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2943,13 +2943,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="120" t="s">
+      <c r="Y20" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="121"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="116"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
@@ -2967,11 +2967,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="129" t="s">
+      <c r="G21" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2989,11 +2989,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="126" t="s">
+      <c r="P21" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="128"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="111"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -3011,13 +3011,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="122" t="s">
+      <c r="Y21" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="123"/>
-    </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z21" s="131"/>
+      <c r="AA21" s="132"/>
+    </row>
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>7</v>
       </c>
@@ -3035,11 +3035,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="120" t="s">
+      <c r="G22" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="116"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -3057,11 +3057,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="129" t="s">
+      <c r="P22" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="131"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="130"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -3079,13 +3079,13 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="120" t="s">
+      <c r="Y22" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="121"/>
-    </row>
-    <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z22" s="115"/>
+      <c r="AA22" s="116"/>
+    </row>
+    <row r="23" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3103,11 +3103,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="118" t="s">
+      <c r="G23" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="137"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -3125,11 +3125,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="126" t="s">
+      <c r="P23" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="128"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="111"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -3147,13 +3147,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="122" t="s">
+      <c r="Y23" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="123"/>
-    </row>
-    <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z23" s="131"/>
+      <c r="AA23" s="132"/>
+    </row>
+    <row r="24" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" s="6">
         <f>SUM(F16:F23)</f>
         <v>1.3055555555555558</v>
@@ -3175,11 +3175,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="120" t="s">
+      <c r="P24" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="121"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="116"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -3197,13 +3197,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="122" t="s">
+      <c r="Y24" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="123"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z24" s="131"/>
+      <c r="AA24" s="132"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J25" s="38" t="s">
         <v>9</v>
       </c>
@@ -3221,11 +3221,11 @@
         <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="116" t="s">
+      <c r="P25" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="117"/>
+      <c r="Q25" s="133"/>
+      <c r="R25" s="134"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -3243,21 +3243,21 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="116" t="s">
+      <c r="Y25" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="116"/>
-      <c r="AA25" s="117"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z25" s="133"/>
+      <c r="AA25" s="134"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -3275,11 +3275,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="129" t="s">
+      <c r="P26" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="131"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="130"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -3297,13 +3297,13 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="116" t="s">
+      <c r="Y26" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="117"/>
-    </row>
-    <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z26" s="133"/>
+      <c r="AA26" s="134"/>
+    </row>
+    <row r="27" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J27" s="48" t="s">
         <v>9</v>
       </c>
@@ -3321,11 +3321,11 @@
         <f>SUM(M27-L27)</f>
         <v>0.15625</v>
       </c>
-      <c r="P27" s="124" t="s">
+      <c r="P27" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="125"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="139"/>
       <c r="S27" s="38" t="s">
         <v>8</v>
       </c>
@@ -3343,18 +3343,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="122" t="s">
+      <c r="Y27" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="123"/>
-    </row>
-    <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z27" s="131"/>
+      <c r="AA27" s="132"/>
+    </row>
+    <row r="28" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -3376,93 +3376,93 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="118" t="s">
+      <c r="Y28" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="118"/>
-      <c r="AA28" s="119"/>
-    </row>
-    <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z28" s="136"/>
+      <c r="AA28" s="137"/>
+    </row>
+    <row r="29" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="115"/>
-      <c r="Z29" s="115"/>
-      <c r="AA29" s="115"/>
-    </row>
-    <row r="31" spans="1:27" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="95" t="s">
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+    </row>
+    <row r="31" spans="1:27" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-    </row>
-    <row r="32" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94"/>
+    </row>
+    <row r="32" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="138" t="s">
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="140"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="137"/>
-      <c r="P32" s="138" t="s">
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="139"/>
-      <c r="R32" s="140"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="100"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="136"/>
-      <c r="W32" s="136"/>
-      <c r="X32" s="137"/>
-      <c r="Y32" s="138" t="s">
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="97"/>
+      <c r="Y32" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" s="139"/>
-      <c r="AA32" s="140"/>
-    </row>
-    <row r="33" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z32" s="99"/>
+      <c r="AA32" s="100"/>
+    </row>
+    <row r="33" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -3481,11 +3481,11 @@
       <c r="F33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="112" t="s">
+      <c r="G33" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="113"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="102"/>
       <c r="J33" s="42" t="s">
         <v>9</v>
       </c>
@@ -3504,11 +3504,11 @@
       <c r="O33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="112" t="s">
+      <c r="P33" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="113"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="102"/>
       <c r="S33" s="13" t="s">
         <v>8</v>
       </c>
@@ -3527,11 +3527,11 @@
       <c r="X33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="112" t="s">
+      <c r="Y33" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="112"/>
-      <c r="AA33" s="113"/>
+      <c r="Z33" s="101"/>
+      <c r="AA33" s="102"/>
       <c r="AB33" s="27" t="s">
         <v>19</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>1.479166666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -3558,11 +3558,11 @@
         <f t="shared" ref="F34:F37" si="7">SUM(D34-C34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G34" s="107" t="s">
+      <c r="G34" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="108"/>
-      <c r="I34" s="109"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="105"/>
       <c r="J34" s="23" t="s">
         <v>9</v>
       </c>
@@ -3580,11 +3580,11 @@
         <f t="shared" ref="O34:O37" si="8">SUM(M34-L34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P34" s="107" t="s">
+      <c r="P34" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="108"/>
-      <c r="R34" s="109"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="105"/>
       <c r="S34" s="38" t="s">
         <v>8</v>
       </c>
@@ -3602,13 +3602,13 @@
         <f t="shared" ref="X34:X35" si="9">SUM(V34-U34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y34" s="107" t="s">
+      <c r="Y34" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Z34" s="108"/>
-      <c r="AA34" s="109"/>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="Z34" s="104"/>
+      <c r="AA34" s="105"/>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>7</v>
       </c>
@@ -3626,11 +3626,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="108"/>
-      <c r="I35" s="109"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="105"/>
       <c r="J35" s="23" t="s">
         <v>9</v>
       </c>
@@ -3648,11 +3648,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P35" s="107" t="s">
+      <c r="P35" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="109"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="105"/>
       <c r="S35" s="38" t="s">
         <v>8</v>
       </c>
@@ -3670,13 +3670,13 @@
         <f t="shared" si="9"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y35" s="107" t="s">
+      <c r="Y35" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="108"/>
-      <c r="AA35" s="109"/>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="Z35" s="104"/>
+      <c r="AA35" s="105"/>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
@@ -3694,11 +3694,11 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G36" s="107" t="s">
+      <c r="G36" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="108"/>
-      <c r="I36" s="109"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="105"/>
       <c r="J36" s="23" t="s">
         <v>9</v>
       </c>
@@ -3716,11 +3716,11 @@
         <f t="shared" si="8"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P36" s="107" t="s">
+      <c r="P36" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="109"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="105"/>
       <c r="S36" s="38" t="s">
         <v>8</v>
       </c>
@@ -3738,13 +3738,13 @@
         <f t="shared" ref="X36:X37" si="10">SUM(V36-U36)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y36" s="107" t="s">
+      <c r="Y36" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="Z36" s="108"/>
-      <c r="AA36" s="109"/>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="Z36" s="104"/>
+      <c r="AA36" s="105"/>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>7</v>
       </c>
@@ -3762,11 +3762,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G37" s="107" t="s">
+      <c r="G37" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="108"/>
-      <c r="I37" s="109"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="105"/>
       <c r="J37" s="23" t="s">
         <v>9</v>
       </c>
@@ -3784,11 +3784,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P37" s="107" t="s">
+      <c r="P37" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="109"/>
+      <c r="Q37" s="104"/>
+      <c r="R37" s="105"/>
       <c r="S37" s="38" t="s">
         <v>8</v>
       </c>
@@ -3806,13 +3806,13 @@
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Y37" s="126" t="s">
+      <c r="Y37" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" s="127"/>
-      <c r="AA37" s="128"/>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="Z37" s="110"/>
+      <c r="AA37" s="111"/>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>7</v>
       </c>
@@ -3830,11 +3830,11 @@
         <f>SUM(D38-C38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G38" s="107" t="s">
+      <c r="G38" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="108"/>
-      <c r="I38" s="109"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="105"/>
       <c r="J38" s="23" t="s">
         <v>9</v>
       </c>
@@ -3852,11 +3852,11 @@
         <f>SUM(M38-L38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P38" s="107" t="s">
+      <c r="P38" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="109"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="105"/>
       <c r="S38" s="38" t="s">
         <v>8</v>
       </c>
@@ -3874,13 +3874,13 @@
         <f t="shared" ref="X38:X39" si="11">SUM(V38-U38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y38" s="107" t="s">
+      <c r="Y38" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Z38" s="108"/>
-      <c r="AA38" s="109"/>
-    </row>
-    <row r="39" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="105"/>
+    </row>
+    <row r="39" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
         <v>7</v>
       </c>
@@ -3898,11 +3898,11 @@
         <f>SUM(D39-C39)</f>
         <v>0.125</v>
       </c>
-      <c r="G39" s="151" t="s">
+      <c r="G39" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="152"/>
-      <c r="I39" s="153"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="108"/>
       <c r="J39" s="25" t="s">
         <v>9</v>
       </c>
@@ -3920,11 +3920,11 @@
         <f>SUM(M39-L39)</f>
         <v>0.125</v>
       </c>
-      <c r="P39" s="151" t="s">
+      <c r="P39" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="152"/>
-      <c r="R39" s="153"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="108"/>
       <c r="S39" s="38" t="s">
         <v>8</v>
       </c>
@@ -3942,13 +3942,13 @@
         <f t="shared" si="11"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y39" s="107" t="s">
+      <c r="Y39" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Z39" s="108"/>
-      <c r="AA39" s="109"/>
-    </row>
-    <row r="40" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="104"/>
+      <c r="AA39" s="105"/>
+    </row>
+    <row r="40" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="62"/>
       <c r="B40" s="63"/>
       <c r="C40" s="64"/>
@@ -3990,31 +3990,31 @@
         <f>SUM(V40-U40)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y40" s="107" t="s">
+      <c r="Y40" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Z40" s="108"/>
-      <c r="AA40" s="109"/>
-    </row>
-    <row r="41" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z40" s="104"/>
+      <c r="AA40" s="105"/>
+    </row>
+    <row r="41" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="57"/>
       <c r="B41" s="46"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
       <c r="E41" s="4"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
       <c r="J41" s="57"/>
       <c r="K41" s="66"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
       <c r="N41" s="4"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="105"/>
-      <c r="R41" s="105"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
       <c r="S41" s="56" t="s">
         <v>8</v>
       </c>
@@ -4032,13 +4032,13 @@
         <f>SUM(V41-U41)</f>
         <v>0.125</v>
       </c>
-      <c r="Y41" s="151" t="s">
+      <c r="Y41" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="Z41" s="152"/>
-      <c r="AA41" s="153"/>
-    </row>
-    <row r="42" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z41" s="107"/>
+      <c r="AA41" s="108"/>
+    </row>
+    <row r="42" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="59"/>
       <c r="C42" s="4"/>
@@ -4054,9 +4054,9 @@
       <c r="M42" s="58"/>
       <c r="N42" s="4"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="105"/>
-      <c r="R42" s="105"/>
+      <c r="P42" s="92"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92"/>
       <c r="S42" s="62"/>
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
@@ -4070,7 +4070,7 @@
       <c r="Z42" s="65"/>
       <c r="AA42" s="65"/>
     </row>
-    <row r="43" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="59"/>
       <c r="C43" s="4"/>
@@ -4086,113 +4086,113 @@
       <c r="M43" s="58"/>
       <c r="N43" s="4"/>
       <c r="O43" s="58"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="106"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
       <c r="S43" s="57"/>
       <c r="T43" s="46"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
       <c r="W43" s="4"/>
       <c r="X43" s="58"/>
-      <c r="Y43" s="106"/>
-      <c r="Z43" s="106"/>
-      <c r="AA43" s="106"/>
-    </row>
-    <row r="44" spans="1:56" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="95" t="s">
+      <c r="Y43" s="89"/>
+      <c r="Z43" s="89"/>
+      <c r="AA43" s="89"/>
+    </row>
+    <row r="44" spans="1:56" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="96"/>
-      <c r="U44" s="96"/>
-      <c r="V44" s="96"/>
-      <c r="W44" s="96"/>
-      <c r="X44" s="96"/>
-      <c r="Y44" s="96"/>
-      <c r="Z44" s="96"/>
-      <c r="AA44" s="96"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="94"/>
+      <c r="Y44" s="94"/>
+      <c r="Z44" s="94"/>
+      <c r="AA44" s="94"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="33"/>
       <c r="AG44" s="33"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="34"/>
-      <c r="AJ44" s="105"/>
-      <c r="AK44" s="105"/>
-      <c r="AL44" s="105"/>
+      <c r="AJ44" s="92"/>
+      <c r="AK44" s="92"/>
+      <c r="AL44" s="92"/>
       <c r="AM44" s="57"/>
       <c r="AN44" s="46"/>
       <c r="AO44" s="58"/>
       <c r="AP44" s="58"/>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="58"/>
-      <c r="AS44" s="106"/>
-      <c r="AT44" s="106"/>
-      <c r="AU44" s="106"/>
+      <c r="AS44" s="89"/>
+      <c r="AT44" s="89"/>
+      <c r="AU44" s="89"/>
       <c r="AV44" s="57"/>
       <c r="AW44" s="46"/>
       <c r="AX44" s="58"/>
       <c r="AY44" s="58"/>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="58"/>
-      <c r="BB44" s="106"/>
-      <c r="BC44" s="106"/>
-      <c r="BD44" s="106"/>
-    </row>
-    <row r="45" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BB44" s="89"/>
+      <c r="BC44" s="89"/>
+      <c r="BD44" s="89"/>
+    </row>
+    <row r="45" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="138" t="s">
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="139"/>
-      <c r="I45" s="140"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="100"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="135"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="137"/>
-      <c r="P45" s="138" t="str">
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="98" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Q45" s="139"/>
-      <c r="R45" s="140"/>
+      <c r="Q45" s="99"/>
+      <c r="R45" s="100"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="135"/>
-      <c r="V45" s="136"/>
-      <c r="W45" s="136"/>
-      <c r="X45" s="137"/>
-      <c r="Y45" s="138" t="str">
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="96"/>
+      <c r="W45" s="96"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="98" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Z45" s="139"/>
-      <c r="AA45" s="140"/>
+      <c r="Z45" s="99"/>
+      <c r="AA45" s="100"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="4"/>
@@ -4208,20 +4208,20 @@
       <c r="AP45" s="58"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="58"/>
-      <c r="AS45" s="106"/>
-      <c r="AT45" s="106"/>
-      <c r="AU45" s="106"/>
+      <c r="AS45" s="89"/>
+      <c r="AT45" s="89"/>
+      <c r="AU45" s="89"/>
       <c r="AV45" s="57"/>
       <c r="AW45" s="46"/>
       <c r="AX45" s="58"/>
       <c r="AY45" s="58"/>
       <c r="AZ45" s="4"/>
       <c r="BA45" s="58"/>
-      <c r="BB45" s="106"/>
-      <c r="BC45" s="106"/>
-      <c r="BD45" s="106"/>
-    </row>
-    <row r="46" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BB45" s="89"/>
+      <c r="BC45" s="89"/>
+      <c r="BD45" s="89"/>
+    </row>
+    <row r="46" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>7</v>
       </c>
@@ -4240,11 +4240,11 @@
       <c r="F46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="112" t="s">
+      <c r="G46" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="113"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="102"/>
       <c r="J46" s="42" t="s">
         <v>9</v>
       </c>
@@ -4263,11 +4263,11 @@
       <c r="O46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P46" s="112" t="s">
+      <c r="P46" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="112"/>
-      <c r="R46" s="113"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="102"/>
       <c r="S46" s="13" t="s">
         <v>8</v>
       </c>
@@ -4286,11 +4286,11 @@
       <c r="X46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y46" s="112" t="s">
+      <c r="Y46" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="Z46" s="112"/>
-      <c r="AA46" s="113"/>
+      <c r="Z46" s="101"/>
+      <c r="AA46" s="102"/>
       <c r="AB46" s="27" t="s">
         <v>19</v>
       </c>
@@ -4304,8 +4304,8 @@
       <c r="AG46" s="58"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="114"/>
-      <c r="AK46" s="114"/>
+      <c r="AJ46" s="90"/>
+      <c r="AK46" s="90"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
@@ -4322,11 +4322,11 @@
       <c r="AY46" s="58"/>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="58"/>
-      <c r="BB46" s="106"/>
-      <c r="BC46" s="106"/>
-      <c r="BD46" s="106"/>
-    </row>
-    <row r="47" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="BB46" s="89"/>
+      <c r="BC46" s="89"/>
+      <c r="BD46" s="89"/>
+    </row>
+    <row r="47" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>7</v>
       </c>
@@ -4344,11 +4344,11 @@
         <f t="shared" ref="F47:F50" si="12">SUM(D47-C47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="G47" s="107" t="s">
+      <c r="G47" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="108"/>
-      <c r="I47" s="109"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="105"/>
       <c r="J47" s="23" t="s">
         <v>9</v>
       </c>
@@ -4366,11 +4366,11 @@
         <f t="shared" ref="O47:O52" si="13">SUM(M47-L47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="P47" s="107" t="s">
+      <c r="P47" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="109"/>
+      <c r="Q47" s="104"/>
+      <c r="R47" s="105"/>
       <c r="S47" s="38" t="s">
         <v>8</v>
       </c>
@@ -4388,19 +4388,19 @@
         <f t="shared" ref="X47:X50" si="14">SUM(V47-U47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Y47" s="107" t="s">
+      <c r="Y47" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="108"/>
-      <c r="AA47" s="109"/>
+      <c r="Z47" s="104"/>
+      <c r="AA47" s="105"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="61"/>
       <c r="AF47" s="58"/>
       <c r="AG47" s="58"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="154"/>
-      <c r="AK47" s="154"/>
+      <c r="AJ47" s="91"/>
+      <c r="AK47" s="91"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
@@ -4417,11 +4417,11 @@
       <c r="AY47" s="4"/>
       <c r="AZ47" s="4"/>
       <c r="BA47" s="60"/>
-      <c r="BB47" s="154"/>
-      <c r="BC47" s="154"/>
-      <c r="BD47" s="154"/>
-    </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="BB47" s="91"/>
+      <c r="BC47" s="91"/>
+      <c r="BD47" s="91"/>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>7</v>
       </c>
@@ -4439,11 +4439,11 @@
         <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G48" s="107" t="s">
+      <c r="G48" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="108"/>
-      <c r="I48" s="109"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="105"/>
       <c r="J48" s="23" t="s">
         <v>9</v>
       </c>
@@ -4461,11 +4461,11 @@
         <f t="shared" si="13"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P48" s="107" t="s">
+      <c r="P48" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" s="108"/>
-      <c r="R48" s="109"/>
+      <c r="Q48" s="104"/>
+      <c r="R48" s="105"/>
       <c r="S48" s="38" t="s">
         <v>8</v>
       </c>
@@ -4483,14 +4483,14 @@
         <f t="shared" si="14"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y48" s="107" t="s">
+      <c r="Y48" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="Z48" s="108"/>
-      <c r="AA48" s="109"/>
+      <c r="Z48" s="104"/>
+      <c r="AA48" s="105"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>7</v>
       </c>
@@ -4508,11 +4508,11 @@
         <f t="shared" si="12"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G49" s="107" t="s">
+      <c r="G49" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="108"/>
-      <c r="I49" s="109"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="105"/>
       <c r="J49" s="23" t="s">
         <v>9</v>
       </c>
@@ -4530,11 +4530,11 @@
         <f t="shared" si="13"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="P49" s="107" t="s">
+      <c r="P49" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="Q49" s="108"/>
-      <c r="R49" s="109"/>
+      <c r="Q49" s="104"/>
+      <c r="R49" s="105"/>
       <c r="S49" s="38" t="s">
         <v>8</v>
       </c>
@@ -4552,14 +4552,14 @@
         <f t="shared" si="14"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="Y49" s="107" t="s">
+      <c r="Y49" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="108"/>
-      <c r="AA49" s="109"/>
+      <c r="Z49" s="104"/>
+      <c r="AA49" s="105"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>7</v>
       </c>
@@ -4577,11 +4577,11 @@
         <f t="shared" si="12"/>
         <v>0.23125000000000007</v>
       </c>
-      <c r="G50" s="107" t="s">
+      <c r="G50" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="108"/>
-      <c r="I50" s="109"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="105"/>
       <c r="J50" s="23" t="s">
         <v>9</v>
       </c>
@@ -4599,11 +4599,11 @@
         <f t="shared" si="13"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P50" s="107" t="s">
+      <c r="P50" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" s="108"/>
-      <c r="R50" s="109"/>
+      <c r="Q50" s="104"/>
+      <c r="R50" s="105"/>
       <c r="S50" s="38" t="s">
         <v>8</v>
       </c>
@@ -4621,14 +4621,14 @@
         <f t="shared" si="14"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y50" s="107" t="s">
+      <c r="Y50" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="Z50" s="108"/>
-      <c r="AA50" s="109"/>
+      <c r="Z50" s="104"/>
+      <c r="AA50" s="105"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>7</v>
       </c>
@@ -4648,11 +4648,11 @@
         <f>SUM(D51-C51)</f>
         <v>0.32291666666666669</v>
       </c>
-      <c r="G51" s="107" t="s">
+      <c r="G51" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="108"/>
-      <c r="I51" s="109"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="105"/>
       <c r="J51" s="23" t="s">
         <v>9</v>
       </c>
@@ -4670,11 +4670,11 @@
         <f>SUM(M51-L51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="P51" s="107" t="s">
+      <c r="P51" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="108"/>
-      <c r="R51" s="109"/>
+      <c r="Q51" s="104"/>
+      <c r="R51" s="105"/>
       <c r="S51" s="38" t="s">
         <v>8</v>
       </c>
@@ -4692,14 +4692,14 @@
         <f>SUM(V51-U51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="Y51" s="107" t="s">
+      <c r="Y51" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="Z51" s="108"/>
-      <c r="AA51" s="109"/>
+      <c r="Z51" s="104"/>
+      <c r="AA51" s="105"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="53" t="s">
         <v>7</v>
       </c>
@@ -4717,11 +4717,11 @@
         <f>SUM(D52-C52)</f>
         <v>0.17083333333333339</v>
       </c>
-      <c r="G52" s="107" t="s">
+      <c r="G52" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="108"/>
-      <c r="I52" s="109"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="105"/>
       <c r="J52" s="25" t="s">
         <v>9</v>
       </c>
@@ -4739,11 +4739,11 @@
         <f t="shared" si="13"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="P52" s="107" t="s">
+      <c r="P52" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="Q52" s="108"/>
-      <c r="R52" s="108"/>
+      <c r="Q52" s="104"/>
+      <c r="R52" s="104"/>
       <c r="S52" s="25" t="s">
         <v>8</v>
       </c>
@@ -4761,14 +4761,14 @@
         <f t="shared" ref="X52" si="15">SUM(V52-U52)</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="Y52" s="110" t="s">
+      <c r="Y52" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="Z52" s="110"/>
-      <c r="AA52" s="111"/>
+      <c r="Z52" s="140"/>
+      <c r="AA52" s="141"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62"/>
       <c r="B53" s="63"/>
       <c r="C53" s="64"/>
@@ -4802,169 +4802,169 @@
         <f>SUM(X47:X52)</f>
         <v>0.84375000000000022</v>
       </c>
-      <c r="Y53" s="105"/>
-      <c r="Z53" s="105"/>
-      <c r="AA53" s="105"/>
+      <c r="Y53" s="92"/>
+      <c r="Z53" s="92"/>
+      <c r="AA53" s="92"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57"/>
       <c r="B54" s="46"/>
       <c r="C54" s="58"/>
       <c r="D54" s="58"/>
       <c r="E54" s="4"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
       <c r="J54" s="57"/>
       <c r="K54" s="66"/>
       <c r="L54" s="58"/>
       <c r="M54" s="58"/>
       <c r="N54" s="4"/>
       <c r="O54" s="58"/>
-      <c r="P54" s="105"/>
-      <c r="Q54" s="105"/>
-      <c r="R54" s="105"/>
+      <c r="P54" s="92"/>
+      <c r="Q54" s="92"/>
+      <c r="R54" s="92"/>
       <c r="S54" s="57"/>
       <c r="T54" s="32"/>
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
       <c r="W54" s="33"/>
       <c r="X54" s="58"/>
-      <c r="Y54" s="106"/>
-      <c r="Z54" s="106"/>
-      <c r="AA54" s="106"/>
+      <c r="Y54" s="89"/>
+      <c r="Z54" s="89"/>
+      <c r="AA54" s="89"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="103"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="104"/>
-      <c r="M55" s="104"/>
-      <c r="N55" s="104"/>
-      <c r="O55" s="104"/>
-      <c r="P55" s="104"/>
-      <c r="Q55" s="104"/>
-      <c r="R55" s="104"/>
-      <c r="S55" s="104"/>
-      <c r="T55" s="104"/>
-      <c r="U55" s="104"/>
-      <c r="V55" s="104"/>
-      <c r="W55" s="104"/>
-      <c r="X55" s="104"/>
-      <c r="Y55" s="104"/>
-      <c r="Z55" s="104"/>
-      <c r="AA55" s="104"/>
+    <row r="55" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="142"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="143"/>
+      <c r="G55" s="143"/>
+      <c r="H55" s="143"/>
+      <c r="I55" s="143"/>
+      <c r="J55" s="143"/>
+      <c r="K55" s="143"/>
+      <c r="L55" s="143"/>
+      <c r="M55" s="143"/>
+      <c r="N55" s="143"/>
+      <c r="O55" s="143"/>
+      <c r="P55" s="143"/>
+      <c r="Q55" s="143"/>
+      <c r="R55" s="143"/>
+      <c r="S55" s="143"/>
+      <c r="T55" s="143"/>
+      <c r="U55" s="143"/>
+      <c r="V55" s="143"/>
+      <c r="W55" s="143"/>
+      <c r="X55" s="143"/>
+      <c r="Y55" s="143"/>
+      <c r="Z55" s="143"/>
+      <c r="AA55" s="143"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="103"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="104"/>
-      <c r="L56" s="104"/>
-      <c r="M56" s="104"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="104"/>
-      <c r="P56" s="104"/>
-      <c r="Q56" s="104"/>
-      <c r="R56" s="104"/>
-      <c r="S56" s="104"/>
-      <c r="T56" s="104"/>
-      <c r="U56" s="104"/>
-      <c r="V56" s="104"/>
-      <c r="W56" s="104"/>
-      <c r="X56" s="104"/>
-      <c r="Y56" s="104"/>
-      <c r="Z56" s="104"/>
-      <c r="AA56" s="104"/>
-    </row>
-    <row r="57" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="95" t="s">
+    <row r="56" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="142"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
+      <c r="K56" s="143"/>
+      <c r="L56" s="143"/>
+      <c r="M56" s="143"/>
+      <c r="N56" s="143"/>
+      <c r="O56" s="143"/>
+      <c r="P56" s="143"/>
+      <c r="Q56" s="143"/>
+      <c r="R56" s="143"/>
+      <c r="S56" s="143"/>
+      <c r="T56" s="143"/>
+      <c r="U56" s="143"/>
+      <c r="V56" s="143"/>
+      <c r="W56" s="143"/>
+      <c r="X56" s="143"/>
+      <c r="Y56" s="143"/>
+      <c r="Z56" s="143"/>
+      <c r="AA56" s="143"/>
+    </row>
+    <row r="57" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="96"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="96"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="96"/>
-      <c r="U57" s="96"/>
-      <c r="V57" s="96"/>
-      <c r="W57" s="96"/>
-      <c r="X57" s="96"/>
-      <c r="Y57" s="96"/>
-      <c r="Z57" s="96"/>
-      <c r="AA57" s="96"/>
-    </row>
-    <row r="58" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="94"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="94"/>
+      <c r="O57" s="94"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="94"/>
+      <c r="S57" s="94"/>
+      <c r="T57" s="94"/>
+      <c r="U57" s="94"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
+      <c r="X57" s="94"/>
+      <c r="Y57" s="94"/>
+      <c r="Z57" s="94"/>
+      <c r="AA57" s="94"/>
+    </row>
+    <row r="58" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="70"/>
       <c r="B58" s="71"/>
       <c r="C58" s="70"/>
       <c r="D58" s="70"/>
       <c r="E58" s="70"/>
       <c r="F58" s="70"/>
-      <c r="G58" s="97" t="s">
+      <c r="G58" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="98"/>
-      <c r="I58" s="99"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="151"/>
       <c r="J58" s="70"/>
       <c r="K58" s="70"/>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
       <c r="N58" s="70"/>
       <c r="O58" s="70"/>
-      <c r="P58" s="97" t="str">
+      <c r="P58" s="149" t="str">
         <f>G58</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Q58" s="98"/>
-      <c r="R58" s="99"/>
+      <c r="Q58" s="150"/>
+      <c r="R58" s="151"/>
       <c r="S58" s="70"/>
       <c r="T58" s="70"/>
       <c r="U58" s="70"/>
       <c r="V58" s="70"/>
       <c r="W58" s="70"/>
       <c r="X58" s="70"/>
-      <c r="Y58" s="97" t="str">
+      <c r="Y58" s="149" t="str">
         <f>G58</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Z58" s="98"/>
-      <c r="AA58" s="99"/>
-    </row>
-    <row r="59" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z58" s="150"/>
+      <c r="AA58" s="151"/>
+    </row>
+    <row r="59" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="72" t="s">
         <v>7</v>
       </c>
@@ -4983,11 +4983,11 @@
       <c r="F59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="100" t="s">
+      <c r="G59" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
+      <c r="H59" s="148"/>
+      <c r="I59" s="148"/>
       <c r="J59" s="80" t="s">
         <v>9</v>
       </c>
@@ -5006,11 +5006,11 @@
       <c r="O59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P59" s="100" t="s">
+      <c r="P59" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="101"/>
-      <c r="R59" s="101"/>
+      <c r="Q59" s="148"/>
+      <c r="R59" s="148"/>
       <c r="S59" s="80" t="s">
         <v>8</v>
       </c>
@@ -5029,11 +5029,11 @@
       <c r="X59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="Y59" s="100" t="s">
+      <c r="Y59" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="Z59" s="101"/>
-      <c r="AA59" s="102"/>
+      <c r="Z59" s="148"/>
+      <c r="AA59" s="152"/>
       <c r="AB59" s="81" t="s">
         <v>19</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>2.8437500000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>7</v>
       </c>
@@ -5060,11 +5060,11 @@
         <f>SUM(D60-C60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G60" s="89" t="s">
+      <c r="G60" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="89"/>
-      <c r="I60" s="90"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="144"/>
       <c r="J60" s="74" t="s">
         <v>9</v>
       </c>
@@ -5082,11 +5082,11 @@
         <f>SUM(M60-L60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P60" s="89" t="s">
+      <c r="P60" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Q60" s="89"/>
-      <c r="R60" s="90"/>
+      <c r="Q60" s="122"/>
+      <c r="R60" s="144"/>
       <c r="S60" s="74" t="s">
         <v>8</v>
       </c>
@@ -5104,13 +5104,13 @@
         <f>SUM(V60-U60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y60" s="89" t="s">
+      <c r="Y60" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Z60" s="89"/>
-      <c r="AA60" s="90"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z60" s="122"/>
+      <c r="AA60" s="144"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>7</v>
       </c>
@@ -5128,11 +5128,11 @@
         <f t="shared" ref="F61:F68" si="16">SUM(D61-C61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G61" s="89" t="s">
+      <c r="G61" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="89"/>
-      <c r="I61" s="90"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="144"/>
       <c r="J61" s="74" t="s">
         <v>9</v>
       </c>
@@ -5150,11 +5150,11 @@
         <f t="shared" ref="O61:O68" si="17">SUM(M61-L61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P61" s="89" t="s">
+      <c r="P61" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Q61" s="89"/>
-      <c r="R61" s="90"/>
+      <c r="Q61" s="122"/>
+      <c r="R61" s="144"/>
       <c r="S61" s="74" t="s">
         <v>8</v>
       </c>
@@ -5172,13 +5172,13 @@
         <f t="shared" ref="X61:X68" si="18">SUM(V61-U61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y61" s="89" t="s">
+      <c r="Y61" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Z61" s="89"/>
-      <c r="AA61" s="90"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z61" s="122"/>
+      <c r="AA61" s="144"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>7</v>
       </c>
@@ -5196,11 +5196,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G62" s="89" t="s">
+      <c r="G62" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="89"/>
-      <c r="I62" s="90"/>
+      <c r="H62" s="122"/>
+      <c r="I62" s="144"/>
       <c r="J62" s="74" t="s">
         <v>9</v>
       </c>
@@ -5218,11 +5218,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P62" s="89" t="s">
+      <c r="P62" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Q62" s="89"/>
-      <c r="R62" s="90"/>
+      <c r="Q62" s="122"/>
+      <c r="R62" s="144"/>
       <c r="S62" s="74" t="s">
         <v>8</v>
       </c>
@@ -5240,13 +5240,13 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y62" s="89" t="s">
+      <c r="Y62" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Z62" s="89"/>
-      <c r="AA62" s="90"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z62" s="122"/>
+      <c r="AA62" s="144"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>7</v>
       </c>
@@ -5264,11 +5264,11 @@
         <f t="shared" si="16"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="G63" s="89" t="s">
+      <c r="G63" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="89"/>
-      <c r="I63" s="90"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="144"/>
       <c r="J63" s="74" t="s">
         <v>9</v>
       </c>
@@ -5286,11 +5286,11 @@
         <f t="shared" si="17"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P63" s="89" t="s">
+      <c r="P63" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Q63" s="89"/>
-      <c r="R63" s="90"/>
+      <c r="Q63" s="122"/>
+      <c r="R63" s="144"/>
       <c r="S63" s="74" t="s">
         <v>8</v>
       </c>
@@ -5308,13 +5308,13 @@
         <f t="shared" si="18"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="Y63" s="89" t="s">
+      <c r="Y63" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Z63" s="89"/>
-      <c r="AA63" s="90"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z63" s="122"/>
+      <c r="AA63" s="144"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>7</v>
       </c>
@@ -5332,11 +5332,11 @@
         <f t="shared" si="16"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G64" s="89" t="s">
+      <c r="G64" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="89"/>
-      <c r="I64" s="90"/>
+      <c r="H64" s="122"/>
+      <c r="I64" s="144"/>
       <c r="J64" s="74" t="s">
         <v>9</v>
       </c>
@@ -5354,11 +5354,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P64" s="89" t="s">
+      <c r="P64" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Q64" s="89"/>
-      <c r="R64" s="90"/>
+      <c r="Q64" s="122"/>
+      <c r="R64" s="144"/>
       <c r="S64" s="74" t="s">
         <v>8</v>
       </c>
@@ -5376,13 +5376,13 @@
         <f t="shared" si="18"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y64" s="89" t="s">
+      <c r="Y64" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Z64" s="89"/>
-      <c r="AA64" s="90"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z64" s="122"/>
+      <c r="AA64" s="144"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>7</v>
       </c>
@@ -5400,11 +5400,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G65" s="89" t="s">
+      <c r="G65" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="89"/>
-      <c r="I65" s="90"/>
+      <c r="H65" s="122"/>
+      <c r="I65" s="144"/>
       <c r="J65" s="74" t="s">
         <v>9</v>
       </c>
@@ -5422,11 +5422,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P65" s="89" t="s">
+      <c r="P65" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="89"/>
-      <c r="R65" s="90"/>
+      <c r="Q65" s="122"/>
+      <c r="R65" s="144"/>
       <c r="S65" s="74" t="s">
         <v>8</v>
       </c>
@@ -5444,13 +5444,13 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y65" s="89" t="s">
+      <c r="Y65" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Z65" s="89"/>
-      <c r="AA65" s="90"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z65" s="122"/>
+      <c r="AA65" s="144"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>7</v>
       </c>
@@ -5468,11 +5468,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G66" s="89" t="s">
+      <c r="G66" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="89"/>
-      <c r="I66" s="90"/>
+      <c r="H66" s="122"/>
+      <c r="I66" s="144"/>
       <c r="J66" s="74" t="s">
         <v>9</v>
       </c>
@@ -5490,11 +5490,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P66" s="89" t="s">
+      <c r="P66" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Q66" s="89"/>
-      <c r="R66" s="90"/>
+      <c r="Q66" s="122"/>
+      <c r="R66" s="144"/>
       <c r="S66" s="74" t="s">
         <v>8</v>
       </c>
@@ -5512,13 +5512,13 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y66" s="89" t="s">
+      <c r="Y66" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Z66" s="89"/>
-      <c r="AA66" s="90"/>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z66" s="122"/>
+      <c r="AA66" s="144"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>7</v>
       </c>
@@ -5536,11 +5536,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G67" s="89" t="s">
+      <c r="G67" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="89"/>
-      <c r="I67" s="90"/>
+      <c r="H67" s="122"/>
+      <c r="I67" s="144"/>
       <c r="J67" s="74" t="s">
         <v>9</v>
       </c>
@@ -5558,11 +5558,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P67" s="89" t="s">
+      <c r="P67" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Q67" s="89"/>
-      <c r="R67" s="90"/>
+      <c r="Q67" s="122"/>
+      <c r="R67" s="144"/>
       <c r="S67" s="74" t="s">
         <v>8</v>
       </c>
@@ -5580,13 +5580,13 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y67" s="89" t="s">
+      <c r="Y67" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Z67" s="89"/>
-      <c r="AA67" s="90"/>
-    </row>
-    <row r="68" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z67" s="122"/>
+      <c r="AA67" s="144"/>
+    </row>
+    <row r="68" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="75" t="s">
         <v>7</v>
       </c>
@@ -5604,11 +5604,11 @@
         <f t="shared" si="16"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G68" s="91" t="s">
+      <c r="G68" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="91"/>
-      <c r="I68" s="92"/>
+      <c r="H68" s="145"/>
+      <c r="I68" s="146"/>
       <c r="J68" s="75" t="s">
         <v>9</v>
       </c>
@@ -5626,11 +5626,11 @@
         <f t="shared" si="17"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="P68" s="91" t="s">
+      <c r="P68" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="91"/>
-      <c r="R68" s="92"/>
+      <c r="Q68" s="145"/>
+      <c r="R68" s="146"/>
       <c r="S68" s="75" t="s">
         <v>8</v>
       </c>
@@ -5648,13 +5648,13 @@
         <f t="shared" si="18"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="Y68" s="91" t="s">
+      <c r="Y68" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="Z68" s="91"/>
-      <c r="AA68" s="92"/>
-    </row>
-    <row r="69" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z68" s="145"/>
+      <c r="AA68" s="146"/>
+    </row>
+    <row r="69" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F69" s="78">
         <f>SUM(F60:F68)</f>
         <v>0.97569444444444453</v>
@@ -5670,75 +5670,75 @@
         <v>0.97569444444444453</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="95" t="s">
+    <row r="71" spans="1:29" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="96"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="96"/>
-      <c r="L71" s="96"/>
-      <c r="M71" s="96"/>
-      <c r="N71" s="96"/>
-      <c r="O71" s="96"/>
-      <c r="P71" s="96"/>
-      <c r="Q71" s="96"/>
-      <c r="R71" s="96"/>
-      <c r="S71" s="96"/>
-      <c r="T71" s="96"/>
-      <c r="U71" s="96"/>
-      <c r="V71" s="96"/>
-      <c r="W71" s="96"/>
-      <c r="X71" s="96"/>
-      <c r="Y71" s="96"/>
-      <c r="Z71" s="96"/>
-      <c r="AA71" s="96"/>
-    </row>
-    <row r="72" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="94"/>
+      <c r="M71" s="94"/>
+      <c r="N71" s="94"/>
+      <c r="O71" s="94"/>
+      <c r="P71" s="94"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="94"/>
+      <c r="T71" s="94"/>
+      <c r="U71" s="94"/>
+      <c r="V71" s="94"/>
+      <c r="W71" s="94"/>
+      <c r="X71" s="94"/>
+      <c r="Y71" s="94"/>
+      <c r="Z71" s="94"/>
+      <c r="AA71" s="94"/>
+    </row>
+    <row r="72" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="70"/>
       <c r="B72" s="71"/>
       <c r="C72" s="70"/>
       <c r="D72" s="70"/>
       <c r="E72" s="70"/>
       <c r="F72" s="70"/>
-      <c r="G72" s="97" t="s">
+      <c r="G72" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="98"/>
-      <c r="I72" s="99"/>
+      <c r="H72" s="150"/>
+      <c r="I72" s="151"/>
       <c r="J72" s="70"/>
       <c r="K72" s="70"/>
       <c r="L72" s="70"/>
       <c r="M72" s="70"/>
       <c r="N72" s="70"/>
       <c r="O72" s="70"/>
-      <c r="P72" s="97" t="str">
+      <c r="P72" s="149" t="str">
         <f>G72</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Q72" s="98"/>
-      <c r="R72" s="99"/>
+      <c r="Q72" s="150"/>
+      <c r="R72" s="151"/>
       <c r="S72" s="70"/>
       <c r="T72" s="70"/>
       <c r="U72" s="70"/>
       <c r="V72" s="70"/>
       <c r="W72" s="70"/>
       <c r="X72" s="70"/>
-      <c r="Y72" s="97" t="str">
+      <c r="Y72" s="149" t="str">
         <f>G72</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Z72" s="98"/>
-      <c r="AA72" s="99"/>
-    </row>
-    <row r="73" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z72" s="150"/>
+      <c r="AA72" s="151"/>
+    </row>
+    <row r="73" spans="1:29" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="72" t="s">
         <v>7</v>
       </c>
@@ -5757,11 +5757,11 @@
       <c r="F73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="100" t="s">
+      <c r="G73" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="101"/>
-      <c r="I73" s="101"/>
+      <c r="H73" s="148"/>
+      <c r="I73" s="148"/>
       <c r="J73" s="80" t="s">
         <v>9</v>
       </c>
@@ -5780,11 +5780,11 @@
       <c r="O73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P73" s="100" t="s">
+      <c r="P73" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="Q73" s="101"/>
-      <c r="R73" s="101"/>
+      <c r="Q73" s="148"/>
+      <c r="R73" s="148"/>
       <c r="S73" s="80" t="s">
         <v>8</v>
       </c>
@@ -5803,11 +5803,11 @@
       <c r="X73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="Y73" s="100" t="s">
+      <c r="Y73" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="Z73" s="101"/>
-      <c r="AA73" s="102"/>
+      <c r="Z73" s="148"/>
+      <c r="AA73" s="152"/>
       <c r="AB73" s="81" t="s">
         <v>19</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>7</v>
       </c>
@@ -5834,11 +5834,11 @@
         <f>SUM(D74-C74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G74" s="89" t="s">
+      <c r="G74" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="89"/>
-      <c r="I74" s="90"/>
+      <c r="H74" s="122"/>
+      <c r="I74" s="144"/>
       <c r="J74" s="74" t="s">
         <v>9</v>
       </c>
@@ -5856,11 +5856,11 @@
         <f>SUM(M74-L74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P74" s="89" t="s">
+      <c r="P74" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Q74" s="89"/>
-      <c r="R74" s="90"/>
+      <c r="Q74" s="122"/>
+      <c r="R74" s="144"/>
       <c r="S74" s="74" t="s">
         <v>8</v>
       </c>
@@ -5878,13 +5878,13 @@
         <f>SUM(V74-U74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y74" s="89" t="s">
+      <c r="Y74" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Z74" s="89"/>
-      <c r="AA74" s="90"/>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z74" s="122"/>
+      <c r="AA74" s="144"/>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>7</v>
       </c>
@@ -5902,11 +5902,11 @@
         <f t="shared" ref="F75:F81" si="19">SUM(D75-C75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G75" s="89" t="s">
+      <c r="G75" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="89"/>
-      <c r="I75" s="90"/>
+      <c r="H75" s="122"/>
+      <c r="I75" s="144"/>
       <c r="J75" s="74" t="s">
         <v>9</v>
       </c>
@@ -5924,11 +5924,11 @@
         <f t="shared" ref="O75:O81" si="20">SUM(M75-L75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P75" s="89" t="s">
+      <c r="P75" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Q75" s="89"/>
-      <c r="R75" s="90"/>
+      <c r="Q75" s="122"/>
+      <c r="R75" s="144"/>
       <c r="S75" s="74" t="s">
         <v>8</v>
       </c>
@@ -5946,13 +5946,13 @@
         <f t="shared" ref="X75:X81" si="21">SUM(V75-U75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y75" s="89" t="s">
+      <c r="Y75" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Z75" s="89"/>
-      <c r="AA75" s="90"/>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z75" s="122"/>
+      <c r="AA75" s="144"/>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>7</v>
       </c>
@@ -5970,11 +5970,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G76" s="89" t="s">
+      <c r="G76" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="89"/>
-      <c r="I76" s="90"/>
+      <c r="H76" s="122"/>
+      <c r="I76" s="144"/>
       <c r="J76" s="74" t="s">
         <v>9</v>
       </c>
@@ -5992,11 +5992,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P76" s="89" t="s">
+      <c r="P76" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Q76" s="89"/>
-      <c r="R76" s="90"/>
+      <c r="Q76" s="122"/>
+      <c r="R76" s="144"/>
       <c r="S76" s="74" t="s">
         <v>8</v>
       </c>
@@ -6014,13 +6014,13 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y76" s="89" t="s">
+      <c r="Y76" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="Z76" s="89"/>
-      <c r="AA76" s="90"/>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z76" s="122"/>
+      <c r="AA76" s="144"/>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>7</v>
       </c>
@@ -6038,11 +6038,11 @@
         <f t="shared" si="19"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G77" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" s="89"/>
-      <c r="I77" s="90"/>
+      <c r="G77" s="122" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" s="122"/>
+      <c r="I77" s="144"/>
       <c r="J77" s="74" t="s">
         <v>9</v>
       </c>
@@ -6060,11 +6060,11 @@
         <f t="shared" si="20"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="P77" s="89" t="s">
+      <c r="P77" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Q77" s="89"/>
-      <c r="R77" s="90"/>
+      <c r="Q77" s="122"/>
+      <c r="R77" s="144"/>
       <c r="S77" s="74" t="s">
         <v>8</v>
       </c>
@@ -6082,13 +6082,13 @@
         <f t="shared" si="21"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Y77" s="89" t="s">
+      <c r="Y77" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Z77" s="89"/>
-      <c r="AA77" s="90"/>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z77" s="122"/>
+      <c r="AA77" s="144"/>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>7</v>
       </c>
@@ -6106,11 +6106,11 @@
         <f t="shared" si="19"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G78" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="H78" s="89"/>
-      <c r="I78" s="90"/>
+      <c r="G78" s="122" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="122"/>
+      <c r="I78" s="144"/>
       <c r="J78" s="74" t="s">
         <v>9</v>
       </c>
@@ -6128,11 +6128,11 @@
         <f t="shared" si="20"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P78" s="89" t="s">
+      <c r="P78" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Q78" s="89"/>
-      <c r="R78" s="90"/>
+      <c r="Q78" s="122"/>
+      <c r="R78" s="144"/>
       <c r="S78" s="74" t="s">
         <v>8</v>
       </c>
@@ -6150,13 +6150,13 @@
         <f t="shared" si="21"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y78" s="89" t="s">
+      <c r="Y78" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Z78" s="89"/>
-      <c r="AA78" s="90"/>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z78" s="122"/>
+      <c r="AA78" s="144"/>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>7</v>
       </c>
@@ -6174,11 +6174,11 @@
         <f t="shared" si="19"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G79" s="89" t="s">
+      <c r="G79" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="H79" s="89"/>
-      <c r="I79" s="90"/>
+      <c r="H79" s="122"/>
+      <c r="I79" s="144"/>
       <c r="J79" s="74" t="s">
         <v>9</v>
       </c>
@@ -6196,11 +6196,11 @@
         <f t="shared" si="20"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P79" s="89" t="s">
+      <c r="P79" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Q79" s="89"/>
-      <c r="R79" s="90"/>
+      <c r="Q79" s="122"/>
+      <c r="R79" s="144"/>
       <c r="S79" s="74" t="s">
         <v>8</v>
       </c>
@@ -6218,13 +6218,13 @@
         <f t="shared" si="21"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y79" s="89" t="s">
+      <c r="Y79" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Z79" s="89"/>
-      <c r="AA79" s="90"/>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z79" s="122"/>
+      <c r="AA79" s="144"/>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>7</v>
       </c>
@@ -6242,11 +6242,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G80" s="89" t="s">
+      <c r="G80" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="89"/>
-      <c r="I80" s="90"/>
+      <c r="H80" s="122"/>
+      <c r="I80" s="144"/>
       <c r="J80" s="74" t="s">
         <v>9</v>
       </c>
@@ -6264,11 +6264,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P80" s="89" t="s">
+      <c r="P80" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Q80" s="89"/>
-      <c r="R80" s="90"/>
+      <c r="Q80" s="122"/>
+      <c r="R80" s="144"/>
       <c r="S80" s="74" t="s">
         <v>8</v>
       </c>
@@ -6286,13 +6286,13 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y80" s="89" t="s">
+      <c r="Y80" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Z80" s="89"/>
-      <c r="AA80" s="90"/>
-    </row>
-    <row r="81" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z80" s="122"/>
+      <c r="AA80" s="144"/>
+    </row>
+    <row r="81" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="75" t="s">
         <v>7</v>
       </c>
@@ -6310,11 +6310,11 @@
         <f t="shared" si="19"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="G81" s="91" t="s">
+      <c r="G81" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="H81" s="91"/>
-      <c r="I81" s="92"/>
+      <c r="H81" s="145"/>
+      <c r="I81" s="146"/>
       <c r="J81" s="86" t="s">
         <v>9</v>
       </c>
@@ -6332,11 +6332,11 @@
         <f t="shared" si="20"/>
         <v>0.125</v>
       </c>
-      <c r="P81" s="89" t="s">
+      <c r="P81" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Q81" s="89"/>
-      <c r="R81" s="90"/>
+      <c r="Q81" s="122"/>
+      <c r="R81" s="144"/>
       <c r="S81" s="86" t="s">
         <v>8</v>
       </c>
@@ -6354,13 +6354,13 @@
         <f t="shared" si="21"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Y81" s="89" t="s">
+      <c r="Y81" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Z81" s="89"/>
-      <c r="AA81" s="90"/>
-    </row>
-    <row r="82" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z81" s="122"/>
+      <c r="AA81" s="144"/>
+    </row>
+    <row r="82" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F82" s="78">
         <f>SUM(F74:F81)</f>
         <v>0.84027777777777779</v>
@@ -6384,11 +6384,11 @@
         <f>SUM(M82-L82-N82)</f>
         <v>0.14583333333333334</v>
       </c>
-      <c r="P82" s="93" t="s">
+      <c r="P82" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="Q82" s="93"/>
-      <c r="R82" s="94"/>
+      <c r="Q82" s="153"/>
+      <c r="R82" s="154"/>
       <c r="S82" s="82" t="s">
         <v>8</v>
       </c>
@@ -6406,13 +6406,13 @@
         <f t="shared" ref="X82" si="22">SUM(V82-U82)</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="Y82" s="93" t="s">
+      <c r="Y82" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="Z82" s="93"/>
-      <c r="AA82" s="94"/>
-    </row>
-    <row r="83" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z82" s="153"/>
+      <c r="AA82" s="154"/>
+    </row>
+    <row r="83" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K83" s="3"/>
       <c r="O83" s="78">
         <f>SUM(O74:O82)</f>
@@ -6426,6 +6426,204 @@
     </row>
   </sheetData>
   <mergeCells count="222">
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="A71:AA71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="A55:AA55"/>
+    <mergeCell ref="A56:AA56"/>
+    <mergeCell ref="A57:AA57"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y6:AA8"/>
+    <mergeCell ref="A13:AA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="A31:AA31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Y39:AA39"/>
     <mergeCell ref="AS45:AU45"/>
     <mergeCell ref="BB45:BD45"/>
     <mergeCell ref="AJ46:AK46"/>
@@ -6450,204 +6648,6 @@
     <mergeCell ref="Y45:AA45"/>
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="P46:R46"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A31:AA31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y6:AA8"/>
-    <mergeCell ref="A13:AA13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="A55:AA55"/>
-    <mergeCell ref="A56:AA56"/>
-    <mergeCell ref="A57:AA57"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="A71:AA71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="Y79:AA79"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6668,7 +6668,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\4CHIF\Syp\multiflexlbkv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BB8B9A-EA4F-4026-B23A-8BD420A2B0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A9544-4B8E-4A1A-B3DE-A6D574E07B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="39">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -153,6 +153,9 @@
   <si>
     <t>Sprint: Februar-März</t>
   </si>
+  <si>
+    <t>Sprint: März-Aprill</t>
+  </si>
 </sst>
 </file>
 
@@ -1320,22 +1323,142 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,19 +1481,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1382,142 +1520,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1890,88 +1893,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD83"/>
+  <dimension ref="A1:BD96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.88671875" style="2"/>
-    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.88671875" style="2"/>
-    <col min="15" max="15" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.88671875" style="2"/>
-    <col min="19" max="19" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="10.88671875" style="2"/>
-    <col min="24" max="24" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10.88671875" style="2"/>
+    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="10.85546875" style="2"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.85546875" style="2"/>
+    <col min="15" max="15" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.85546875" style="2"/>
+    <col min="19" max="19" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="10.85546875" style="2"/>
+    <col min="24" max="24" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.85546875" style="2"/>
     <col min="28" max="28" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.88671875" style="2"/>
+    <col min="29" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-    </row>
-    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+    </row>
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="119" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="P2" s="117" t="s">
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
+      <c r="P2" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="Y2" s="119" t="s">
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="Y2" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="100"/>
-    </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="140"/>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1990,11 +1993,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="113"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2013,11 +2016,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="101" t="s">
+      <c r="P3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="102"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="113"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -2036,11 +2039,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="101" t="s">
+      <c r="Y3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="102"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="113"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>1.1979166666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -2067,11 +2070,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="116"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -2089,11 +2092,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="115" t="s">
+      <c r="P4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="116"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="121"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -2111,13 +2114,13 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="115" t="s">
+      <c r="Y4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="116"/>
-    </row>
-    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="121"/>
+    </row>
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2135,11 +2138,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="121"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="133"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -2157,11 +2160,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="122" t="s">
+      <c r="P5" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="123"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="134"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -2179,13 +2182,13 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="120" t="s">
+      <c r="Y5" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="121"/>
-    </row>
-    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="133"/>
+    </row>
+    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -2203,11 +2206,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="120" t="s">
+      <c r="G6" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="133"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -2225,9 +2228,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="123"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="134"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -2245,13 +2248,13 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="122" t="s">
+      <c r="Y6" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="123"/>
-    </row>
-    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="134"/>
+    </row>
+    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -2269,11 +2272,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="120" t="s">
+      <c r="G7" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -2291,9 +2294,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="123"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="134"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -2311,11 +2314,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="123"/>
-    </row>
-    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="134"/>
+    </row>
+    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -2333,11 +2336,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="126" t="s">
+      <c r="G8" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="127"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -2355,11 +2358,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="122" t="s">
+      <c r="P8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="123"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="134"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -2377,11 +2380,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="123"/>
-    </row>
-    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="134"/>
+    </row>
+    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="6">
         <f>SUM(F4:F8)</f>
         <v>0.42361111111111116</v>
@@ -2403,11 +2406,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="124" t="s">
+      <c r="P9" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="125"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="142"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -2425,13 +2428,13 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="125"/>
-    </row>
-    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="142"/>
+    </row>
+    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2449,7 +2452,7 @@
         <v>0.47569444444444436</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2458,7 +2461,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2467,73 +2470,73 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-    </row>
-    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96"/>
+    </row>
+    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98" t="s">
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="140"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="98" t="s">
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="100"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="140"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="98" t="s">
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="100"/>
-    </row>
-    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="140"/>
+    </row>
+    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -2552,11 +2555,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="101" t="s">
+      <c r="G15" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="101"/>
-      <c r="I15" s="102"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="113"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2575,11 +2578,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="101" t="s">
+      <c r="P15" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="102"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="113"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2598,11 +2601,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="101" t="s">
+      <c r="Y15" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="102"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="113"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>4.5416666666666679</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
@@ -2629,11 +2632,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="115" t="s">
+      <c r="G16" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="115"/>
-      <c r="I16" s="116"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2651,11 +2654,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="103" t="s">
+      <c r="P16" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="105"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="109"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2673,13 +2676,13 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="103" t="s">
+      <c r="Y16" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="105"/>
-    </row>
-    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="109"/>
+    </row>
+    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
@@ -2697,11 +2700,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="120" t="s">
+      <c r="G17" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2719,11 +2722,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="109" t="s">
+      <c r="P17" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="128"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2741,11 +2744,11 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="112"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="114"/>
-    </row>
-    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y17" s="148"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="150"/>
+    </row>
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2763,11 +2766,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="115" t="s">
+      <c r="G18" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="115"/>
-      <c r="I18" s="116"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2785,11 +2788,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="103" t="s">
+      <c r="P18" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="105"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="109"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2807,13 +2810,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="103" t="s">
+      <c r="Y18" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="105"/>
-    </row>
-    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="109"/>
+    </row>
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
@@ -2831,11 +2834,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="115" t="s">
+      <c r="G19" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2853,11 +2856,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="103" t="s">
+      <c r="P19" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="105"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2875,13 +2878,13 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="103" t="s">
+      <c r="Y19" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="105"/>
-    </row>
-    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="109"/>
+    </row>
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
@@ -2899,11 +2902,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="120" t="s">
+      <c r="G20" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="133"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2921,11 +2924,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="103" t="s">
+      <c r="P20" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="105"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="109"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2943,13 +2946,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="115" t="s">
+      <c r="Y20" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="116"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="121"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
@@ -2967,11 +2970,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="128" t="s">
+      <c r="G21" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="129"/>
-      <c r="I21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2989,11 +2992,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="109" t="s">
+      <c r="P21" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="111"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="128"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -3011,13 +3014,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="131" t="s">
+      <c r="Y21" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="132"/>
-    </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="123"/>
+    </row>
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>7</v>
       </c>
@@ -3035,11 +3038,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="115" t="s">
+      <c r="G22" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="115"/>
-      <c r="I22" s="116"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -3057,11 +3060,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="128" t="s">
+      <c r="P22" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="131"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -3079,13 +3082,13 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="115" t="s">
+      <c r="Y22" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="115"/>
-      <c r="AA22" s="116"/>
-    </row>
-    <row r="23" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="121"/>
+    </row>
+    <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3103,11 +3106,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="136" t="s">
+      <c r="G23" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="136"/>
-      <c r="I23" s="137"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -3125,11 +3128,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="109" t="s">
+      <c r="P23" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="111"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="128"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -3147,13 +3150,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="131" t="s">
+      <c r="Y23" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="131"/>
-      <c r="AA23" s="132"/>
-    </row>
-    <row r="24" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="123"/>
+    </row>
+    <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F24" s="6">
         <f>SUM(F16:F23)</f>
         <v>1.3055555555555558</v>
@@ -3175,11 +3178,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="115" t="s">
+      <c r="P24" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="116"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="121"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -3197,13 +3200,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="131" t="s">
+      <c r="Y24" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="131"/>
-      <c r="AA24" s="132"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="123"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J25" s="38" t="s">
         <v>9</v>
       </c>
@@ -3221,11 +3224,11 @@
         <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="133" t="s">
+      <c r="P25" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="133"/>
-      <c r="R25" s="134"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="117"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -3243,21 +3246,21 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="133" t="s">
+      <c r="Y25" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="133"/>
-      <c r="AA25" s="134"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="117"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -3275,11 +3278,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="128" t="s">
+      <c r="P26" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="130"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="131"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -3297,13 +3300,13 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="133" t="s">
+      <c r="Y26" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="133"/>
-      <c r="AA26" s="134"/>
-    </row>
-    <row r="27" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="117"/>
+    </row>
+    <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J27" s="48" t="s">
         <v>9</v>
       </c>
@@ -3321,11 +3324,11 @@
         <f>SUM(M27-L27)</f>
         <v>0.15625</v>
       </c>
-      <c r="P27" s="138" t="s">
+      <c r="P27" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="139"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="125"/>
       <c r="S27" s="38" t="s">
         <v>8</v>
       </c>
@@ -3343,18 +3346,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="131" t="s">
+      <c r="Y27" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="132"/>
-    </row>
-    <row r="28" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z27" s="122"/>
+      <c r="AA27" s="123"/>
+    </row>
+    <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -3376,93 +3379,93 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="136" t="s">
+      <c r="Y28" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="136"/>
-      <c r="AA28" s="137"/>
-    </row>
-    <row r="29" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="119"/>
+    </row>
+    <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-    </row>
-    <row r="31" spans="1:27" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
+      <c r="Y29" s="115"/>
+      <c r="Z29" s="115"/>
+      <c r="AA29" s="115"/>
+    </row>
+    <row r="31" spans="1:27" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-    </row>
-    <row r="32" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="96"/>
+      <c r="AA31" s="96"/>
+    </row>
+    <row r="32" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98" t="s">
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="140"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="98" t="s">
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="137"/>
+      <c r="P32" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="100"/>
+      <c r="Q32" s="139"/>
+      <c r="R32" s="140"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="97"/>
-      <c r="Y32" s="98" t="s">
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="136"/>
+      <c r="W32" s="136"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" s="99"/>
-      <c r="AA32" s="100"/>
-    </row>
-    <row r="33" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="140"/>
+    </row>
+    <row r="33" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -3481,11 +3484,11 @@
       <c r="F33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="101" t="s">
+      <c r="G33" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="101"/>
-      <c r="I33" s="102"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="113"/>
       <c r="J33" s="42" t="s">
         <v>9</v>
       </c>
@@ -3504,11 +3507,11 @@
       <c r="O33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="101" t="s">
+      <c r="P33" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="102"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="113"/>
       <c r="S33" s="13" t="s">
         <v>8</v>
       </c>
@@ -3527,11 +3530,11 @@
       <c r="X33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="101" t="s">
+      <c r="Y33" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="101"/>
-      <c r="AA33" s="102"/>
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="113"/>
       <c r="AB33" s="27" t="s">
         <v>19</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>1.479166666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -3558,11 +3561,11 @@
         <f t="shared" ref="F34:F37" si="7">SUM(D34-C34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G34" s="103" t="s">
+      <c r="G34" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="104"/>
-      <c r="I34" s="105"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="109"/>
       <c r="J34" s="23" t="s">
         <v>9</v>
       </c>
@@ -3580,11 +3583,11 @@
         <f t="shared" ref="O34:O37" si="8">SUM(M34-L34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P34" s="103" t="s">
+      <c r="P34" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="105"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="109"/>
       <c r="S34" s="38" t="s">
         <v>8</v>
       </c>
@@ -3602,13 +3605,13 @@
         <f t="shared" ref="X34:X35" si="9">SUM(V34-U34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y34" s="103" t="s">
+      <c r="Y34" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z34" s="104"/>
-      <c r="AA34" s="105"/>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Z34" s="108"/>
+      <c r="AA34" s="109"/>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>7</v>
       </c>
@@ -3626,11 +3629,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G35" s="103" t="s">
+      <c r="G35" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="104"/>
-      <c r="I35" s="105"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="109"/>
       <c r="J35" s="23" t="s">
         <v>9</v>
       </c>
@@ -3648,11 +3651,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P35" s="103" t="s">
+      <c r="P35" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="105"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="109"/>
       <c r="S35" s="38" t="s">
         <v>8</v>
       </c>
@@ -3670,13 +3673,13 @@
         <f t="shared" si="9"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y35" s="103" t="s">
+      <c r="Y35" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="104"/>
-      <c r="AA35" s="105"/>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Z35" s="108"/>
+      <c r="AA35" s="109"/>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
@@ -3694,11 +3697,11 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G36" s="103" t="s">
+      <c r="G36" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="104"/>
-      <c r="I36" s="105"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="109"/>
       <c r="J36" s="23" t="s">
         <v>9</v>
       </c>
@@ -3716,11 +3719,11 @@
         <f t="shared" si="8"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P36" s="103" t="s">
+      <c r="P36" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="105"/>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="109"/>
       <c r="S36" s="38" t="s">
         <v>8</v>
       </c>
@@ -3738,13 +3741,13 @@
         <f t="shared" ref="X36:X37" si="10">SUM(V36-U36)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y36" s="103" t="s">
+      <c r="Y36" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="Z36" s="104"/>
-      <c r="AA36" s="105"/>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Z36" s="108"/>
+      <c r="AA36" s="109"/>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>7</v>
       </c>
@@ -3762,11 +3765,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G37" s="103" t="s">
+      <c r="G37" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="104"/>
-      <c r="I37" s="105"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="109"/>
       <c r="J37" s="23" t="s">
         <v>9</v>
       </c>
@@ -3784,11 +3787,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P37" s="103" t="s">
+      <c r="P37" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="104"/>
-      <c r="R37" s="105"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="109"/>
       <c r="S37" s="38" t="s">
         <v>8</v>
       </c>
@@ -3806,13 +3809,13 @@
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Y37" s="109" t="s">
+      <c r="Y37" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" s="110"/>
-      <c r="AA37" s="111"/>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Z37" s="127"/>
+      <c r="AA37" s="128"/>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>7</v>
       </c>
@@ -3830,11 +3833,11 @@
         <f>SUM(D38-C38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G38" s="103" t="s">
+      <c r="G38" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="104"/>
-      <c r="I38" s="105"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="109"/>
       <c r="J38" s="23" t="s">
         <v>9</v>
       </c>
@@ -3852,11 +3855,11 @@
         <f>SUM(M38-L38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P38" s="103" t="s">
+      <c r="P38" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="105"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="109"/>
       <c r="S38" s="38" t="s">
         <v>8</v>
       </c>
@@ -3874,13 +3877,13 @@
         <f t="shared" ref="X38:X39" si="11">SUM(V38-U38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y38" s="103" t="s">
+      <c r="Y38" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z38" s="104"/>
-      <c r="AA38" s="105"/>
-    </row>
-    <row r="39" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z38" s="108"/>
+      <c r="AA38" s="109"/>
+    </row>
+    <row r="39" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>7</v>
       </c>
@@ -3898,11 +3901,11 @@
         <f>SUM(D39-C39)</f>
         <v>0.125</v>
       </c>
-      <c r="G39" s="106" t="s">
+      <c r="G39" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="107"/>
-      <c r="I39" s="108"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="153"/>
       <c r="J39" s="25" t="s">
         <v>9</v>
       </c>
@@ -3920,11 +3923,11 @@
         <f>SUM(M39-L39)</f>
         <v>0.125</v>
       </c>
-      <c r="P39" s="106" t="s">
+      <c r="P39" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="108"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="153"/>
       <c r="S39" s="38" t="s">
         <v>8</v>
       </c>
@@ -3942,13 +3945,13 @@
         <f t="shared" si="11"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y39" s="103" t="s">
+      <c r="Y39" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z39" s="104"/>
-      <c r="AA39" s="105"/>
-    </row>
-    <row r="40" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z39" s="108"/>
+      <c r="AA39" s="109"/>
+    </row>
+    <row r="40" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="62"/>
       <c r="B40" s="63"/>
       <c r="C40" s="64"/>
@@ -3990,31 +3993,31 @@
         <f>SUM(V40-U40)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y40" s="103" t="s">
+      <c r="Y40" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z40" s="104"/>
-      <c r="AA40" s="105"/>
-    </row>
-    <row r="41" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z40" s="108"/>
+      <c r="AA40" s="109"/>
+    </row>
+    <row r="41" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
       <c r="B41" s="46"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
       <c r="E41" s="4"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
       <c r="J41" s="57"/>
       <c r="K41" s="66"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
       <c r="N41" s="4"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="105"/>
+      <c r="R41" s="105"/>
       <c r="S41" s="56" t="s">
         <v>8</v>
       </c>
@@ -4032,13 +4035,13 @@
         <f>SUM(V41-U41)</f>
         <v>0.125</v>
       </c>
-      <c r="Y41" s="106" t="s">
+      <c r="Y41" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="Z41" s="107"/>
-      <c r="AA41" s="108"/>
-    </row>
-    <row r="42" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z41" s="152"/>
+      <c r="AA41" s="153"/>
+    </row>
+    <row r="42" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="59"/>
       <c r="C42" s="4"/>
@@ -4054,9 +4057,9 @@
       <c r="M42" s="58"/>
       <c r="N42" s="4"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="92"/>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="92"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="105"/>
       <c r="S42" s="62"/>
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
@@ -4070,7 +4073,7 @@
       <c r="Z42" s="65"/>
       <c r="AA42" s="65"/>
     </row>
-    <row r="43" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="59"/>
       <c r="C43" s="4"/>
@@ -4086,113 +4089,113 @@
       <c r="M43" s="58"/>
       <c r="N43" s="4"/>
       <c r="O43" s="58"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="89"/>
-      <c r="R43" s="89"/>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="106"/>
+      <c r="R43" s="106"/>
       <c r="S43" s="57"/>
       <c r="T43" s="46"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
       <c r="W43" s="4"/>
       <c r="X43" s="58"/>
-      <c r="Y43" s="89"/>
-      <c r="Z43" s="89"/>
-      <c r="AA43" s="89"/>
-    </row>
-    <row r="44" spans="1:56" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="93" t="s">
+      <c r="Y43" s="106"/>
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="106"/>
+    </row>
+    <row r="44" spans="1:56" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="94"/>
-      <c r="X44" s="94"/>
-      <c r="Y44" s="94"/>
-      <c r="Z44" s="94"/>
-      <c r="AA44" s="94"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="96"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="96"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="96"/>
+      <c r="V44" s="96"/>
+      <c r="W44" s="96"/>
+      <c r="X44" s="96"/>
+      <c r="Y44" s="96"/>
+      <c r="Z44" s="96"/>
+      <c r="AA44" s="96"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="33"/>
       <c r="AG44" s="33"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="34"/>
-      <c r="AJ44" s="92"/>
-      <c r="AK44" s="92"/>
-      <c r="AL44" s="92"/>
+      <c r="AJ44" s="105"/>
+      <c r="AK44" s="105"/>
+      <c r="AL44" s="105"/>
       <c r="AM44" s="57"/>
       <c r="AN44" s="46"/>
       <c r="AO44" s="58"/>
       <c r="AP44" s="58"/>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="58"/>
-      <c r="AS44" s="89"/>
-      <c r="AT44" s="89"/>
-      <c r="AU44" s="89"/>
+      <c r="AS44" s="106"/>
+      <c r="AT44" s="106"/>
+      <c r="AU44" s="106"/>
       <c r="AV44" s="57"/>
       <c r="AW44" s="46"/>
       <c r="AX44" s="58"/>
       <c r="AY44" s="58"/>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="58"/>
-      <c r="BB44" s="89"/>
-      <c r="BC44" s="89"/>
-      <c r="BD44" s="89"/>
-    </row>
-    <row r="45" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BB44" s="106"/>
+      <c r="BC44" s="106"/>
+      <c r="BD44" s="106"/>
+    </row>
+    <row r="45" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="98" t="s">
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="99"/>
-      <c r="I45" s="100"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="140"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="98" t="str">
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="137"/>
+      <c r="P45" s="138" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Q45" s="99"/>
-      <c r="R45" s="100"/>
+      <c r="Q45" s="139"/>
+      <c r="R45" s="140"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="95"/>
-      <c r="V45" s="96"/>
-      <c r="W45" s="96"/>
-      <c r="X45" s="97"/>
-      <c r="Y45" s="98" t="str">
+      <c r="T45" s="135"/>
+      <c r="U45" s="135"/>
+      <c r="V45" s="136"/>
+      <c r="W45" s="136"/>
+      <c r="X45" s="137"/>
+      <c r="Y45" s="138" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Z45" s="99"/>
-      <c r="AA45" s="100"/>
+      <c r="Z45" s="139"/>
+      <c r="AA45" s="140"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="4"/>
@@ -4208,20 +4211,20 @@
       <c r="AP45" s="58"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="58"/>
-      <c r="AS45" s="89"/>
-      <c r="AT45" s="89"/>
-      <c r="AU45" s="89"/>
+      <c r="AS45" s="106"/>
+      <c r="AT45" s="106"/>
+      <c r="AU45" s="106"/>
       <c r="AV45" s="57"/>
       <c r="AW45" s="46"/>
       <c r="AX45" s="58"/>
       <c r="AY45" s="58"/>
       <c r="AZ45" s="4"/>
       <c r="BA45" s="58"/>
-      <c r="BB45" s="89"/>
-      <c r="BC45" s="89"/>
-      <c r="BD45" s="89"/>
-    </row>
-    <row r="46" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BB45" s="106"/>
+      <c r="BC45" s="106"/>
+      <c r="BD45" s="106"/>
+    </row>
+    <row r="46" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>7</v>
       </c>
@@ -4240,11 +4243,11 @@
       <c r="F46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="101" t="s">
+      <c r="G46" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="101"/>
-      <c r="I46" s="102"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="113"/>
       <c r="J46" s="42" t="s">
         <v>9</v>
       </c>
@@ -4263,11 +4266,11 @@
       <c r="O46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P46" s="101" t="s">
+      <c r="P46" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="102"/>
+      <c r="Q46" s="112"/>
+      <c r="R46" s="113"/>
       <c r="S46" s="13" t="s">
         <v>8</v>
       </c>
@@ -4286,11 +4289,11 @@
       <c r="X46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y46" s="101" t="s">
+      <c r="Y46" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Z46" s="101"/>
-      <c r="AA46" s="102"/>
+      <c r="Z46" s="112"/>
+      <c r="AA46" s="113"/>
       <c r="AB46" s="27" t="s">
         <v>19</v>
       </c>
@@ -4304,8 +4307,8 @@
       <c r="AG46" s="58"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="90"/>
-      <c r="AK46" s="90"/>
+      <c r="AJ46" s="114"/>
+      <c r="AK46" s="114"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
@@ -4322,11 +4325,11 @@
       <c r="AY46" s="58"/>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="58"/>
-      <c r="BB46" s="89"/>
-      <c r="BC46" s="89"/>
-      <c r="BD46" s="89"/>
-    </row>
-    <row r="47" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="BB46" s="106"/>
+      <c r="BC46" s="106"/>
+      <c r="BD46" s="106"/>
+    </row>
+    <row r="47" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>7</v>
       </c>
@@ -4344,11 +4347,11 @@
         <f t="shared" ref="F47:F50" si="12">SUM(D47-C47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="G47" s="103" t="s">
+      <c r="G47" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="104"/>
-      <c r="I47" s="105"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="109"/>
       <c r="J47" s="23" t="s">
         <v>9</v>
       </c>
@@ -4366,11 +4369,11 @@
         <f t="shared" ref="O47:O52" si="13">SUM(M47-L47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="P47" s="103" t="s">
+      <c r="P47" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="104"/>
-      <c r="R47" s="105"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="109"/>
       <c r="S47" s="38" t="s">
         <v>8</v>
       </c>
@@ -4388,19 +4391,19 @@
         <f t="shared" ref="X47:X50" si="14">SUM(V47-U47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Y47" s="103" t="s">
+      <c r="Y47" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="104"/>
-      <c r="AA47" s="105"/>
+      <c r="Z47" s="108"/>
+      <c r="AA47" s="109"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="61"/>
       <c r="AF47" s="58"/>
       <c r="AG47" s="58"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="91"/>
-      <c r="AK47" s="91"/>
+      <c r="AJ47" s="154"/>
+      <c r="AK47" s="154"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
@@ -4417,11 +4420,11 @@
       <c r="AY47" s="4"/>
       <c r="AZ47" s="4"/>
       <c r="BA47" s="60"/>
-      <c r="BB47" s="91"/>
-      <c r="BC47" s="91"/>
-      <c r="BD47" s="91"/>
-    </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BB47" s="154"/>
+      <c r="BC47" s="154"/>
+      <c r="BD47" s="154"/>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>7</v>
       </c>
@@ -4439,11 +4442,11 @@
         <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G48" s="103" t="s">
+      <c r="G48" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="104"/>
-      <c r="I48" s="105"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="109"/>
       <c r="J48" s="23" t="s">
         <v>9</v>
       </c>
@@ -4461,11 +4464,11 @@
         <f t="shared" si="13"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P48" s="103" t="s">
+      <c r="P48" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" s="104"/>
-      <c r="R48" s="105"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="109"/>
       <c r="S48" s="38" t="s">
         <v>8</v>
       </c>
@@ -4483,14 +4486,14 @@
         <f t="shared" si="14"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y48" s="103" t="s">
+      <c r="Y48" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Z48" s="104"/>
-      <c r="AA48" s="105"/>
+      <c r="Z48" s="108"/>
+      <c r="AA48" s="109"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>7</v>
       </c>
@@ -4508,11 +4511,11 @@
         <f t="shared" si="12"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G49" s="103" t="s">
+      <c r="G49" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="104"/>
-      <c r="I49" s="105"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="109"/>
       <c r="J49" s="23" t="s">
         <v>9</v>
       </c>
@@ -4530,11 +4533,11 @@
         <f t="shared" si="13"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="P49" s="103" t="s">
+      <c r="P49" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Q49" s="104"/>
-      <c r="R49" s="105"/>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="109"/>
       <c r="S49" s="38" t="s">
         <v>8</v>
       </c>
@@ -4552,14 +4555,14 @@
         <f t="shared" si="14"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="Y49" s="103" t="s">
+      <c r="Y49" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="104"/>
-      <c r="AA49" s="105"/>
+      <c r="Z49" s="108"/>
+      <c r="AA49" s="109"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>7</v>
       </c>
@@ -4577,11 +4580,11 @@
         <f t="shared" si="12"/>
         <v>0.23125000000000007</v>
       </c>
-      <c r="G50" s="103" t="s">
+      <c r="G50" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="104"/>
-      <c r="I50" s="105"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="109"/>
       <c r="J50" s="23" t="s">
         <v>9</v>
       </c>
@@ -4599,11 +4602,11 @@
         <f t="shared" si="13"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P50" s="103" t="s">
+      <c r="P50" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" s="104"/>
-      <c r="R50" s="105"/>
+      <c r="Q50" s="108"/>
+      <c r="R50" s="109"/>
       <c r="S50" s="38" t="s">
         <v>8</v>
       </c>
@@ -4621,14 +4624,14 @@
         <f t="shared" si="14"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y50" s="103" t="s">
+      <c r="Y50" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z50" s="104"/>
-      <c r="AA50" s="105"/>
+      <c r="Z50" s="108"/>
+      <c r="AA50" s="109"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>7</v>
       </c>
@@ -4648,11 +4651,11 @@
         <f>SUM(D51-C51)</f>
         <v>0.32291666666666669</v>
       </c>
-      <c r="G51" s="103" t="s">
+      <c r="G51" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="104"/>
-      <c r="I51" s="105"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="109"/>
       <c r="J51" s="23" t="s">
         <v>9</v>
       </c>
@@ -4670,11 +4673,11 @@
         <f>SUM(M51-L51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="P51" s="103" t="s">
+      <c r="P51" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="104"/>
-      <c r="R51" s="105"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="109"/>
       <c r="S51" s="38" t="s">
         <v>8</v>
       </c>
@@ -4692,14 +4695,14 @@
         <f>SUM(V51-U51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="Y51" s="103" t="s">
+      <c r="Y51" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z51" s="104"/>
-      <c r="AA51" s="105"/>
+      <c r="Z51" s="108"/>
+      <c r="AA51" s="109"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>7</v>
       </c>
@@ -4717,11 +4720,11 @@
         <f>SUM(D52-C52)</f>
         <v>0.17083333333333339</v>
       </c>
-      <c r="G52" s="103" t="s">
+      <c r="G52" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="104"/>
-      <c r="I52" s="105"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="109"/>
       <c r="J52" s="25" t="s">
         <v>9</v>
       </c>
@@ -4739,11 +4742,11 @@
         <f t="shared" si="13"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="P52" s="103" t="s">
+      <c r="P52" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="Q52" s="104"/>
-      <c r="R52" s="104"/>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
       <c r="S52" s="25" t="s">
         <v>8</v>
       </c>
@@ -4761,14 +4764,14 @@
         <f t="shared" ref="X52" si="15">SUM(V52-U52)</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="Y52" s="140" t="s">
+      <c r="Y52" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="Z52" s="140"/>
-      <c r="AA52" s="141"/>
+      <c r="Z52" s="110"/>
+      <c r="AA52" s="111"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="63"/>
       <c r="C53" s="64"/>
@@ -4802,169 +4805,169 @@
         <f>SUM(X47:X52)</f>
         <v>0.84375000000000022</v>
       </c>
-      <c r="Y53" s="92"/>
-      <c r="Z53" s="92"/>
-      <c r="AA53" s="92"/>
+      <c r="Y53" s="105"/>
+      <c r="Z53" s="105"/>
+      <c r="AA53" s="105"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="1:31" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A54" s="57"/>
       <c r="B54" s="46"/>
       <c r="C54" s="58"/>
       <c r="D54" s="58"/>
       <c r="E54" s="4"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
       <c r="J54" s="57"/>
       <c r="K54" s="66"/>
       <c r="L54" s="58"/>
       <c r="M54" s="58"/>
       <c r="N54" s="4"/>
       <c r="O54" s="58"/>
-      <c r="P54" s="92"/>
-      <c r="Q54" s="92"/>
-      <c r="R54" s="92"/>
+      <c r="P54" s="105"/>
+      <c r="Q54" s="105"/>
+      <c r="R54" s="105"/>
       <c r="S54" s="57"/>
       <c r="T54" s="32"/>
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
       <c r="W54" s="33"/>
       <c r="X54" s="58"/>
-      <c r="Y54" s="89"/>
-      <c r="Z54" s="89"/>
-      <c r="AA54" s="89"/>
+      <c r="Y54" s="106"/>
+      <c r="Z54" s="106"/>
+      <c r="AA54" s="106"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="142"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="143"/>
-      <c r="F55" s="143"/>
-      <c r="G55" s="143"/>
-      <c r="H55" s="143"/>
-      <c r="I55" s="143"/>
-      <c r="J55" s="143"/>
-      <c r="K55" s="143"/>
-      <c r="L55" s="143"/>
-      <c r="M55" s="143"/>
-      <c r="N55" s="143"/>
-      <c r="O55" s="143"/>
-      <c r="P55" s="143"/>
-      <c r="Q55" s="143"/>
-      <c r="R55" s="143"/>
-      <c r="S55" s="143"/>
-      <c r="T55" s="143"/>
-      <c r="U55" s="143"/>
-      <c r="V55" s="143"/>
-      <c r="W55" s="143"/>
-      <c r="X55" s="143"/>
-      <c r="Y55" s="143"/>
-      <c r="Z55" s="143"/>
-      <c r="AA55" s="143"/>
+    <row r="55" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="103"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="104"/>
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104"/>
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
+      <c r="R55" s="104"/>
+      <c r="S55" s="104"/>
+      <c r="T55" s="104"/>
+      <c r="U55" s="104"/>
+      <c r="V55" s="104"/>
+      <c r="W55" s="104"/>
+      <c r="X55" s="104"/>
+      <c r="Y55" s="104"/>
+      <c r="Z55" s="104"/>
+      <c r="AA55" s="104"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="142"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="143"/>
-      <c r="F56" s="143"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="143"/>
-      <c r="K56" s="143"/>
-      <c r="L56" s="143"/>
-      <c r="M56" s="143"/>
-      <c r="N56" s="143"/>
-      <c r="O56" s="143"/>
-      <c r="P56" s="143"/>
-      <c r="Q56" s="143"/>
-      <c r="R56" s="143"/>
-      <c r="S56" s="143"/>
-      <c r="T56" s="143"/>
-      <c r="U56" s="143"/>
-      <c r="V56" s="143"/>
-      <c r="W56" s="143"/>
-      <c r="X56" s="143"/>
-      <c r="Y56" s="143"/>
-      <c r="Z56" s="143"/>
-      <c r="AA56" s="143"/>
-    </row>
-    <row r="57" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="93" t="s">
+    <row r="56" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="103"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="104"/>
+      <c r="U56" s="104"/>
+      <c r="V56" s="104"/>
+      <c r="W56" s="104"/>
+      <c r="X56" s="104"/>
+      <c r="Y56" s="104"/>
+      <c r="Z56" s="104"/>
+      <c r="AA56" s="104"/>
+    </row>
+    <row r="57" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="94"/>
-      <c r="T57" s="94"/>
-      <c r="U57" s="94"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
-      <c r="X57" s="94"/>
-      <c r="Y57" s="94"/>
-      <c r="Z57" s="94"/>
-      <c r="AA57" s="94"/>
-    </row>
-    <row r="58" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="96"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="96"/>
+      <c r="R57" s="96"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="96"/>
+      <c r="U57" s="96"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
+      <c r="X57" s="96"/>
+      <c r="Y57" s="96"/>
+      <c r="Z57" s="96"/>
+      <c r="AA57" s="96"/>
+    </row>
+    <row r="58" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="70"/>
       <c r="B58" s="71"/>
       <c r="C58" s="70"/>
       <c r="D58" s="70"/>
       <c r="E58" s="70"/>
       <c r="F58" s="70"/>
-      <c r="G58" s="149" t="s">
+      <c r="G58" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="150"/>
-      <c r="I58" s="151"/>
+      <c r="H58" s="98"/>
+      <c r="I58" s="99"/>
       <c r="J58" s="70"/>
       <c r="K58" s="70"/>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
       <c r="N58" s="70"/>
       <c r="O58" s="70"/>
-      <c r="P58" s="149" t="str">
+      <c r="P58" s="97" t="str">
         <f>G58</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Q58" s="150"/>
-      <c r="R58" s="151"/>
+      <c r="Q58" s="98"/>
+      <c r="R58" s="99"/>
       <c r="S58" s="70"/>
       <c r="T58" s="70"/>
       <c r="U58" s="70"/>
       <c r="V58" s="70"/>
       <c r="W58" s="70"/>
       <c r="X58" s="70"/>
-      <c r="Y58" s="149" t="str">
+      <c r="Y58" s="97" t="str">
         <f>G58</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Z58" s="150"/>
-      <c r="AA58" s="151"/>
-    </row>
-    <row r="59" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z58" s="98"/>
+      <c r="AA58" s="99"/>
+    </row>
+    <row r="59" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="72" t="s">
         <v>7</v>
       </c>
@@ -4983,11 +4986,11 @@
       <c r="F59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="147" t="s">
+      <c r="G59" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="148"/>
-      <c r="I59" s="148"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
       <c r="J59" s="80" t="s">
         <v>9</v>
       </c>
@@ -5006,11 +5009,11 @@
       <c r="O59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P59" s="147" t="s">
+      <c r="P59" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="148"/>
-      <c r="R59" s="148"/>
+      <c r="Q59" s="101"/>
+      <c r="R59" s="101"/>
       <c r="S59" s="80" t="s">
         <v>8</v>
       </c>
@@ -5029,11 +5032,11 @@
       <c r="X59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="Y59" s="147" t="s">
+      <c r="Y59" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="Z59" s="148"/>
-      <c r="AA59" s="152"/>
+      <c r="Z59" s="101"/>
+      <c r="AA59" s="102"/>
       <c r="AB59" s="81" t="s">
         <v>19</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>2.8437500000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>7</v>
       </c>
@@ -5060,11 +5063,11 @@
         <f>SUM(D60-C60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G60" s="122" t="s">
+      <c r="G60" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="122"/>
-      <c r="I60" s="144"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="90"/>
       <c r="J60" s="74" t="s">
         <v>9</v>
       </c>
@@ -5082,11 +5085,11 @@
         <f>SUM(M60-L60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P60" s="122" t="s">
+      <c r="P60" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q60" s="122"/>
-      <c r="R60" s="144"/>
+      <c r="Q60" s="89"/>
+      <c r="R60" s="90"/>
       <c r="S60" s="74" t="s">
         <v>8</v>
       </c>
@@ -5104,13 +5107,13 @@
         <f>SUM(V60-U60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y60" s="122" t="s">
+      <c r="Y60" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z60" s="122"/>
-      <c r="AA60" s="144"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z60" s="89"/>
+      <c r="AA60" s="90"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>7</v>
       </c>
@@ -5128,11 +5131,11 @@
         <f t="shared" ref="F61:F68" si="16">SUM(D61-C61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G61" s="122" t="s">
+      <c r="G61" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="122"/>
-      <c r="I61" s="144"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="90"/>
       <c r="J61" s="74" t="s">
         <v>9</v>
       </c>
@@ -5150,11 +5153,11 @@
         <f t="shared" ref="O61:O68" si="17">SUM(M61-L61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P61" s="122" t="s">
+      <c r="P61" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q61" s="122"/>
-      <c r="R61" s="144"/>
+      <c r="Q61" s="89"/>
+      <c r="R61" s="90"/>
       <c r="S61" s="74" t="s">
         <v>8</v>
       </c>
@@ -5172,13 +5175,13 @@
         <f t="shared" ref="X61:X68" si="18">SUM(V61-U61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y61" s="122" t="s">
+      <c r="Y61" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z61" s="122"/>
-      <c r="AA61" s="144"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z61" s="89"/>
+      <c r="AA61" s="90"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>7</v>
       </c>
@@ -5196,11 +5199,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G62" s="122" t="s">
+      <c r="G62" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="122"/>
-      <c r="I62" s="144"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="90"/>
       <c r="J62" s="74" t="s">
         <v>9</v>
       </c>
@@ -5218,11 +5221,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P62" s="122" t="s">
+      <c r="P62" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q62" s="122"/>
-      <c r="R62" s="144"/>
+      <c r="Q62" s="89"/>
+      <c r="R62" s="90"/>
       <c r="S62" s="74" t="s">
         <v>8</v>
       </c>
@@ -5240,13 +5243,13 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y62" s="122" t="s">
+      <c r="Y62" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z62" s="122"/>
-      <c r="AA62" s="144"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z62" s="89"/>
+      <c r="AA62" s="90"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>7</v>
       </c>
@@ -5264,11 +5267,11 @@
         <f t="shared" si="16"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="G63" s="122" t="s">
+      <c r="G63" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="122"/>
-      <c r="I63" s="144"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="90"/>
       <c r="J63" s="74" t="s">
         <v>9</v>
       </c>
@@ -5286,11 +5289,11 @@
         <f t="shared" si="17"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P63" s="122" t="s">
+      <c r="P63" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q63" s="122"/>
-      <c r="R63" s="144"/>
+      <c r="Q63" s="89"/>
+      <c r="R63" s="90"/>
       <c r="S63" s="74" t="s">
         <v>8</v>
       </c>
@@ -5308,13 +5311,13 @@
         <f t="shared" si="18"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="Y63" s="122" t="s">
+      <c r="Y63" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z63" s="122"/>
-      <c r="AA63" s="144"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z63" s="89"/>
+      <c r="AA63" s="90"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>7</v>
       </c>
@@ -5332,11 +5335,11 @@
         <f t="shared" si="16"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G64" s="122" t="s">
+      <c r="G64" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="122"/>
-      <c r="I64" s="144"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="90"/>
       <c r="J64" s="74" t="s">
         <v>9</v>
       </c>
@@ -5354,11 +5357,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P64" s="122" t="s">
+      <c r="P64" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q64" s="122"/>
-      <c r="R64" s="144"/>
+      <c r="Q64" s="89"/>
+      <c r="R64" s="90"/>
       <c r="S64" s="74" t="s">
         <v>8</v>
       </c>
@@ -5376,13 +5379,13 @@
         <f t="shared" si="18"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y64" s="122" t="s">
+      <c r="Y64" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z64" s="122"/>
-      <c r="AA64" s="144"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z64" s="89"/>
+      <c r="AA64" s="90"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>7</v>
       </c>
@@ -5400,11 +5403,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G65" s="122" t="s">
+      <c r="G65" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="122"/>
-      <c r="I65" s="144"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="90"/>
       <c r="J65" s="74" t="s">
         <v>9</v>
       </c>
@@ -5422,11 +5425,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P65" s="122" t="s">
+      <c r="P65" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="122"/>
-      <c r="R65" s="144"/>
+      <c r="Q65" s="89"/>
+      <c r="R65" s="90"/>
       <c r="S65" s="74" t="s">
         <v>8</v>
       </c>
@@ -5444,13 +5447,13 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y65" s="122" t="s">
+      <c r="Y65" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z65" s="122"/>
-      <c r="AA65" s="144"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z65" s="89"/>
+      <c r="AA65" s="90"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>7</v>
       </c>
@@ -5468,11 +5471,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G66" s="122" t="s">
+      <c r="G66" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="122"/>
-      <c r="I66" s="144"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="90"/>
       <c r="J66" s="74" t="s">
         <v>9</v>
       </c>
@@ -5490,11 +5493,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P66" s="122" t="s">
+      <c r="P66" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q66" s="122"/>
-      <c r="R66" s="144"/>
+      <c r="Q66" s="89"/>
+      <c r="R66" s="90"/>
       <c r="S66" s="74" t="s">
         <v>8</v>
       </c>
@@ -5512,13 +5515,13 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y66" s="122" t="s">
+      <c r="Y66" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z66" s="122"/>
-      <c r="AA66" s="144"/>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z66" s="89"/>
+      <c r="AA66" s="90"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>7</v>
       </c>
@@ -5536,11 +5539,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G67" s="122" t="s">
+      <c r="G67" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="122"/>
-      <c r="I67" s="144"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="90"/>
       <c r="J67" s="74" t="s">
         <v>9</v>
       </c>
@@ -5558,11 +5561,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P67" s="122" t="s">
+      <c r="P67" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q67" s="122"/>
-      <c r="R67" s="144"/>
+      <c r="Q67" s="89"/>
+      <c r="R67" s="90"/>
       <c r="S67" s="74" t="s">
         <v>8</v>
       </c>
@@ -5580,13 +5583,13 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y67" s="122" t="s">
+      <c r="Y67" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z67" s="122"/>
-      <c r="AA67" s="144"/>
-    </row>
-    <row r="68" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z67" s="89"/>
+      <c r="AA67" s="90"/>
+    </row>
+    <row r="68" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="75" t="s">
         <v>7</v>
       </c>
@@ -5604,11 +5607,11 @@
         <f t="shared" si="16"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G68" s="145" t="s">
+      <c r="G68" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="145"/>
-      <c r="I68" s="146"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="92"/>
       <c r="J68" s="75" t="s">
         <v>9</v>
       </c>
@@ -5626,11 +5629,11 @@
         <f t="shared" si="17"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="P68" s="145" t="s">
+      <c r="P68" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="145"/>
-      <c r="R68" s="146"/>
+      <c r="Q68" s="91"/>
+      <c r="R68" s="92"/>
       <c r="S68" s="75" t="s">
         <v>8</v>
       </c>
@@ -5648,13 +5651,13 @@
         <f t="shared" si="18"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="Y68" s="145" t="s">
+      <c r="Y68" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Z68" s="145"/>
-      <c r="AA68" s="146"/>
-    </row>
-    <row r="69" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z68" s="91"/>
+      <c r="AA68" s="92"/>
+    </row>
+    <row r="69" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F69" s="78">
         <f>SUM(F60:F68)</f>
         <v>0.97569444444444453</v>
@@ -5670,75 +5673,75 @@
         <v>0.97569444444444453</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="93" t="s">
+    <row r="71" spans="1:29" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="94"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="94"/>
-      <c r="M71" s="94"/>
-      <c r="N71" s="94"/>
-      <c r="O71" s="94"/>
-      <c r="P71" s="94"/>
-      <c r="Q71" s="94"/>
-      <c r="R71" s="94"/>
-      <c r="S71" s="94"/>
-      <c r="T71" s="94"/>
-      <c r="U71" s="94"/>
-      <c r="V71" s="94"/>
-      <c r="W71" s="94"/>
-      <c r="X71" s="94"/>
-      <c r="Y71" s="94"/>
-      <c r="Z71" s="94"/>
-      <c r="AA71" s="94"/>
-    </row>
-    <row r="72" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="96"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="96"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="96"/>
+      <c r="H71" s="96"/>
+      <c r="I71" s="96"/>
+      <c r="J71" s="96"/>
+      <c r="K71" s="96"/>
+      <c r="L71" s="96"/>
+      <c r="M71" s="96"/>
+      <c r="N71" s="96"/>
+      <c r="O71" s="96"/>
+      <c r="P71" s="96"/>
+      <c r="Q71" s="96"/>
+      <c r="R71" s="96"/>
+      <c r="S71" s="96"/>
+      <c r="T71" s="96"/>
+      <c r="U71" s="96"/>
+      <c r="V71" s="96"/>
+      <c r="W71" s="96"/>
+      <c r="X71" s="96"/>
+      <c r="Y71" s="96"/>
+      <c r="Z71" s="96"/>
+      <c r="AA71" s="96"/>
+    </row>
+    <row r="72" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="70"/>
       <c r="B72" s="71"/>
       <c r="C72" s="70"/>
       <c r="D72" s="70"/>
       <c r="E72" s="70"/>
       <c r="F72" s="70"/>
-      <c r="G72" s="149" t="s">
+      <c r="G72" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="150"/>
-      <c r="I72" s="151"/>
+      <c r="H72" s="98"/>
+      <c r="I72" s="99"/>
       <c r="J72" s="70"/>
       <c r="K72" s="70"/>
       <c r="L72" s="70"/>
       <c r="M72" s="70"/>
       <c r="N72" s="70"/>
       <c r="O72" s="70"/>
-      <c r="P72" s="149" t="str">
+      <c r="P72" s="97" t="str">
         <f>G72</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Q72" s="150"/>
-      <c r="R72" s="151"/>
+      <c r="Q72" s="98"/>
+      <c r="R72" s="99"/>
       <c r="S72" s="70"/>
       <c r="T72" s="70"/>
       <c r="U72" s="70"/>
       <c r="V72" s="70"/>
       <c r="W72" s="70"/>
       <c r="X72" s="70"/>
-      <c r="Y72" s="149" t="str">
+      <c r="Y72" s="97" t="str">
         <f>G72</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Z72" s="150"/>
-      <c r="AA72" s="151"/>
-    </row>
-    <row r="73" spans="1:29" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z72" s="98"/>
+      <c r="AA72" s="99"/>
+    </row>
+    <row r="73" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="72" t="s">
         <v>7</v>
       </c>
@@ -5757,11 +5760,11 @@
       <c r="F73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="147" t="s">
+      <c r="G73" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="148"/>
-      <c r="I73" s="148"/>
+      <c r="H73" s="101"/>
+      <c r="I73" s="101"/>
       <c r="J73" s="80" t="s">
         <v>9</v>
       </c>
@@ -5780,11 +5783,11 @@
       <c r="O73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P73" s="147" t="s">
+      <c r="P73" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="Q73" s="148"/>
-      <c r="R73" s="148"/>
+      <c r="Q73" s="101"/>
+      <c r="R73" s="101"/>
       <c r="S73" s="80" t="s">
         <v>8</v>
       </c>
@@ -5803,11 +5806,11 @@
       <c r="X73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="Y73" s="147" t="s">
+      <c r="Y73" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="Z73" s="148"/>
-      <c r="AA73" s="152"/>
+      <c r="Z73" s="101"/>
+      <c r="AA73" s="102"/>
       <c r="AB73" s="81" t="s">
         <v>19</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
         <v>7</v>
       </c>
@@ -5834,11 +5837,11 @@
         <f>SUM(D74-C74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G74" s="122" t="s">
+      <c r="G74" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="122"/>
-      <c r="I74" s="144"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="90"/>
       <c r="J74" s="74" t="s">
         <v>9</v>
       </c>
@@ -5856,11 +5859,11 @@
         <f>SUM(M74-L74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P74" s="122" t="s">
+      <c r="P74" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q74" s="122"/>
-      <c r="R74" s="144"/>
+      <c r="Q74" s="89"/>
+      <c r="R74" s="90"/>
       <c r="S74" s="74" t="s">
         <v>8</v>
       </c>
@@ -5878,13 +5881,13 @@
         <f>SUM(V74-U74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y74" s="122" t="s">
+      <c r="Y74" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z74" s="122"/>
-      <c r="AA74" s="144"/>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z74" s="89"/>
+      <c r="AA74" s="90"/>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>7</v>
       </c>
@@ -5902,11 +5905,11 @@
         <f t="shared" ref="F75:F81" si="19">SUM(D75-C75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G75" s="122" t="s">
+      <c r="G75" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="122"/>
-      <c r="I75" s="144"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="90"/>
       <c r="J75" s="74" t="s">
         <v>9</v>
       </c>
@@ -5924,11 +5927,11 @@
         <f t="shared" ref="O75:O81" si="20">SUM(M75-L75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P75" s="122" t="s">
+      <c r="P75" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q75" s="122"/>
-      <c r="R75" s="144"/>
+      <c r="Q75" s="89"/>
+      <c r="R75" s="90"/>
       <c r="S75" s="74" t="s">
         <v>8</v>
       </c>
@@ -5946,13 +5949,13 @@
         <f t="shared" ref="X75:X81" si="21">SUM(V75-U75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y75" s="122" t="s">
+      <c r="Y75" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z75" s="122"/>
-      <c r="AA75" s="144"/>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z75" s="89"/>
+      <c r="AA75" s="90"/>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>7</v>
       </c>
@@ -5970,11 +5973,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G76" s="122" t="s">
+      <c r="G76" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="122"/>
-      <c r="I76" s="144"/>
+      <c r="H76" s="89"/>
+      <c r="I76" s="90"/>
       <c r="J76" s="74" t="s">
         <v>9</v>
       </c>
@@ -5992,11 +5995,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P76" s="122" t="s">
+      <c r="P76" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q76" s="122"/>
-      <c r="R76" s="144"/>
+      <c r="Q76" s="89"/>
+      <c r="R76" s="90"/>
       <c r="S76" s="74" t="s">
         <v>8</v>
       </c>
@@ -6014,13 +6017,13 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y76" s="122" t="s">
+      <c r="Y76" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z76" s="122"/>
-      <c r="AA76" s="144"/>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z76" s="89"/>
+      <c r="AA76" s="90"/>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
         <v>7</v>
       </c>
@@ -6038,11 +6041,11 @@
         <f t="shared" si="19"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G77" s="122" t="s">
+      <c r="G77" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H77" s="122"/>
-      <c r="I77" s="144"/>
+      <c r="H77" s="89"/>
+      <c r="I77" s="90"/>
       <c r="J77" s="74" t="s">
         <v>9</v>
       </c>
@@ -6060,11 +6063,11 @@
         <f t="shared" si="20"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="P77" s="122" t="s">
+      <c r="P77" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q77" s="122"/>
-      <c r="R77" s="144"/>
+      <c r="Q77" s="89"/>
+      <c r="R77" s="90"/>
       <c r="S77" s="74" t="s">
         <v>8</v>
       </c>
@@ -6082,13 +6085,13 @@
         <f t="shared" si="21"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Y77" s="122" t="s">
+      <c r="Y77" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z77" s="122"/>
-      <c r="AA77" s="144"/>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z77" s="89"/>
+      <c r="AA77" s="90"/>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
         <v>7</v>
       </c>
@@ -6106,11 +6109,11 @@
         <f t="shared" si="19"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G78" s="122" t="s">
+      <c r="G78" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H78" s="122"/>
-      <c r="I78" s="144"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="90"/>
       <c r="J78" s="74" t="s">
         <v>9</v>
       </c>
@@ -6128,11 +6131,11 @@
         <f t="shared" si="20"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P78" s="122" t="s">
+      <c r="P78" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q78" s="122"/>
-      <c r="R78" s="144"/>
+      <c r="Q78" s="89"/>
+      <c r="R78" s="90"/>
       <c r="S78" s="74" t="s">
         <v>8</v>
       </c>
@@ -6150,13 +6153,13 @@
         <f t="shared" si="21"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y78" s="122" t="s">
+      <c r="Y78" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z78" s="122"/>
-      <c r="AA78" s="144"/>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z78" s="89"/>
+      <c r="AA78" s="90"/>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
         <v>7</v>
       </c>
@@ -6174,11 +6177,11 @@
         <f t="shared" si="19"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G79" s="122" t="s">
+      <c r="G79" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H79" s="122"/>
-      <c r="I79" s="144"/>
+      <c r="H79" s="89"/>
+      <c r="I79" s="90"/>
       <c r="J79" s="74" t="s">
         <v>9</v>
       </c>
@@ -6196,11 +6199,11 @@
         <f t="shared" si="20"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P79" s="122" t="s">
+      <c r="P79" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q79" s="122"/>
-      <c r="R79" s="144"/>
+      <c r="Q79" s="89"/>
+      <c r="R79" s="90"/>
       <c r="S79" s="74" t="s">
         <v>8</v>
       </c>
@@ -6218,13 +6221,13 @@
         <f t="shared" si="21"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y79" s="122" t="s">
+      <c r="Y79" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z79" s="122"/>
-      <c r="AA79" s="144"/>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z79" s="89"/>
+      <c r="AA79" s="90"/>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
         <v>7</v>
       </c>
@@ -6242,11 +6245,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G80" s="122" t="s">
+      <c r="G80" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="122"/>
-      <c r="I80" s="144"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="90"/>
       <c r="J80" s="74" t="s">
         <v>9</v>
       </c>
@@ -6264,11 +6267,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P80" s="122" t="s">
+      <c r="P80" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q80" s="122"/>
-      <c r="R80" s="144"/>
+      <c r="Q80" s="89"/>
+      <c r="R80" s="90"/>
       <c r="S80" s="74" t="s">
         <v>8</v>
       </c>
@@ -6286,13 +6289,13 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y80" s="122" t="s">
+      <c r="Y80" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z80" s="122"/>
-      <c r="AA80" s="144"/>
-    </row>
-    <row r="81" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z80" s="89"/>
+      <c r="AA80" s="90"/>
+    </row>
+    <row r="81" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="75" t="s">
         <v>7</v>
       </c>
@@ -6310,11 +6313,11 @@
         <f t="shared" si="19"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="G81" s="145" t="s">
+      <c r="G81" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="H81" s="145"/>
-      <c r="I81" s="146"/>
+      <c r="H81" s="91"/>
+      <c r="I81" s="92"/>
       <c r="J81" s="86" t="s">
         <v>9</v>
       </c>
@@ -6332,11 +6335,11 @@
         <f t="shared" si="20"/>
         <v>0.125</v>
       </c>
-      <c r="P81" s="122" t="s">
+      <c r="P81" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q81" s="122"/>
-      <c r="R81" s="144"/>
+      <c r="Q81" s="89"/>
+      <c r="R81" s="90"/>
       <c r="S81" s="86" t="s">
         <v>8</v>
       </c>
@@ -6354,13 +6357,13 @@
         <f t="shared" si="21"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Y81" s="122" t="s">
+      <c r="Y81" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z81" s="122"/>
-      <c r="AA81" s="144"/>
-    </row>
-    <row r="82" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z81" s="89"/>
+      <c r="AA81" s="90"/>
+    </row>
+    <row r="82" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F82" s="78">
         <f>SUM(F74:F81)</f>
         <v>0.84027777777777779</v>
@@ -6384,11 +6387,11 @@
         <f>SUM(M82-L82-N82)</f>
         <v>0.14583333333333334</v>
       </c>
-      <c r="P82" s="153" t="s">
+      <c r="P82" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="Q82" s="153"/>
-      <c r="R82" s="154"/>
+      <c r="Q82" s="93"/>
+      <c r="R82" s="94"/>
       <c r="S82" s="82" t="s">
         <v>8</v>
       </c>
@@ -6406,13 +6409,13 @@
         <f t="shared" ref="X82" si="22">SUM(V82-U82)</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="Y82" s="153" t="s">
+      <c r="Y82" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="Z82" s="153"/>
-      <c r="AA82" s="154"/>
-    </row>
-    <row r="83" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z82" s="93"/>
+      <c r="AA82" s="94"/>
+    </row>
+    <row r="83" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K83" s="3"/>
       <c r="O83" s="78">
         <f>SUM(O74:O82)</f>
@@ -6424,122 +6427,669 @@
         <v>0.67361111111111116</v>
       </c>
     </row>
+    <row r="84" spans="1:29" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="96"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="96"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="96"/>
+      <c r="G84" s="96"/>
+      <c r="H84" s="96"/>
+      <c r="I84" s="96"/>
+      <c r="J84" s="96"/>
+      <c r="K84" s="96"/>
+      <c r="L84" s="96"/>
+      <c r="M84" s="96"/>
+      <c r="N84" s="96"/>
+      <c r="O84" s="96"/>
+      <c r="P84" s="96"/>
+      <c r="Q84" s="96"/>
+      <c r="R84" s="96"/>
+      <c r="S84" s="96"/>
+      <c r="T84" s="96"/>
+      <c r="U84" s="96"/>
+      <c r="V84" s="96"/>
+      <c r="W84" s="96"/>
+      <c r="X84" s="96"/>
+      <c r="Y84" s="96"/>
+      <c r="Z84" s="96"/>
+      <c r="AA84" s="96"/>
+    </row>
+    <row r="85" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="70"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="H85" s="98"/>
+      <c r="I85" s="99"/>
+      <c r="J85" s="70"/>
+      <c r="K85" s="70"/>
+      <c r="L85" s="70"/>
+      <c r="M85" s="70"/>
+      <c r="N85" s="70"/>
+      <c r="O85" s="70"/>
+      <c r="P85" s="97" t="str">
+        <f>G85</f>
+        <v>Sprint: März-Aprill</v>
+      </c>
+      <c r="Q85" s="98"/>
+      <c r="R85" s="99"/>
+      <c r="S85" s="70"/>
+      <c r="T85" s="70"/>
+      <c r="U85" s="70"/>
+      <c r="V85" s="70"/>
+      <c r="W85" s="70"/>
+      <c r="X85" s="70"/>
+      <c r="Y85" s="97" t="str">
+        <f>G85</f>
+        <v>Sprint: März-Aprill</v>
+      </c>
+      <c r="Z85" s="98"/>
+      <c r="AA85" s="99"/>
+    </row>
+    <row r="86" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" s="101"/>
+      <c r="I86" s="101"/>
+      <c r="J86" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="L86" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="N86" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="O86" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="P86" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q86" s="101"/>
+      <c r="R86" s="101"/>
+      <c r="S86" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="T86" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U86" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="V86" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="W86" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="X86" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z86" s="101"/>
+      <c r="AA86" s="102"/>
+      <c r="AB86" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC86" s="26">
+        <f>SUM(X96+O96+F95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="35"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="18">
+        <f>SUM(D87-C87)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="89"/>
+      <c r="H87" s="89"/>
+      <c r="I87" s="90"/>
+      <c r="J87" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="35"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="18">
+        <f>SUM(M87-L87)</f>
+        <v>0</v>
+      </c>
+      <c r="P87" s="89"/>
+      <c r="Q87" s="89"/>
+      <c r="R87" s="90"/>
+      <c r="S87" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T87" s="35"/>
+      <c r="U87" s="18"/>
+      <c r="V87" s="18"/>
+      <c r="W87" s="19"/>
+      <c r="X87" s="18">
+        <f>SUM(V87-U87)</f>
+        <v>0</v>
+      </c>
+      <c r="Y87" s="89"/>
+      <c r="Z87" s="89"/>
+      <c r="AA87" s="90"/>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A88" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="35"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="18">
+        <f t="shared" ref="F88:F94" si="23">SUM(D88-C88)</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="89"/>
+      <c r="H88" s="89"/>
+      <c r="I88" s="90"/>
+      <c r="J88" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K88" s="35"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="18">
+        <f t="shared" ref="O88:O94" si="24">SUM(M88-L88)</f>
+        <v>0</v>
+      </c>
+      <c r="P88" s="89"/>
+      <c r="Q88" s="89"/>
+      <c r="R88" s="90"/>
+      <c r="S88" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T88" s="35"/>
+      <c r="U88" s="18"/>
+      <c r="V88" s="18"/>
+      <c r="W88" s="19"/>
+      <c r="X88" s="18">
+        <f t="shared" ref="X88:X95" si="25">SUM(V88-U88)</f>
+        <v>0</v>
+      </c>
+      <c r="Y88" s="89"/>
+      <c r="Z88" s="89"/>
+      <c r="AA88" s="90"/>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A89" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="35"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="89"/>
+      <c r="H89" s="89"/>
+      <c r="I89" s="90"/>
+      <c r="J89" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="35"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="89"/>
+      <c r="Q89" s="89"/>
+      <c r="R89" s="90"/>
+      <c r="S89" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T89" s="35"/>
+      <c r="U89" s="18"/>
+      <c r="V89" s="18"/>
+      <c r="W89" s="19"/>
+      <c r="X89" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y89" s="89"/>
+      <c r="Z89" s="89"/>
+      <c r="AA89" s="90"/>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A90" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="35"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="89"/>
+      <c r="H90" s="89"/>
+      <c r="I90" s="90"/>
+      <c r="J90" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="35"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="89"/>
+      <c r="Q90" s="89"/>
+      <c r="R90" s="90"/>
+      <c r="S90" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T90" s="35"/>
+      <c r="U90" s="18"/>
+      <c r="V90" s="18"/>
+      <c r="W90" s="19"/>
+      <c r="X90" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y90" s="89"/>
+      <c r="Z90" s="89"/>
+      <c r="AA90" s="90"/>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A91" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="35"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="89"/>
+      <c r="H91" s="89"/>
+      <c r="I91" s="90"/>
+      <c r="J91" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" s="35"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="89"/>
+      <c r="Q91" s="89"/>
+      <c r="R91" s="90"/>
+      <c r="S91" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="35"/>
+      <c r="U91" s="18"/>
+      <c r="V91" s="18"/>
+      <c r="W91" s="19"/>
+      <c r="X91" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y91" s="89"/>
+      <c r="Z91" s="89"/>
+      <c r="AA91" s="90"/>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A92" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="35"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="89"/>
+      <c r="H92" s="89"/>
+      <c r="I92" s="90"/>
+      <c r="J92" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="35"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="89"/>
+      <c r="Q92" s="89"/>
+      <c r="R92" s="90"/>
+      <c r="S92" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T92" s="35"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="19"/>
+      <c r="X92" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y92" s="89"/>
+      <c r="Z92" s="89"/>
+      <c r="AA92" s="90"/>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A93" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="35"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="89"/>
+      <c r="H93" s="89"/>
+      <c r="I93" s="90"/>
+      <c r="J93" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="35"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P93" s="89"/>
+      <c r="Q93" s="89"/>
+      <c r="R93" s="90"/>
+      <c r="S93" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T93" s="35"/>
+      <c r="U93" s="18"/>
+      <c r="V93" s="18"/>
+      <c r="W93" s="19"/>
+      <c r="X93" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y93" s="89"/>
+      <c r="Z93" s="89"/>
+      <c r="AA93" s="90"/>
+    </row>
+    <row r="94" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="76"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="91"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="92"/>
+      <c r="J94" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="K94" s="35"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="87"/>
+      <c r="O94" s="18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="89"/>
+      <c r="Q94" s="89"/>
+      <c r="R94" s="90"/>
+      <c r="S94" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="35"/>
+      <c r="U94" s="18"/>
+      <c r="V94" s="18"/>
+      <c r="W94" s="87"/>
+      <c r="X94" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y94" s="89"/>
+      <c r="Z94" s="89"/>
+      <c r="AA94" s="90"/>
+    </row>
+    <row r="95" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="78">
+        <f>SUM(F87:F94)</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="83"/>
+      <c r="L95" s="84"/>
+      <c r="M95" s="84"/>
+      <c r="N95" s="88"/>
+      <c r="O95" s="52">
+        <f>SUM(M95-L95-N95)</f>
+        <v>0</v>
+      </c>
+      <c r="P95" s="93"/>
+      <c r="Q95" s="93"/>
+      <c r="R95" s="94"/>
+      <c r="S95" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="T95" s="83"/>
+      <c r="U95" s="84"/>
+      <c r="V95" s="84"/>
+      <c r="W95" s="85"/>
+      <c r="X95" s="52">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y95" s="93"/>
+      <c r="Z95" s="93"/>
+      <c r="AA95" s="94"/>
+    </row>
+    <row r="96" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K96" s="3"/>
+      <c r="O96" s="78">
+        <f>SUM(O87:O95)</f>
+        <v>0</v>
+      </c>
+      <c r="T96" s="3"/>
+      <c r="X96" s="78">
+        <f>SUM(X87:X95)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="222">
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="A71:AA71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="A55:AA55"/>
-    <mergeCell ref="A56:AA56"/>
-    <mergeCell ref="A57:AA57"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="P22:R22"/>
+  <mergeCells count="255">
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="P94:R94"/>
+    <mergeCell ref="Y94:AA94"/>
+    <mergeCell ref="P95:R95"/>
+    <mergeCell ref="Y95:AA95"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="Y91:AA91"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="P92:R92"/>
+    <mergeCell ref="Y92:AA92"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="P93:R93"/>
+    <mergeCell ref="Y93:AA93"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="P88:R88"/>
+    <mergeCell ref="Y88:AA88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="Y89:AA89"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="Y90:AA90"/>
+    <mergeCell ref="A84:AA84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="Y85:AA85"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="Y86:AA86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="Y87:AA87"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="BB45:BD45"/>
+    <mergeCell ref="AJ46:AK46"/>
+    <mergeCell ref="BB46:BD46"/>
+    <mergeCell ref="AJ47:AK47"/>
+    <mergeCell ref="BB47:BD47"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AS44:AU44"/>
+    <mergeCell ref="BB44:BD44"/>
+    <mergeCell ref="A44:AA44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A31:AA31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="P20:R20"/>
     <mergeCell ref="G15:I15"/>
@@ -6564,90 +7114,120 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="A31:AA31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="BB45:BD45"/>
-    <mergeCell ref="AJ46:AK46"/>
-    <mergeCell ref="BB46:BD46"/>
-    <mergeCell ref="AJ47:AK47"/>
-    <mergeCell ref="BB47:BD47"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AS44:AU44"/>
-    <mergeCell ref="BB44:BD44"/>
-    <mergeCell ref="A44:AA44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="A55:AA55"/>
+    <mergeCell ref="A56:AA56"/>
+    <mergeCell ref="A57:AA57"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="A71:AA71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="Y79:AA79"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6668,7 +7248,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A9544-4B8E-4A1A-B3DE-A6D574E07B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175ABEEF-9490-4248-8D5B-66F36A09FBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="39">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -174,6 +174,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -194,11 +195,13 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1045,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1323,18 +1326,18 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1365,101 +1368,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1481,46 +1400,157 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1896,7 +1926,7 @@
   <dimension ref="A1:BD96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1953,26 +1983,26 @@
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="145" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
-      <c r="P2" s="143" t="s">
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
+      <c r="P2" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="Y2" s="145" t="s">
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="Y2" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="140"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="112"/>
     </row>
     <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1993,11 +2023,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="114"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2016,11 +2046,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="112" t="s">
+      <c r="P3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="114"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -2039,11 +2069,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="112" t="s">
+      <c r="Y3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="114"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -2070,11 +2100,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="120" t="s">
+      <c r="G4" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -2092,11 +2122,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="121"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="128"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -2114,11 +2144,11 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="120" t="s">
+      <c r="Y4" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="121"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="128"/>
     </row>
     <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -2160,10 +2190,10 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="89" t="s">
+      <c r="P5" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="89"/>
+      <c r="Q5" s="91"/>
       <c r="R5" s="134"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
@@ -2228,8 +2258,8 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
       <c r="R6" s="134"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
@@ -2248,10 +2278,10 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="89" t="s">
+      <c r="Y6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="89"/>
+      <c r="Z6" s="91"/>
       <c r="AA6" s="134"/>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2294,8 +2324,8 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
       <c r="R7" s="134"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
@@ -2314,8 +2344,8 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
       <c r="AA7" s="134"/>
     </row>
     <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2336,11 +2366,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="146" t="s">
+      <c r="G8" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -2358,10 +2388,10 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="89" t="s">
+      <c r="P8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="89"/>
+      <c r="Q8" s="91"/>
       <c r="R8" s="134"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
@@ -2380,8 +2410,8 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
       <c r="AA8" s="134"/>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2406,11 +2436,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="141" t="s">
+      <c r="P9" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="142"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="136"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -2428,11 +2458,11 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="141" t="s">
+      <c r="Y9" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="142"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="136"/>
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G10" s="8"/>
@@ -2503,38 +2533,38 @@
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="138" t="s">
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="138" t="s">
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="140"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="112"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="138" t="s">
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="140"/>
+      <c r="Z14" s="111"/>
+      <c r="AA14" s="112"/>
     </row>
     <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -2555,11 +2585,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="112"/>
-      <c r="I15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2578,11 +2608,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="112" t="s">
+      <c r="P15" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="113"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="114"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2601,11 +2631,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="112" t="s">
+      <c r="Y15" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="112"/>
-      <c r="AA15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="114"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2632,11 +2662,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="120" t="s">
+      <c r="G16" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2654,11 +2684,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="107" t="s">
+      <c r="P16" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="109"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="117"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2676,11 +2706,11 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="107" t="s">
+      <c r="Y16" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="109"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="117"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
@@ -2722,11 +2752,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="126" t="s">
+      <c r="P17" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="128"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="123"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2744,9 +2774,9 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="150"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="126"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
@@ -2766,11 +2796,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="120" t="s">
+      <c r="G18" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="128"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2788,11 +2818,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="107" t="s">
+      <c r="P18" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="109"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="117"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2810,11 +2840,11 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="107" t="s">
+      <c r="Y18" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="108"/>
-      <c r="AA18" s="109"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="117"/>
     </row>
     <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -2834,11 +2864,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="120" t="s">
+      <c r="G19" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="128"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2856,11 +2886,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="107" t="s">
+      <c r="P19" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="117"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2878,11 +2908,11 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="107" t="s">
+      <c r="Y19" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="108"/>
-      <c r="AA19" s="109"/>
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="117"/>
     </row>
     <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
@@ -2924,11 +2954,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="107" t="s">
+      <c r="P20" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="109"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="117"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2946,11 +2976,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="120" t="s">
+      <c r="Y20" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="121"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="128"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -2970,11 +3000,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="129" t="s">
+      <c r="G21" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="141"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2992,11 +3022,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="126" t="s">
+      <c r="P21" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="128"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="123"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -3014,11 +3044,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="122" t="s">
+      <c r="Y21" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="123"/>
+      <c r="Z21" s="142"/>
+      <c r="AA21" s="143"/>
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
@@ -3038,11 +3068,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="120" t="s">
+      <c r="G22" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="128"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -3060,11 +3090,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="129" t="s">
+      <c r="P22" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="131"/>
+      <c r="Q22" s="140"/>
+      <c r="R22" s="141"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -3082,11 +3112,11 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="120" t="s">
+      <c r="Y22" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="121"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="128"/>
     </row>
     <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
@@ -3106,11 +3136,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="118" t="s">
+      <c r="G23" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="148"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -3128,11 +3158,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="126" t="s">
+      <c r="P23" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="128"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="123"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -3150,11 +3180,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="122" t="s">
+      <c r="Y23" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="123"/>
+      <c r="Z23" s="142"/>
+      <c r="AA23" s="143"/>
     </row>
     <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F24" s="6">
@@ -3178,11 +3208,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="120" t="s">
+      <c r="P24" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="121"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="128"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -3200,11 +3230,11 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="122" t="s">
+      <c r="Y24" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="123"/>
+      <c r="Z24" s="142"/>
+      <c r="AA24" s="143"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J25" s="38" t="s">
@@ -3224,11 +3254,11 @@
         <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="116" t="s">
+      <c r="P25" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="117"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="145"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -3246,11 +3276,11 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="116" t="s">
+      <c r="Y25" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="116"/>
-      <c r="AA25" s="117"/>
+      <c r="Z25" s="144"/>
+      <c r="AA25" s="145"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B26" s="32"/>
@@ -3258,9 +3288,9 @@
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -3278,11 +3308,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="129" t="s">
+      <c r="P26" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="131"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="141"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -3300,11 +3330,11 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="116" t="s">
+      <c r="Y26" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="117"/>
+      <c r="Z26" s="144"/>
+      <c r="AA26" s="145"/>
     </row>
     <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J27" s="48" t="s">
@@ -3324,11 +3354,11 @@
         <f>SUM(M27-L27)</f>
         <v>0.15625</v>
       </c>
-      <c r="P27" s="124" t="s">
+      <c r="P27" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="125"/>
+      <c r="Q27" s="149"/>
+      <c r="R27" s="150"/>
       <c r="S27" s="38" t="s">
         <v>8</v>
       </c>
@@ -3346,18 +3376,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="122" t="s">
+      <c r="Y27" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="123"/>
+      <c r="Z27" s="142"/>
+      <c r="AA27" s="143"/>
     </row>
     <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -3379,25 +3409,25 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="118" t="s">
+      <c r="Y28" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="118"/>
-      <c r="AA28" s="119"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="148"/>
     </row>
     <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="115"/>
-      <c r="Z29" s="115"/>
-      <c r="AA29" s="115"/>
+      <c r="Y29" s="146"/>
+      <c r="Z29" s="146"/>
+      <c r="AA29" s="146"/>
     </row>
     <row r="31" spans="1:27" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A31" s="95" t="s">
@@ -3432,38 +3462,38 @@
     </row>
     <row r="32" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="138" t="s">
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="140"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="112"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="137"/>
-      <c r="P32" s="138" t="s">
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="139"/>
-      <c r="R32" s="140"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="112"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="136"/>
-      <c r="W32" s="136"/>
-      <c r="X32" s="137"/>
-      <c r="Y32" s="138" t="s">
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" s="139"/>
-      <c r="AA32" s="140"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="112"/>
     </row>
     <row r="33" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -3484,11 +3514,11 @@
       <c r="F33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="112" t="s">
+      <c r="G33" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="114"/>
       <c r="J33" s="42" t="s">
         <v>9</v>
       </c>
@@ -3507,11 +3537,11 @@
       <c r="O33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="112" t="s">
+      <c r="P33" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="113"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="114"/>
       <c r="S33" s="13" t="s">
         <v>8</v>
       </c>
@@ -3530,11 +3560,11 @@
       <c r="X33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="112" t="s">
+      <c r="Y33" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="112"/>
-      <c r="AA33" s="113"/>
+      <c r="Z33" s="113"/>
+      <c r="AA33" s="114"/>
       <c r="AB33" s="27" t="s">
         <v>19</v>
       </c>
@@ -3561,11 +3591,11 @@
         <f t="shared" ref="F34:F37" si="7">SUM(D34-C34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G34" s="107" t="s">
+      <c r="G34" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="108"/>
-      <c r="I34" s="109"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="117"/>
       <c r="J34" s="23" t="s">
         <v>9</v>
       </c>
@@ -3583,11 +3613,11 @@
         <f t="shared" ref="O34:O37" si="8">SUM(M34-L34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P34" s="107" t="s">
+      <c r="P34" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="108"/>
-      <c r="R34" s="109"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="117"/>
       <c r="S34" s="38" t="s">
         <v>8</v>
       </c>
@@ -3605,11 +3635,11 @@
         <f t="shared" ref="X34:X35" si="9">SUM(V34-U34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y34" s="107" t="s">
+      <c r="Y34" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Z34" s="108"/>
-      <c r="AA34" s="109"/>
+      <c r="Z34" s="116"/>
+      <c r="AA34" s="117"/>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
@@ -3629,11 +3659,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="108"/>
-      <c r="I35" s="109"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="117"/>
       <c r="J35" s="23" t="s">
         <v>9</v>
       </c>
@@ -3651,11 +3681,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P35" s="107" t="s">
+      <c r="P35" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="109"/>
+      <c r="Q35" s="116"/>
+      <c r="R35" s="117"/>
       <c r="S35" s="38" t="s">
         <v>8</v>
       </c>
@@ -3673,11 +3703,11 @@
         <f t="shared" si="9"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y35" s="107" t="s">
+      <c r="Y35" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="108"/>
-      <c r="AA35" s="109"/>
+      <c r="Z35" s="116"/>
+      <c r="AA35" s="117"/>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
@@ -3697,11 +3727,11 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G36" s="107" t="s">
+      <c r="G36" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="108"/>
-      <c r="I36" s="109"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="117"/>
       <c r="J36" s="23" t="s">
         <v>9</v>
       </c>
@@ -3719,11 +3749,11 @@
         <f t="shared" si="8"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P36" s="107" t="s">
+      <c r="P36" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="109"/>
+      <c r="Q36" s="116"/>
+      <c r="R36" s="117"/>
       <c r="S36" s="38" t="s">
         <v>8</v>
       </c>
@@ -3741,11 +3771,11 @@
         <f t="shared" ref="X36:X37" si="10">SUM(V36-U36)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y36" s="107" t="s">
+      <c r="Y36" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="Z36" s="108"/>
-      <c r="AA36" s="109"/>
+      <c r="Z36" s="116"/>
+      <c r="AA36" s="117"/>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
@@ -3765,11 +3795,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G37" s="107" t="s">
+      <c r="G37" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="108"/>
-      <c r="I37" s="109"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="117"/>
       <c r="J37" s="23" t="s">
         <v>9</v>
       </c>
@@ -3787,11 +3817,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P37" s="107" t="s">
+      <c r="P37" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="109"/>
+      <c r="Q37" s="116"/>
+      <c r="R37" s="117"/>
       <c r="S37" s="38" t="s">
         <v>8</v>
       </c>
@@ -3809,11 +3839,11 @@
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Y37" s="126" t="s">
+      <c r="Y37" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" s="127"/>
-      <c r="AA37" s="128"/>
+      <c r="Z37" s="122"/>
+      <c r="AA37" s="123"/>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
@@ -3833,11 +3863,11 @@
         <f>SUM(D38-C38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G38" s="107" t="s">
+      <c r="G38" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="108"/>
-      <c r="I38" s="109"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="117"/>
       <c r="J38" s="23" t="s">
         <v>9</v>
       </c>
@@ -3855,11 +3885,11 @@
         <f>SUM(M38-L38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P38" s="107" t="s">
+      <c r="P38" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="109"/>
+      <c r="Q38" s="116"/>
+      <c r="R38" s="117"/>
       <c r="S38" s="38" t="s">
         <v>8</v>
       </c>
@@ -3877,11 +3907,11 @@
         <f t="shared" ref="X38:X39" si="11">SUM(V38-U38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y38" s="107" t="s">
+      <c r="Y38" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Z38" s="108"/>
-      <c r="AA38" s="109"/>
+      <c r="Z38" s="116"/>
+      <c r="AA38" s="117"/>
     </row>
     <row r="39" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
@@ -3901,11 +3931,11 @@
         <f>SUM(D39-C39)</f>
         <v>0.125</v>
       </c>
-      <c r="G39" s="151" t="s">
+      <c r="G39" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="152"/>
-      <c r="I39" s="153"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="120"/>
       <c r="J39" s="25" t="s">
         <v>9</v>
       </c>
@@ -3923,11 +3953,11 @@
         <f>SUM(M39-L39)</f>
         <v>0.125</v>
       </c>
-      <c r="P39" s="151" t="s">
+      <c r="P39" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="152"/>
-      <c r="R39" s="153"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="120"/>
       <c r="S39" s="38" t="s">
         <v>8</v>
       </c>
@@ -3945,11 +3975,11 @@
         <f t="shared" si="11"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y39" s="107" t="s">
+      <c r="Y39" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Z39" s="108"/>
-      <c r="AA39" s="109"/>
+      <c r="Z39" s="116"/>
+      <c r="AA39" s="117"/>
     </row>
     <row r="40" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="62"/>
@@ -3993,11 +4023,11 @@
         <f>SUM(V40-U40)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y40" s="107" t="s">
+      <c r="Y40" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="Z40" s="108"/>
-      <c r="AA40" s="109"/>
+      <c r="Z40" s="116"/>
+      <c r="AA40" s="117"/>
     </row>
     <row r="41" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
@@ -4006,18 +4036,18 @@
       <c r="D41" s="58"/>
       <c r="E41" s="4"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
       <c r="J41" s="57"/>
       <c r="K41" s="66"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
       <c r="N41" s="4"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="105"/>
-      <c r="R41" s="105"/>
+      <c r="P41" s="106"/>
+      <c r="Q41" s="106"/>
+      <c r="R41" s="106"/>
       <c r="S41" s="56" t="s">
         <v>8</v>
       </c>
@@ -4035,11 +4065,11 @@
         <f>SUM(V41-U41)</f>
         <v>0.125</v>
       </c>
-      <c r="Y41" s="151" t="s">
+      <c r="Y41" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="Z41" s="152"/>
-      <c r="AA41" s="153"/>
+      <c r="Z41" s="119"/>
+      <c r="AA41" s="120"/>
     </row>
     <row r="42" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -4057,9 +4087,9 @@
       <c r="M42" s="58"/>
       <c r="N42" s="4"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="105"/>
-      <c r="R42" s="105"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="106"/>
       <c r="S42" s="62"/>
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
@@ -4089,18 +4119,18 @@
       <c r="M43" s="58"/>
       <c r="N43" s="4"/>
       <c r="O43" s="58"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="106"/>
+      <c r="P43" s="103"/>
+      <c r="Q43" s="103"/>
+      <c r="R43" s="103"/>
       <c r="S43" s="57"/>
       <c r="T43" s="46"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
       <c r="W43" s="4"/>
       <c r="X43" s="58"/>
-      <c r="Y43" s="106"/>
-      <c r="Z43" s="106"/>
-      <c r="AA43" s="106"/>
+      <c r="Y43" s="103"/>
+      <c r="Z43" s="103"/>
+      <c r="AA43" s="103"/>
     </row>
     <row r="44" spans="1:56" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A44" s="95" t="s">
@@ -4138,64 +4168,64 @@
       <c r="AG44" s="33"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="34"/>
-      <c r="AJ44" s="105"/>
-      <c r="AK44" s="105"/>
-      <c r="AL44" s="105"/>
+      <c r="AJ44" s="106"/>
+      <c r="AK44" s="106"/>
+      <c r="AL44" s="106"/>
       <c r="AM44" s="57"/>
       <c r="AN44" s="46"/>
       <c r="AO44" s="58"/>
       <c r="AP44" s="58"/>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="58"/>
-      <c r="AS44" s="106"/>
-      <c r="AT44" s="106"/>
-      <c r="AU44" s="106"/>
+      <c r="AS44" s="103"/>
+      <c r="AT44" s="103"/>
+      <c r="AU44" s="103"/>
       <c r="AV44" s="57"/>
       <c r="AW44" s="46"/>
       <c r="AX44" s="58"/>
       <c r="AY44" s="58"/>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="58"/>
-      <c r="BB44" s="106"/>
-      <c r="BC44" s="106"/>
-      <c r="BD44" s="106"/>
+      <c r="BB44" s="103"/>
+      <c r="BC44" s="103"/>
+      <c r="BD44" s="103"/>
     </row>
     <row r="45" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="138" t="s">
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="139"/>
-      <c r="I45" s="140"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="112"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="135"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="137"/>
-      <c r="P45" s="138" t="str">
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="108"/>
+      <c r="N45" s="108"/>
+      <c r="O45" s="109"/>
+      <c r="P45" s="110" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Q45" s="139"/>
-      <c r="R45" s="140"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="112"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="135"/>
-      <c r="V45" s="136"/>
-      <c r="W45" s="136"/>
-      <c r="X45" s="137"/>
-      <c r="Y45" s="138" t="str">
+      <c r="T45" s="107"/>
+      <c r="U45" s="107"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="109"/>
+      <c r="Y45" s="110" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Z45" s="139"/>
-      <c r="AA45" s="140"/>
+      <c r="Z45" s="111"/>
+      <c r="AA45" s="112"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="4"/>
@@ -4211,18 +4241,18 @@
       <c r="AP45" s="58"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="58"/>
-      <c r="AS45" s="106"/>
-      <c r="AT45" s="106"/>
-      <c r="AU45" s="106"/>
+      <c r="AS45" s="103"/>
+      <c r="AT45" s="103"/>
+      <c r="AU45" s="103"/>
       <c r="AV45" s="57"/>
       <c r="AW45" s="46"/>
       <c r="AX45" s="58"/>
       <c r="AY45" s="58"/>
       <c r="AZ45" s="4"/>
       <c r="BA45" s="58"/>
-      <c r="BB45" s="106"/>
-      <c r="BC45" s="106"/>
-      <c r="BD45" s="106"/>
+      <c r="BB45" s="103"/>
+      <c r="BC45" s="103"/>
+      <c r="BD45" s="103"/>
     </row>
     <row r="46" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
@@ -4243,11 +4273,11 @@
       <c r="F46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="112" t="s">
+      <c r="G46" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="113"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="114"/>
       <c r="J46" s="42" t="s">
         <v>9</v>
       </c>
@@ -4266,11 +4296,11 @@
       <c r="O46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P46" s="112" t="s">
+      <c r="P46" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="112"/>
-      <c r="R46" s="113"/>
+      <c r="Q46" s="113"/>
+      <c r="R46" s="114"/>
       <c r="S46" s="13" t="s">
         <v>8</v>
       </c>
@@ -4289,11 +4319,11 @@
       <c r="X46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y46" s="112" t="s">
+      <c r="Y46" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="Z46" s="112"/>
-      <c r="AA46" s="113"/>
+      <c r="Z46" s="113"/>
+      <c r="AA46" s="114"/>
       <c r="AB46" s="27" t="s">
         <v>19</v>
       </c>
@@ -4307,8 +4337,8 @@
       <c r="AG46" s="58"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="114"/>
-      <c r="AK46" s="114"/>
+      <c r="AJ46" s="104"/>
+      <c r="AK46" s="104"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
@@ -4325,9 +4355,9 @@
       <c r="AY46" s="58"/>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="58"/>
-      <c r="BB46" s="106"/>
-      <c r="BC46" s="106"/>
-      <c r="BD46" s="106"/>
+      <c r="BB46" s="103"/>
+      <c r="BC46" s="103"/>
+      <c r="BD46" s="103"/>
     </row>
     <row r="47" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
@@ -4347,11 +4377,11 @@
         <f t="shared" ref="F47:F50" si="12">SUM(D47-C47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="G47" s="107" t="s">
+      <c r="G47" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="108"/>
-      <c r="I47" s="109"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="117"/>
       <c r="J47" s="23" t="s">
         <v>9</v>
       </c>
@@ -4369,11 +4399,11 @@
         <f t="shared" ref="O47:O52" si="13">SUM(M47-L47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="P47" s="107" t="s">
+      <c r="P47" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="109"/>
+      <c r="Q47" s="116"/>
+      <c r="R47" s="117"/>
       <c r="S47" s="38" t="s">
         <v>8</v>
       </c>
@@ -4391,19 +4421,19 @@
         <f t="shared" ref="X47:X50" si="14">SUM(V47-U47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Y47" s="107" t="s">
+      <c r="Y47" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="108"/>
-      <c r="AA47" s="109"/>
+      <c r="Z47" s="116"/>
+      <c r="AA47" s="117"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="61"/>
       <c r="AF47" s="58"/>
       <c r="AG47" s="58"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="154"/>
-      <c r="AK47" s="154"/>
+      <c r="AJ47" s="105"/>
+      <c r="AK47" s="105"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
@@ -4420,9 +4450,9 @@
       <c r="AY47" s="4"/>
       <c r="AZ47" s="4"/>
       <c r="BA47" s="60"/>
-      <c r="BB47" s="154"/>
-      <c r="BC47" s="154"/>
-      <c r="BD47" s="154"/>
+      <c r="BB47" s="105"/>
+      <c r="BC47" s="105"/>
+      <c r="BD47" s="105"/>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
@@ -4442,11 +4472,11 @@
         <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G48" s="107" t="s">
+      <c r="G48" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="108"/>
-      <c r="I48" s="109"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="117"/>
       <c r="J48" s="23" t="s">
         <v>9</v>
       </c>
@@ -4464,11 +4494,11 @@
         <f t="shared" si="13"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P48" s="107" t="s">
+      <c r="P48" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" s="108"/>
-      <c r="R48" s="109"/>
+      <c r="Q48" s="116"/>
+      <c r="R48" s="117"/>
       <c r="S48" s="38" t="s">
         <v>8</v>
       </c>
@@ -4486,11 +4516,11 @@
         <f t="shared" si="14"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y48" s="107" t="s">
+      <c r="Y48" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="Z48" s="108"/>
-      <c r="AA48" s="109"/>
+      <c r="Z48" s="116"/>
+      <c r="AA48" s="117"/>
       <c r="AE48" s="3"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
@@ -4511,11 +4541,11 @@
         <f t="shared" si="12"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G49" s="107" t="s">
+      <c r="G49" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="108"/>
-      <c r="I49" s="109"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="117"/>
       <c r="J49" s="23" t="s">
         <v>9</v>
       </c>
@@ -4533,11 +4563,11 @@
         <f t="shared" si="13"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="P49" s="107" t="s">
+      <c r="P49" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="Q49" s="108"/>
-      <c r="R49" s="109"/>
+      <c r="Q49" s="116"/>
+      <c r="R49" s="117"/>
       <c r="S49" s="38" t="s">
         <v>8</v>
       </c>
@@ -4555,11 +4585,11 @@
         <f t="shared" si="14"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="Y49" s="107" t="s">
+      <c r="Y49" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="108"/>
-      <c r="AA49" s="109"/>
+      <c r="Z49" s="116"/>
+      <c r="AA49" s="117"/>
       <c r="AE49" s="3"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
@@ -4580,11 +4610,11 @@
         <f t="shared" si="12"/>
         <v>0.23125000000000007</v>
       </c>
-      <c r="G50" s="107" t="s">
+      <c r="G50" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="108"/>
-      <c r="I50" s="109"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="117"/>
       <c r="J50" s="23" t="s">
         <v>9</v>
       </c>
@@ -4602,11 +4632,11 @@
         <f t="shared" si="13"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P50" s="107" t="s">
+      <c r="P50" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" s="108"/>
-      <c r="R50" s="109"/>
+      <c r="Q50" s="116"/>
+      <c r="R50" s="117"/>
       <c r="S50" s="38" t="s">
         <v>8</v>
       </c>
@@ -4624,11 +4654,11 @@
         <f t="shared" si="14"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y50" s="107" t="s">
+      <c r="Y50" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="Z50" s="108"/>
-      <c r="AA50" s="109"/>
+      <c r="Z50" s="116"/>
+      <c r="AA50" s="117"/>
       <c r="AE50" s="3"/>
     </row>
     <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4651,11 +4681,11 @@
         <f>SUM(D51-C51)</f>
         <v>0.32291666666666669</v>
       </c>
-      <c r="G51" s="107" t="s">
+      <c r="G51" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="108"/>
-      <c r="I51" s="109"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="117"/>
       <c r="J51" s="23" t="s">
         <v>9</v>
       </c>
@@ -4673,11 +4703,11 @@
         <f>SUM(M51-L51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="P51" s="107" t="s">
+      <c r="P51" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="108"/>
-      <c r="R51" s="109"/>
+      <c r="Q51" s="116"/>
+      <c r="R51" s="117"/>
       <c r="S51" s="38" t="s">
         <v>8</v>
       </c>
@@ -4695,11 +4725,11 @@
         <f>SUM(V51-U51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="Y51" s="107" t="s">
+      <c r="Y51" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="Z51" s="108"/>
-      <c r="AA51" s="109"/>
+      <c r="Z51" s="116"/>
+      <c r="AA51" s="117"/>
       <c r="AE51" s="3"/>
     </row>
     <row r="52" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4720,11 +4750,11 @@
         <f>SUM(D52-C52)</f>
         <v>0.17083333333333339</v>
       </c>
-      <c r="G52" s="107" t="s">
+      <c r="G52" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="108"/>
-      <c r="I52" s="109"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="117"/>
       <c r="J52" s="25" t="s">
         <v>9</v>
       </c>
@@ -4742,11 +4772,11 @@
         <f t="shared" si="13"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="P52" s="107" t="s">
+      <c r="P52" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="Q52" s="108"/>
-      <c r="R52" s="108"/>
+      <c r="Q52" s="116"/>
+      <c r="R52" s="116"/>
       <c r="S52" s="25" t="s">
         <v>8</v>
       </c>
@@ -4764,11 +4794,11 @@
         <f t="shared" ref="X52" si="15">SUM(V52-U52)</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="Y52" s="110" t="s">
+      <c r="Y52" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="Z52" s="110"/>
-      <c r="AA52" s="111"/>
+      <c r="Z52" s="151"/>
+      <c r="AA52" s="152"/>
       <c r="AE52" s="3"/>
     </row>
     <row r="53" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4805,9 +4835,9 @@
         <f>SUM(X47:X52)</f>
         <v>0.84375000000000022</v>
       </c>
-      <c r="Y53" s="105"/>
-      <c r="Z53" s="105"/>
-      <c r="AA53" s="105"/>
+      <c r="Y53" s="106"/>
+      <c r="Z53" s="106"/>
+      <c r="AA53" s="106"/>
       <c r="AE53" s="3"/>
     </row>
     <row r="54" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -4817,87 +4847,87 @@
       <c r="D54" s="58"/>
       <c r="E54" s="4"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
       <c r="J54" s="57"/>
       <c r="K54" s="66"/>
       <c r="L54" s="58"/>
       <c r="M54" s="58"/>
       <c r="N54" s="4"/>
       <c r="O54" s="58"/>
-      <c r="P54" s="105"/>
-      <c r="Q54" s="105"/>
-      <c r="R54" s="105"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="106"/>
+      <c r="R54" s="106"/>
       <c r="S54" s="57"/>
       <c r="T54" s="32"/>
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
       <c r="W54" s="33"/>
       <c r="X54" s="58"/>
-      <c r="Y54" s="106"/>
-      <c r="Z54" s="106"/>
-      <c r="AA54" s="106"/>
+      <c r="Y54" s="103"/>
+      <c r="Z54" s="103"/>
+      <c r="AA54" s="103"/>
       <c r="AE54" s="3"/>
     </row>
     <row r="55" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="103"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="104"/>
-      <c r="M55" s="104"/>
-      <c r="N55" s="104"/>
-      <c r="O55" s="104"/>
-      <c r="P55" s="104"/>
-      <c r="Q55" s="104"/>
-      <c r="R55" s="104"/>
-      <c r="S55" s="104"/>
-      <c r="T55" s="104"/>
-      <c r="U55" s="104"/>
-      <c r="V55" s="104"/>
-      <c r="W55" s="104"/>
-      <c r="X55" s="104"/>
-      <c r="Y55" s="104"/>
-      <c r="Z55" s="104"/>
-      <c r="AA55" s="104"/>
+      <c r="A55" s="153"/>
+      <c r="B55" s="154"/>
+      <c r="C55" s="154"/>
+      <c r="D55" s="154"/>
+      <c r="E55" s="154"/>
+      <c r="F55" s="154"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="154"/>
+      <c r="K55" s="154"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="154"/>
+      <c r="N55" s="154"/>
+      <c r="O55" s="154"/>
+      <c r="P55" s="154"/>
+      <c r="Q55" s="154"/>
+      <c r="R55" s="154"/>
+      <c r="S55" s="154"/>
+      <c r="T55" s="154"/>
+      <c r="U55" s="154"/>
+      <c r="V55" s="154"/>
+      <c r="W55" s="154"/>
+      <c r="X55" s="154"/>
+      <c r="Y55" s="154"/>
+      <c r="Z55" s="154"/>
+      <c r="AA55" s="154"/>
       <c r="AE55" s="3"/>
     </row>
     <row r="56" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="103"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="104"/>
-      <c r="L56" s="104"/>
-      <c r="M56" s="104"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="104"/>
-      <c r="P56" s="104"/>
-      <c r="Q56" s="104"/>
-      <c r="R56" s="104"/>
-      <c r="S56" s="104"/>
-      <c r="T56" s="104"/>
-      <c r="U56" s="104"/>
-      <c r="V56" s="104"/>
-      <c r="W56" s="104"/>
-      <c r="X56" s="104"/>
-      <c r="Y56" s="104"/>
-      <c r="Z56" s="104"/>
-      <c r="AA56" s="104"/>
+      <c r="A56" s="153"/>
+      <c r="B56" s="154"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="154"/>
+      <c r="E56" s="154"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="154"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="154"/>
+      <c r="L56" s="154"/>
+      <c r="M56" s="154"/>
+      <c r="N56" s="154"/>
+      <c r="O56" s="154"/>
+      <c r="P56" s="154"/>
+      <c r="Q56" s="154"/>
+      <c r="R56" s="154"/>
+      <c r="S56" s="154"/>
+      <c r="T56" s="154"/>
+      <c r="U56" s="154"/>
+      <c r="V56" s="154"/>
+      <c r="W56" s="154"/>
+      <c r="X56" s="154"/>
+      <c r="Y56" s="154"/>
+      <c r="Z56" s="154"/>
+      <c r="AA56" s="154"/>
     </row>
     <row r="57" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A57" s="95" t="s">
@@ -5063,11 +5093,11 @@
         <f>SUM(D60-C60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G60" s="89" t="s">
+      <c r="G60" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="89"/>
-      <c r="I60" s="90"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="92"/>
       <c r="J60" s="74" t="s">
         <v>9</v>
       </c>
@@ -5085,11 +5115,11 @@
         <f>SUM(M60-L60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P60" s="89" t="s">
+      <c r="P60" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Q60" s="89"/>
-      <c r="R60" s="90"/>
+      <c r="Q60" s="91"/>
+      <c r="R60" s="92"/>
       <c r="S60" s="74" t="s">
         <v>8</v>
       </c>
@@ -5107,11 +5137,11 @@
         <f>SUM(V60-U60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y60" s="89" t="s">
+      <c r="Y60" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Z60" s="89"/>
-      <c r="AA60" s="90"/>
+      <c r="Z60" s="91"/>
+      <c r="AA60" s="92"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
@@ -5131,11 +5161,11 @@
         <f t="shared" ref="F61:F68" si="16">SUM(D61-C61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G61" s="89" t="s">
+      <c r="G61" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="89"/>
-      <c r="I61" s="90"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="92"/>
       <c r="J61" s="74" t="s">
         <v>9</v>
       </c>
@@ -5153,11 +5183,11 @@
         <f t="shared" ref="O61:O68" si="17">SUM(M61-L61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P61" s="89" t="s">
+      <c r="P61" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Q61" s="89"/>
-      <c r="R61" s="90"/>
+      <c r="Q61" s="91"/>
+      <c r="R61" s="92"/>
       <c r="S61" s="74" t="s">
         <v>8</v>
       </c>
@@ -5175,11 +5205,11 @@
         <f t="shared" ref="X61:X68" si="18">SUM(V61-U61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y61" s="89" t="s">
+      <c r="Y61" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Z61" s="89"/>
-      <c r="AA61" s="90"/>
+      <c r="Z61" s="91"/>
+      <c r="AA61" s="92"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
@@ -5199,11 +5229,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G62" s="89" t="s">
+      <c r="G62" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="89"/>
-      <c r="I62" s="90"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="92"/>
       <c r="J62" s="74" t="s">
         <v>9</v>
       </c>
@@ -5221,11 +5251,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P62" s="89" t="s">
+      <c r="P62" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Q62" s="89"/>
-      <c r="R62" s="90"/>
+      <c r="Q62" s="91"/>
+      <c r="R62" s="92"/>
       <c r="S62" s="74" t="s">
         <v>8</v>
       </c>
@@ -5243,11 +5273,11 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y62" s="89" t="s">
+      <c r="Y62" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Z62" s="89"/>
-      <c r="AA62" s="90"/>
+      <c r="Z62" s="91"/>
+      <c r="AA62" s="92"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
@@ -5267,11 +5297,11 @@
         <f t="shared" si="16"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="G63" s="89" t="s">
+      <c r="G63" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="89"/>
-      <c r="I63" s="90"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="92"/>
       <c r="J63" s="74" t="s">
         <v>9</v>
       </c>
@@ -5289,11 +5319,11 @@
         <f t="shared" si="17"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P63" s="89" t="s">
+      <c r="P63" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Q63" s="89"/>
-      <c r="R63" s="90"/>
+      <c r="Q63" s="91"/>
+      <c r="R63" s="92"/>
       <c r="S63" s="74" t="s">
         <v>8</v>
       </c>
@@ -5311,11 +5341,11 @@
         <f t="shared" si="18"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="Y63" s="89" t="s">
+      <c r="Y63" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Z63" s="89"/>
-      <c r="AA63" s="90"/>
+      <c r="Z63" s="91"/>
+      <c r="AA63" s="92"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
@@ -5335,11 +5365,11 @@
         <f t="shared" si="16"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G64" s="89" t="s">
+      <c r="G64" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="89"/>
-      <c r="I64" s="90"/>
+      <c r="H64" s="91"/>
+      <c r="I64" s="92"/>
       <c r="J64" s="74" t="s">
         <v>9</v>
       </c>
@@ -5357,11 +5387,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P64" s="89" t="s">
+      <c r="P64" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Q64" s="89"/>
-      <c r="R64" s="90"/>
+      <c r="Q64" s="91"/>
+      <c r="R64" s="92"/>
       <c r="S64" s="74" t="s">
         <v>8</v>
       </c>
@@ -5379,11 +5409,11 @@
         <f t="shared" si="18"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y64" s="89" t="s">
+      <c r="Y64" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Z64" s="89"/>
-      <c r="AA64" s="90"/>
+      <c r="Z64" s="91"/>
+      <c r="AA64" s="92"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
@@ -5403,11 +5433,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G65" s="89" t="s">
+      <c r="G65" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="89"/>
-      <c r="I65" s="90"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="92"/>
       <c r="J65" s="74" t="s">
         <v>9</v>
       </c>
@@ -5425,11 +5455,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P65" s="89" t="s">
+      <c r="P65" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="89"/>
-      <c r="R65" s="90"/>
+      <c r="Q65" s="91"/>
+      <c r="R65" s="92"/>
       <c r="S65" s="74" t="s">
         <v>8</v>
       </c>
@@ -5447,11 +5477,11 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y65" s="89" t="s">
+      <c r="Y65" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Z65" s="89"/>
-      <c r="AA65" s="90"/>
+      <c r="Z65" s="91"/>
+      <c r="AA65" s="92"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
@@ -5471,11 +5501,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G66" s="89" t="s">
+      <c r="G66" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="89"/>
-      <c r="I66" s="90"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="92"/>
       <c r="J66" s="74" t="s">
         <v>9</v>
       </c>
@@ -5493,11 +5523,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P66" s="89" t="s">
+      <c r="P66" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Q66" s="89"/>
-      <c r="R66" s="90"/>
+      <c r="Q66" s="91"/>
+      <c r="R66" s="92"/>
       <c r="S66" s="74" t="s">
         <v>8</v>
       </c>
@@ -5515,11 +5545,11 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y66" s="89" t="s">
+      <c r="Y66" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Z66" s="89"/>
-      <c r="AA66" s="90"/>
+      <c r="Z66" s="91"/>
+      <c r="AA66" s="92"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
@@ -5539,11 +5569,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G67" s="89" t="s">
+      <c r="G67" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="89"/>
-      <c r="I67" s="90"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="92"/>
       <c r="J67" s="74" t="s">
         <v>9</v>
       </c>
@@ -5561,11 +5591,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P67" s="89" t="s">
+      <c r="P67" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Q67" s="89"/>
-      <c r="R67" s="90"/>
+      <c r="Q67" s="91"/>
+      <c r="R67" s="92"/>
       <c r="S67" s="74" t="s">
         <v>8</v>
       </c>
@@ -5583,11 +5613,11 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y67" s="89" t="s">
+      <c r="Y67" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Z67" s="89"/>
-      <c r="AA67" s="90"/>
+      <c r="Z67" s="91"/>
+      <c r="AA67" s="92"/>
     </row>
     <row r="68" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="75" t="s">
@@ -5607,11 +5637,11 @@
         <f t="shared" si="16"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G68" s="91" t="s">
+      <c r="G68" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="91"/>
-      <c r="I68" s="92"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="90"/>
       <c r="J68" s="75" t="s">
         <v>9</v>
       </c>
@@ -5629,11 +5659,11 @@
         <f t="shared" si="17"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="P68" s="91" t="s">
+      <c r="P68" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="91"/>
-      <c r="R68" s="92"/>
+      <c r="Q68" s="89"/>
+      <c r="R68" s="90"/>
       <c r="S68" s="75" t="s">
         <v>8</v>
       </c>
@@ -5651,11 +5681,11 @@
         <f t="shared" si="18"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="Y68" s="91" t="s">
+      <c r="Y68" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z68" s="91"/>
-      <c r="AA68" s="92"/>
+      <c r="Z68" s="89"/>
+      <c r="AA68" s="90"/>
     </row>
     <row r="69" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F69" s="78">
@@ -5837,11 +5867,11 @@
         <f>SUM(D74-C74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G74" s="89" t="s">
+      <c r="G74" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="89"/>
-      <c r="I74" s="90"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="92"/>
       <c r="J74" s="74" t="s">
         <v>9</v>
       </c>
@@ -5859,11 +5889,11 @@
         <f>SUM(M74-L74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P74" s="89" t="s">
+      <c r="P74" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Q74" s="89"/>
-      <c r="R74" s="90"/>
+      <c r="Q74" s="91"/>
+      <c r="R74" s="92"/>
       <c r="S74" s="74" t="s">
         <v>8</v>
       </c>
@@ -5881,11 +5911,11 @@
         <f>SUM(V74-U74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y74" s="89" t="s">
+      <c r="Y74" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Z74" s="89"/>
-      <c r="AA74" s="90"/>
+      <c r="Z74" s="91"/>
+      <c r="AA74" s="92"/>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
@@ -5905,11 +5935,11 @@
         <f t="shared" ref="F75:F81" si="19">SUM(D75-C75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G75" s="89" t="s">
+      <c r="G75" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="89"/>
-      <c r="I75" s="90"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="92"/>
       <c r="J75" s="74" t="s">
         <v>9</v>
       </c>
@@ -5927,11 +5957,11 @@
         <f t="shared" ref="O75:O81" si="20">SUM(M75-L75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P75" s="89" t="s">
+      <c r="P75" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Q75" s="89"/>
-      <c r="R75" s="90"/>
+      <c r="Q75" s="91"/>
+      <c r="R75" s="92"/>
       <c r="S75" s="74" t="s">
         <v>8</v>
       </c>
@@ -5949,11 +5979,11 @@
         <f t="shared" ref="X75:X81" si="21">SUM(V75-U75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y75" s="89" t="s">
+      <c r="Y75" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Z75" s="89"/>
-      <c r="AA75" s="90"/>
+      <c r="Z75" s="91"/>
+      <c r="AA75" s="92"/>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
@@ -5973,11 +6003,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G76" s="89" t="s">
+      <c r="G76" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="89"/>
-      <c r="I76" s="90"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="92"/>
       <c r="J76" s="74" t="s">
         <v>9</v>
       </c>
@@ -5995,11 +6025,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P76" s="89" t="s">
+      <c r="P76" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Q76" s="89"/>
-      <c r="R76" s="90"/>
+      <c r="Q76" s="91"/>
+      <c r="R76" s="92"/>
       <c r="S76" s="74" t="s">
         <v>8</v>
       </c>
@@ -6017,11 +6047,11 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y76" s="89" t="s">
+      <c r="Y76" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Z76" s="89"/>
-      <c r="AA76" s="90"/>
+      <c r="Z76" s="91"/>
+      <c r="AA76" s="92"/>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
@@ -6041,11 +6071,11 @@
         <f t="shared" si="19"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G77" s="89" t="s">
+      <c r="G77" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H77" s="89"/>
-      <c r="I77" s="90"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="92"/>
       <c r="J77" s="74" t="s">
         <v>9</v>
       </c>
@@ -6063,11 +6093,11 @@
         <f t="shared" si="20"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="P77" s="89" t="s">
+      <c r="P77" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Q77" s="89"/>
-      <c r="R77" s="90"/>
+      <c r="Q77" s="91"/>
+      <c r="R77" s="92"/>
       <c r="S77" s="74" t="s">
         <v>8</v>
       </c>
@@ -6085,11 +6115,11 @@
         <f t="shared" si="21"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Y77" s="89" t="s">
+      <c r="Y77" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Z77" s="89"/>
-      <c r="AA77" s="90"/>
+      <c r="Z77" s="91"/>
+      <c r="AA77" s="92"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
@@ -6109,11 +6139,11 @@
         <f t="shared" si="19"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G78" s="89" t="s">
+      <c r="G78" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H78" s="89"/>
-      <c r="I78" s="90"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="92"/>
       <c r="J78" s="74" t="s">
         <v>9</v>
       </c>
@@ -6131,11 +6161,11 @@
         <f t="shared" si="20"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P78" s="89" t="s">
+      <c r="P78" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Q78" s="89"/>
-      <c r="R78" s="90"/>
+      <c r="Q78" s="91"/>
+      <c r="R78" s="92"/>
       <c r="S78" s="74" t="s">
         <v>8</v>
       </c>
@@ -6153,11 +6183,11 @@
         <f t="shared" si="21"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y78" s="89" t="s">
+      <c r="Y78" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Z78" s="89"/>
-      <c r="AA78" s="90"/>
+      <c r="Z78" s="91"/>
+      <c r="AA78" s="92"/>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
@@ -6177,11 +6207,11 @@
         <f t="shared" si="19"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G79" s="89" t="s">
+      <c r="G79" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="H79" s="89"/>
-      <c r="I79" s="90"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="92"/>
       <c r="J79" s="74" t="s">
         <v>9</v>
       </c>
@@ -6199,11 +6229,11 @@
         <f t="shared" si="20"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P79" s="89" t="s">
+      <c r="P79" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Q79" s="89"/>
-      <c r="R79" s="90"/>
+      <c r="Q79" s="91"/>
+      <c r="R79" s="92"/>
       <c r="S79" s="74" t="s">
         <v>8</v>
       </c>
@@ -6221,11 +6251,11 @@
         <f t="shared" si="21"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y79" s="89" t="s">
+      <c r="Y79" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Z79" s="89"/>
-      <c r="AA79" s="90"/>
+      <c r="Z79" s="91"/>
+      <c r="AA79" s="92"/>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
@@ -6245,11 +6275,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G80" s="89" t="s">
+      <c r="G80" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="89"/>
-      <c r="I80" s="90"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="92"/>
       <c r="J80" s="74" t="s">
         <v>9</v>
       </c>
@@ -6267,11 +6297,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P80" s="89" t="s">
+      <c r="P80" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Q80" s="89"/>
-      <c r="R80" s="90"/>
+      <c r="Q80" s="91"/>
+      <c r="R80" s="92"/>
       <c r="S80" s="74" t="s">
         <v>8</v>
       </c>
@@ -6289,11 +6319,11 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y80" s="89" t="s">
+      <c r="Y80" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Z80" s="89"/>
-      <c r="AA80" s="90"/>
+      <c r="Z80" s="91"/>
+      <c r="AA80" s="92"/>
     </row>
     <row r="81" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="75" t="s">
@@ -6313,11 +6343,11 @@
         <f t="shared" si="19"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="G81" s="91" t="s">
+      <c r="G81" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H81" s="91"/>
-      <c r="I81" s="92"/>
+      <c r="H81" s="89"/>
+      <c r="I81" s="90"/>
       <c r="J81" s="86" t="s">
         <v>9</v>
       </c>
@@ -6335,11 +6365,11 @@
         <f t="shared" si="20"/>
         <v>0.125</v>
       </c>
-      <c r="P81" s="89" t="s">
+      <c r="P81" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Q81" s="89"/>
-      <c r="R81" s="90"/>
+      <c r="Q81" s="91"/>
+      <c r="R81" s="92"/>
       <c r="S81" s="86" t="s">
         <v>8</v>
       </c>
@@ -6357,11 +6387,11 @@
         <f t="shared" si="21"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Y81" s="89" t="s">
+      <c r="Y81" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Z81" s="89"/>
-      <c r="AA81" s="90"/>
+      <c r="Z81" s="91"/>
+      <c r="AA81" s="92"/>
     </row>
     <row r="82" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F82" s="78">
@@ -6570,24 +6600,32 @@
       </c>
       <c r="AC86" s="26">
         <f>SUM(X96+O96+F95)</f>
-        <v>0</v>
+        <v>0.70138888888888917</v>
       </c>
     </row>
     <row r="87" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="35"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
+      <c r="B87" s="35">
+        <v>43179</v>
+      </c>
+      <c r="C87" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D87" s="18">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="E87" s="19"/>
       <c r="F87" s="18">
         <f>SUM(D87-C87)</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="89"/>
-      <c r="H87" s="89"/>
-      <c r="I87" s="90"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G87" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="156"/>
+      <c r="I87" s="157"/>
       <c r="J87" s="74" t="s">
         <v>9</v>
       </c>
@@ -6599,9 +6637,9 @@
         <f>SUM(M87-L87)</f>
         <v>0</v>
       </c>
-      <c r="P87" s="89"/>
-      <c r="Q87" s="89"/>
-      <c r="R87" s="90"/>
+      <c r="P87" s="91"/>
+      <c r="Q87" s="91"/>
+      <c r="R87" s="92"/>
       <c r="S87" s="74" t="s">
         <v>8</v>
       </c>
@@ -6613,25 +6651,33 @@
         <f>SUM(V87-U87)</f>
         <v>0</v>
       </c>
-      <c r="Y87" s="89"/>
-      <c r="Z87" s="89"/>
-      <c r="AA87" s="90"/>
+      <c r="Y87" s="91"/>
+      <c r="Z87" s="91"/>
+      <c r="AA87" s="92"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
+      <c r="B88" s="35">
+        <v>43179</v>
+      </c>
+      <c r="C88" s="18">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D88" s="18">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E88" s="19"/>
       <c r="F88" s="18">
         <f t="shared" ref="F88:F94" si="23">SUM(D88-C88)</f>
-        <v>0</v>
-      </c>
-      <c r="G88" s="89"/>
-      <c r="H88" s="89"/>
-      <c r="I88" s="90"/>
+        <v>6.5972222222222321E-2</v>
+      </c>
+      <c r="G88" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" s="156"/>
+      <c r="I88" s="157"/>
       <c r="J88" s="74" t="s">
         <v>9</v>
       </c>
@@ -6643,9 +6689,9 @@
         <f t="shared" ref="O88:O94" si="24">SUM(M88-L88)</f>
         <v>0</v>
       </c>
-      <c r="P88" s="89"/>
-      <c r="Q88" s="89"/>
-      <c r="R88" s="90"/>
+      <c r="P88" s="91"/>
+      <c r="Q88" s="91"/>
+      <c r="R88" s="92"/>
       <c r="S88" s="74" t="s">
         <v>8</v>
       </c>
@@ -6657,25 +6703,33 @@
         <f t="shared" ref="X88:X95" si="25">SUM(V88-U88)</f>
         <v>0</v>
       </c>
-      <c r="Y88" s="89"/>
-      <c r="Z88" s="89"/>
-      <c r="AA88" s="90"/>
+      <c r="Y88" s="91"/>
+      <c r="Z88" s="91"/>
+      <c r="AA88" s="92"/>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="35"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
+      <c r="B89" s="35">
+        <v>43181</v>
+      </c>
+      <c r="C89" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D89" s="18">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="E89" s="19"/>
       <c r="F89" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="89"/>
-      <c r="H89" s="89"/>
-      <c r="I89" s="90"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G89" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" s="156"/>
+      <c r="I89" s="157"/>
       <c r="J89" s="74" t="s">
         <v>9</v>
       </c>
@@ -6687,9 +6741,9 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P89" s="89"/>
-      <c r="Q89" s="89"/>
-      <c r="R89" s="90"/>
+      <c r="P89" s="91"/>
+      <c r="Q89" s="91"/>
+      <c r="R89" s="92"/>
       <c r="S89" s="74" t="s">
         <v>8</v>
       </c>
@@ -6701,25 +6755,33 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y89" s="89"/>
-      <c r="Z89" s="89"/>
-      <c r="AA89" s="90"/>
+      <c r="Y89" s="91"/>
+      <c r="Z89" s="91"/>
+      <c r="AA89" s="92"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="35"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
+      <c r="B90" s="35">
+        <v>43183</v>
+      </c>
+      <c r="C90" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D90" s="18">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="E90" s="19"/>
       <c r="F90" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="90"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="G90" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="156"/>
+      <c r="I90" s="157"/>
       <c r="J90" s="74" t="s">
         <v>9</v>
       </c>
@@ -6731,9 +6793,9 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P90" s="89"/>
-      <c r="Q90" s="89"/>
-      <c r="R90" s="90"/>
+      <c r="P90" s="91"/>
+      <c r="Q90" s="91"/>
+      <c r="R90" s="92"/>
       <c r="S90" s="74" t="s">
         <v>8</v>
       </c>
@@ -6745,25 +6807,33 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y90" s="89"/>
-      <c r="Z90" s="89"/>
-      <c r="AA90" s="90"/>
+      <c r="Y90" s="91"/>
+      <c r="Z90" s="91"/>
+      <c r="AA90" s="92"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
+      <c r="B91" s="35">
+        <v>43186</v>
+      </c>
+      <c r="C91" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D91" s="18">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="E91" s="19"/>
       <c r="F91" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="90"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G91" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" s="156"/>
+      <c r="I91" s="157"/>
       <c r="J91" s="74" t="s">
         <v>9</v>
       </c>
@@ -6775,9 +6845,9 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P91" s="89"/>
-      <c r="Q91" s="89"/>
-      <c r="R91" s="90"/>
+      <c r="P91" s="91"/>
+      <c r="Q91" s="91"/>
+      <c r="R91" s="92"/>
       <c r="S91" s="74" t="s">
         <v>8</v>
       </c>
@@ -6789,25 +6859,33 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y91" s="89"/>
-      <c r="Z91" s="89"/>
-      <c r="AA91" s="90"/>
+      <c r="Y91" s="91"/>
+      <c r="Z91" s="91"/>
+      <c r="AA91" s="92"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="35"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
+      <c r="B92" s="35">
+        <v>43186</v>
+      </c>
+      <c r="C92" s="18">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D92" s="18">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E92" s="19"/>
       <c r="F92" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="89"/>
-      <c r="H92" s="89"/>
-      <c r="I92" s="90"/>
+        <v>6.5972222222222321E-2</v>
+      </c>
+      <c r="G92" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" s="156"/>
+      <c r="I92" s="157"/>
       <c r="J92" s="74" t="s">
         <v>9</v>
       </c>
@@ -6819,9 +6897,9 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P92" s="89"/>
-      <c r="Q92" s="89"/>
-      <c r="R92" s="90"/>
+      <c r="P92" s="91"/>
+      <c r="Q92" s="91"/>
+      <c r="R92" s="92"/>
       <c r="S92" s="74" t="s">
         <v>8</v>
       </c>
@@ -6833,25 +6911,33 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y92" s="89"/>
-      <c r="Z92" s="89"/>
-      <c r="AA92" s="90"/>
+      <c r="Y92" s="91"/>
+      <c r="Z92" s="91"/>
+      <c r="AA92" s="92"/>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="35"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
+      <c r="B93" s="35">
+        <v>43188</v>
+      </c>
+      <c r="C93" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D93" s="18">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="E93" s="19"/>
       <c r="F93" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="89"/>
-      <c r="H93" s="89"/>
-      <c r="I93" s="90"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G93" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" s="159"/>
+      <c r="I93" s="160"/>
       <c r="J93" s="74" t="s">
         <v>9</v>
       </c>
@@ -6863,9 +6949,9 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P93" s="89"/>
-      <c r="Q93" s="89"/>
-      <c r="R93" s="90"/>
+      <c r="P93" s="91"/>
+      <c r="Q93" s="91"/>
+      <c r="R93" s="92"/>
       <c r="S93" s="74" t="s">
         <v>8</v>
       </c>
@@ -6877,25 +6963,33 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y93" s="89"/>
-      <c r="Z93" s="89"/>
-      <c r="AA93" s="90"/>
+      <c r="Y93" s="91"/>
+      <c r="Z93" s="91"/>
+      <c r="AA93" s="92"/>
     </row>
     <row r="94" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="76"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="77"/>
+      <c r="B94" s="76">
+        <v>43191</v>
+      </c>
+      <c r="C94" s="77">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D94" s="77">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E94" s="79"/>
       <c r="F94" s="18">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="91"/>
-      <c r="H94" s="91"/>
-      <c r="I94" s="92"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G94" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" s="162"/>
+      <c r="I94" s="163"/>
       <c r="J94" s="86" t="s">
         <v>9</v>
       </c>
@@ -6907,9 +7001,9 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P94" s="89"/>
-      <c r="Q94" s="89"/>
-      <c r="R94" s="90"/>
+      <c r="P94" s="91"/>
+      <c r="Q94" s="91"/>
+      <c r="R94" s="92"/>
       <c r="S94" s="86" t="s">
         <v>8</v>
       </c>
@@ -6921,14 +7015,14 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y94" s="89"/>
-      <c r="Z94" s="89"/>
-      <c r="AA94" s="90"/>
+      <c r="Y94" s="91"/>
+      <c r="Z94" s="91"/>
+      <c r="AA94" s="92"/>
     </row>
     <row r="95" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F95" s="78">
         <f>SUM(F87:F94)</f>
-        <v>0</v>
+        <v>0.70138888888888917</v>
       </c>
       <c r="J95" s="82" t="s">
         <v>9</v>
@@ -6973,39 +7067,204 @@
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="P94:R94"/>
-    <mergeCell ref="Y94:AA94"/>
-    <mergeCell ref="P95:R95"/>
-    <mergeCell ref="Y95:AA95"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="P91:R91"/>
-    <mergeCell ref="Y91:AA91"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="P92:R92"/>
-    <mergeCell ref="Y92:AA92"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="P93:R93"/>
-    <mergeCell ref="Y93:AA93"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="P88:R88"/>
-    <mergeCell ref="Y88:AA88"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="Y89:AA89"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="P90:R90"/>
-    <mergeCell ref="Y90:AA90"/>
-    <mergeCell ref="A84:AA84"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="Y85:AA85"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="P86:R86"/>
-    <mergeCell ref="Y86:AA86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="Y87:AA87"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="A71:AA71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="A55:AA55"/>
+    <mergeCell ref="A56:AA56"/>
+    <mergeCell ref="A57:AA57"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y6:AA8"/>
+    <mergeCell ref="A13:AA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="A31:AA31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Y39:AA39"/>
     <mergeCell ref="AS45:AU45"/>
     <mergeCell ref="BB45:BD45"/>
     <mergeCell ref="AJ46:AK46"/>
@@ -7030,204 +7289,39 @@
     <mergeCell ref="Y45:AA45"/>
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="P46:R46"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A31:AA31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y6:AA8"/>
-    <mergeCell ref="A13:AA13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="A55:AA55"/>
-    <mergeCell ref="A56:AA56"/>
-    <mergeCell ref="A57:AA57"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="A71:AA71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="A84:AA84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="Y85:AA85"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="Y86:AA86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="Y87:AA87"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="P88:R88"/>
+    <mergeCell ref="Y88:AA88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="Y89:AA89"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="Y90:AA90"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="P94:R94"/>
+    <mergeCell ref="Y94:AA94"/>
+    <mergeCell ref="P95:R95"/>
+    <mergeCell ref="Y95:AA95"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="Y91:AA91"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="P92:R92"/>
+    <mergeCell ref="Y92:AA92"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="P93:R93"/>
+    <mergeCell ref="Y93:AA93"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175ABEEF-9490-4248-8D5B-66F36A09FBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8F5A24-3A0C-4C64-83EA-114E7678234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="39">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -224,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1044,11 +1044,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1326,18 +1341,18 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1368,17 +1383,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1400,19 +1499,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,106 +1538,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1535,6 +1550,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1544,14 +1568,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1926,7 +1947,7 @@
   <dimension ref="A1:BD96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+      <selection activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1983,26 +2004,26 @@
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="131" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
-      <c r="P2" s="129" t="s">
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
+      <c r="P2" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="Y2" s="131" t="s">
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="Y2" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="112"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="140"/>
     </row>
     <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -2023,11 +2044,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="113" t="s">
+      <c r="G3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="114"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="113"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2046,11 +2067,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="113" t="s">
+      <c r="P3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="114"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="113"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -2069,11 +2090,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="113" t="s">
+      <c r="Y3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="114"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="113"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -2100,11 +2121,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="127"/>
-      <c r="I4" s="128"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -2122,11 +2143,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="127" t="s">
+      <c r="P4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="128"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="121"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -2144,11 +2165,11 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="127" t="s">
+      <c r="Y4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="128"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="121"/>
     </row>
     <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -2190,10 +2211,10 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="91" t="s">
+      <c r="P5" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="91"/>
+      <c r="Q5" s="89"/>
       <c r="R5" s="134"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
@@ -2258,8 +2279,8 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
       <c r="R6" s="134"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
@@ -2278,10 +2299,10 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="91" t="s">
+      <c r="Y6" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="91"/>
+      <c r="Z6" s="89"/>
       <c r="AA6" s="134"/>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2324,8 +2345,8 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
       <c r="R7" s="134"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
@@ -2344,8 +2365,8 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
       <c r="AA7" s="134"/>
     </row>
     <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2366,11 +2387,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -2388,10 +2409,10 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="91" t="s">
+      <c r="P8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="91"/>
+      <c r="Q8" s="89"/>
       <c r="R8" s="134"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
@@ -2410,8 +2431,8 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
       <c r="AA8" s="134"/>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2436,11 +2457,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="135" t="s">
+      <c r="P9" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="136"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="142"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -2458,11 +2479,11 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="135" t="s">
+      <c r="Y9" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="136"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="142"/>
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G10" s="8"/>
@@ -2533,38 +2554,38 @@
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="110" t="s">
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="140"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="110" t="s">
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="112"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="140"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="110" t="s">
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="112"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="140"/>
     </row>
     <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -2585,11 +2606,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="113" t="s">
+      <c r="G15" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="113"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2608,11 +2629,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="113" t="s">
+      <c r="P15" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="114"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="113"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2631,11 +2652,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="113" t="s">
+      <c r="Y15" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="114"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="113"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2662,11 +2683,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2684,11 +2705,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="115" t="s">
+      <c r="P16" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="117"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="109"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2706,11 +2727,11 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="115" t="s">
+      <c r="Y16" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="117"/>
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="109"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
@@ -2752,11 +2773,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="121" t="s">
+      <c r="P17" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="123"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="128"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2774,9 +2795,9 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="125"/>
-      <c r="AA17" s="126"/>
+      <c r="Y17" s="148"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="150"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
@@ -2796,11 +2817,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="127" t="s">
+      <c r="G18" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="127"/>
-      <c r="I18" s="128"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2818,11 +2839,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="115" t="s">
+      <c r="P18" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="117"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="109"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2840,11 +2861,11 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="115" t="s">
+      <c r="Y18" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="116"/>
-      <c r="AA18" s="117"/>
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="109"/>
     </row>
     <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -2864,11 +2885,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="127" t="s">
+      <c r="G19" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2886,11 +2907,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="115" t="s">
+      <c r="P19" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="117"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2908,11 +2929,11 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="115" t="s">
+      <c r="Y19" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="116"/>
-      <c r="AA19" s="117"/>
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="109"/>
     </row>
     <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
@@ -2954,11 +2975,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="115" t="s">
+      <c r="P20" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="117"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="109"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2976,11 +2997,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="127" t="s">
+      <c r="Y20" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="128"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="121"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -3000,11 +3021,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="139" t="s">
+      <c r="G21" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="140"/>
-      <c r="I21" s="141"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -3022,11 +3043,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="121" t="s">
+      <c r="P21" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="123"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="128"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -3044,11 +3065,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="142" t="s">
+      <c r="Y21" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="142"/>
-      <c r="AA21" s="143"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="123"/>
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
@@ -3068,11 +3089,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="127" t="s">
+      <c r="G22" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="127"/>
-      <c r="I22" s="128"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -3090,11 +3111,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="139" t="s">
+      <c r="P22" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="140"/>
-      <c r="R22" s="141"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="131"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -3112,11 +3133,11 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="127" t="s">
+      <c r="Y22" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="128"/>
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="121"/>
     </row>
     <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
@@ -3136,11 +3157,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="147" t="s">
+      <c r="G23" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="147"/>
-      <c r="I23" s="148"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -3158,11 +3179,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="121" t="s">
+      <c r="P23" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="123"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="128"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -3180,11 +3201,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="142" t="s">
+      <c r="Y23" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="142"/>
-      <c r="AA23" s="143"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="123"/>
     </row>
     <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F24" s="6">
@@ -3208,11 +3229,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="127" t="s">
+      <c r="P24" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="128"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="121"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -3230,11 +3251,11 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="142" t="s">
+      <c r="Y24" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="142"/>
-      <c r="AA24" s="143"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="123"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J25" s="38" t="s">
@@ -3254,11 +3275,11 @@
         <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="144" t="s">
+      <c r="P25" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="145"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="117"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -3276,11 +3297,11 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="144" t="s">
+      <c r="Y25" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="144"/>
-      <c r="AA25" s="145"/>
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="117"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B26" s="32"/>
@@ -3288,9 +3309,9 @@
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -3308,11 +3329,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="139" t="s">
+      <c r="P26" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="141"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="131"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -3330,11 +3351,11 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="144" t="s">
+      <c r="Y26" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="144"/>
-      <c r="AA26" s="145"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="117"/>
     </row>
     <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J27" s="48" t="s">
@@ -3354,11 +3375,11 @@
         <f>SUM(M27-L27)</f>
         <v>0.15625</v>
       </c>
-      <c r="P27" s="149" t="s">
+      <c r="P27" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="149"/>
-      <c r="R27" s="150"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="125"/>
       <c r="S27" s="38" t="s">
         <v>8</v>
       </c>
@@ -3376,18 +3397,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="142" t="s">
+      <c r="Y27" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="142"/>
-      <c r="AA27" s="143"/>
+      <c r="Z27" s="122"/>
+      <c r="AA27" s="123"/>
     </row>
     <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -3409,25 +3430,25 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="147" t="s">
+      <c r="Y28" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="147"/>
-      <c r="AA28" s="148"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="119"/>
     </row>
     <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="146"/>
-      <c r="Z29" s="146"/>
-      <c r="AA29" s="146"/>
+      <c r="Y29" s="115"/>
+      <c r="Z29" s="115"/>
+      <c r="AA29" s="115"/>
     </row>
     <row r="31" spans="1:27" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A31" s="95" t="s">
@@ -3462,38 +3483,38 @@
     </row>
     <row r="32" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="110" t="s">
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="111"/>
-      <c r="I32" s="112"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="140"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="110" t="s">
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="137"/>
+      <c r="P32" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="112"/>
+      <c r="Q32" s="139"/>
+      <c r="R32" s="140"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="107"/>
-      <c r="V32" s="108"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="109"/>
-      <c r="Y32" s="110" t="s">
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="136"/>
+      <c r="W32" s="136"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" s="111"/>
-      <c r="AA32" s="112"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="140"/>
     </row>
     <row r="33" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -3514,11 +3535,11 @@
       <c r="F33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="113" t="s">
+      <c r="G33" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="113"/>
-      <c r="I33" s="114"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="113"/>
       <c r="J33" s="42" t="s">
         <v>9</v>
       </c>
@@ -3537,11 +3558,11 @@
       <c r="O33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="113" t="s">
+      <c r="P33" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="114"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="113"/>
       <c r="S33" s="13" t="s">
         <v>8</v>
       </c>
@@ -3560,11 +3581,11 @@
       <c r="X33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="113" t="s">
+      <c r="Y33" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="113"/>
-      <c r="AA33" s="114"/>
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="113"/>
       <c r="AB33" s="27" t="s">
         <v>19</v>
       </c>
@@ -3591,11 +3612,11 @@
         <f t="shared" ref="F34:F37" si="7">SUM(D34-C34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G34" s="115" t="s">
+      <c r="G34" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="116"/>
-      <c r="I34" s="117"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="109"/>
       <c r="J34" s="23" t="s">
         <v>9</v>
       </c>
@@ -3613,11 +3634,11 @@
         <f t="shared" ref="O34:O37" si="8">SUM(M34-L34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P34" s="115" t="s">
+      <c r="P34" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="117"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="109"/>
       <c r="S34" s="38" t="s">
         <v>8</v>
       </c>
@@ -3635,11 +3656,11 @@
         <f t="shared" ref="X34:X35" si="9">SUM(V34-U34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y34" s="115" t="s">
+      <c r="Y34" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z34" s="116"/>
-      <c r="AA34" s="117"/>
+      <c r="Z34" s="108"/>
+      <c r="AA34" s="109"/>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
@@ -3659,11 +3680,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G35" s="115" t="s">
+      <c r="G35" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="116"/>
-      <c r="I35" s="117"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="109"/>
       <c r="J35" s="23" t="s">
         <v>9</v>
       </c>
@@ -3681,11 +3702,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P35" s="115" t="s">
+      <c r="P35" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="117"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="109"/>
       <c r="S35" s="38" t="s">
         <v>8</v>
       </c>
@@ -3703,11 +3724,11 @@
         <f t="shared" si="9"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y35" s="115" t="s">
+      <c r="Y35" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="116"/>
-      <c r="AA35" s="117"/>
+      <c r="Z35" s="108"/>
+      <c r="AA35" s="109"/>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
@@ -3727,11 +3748,11 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G36" s="115" t="s">
+      <c r="G36" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="117"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="109"/>
       <c r="J36" s="23" t="s">
         <v>9</v>
       </c>
@@ -3749,11 +3770,11 @@
         <f t="shared" si="8"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P36" s="115" t="s">
+      <c r="P36" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="117"/>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="109"/>
       <c r="S36" s="38" t="s">
         <v>8</v>
       </c>
@@ -3771,11 +3792,11 @@
         <f t="shared" ref="X36:X37" si="10">SUM(V36-U36)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y36" s="115" t="s">
+      <c r="Y36" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="Z36" s="116"/>
-      <c r="AA36" s="117"/>
+      <c r="Z36" s="108"/>
+      <c r="AA36" s="109"/>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
@@ -3795,11 +3816,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G37" s="115" t="s">
+      <c r="G37" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="117"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="109"/>
       <c r="J37" s="23" t="s">
         <v>9</v>
       </c>
@@ -3817,11 +3838,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P37" s="115" t="s">
+      <c r="P37" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="116"/>
-      <c r="R37" s="117"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="109"/>
       <c r="S37" s="38" t="s">
         <v>8</v>
       </c>
@@ -3839,11 +3860,11 @@
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Y37" s="121" t="s">
+      <c r="Y37" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" s="122"/>
-      <c r="AA37" s="123"/>
+      <c r="Z37" s="127"/>
+      <c r="AA37" s="128"/>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
@@ -3863,11 +3884,11 @@
         <f>SUM(D38-C38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G38" s="115" t="s">
+      <c r="G38" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="117"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="109"/>
       <c r="J38" s="23" t="s">
         <v>9</v>
       </c>
@@ -3885,11 +3906,11 @@
         <f>SUM(M38-L38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P38" s="115" t="s">
+      <c r="P38" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="117"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="109"/>
       <c r="S38" s="38" t="s">
         <v>8</v>
       </c>
@@ -3907,11 +3928,11 @@
         <f t="shared" ref="X38:X39" si="11">SUM(V38-U38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y38" s="115" t="s">
+      <c r="Y38" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z38" s="116"/>
-      <c r="AA38" s="117"/>
+      <c r="Z38" s="108"/>
+      <c r="AA38" s="109"/>
     </row>
     <row r="39" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
@@ -3931,11 +3952,11 @@
         <f>SUM(D39-C39)</f>
         <v>0.125</v>
       </c>
-      <c r="G39" s="118" t="s">
+      <c r="G39" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="119"/>
-      <c r="I39" s="120"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="153"/>
       <c r="J39" s="25" t="s">
         <v>9</v>
       </c>
@@ -3953,11 +3974,11 @@
         <f>SUM(M39-L39)</f>
         <v>0.125</v>
       </c>
-      <c r="P39" s="118" t="s">
+      <c r="P39" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="119"/>
-      <c r="R39" s="120"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="153"/>
       <c r="S39" s="38" t="s">
         <v>8</v>
       </c>
@@ -3975,11 +3996,11 @@
         <f t="shared" si="11"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y39" s="115" t="s">
+      <c r="Y39" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z39" s="116"/>
-      <c r="AA39" s="117"/>
+      <c r="Z39" s="108"/>
+      <c r="AA39" s="109"/>
     </row>
     <row r="40" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="62"/>
@@ -4023,11 +4044,11 @@
         <f>SUM(V40-U40)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y40" s="115" t="s">
+      <c r="Y40" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="Z40" s="116"/>
-      <c r="AA40" s="117"/>
+      <c r="Z40" s="108"/>
+      <c r="AA40" s="109"/>
     </row>
     <row r="41" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
@@ -4036,18 +4057,18 @@
       <c r="D41" s="58"/>
       <c r="E41" s="4"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
       <c r="J41" s="57"/>
       <c r="K41" s="66"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
       <c r="N41" s="4"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="106"/>
-      <c r="R41" s="106"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="105"/>
+      <c r="R41" s="105"/>
       <c r="S41" s="56" t="s">
         <v>8</v>
       </c>
@@ -4065,11 +4086,11 @@
         <f>SUM(V41-U41)</f>
         <v>0.125</v>
       </c>
-      <c r="Y41" s="118" t="s">
+      <c r="Y41" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="Z41" s="119"/>
-      <c r="AA41" s="120"/>
+      <c r="Z41" s="152"/>
+      <c r="AA41" s="153"/>
     </row>
     <row r="42" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -4087,9 +4108,9 @@
       <c r="M42" s="58"/>
       <c r="N42" s="4"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="105"/>
       <c r="S42" s="62"/>
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
@@ -4119,18 +4140,18 @@
       <c r="M43" s="58"/>
       <c r="N43" s="4"/>
       <c r="O43" s="58"/>
-      <c r="P43" s="103"/>
-      <c r="Q43" s="103"/>
-      <c r="R43" s="103"/>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="106"/>
+      <c r="R43" s="106"/>
       <c r="S43" s="57"/>
       <c r="T43" s="46"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
       <c r="W43" s="4"/>
       <c r="X43" s="58"/>
-      <c r="Y43" s="103"/>
-      <c r="Z43" s="103"/>
-      <c r="AA43" s="103"/>
+      <c r="Y43" s="106"/>
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="106"/>
     </row>
     <row r="44" spans="1:56" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A44" s="95" t="s">
@@ -4168,64 +4189,64 @@
       <c r="AG44" s="33"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="34"/>
-      <c r="AJ44" s="106"/>
-      <c r="AK44" s="106"/>
-      <c r="AL44" s="106"/>
+      <c r="AJ44" s="105"/>
+      <c r="AK44" s="105"/>
+      <c r="AL44" s="105"/>
       <c r="AM44" s="57"/>
       <c r="AN44" s="46"/>
       <c r="AO44" s="58"/>
       <c r="AP44" s="58"/>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="58"/>
-      <c r="AS44" s="103"/>
-      <c r="AT44" s="103"/>
-      <c r="AU44" s="103"/>
+      <c r="AS44" s="106"/>
+      <c r="AT44" s="106"/>
+      <c r="AU44" s="106"/>
       <c r="AV44" s="57"/>
       <c r="AW44" s="46"/>
       <c r="AX44" s="58"/>
       <c r="AY44" s="58"/>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="58"/>
-      <c r="BB44" s="103"/>
-      <c r="BC44" s="103"/>
-      <c r="BD44" s="103"/>
+      <c r="BB44" s="106"/>
+      <c r="BC44" s="106"/>
+      <c r="BD44" s="106"/>
     </row>
     <row r="45" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="110" t="s">
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="111"/>
-      <c r="I45" s="112"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="140"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="108"/>
-      <c r="N45" s="108"/>
-      <c r="O45" s="109"/>
-      <c r="P45" s="110" t="str">
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="137"/>
+      <c r="P45" s="138" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="112"/>
+      <c r="Q45" s="139"/>
+      <c r="R45" s="140"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="107"/>
-      <c r="U45" s="107"/>
-      <c r="V45" s="108"/>
-      <c r="W45" s="108"/>
-      <c r="X45" s="109"/>
-      <c r="Y45" s="110" t="str">
+      <c r="T45" s="135"/>
+      <c r="U45" s="135"/>
+      <c r="V45" s="136"/>
+      <c r="W45" s="136"/>
+      <c r="X45" s="137"/>
+      <c r="Y45" s="138" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Z45" s="111"/>
-      <c r="AA45" s="112"/>
+      <c r="Z45" s="139"/>
+      <c r="AA45" s="140"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="4"/>
@@ -4241,18 +4262,18 @@
       <c r="AP45" s="58"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="58"/>
-      <c r="AS45" s="103"/>
-      <c r="AT45" s="103"/>
-      <c r="AU45" s="103"/>
+      <c r="AS45" s="106"/>
+      <c r="AT45" s="106"/>
+      <c r="AU45" s="106"/>
       <c r="AV45" s="57"/>
       <c r="AW45" s="46"/>
       <c r="AX45" s="58"/>
       <c r="AY45" s="58"/>
       <c r="AZ45" s="4"/>
       <c r="BA45" s="58"/>
-      <c r="BB45" s="103"/>
-      <c r="BC45" s="103"/>
-      <c r="BD45" s="103"/>
+      <c r="BB45" s="106"/>
+      <c r="BC45" s="106"/>
+      <c r="BD45" s="106"/>
     </row>
     <row r="46" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
@@ -4273,11 +4294,11 @@
       <c r="F46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="113" t="s">
+      <c r="G46" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="113"/>
-      <c r="I46" s="114"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="113"/>
       <c r="J46" s="42" t="s">
         <v>9</v>
       </c>
@@ -4296,11 +4317,11 @@
       <c r="O46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P46" s="113" t="s">
+      <c r="P46" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="113"/>
-      <c r="R46" s="114"/>
+      <c r="Q46" s="112"/>
+      <c r="R46" s="113"/>
       <c r="S46" s="13" t="s">
         <v>8</v>
       </c>
@@ -4319,11 +4340,11 @@
       <c r="X46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y46" s="113" t="s">
+      <c r="Y46" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Z46" s="113"/>
-      <c r="AA46" s="114"/>
+      <c r="Z46" s="112"/>
+      <c r="AA46" s="113"/>
       <c r="AB46" s="27" t="s">
         <v>19</v>
       </c>
@@ -4337,8 +4358,8 @@
       <c r="AG46" s="58"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="104"/>
-      <c r="AK46" s="104"/>
+      <c r="AJ46" s="114"/>
+      <c r="AK46" s="114"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
@@ -4355,9 +4376,9 @@
       <c r="AY46" s="58"/>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="58"/>
-      <c r="BB46" s="103"/>
-      <c r="BC46" s="103"/>
-      <c r="BD46" s="103"/>
+      <c r="BB46" s="106"/>
+      <c r="BC46" s="106"/>
+      <c r="BD46" s="106"/>
     </row>
     <row r="47" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
@@ -4377,11 +4398,11 @@
         <f t="shared" ref="F47:F50" si="12">SUM(D47-C47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="G47" s="115" t="s">
+      <c r="G47" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="116"/>
-      <c r="I47" s="117"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="109"/>
       <c r="J47" s="23" t="s">
         <v>9</v>
       </c>
@@ -4399,11 +4420,11 @@
         <f t="shared" ref="O47:O52" si="13">SUM(M47-L47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="P47" s="115" t="s">
+      <c r="P47" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="117"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="109"/>
       <c r="S47" s="38" t="s">
         <v>8</v>
       </c>
@@ -4421,19 +4442,19 @@
         <f t="shared" ref="X47:X50" si="14">SUM(V47-U47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Y47" s="115" t="s">
+      <c r="Y47" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="116"/>
-      <c r="AA47" s="117"/>
+      <c r="Z47" s="108"/>
+      <c r="AA47" s="109"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="61"/>
       <c r="AF47" s="58"/>
       <c r="AG47" s="58"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="105"/>
-      <c r="AK47" s="105"/>
+      <c r="AJ47" s="154"/>
+      <c r="AK47" s="154"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
@@ -4450,9 +4471,9 @@
       <c r="AY47" s="4"/>
       <c r="AZ47" s="4"/>
       <c r="BA47" s="60"/>
-      <c r="BB47" s="105"/>
-      <c r="BC47" s="105"/>
-      <c r="BD47" s="105"/>
+      <c r="BB47" s="154"/>
+      <c r="BC47" s="154"/>
+      <c r="BD47" s="154"/>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
@@ -4472,11 +4493,11 @@
         <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G48" s="115" t="s">
+      <c r="G48" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="116"/>
-      <c r="I48" s="117"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="109"/>
       <c r="J48" s="23" t="s">
         <v>9</v>
       </c>
@@ -4494,11 +4515,11 @@
         <f t="shared" si="13"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P48" s="115" t="s">
+      <c r="P48" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" s="116"/>
-      <c r="R48" s="117"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="109"/>
       <c r="S48" s="38" t="s">
         <v>8</v>
       </c>
@@ -4516,11 +4537,11 @@
         <f t="shared" si="14"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y48" s="115" t="s">
+      <c r="Y48" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Z48" s="116"/>
-      <c r="AA48" s="117"/>
+      <c r="Z48" s="108"/>
+      <c r="AA48" s="109"/>
       <c r="AE48" s="3"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
@@ -4541,11 +4562,11 @@
         <f t="shared" si="12"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G49" s="115" t="s">
+      <c r="G49" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="116"/>
-      <c r="I49" s="117"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="109"/>
       <c r="J49" s="23" t="s">
         <v>9</v>
       </c>
@@ -4563,11 +4584,11 @@
         <f t="shared" si="13"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="P49" s="115" t="s">
+      <c r="P49" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Q49" s="116"/>
-      <c r="R49" s="117"/>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="109"/>
       <c r="S49" s="38" t="s">
         <v>8</v>
       </c>
@@ -4585,11 +4606,11 @@
         <f t="shared" si="14"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="Y49" s="115" t="s">
+      <c r="Y49" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="116"/>
-      <c r="AA49" s="117"/>
+      <c r="Z49" s="108"/>
+      <c r="AA49" s="109"/>
       <c r="AE49" s="3"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
@@ -4610,11 +4631,11 @@
         <f t="shared" si="12"/>
         <v>0.23125000000000007</v>
       </c>
-      <c r="G50" s="115" t="s">
+      <c r="G50" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="116"/>
-      <c r="I50" s="117"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="109"/>
       <c r="J50" s="23" t="s">
         <v>9</v>
       </c>
@@ -4632,11 +4653,11 @@
         <f t="shared" si="13"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P50" s="115" t="s">
+      <c r="P50" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" s="116"/>
-      <c r="R50" s="117"/>
+      <c r="Q50" s="108"/>
+      <c r="R50" s="109"/>
       <c r="S50" s="38" t="s">
         <v>8</v>
       </c>
@@ -4654,11 +4675,11 @@
         <f t="shared" si="14"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y50" s="115" t="s">
+      <c r="Y50" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z50" s="116"/>
-      <c r="AA50" s="117"/>
+      <c r="Z50" s="108"/>
+      <c r="AA50" s="109"/>
       <c r="AE50" s="3"/>
     </row>
     <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4681,11 +4702,11 @@
         <f>SUM(D51-C51)</f>
         <v>0.32291666666666669</v>
       </c>
-      <c r="G51" s="115" t="s">
+      <c r="G51" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="116"/>
-      <c r="I51" s="117"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="109"/>
       <c r="J51" s="23" t="s">
         <v>9</v>
       </c>
@@ -4703,11 +4724,11 @@
         <f>SUM(M51-L51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="P51" s="115" t="s">
+      <c r="P51" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="116"/>
-      <c r="R51" s="117"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="109"/>
       <c r="S51" s="38" t="s">
         <v>8</v>
       </c>
@@ -4725,11 +4746,11 @@
         <f>SUM(V51-U51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="Y51" s="115" t="s">
+      <c r="Y51" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z51" s="116"/>
-      <c r="AA51" s="117"/>
+      <c r="Z51" s="108"/>
+      <c r="AA51" s="109"/>
       <c r="AE51" s="3"/>
     </row>
     <row r="52" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4750,11 +4771,11 @@
         <f>SUM(D52-C52)</f>
         <v>0.17083333333333339</v>
       </c>
-      <c r="G52" s="115" t="s">
+      <c r="G52" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="116"/>
-      <c r="I52" s="117"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="109"/>
       <c r="J52" s="25" t="s">
         <v>9</v>
       </c>
@@ -4772,11 +4793,11 @@
         <f t="shared" si="13"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="P52" s="115" t="s">
+      <c r="P52" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="Q52" s="116"/>
-      <c r="R52" s="116"/>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
       <c r="S52" s="25" t="s">
         <v>8</v>
       </c>
@@ -4794,11 +4815,11 @@
         <f t="shared" ref="X52" si="15">SUM(V52-U52)</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="Y52" s="151" t="s">
+      <c r="Y52" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="Z52" s="151"/>
-      <c r="AA52" s="152"/>
+      <c r="Z52" s="110"/>
+      <c r="AA52" s="111"/>
       <c r="AE52" s="3"/>
     </row>
     <row r="53" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4835,9 +4856,9 @@
         <f>SUM(X47:X52)</f>
         <v>0.84375000000000022</v>
       </c>
-      <c r="Y53" s="106"/>
-      <c r="Z53" s="106"/>
-      <c r="AA53" s="106"/>
+      <c r="Y53" s="105"/>
+      <c r="Z53" s="105"/>
+      <c r="AA53" s="105"/>
       <c r="AE53" s="3"/>
     </row>
     <row r="54" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -4847,87 +4868,87 @@
       <c r="D54" s="58"/>
       <c r="E54" s="4"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
       <c r="J54" s="57"/>
       <c r="K54" s="66"/>
       <c r="L54" s="58"/>
       <c r="M54" s="58"/>
       <c r="N54" s="4"/>
       <c r="O54" s="58"/>
-      <c r="P54" s="106"/>
-      <c r="Q54" s="106"/>
-      <c r="R54" s="106"/>
+      <c r="P54" s="105"/>
+      <c r="Q54" s="105"/>
+      <c r="R54" s="105"/>
       <c r="S54" s="57"/>
       <c r="T54" s="32"/>
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
       <c r="W54" s="33"/>
       <c r="X54" s="58"/>
-      <c r="Y54" s="103"/>
-      <c r="Z54" s="103"/>
-      <c r="AA54" s="103"/>
+      <c r="Y54" s="106"/>
+      <c r="Z54" s="106"/>
+      <c r="AA54" s="106"/>
       <c r="AE54" s="3"/>
     </row>
     <row r="55" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="153"/>
-      <c r="B55" s="154"/>
-      <c r="C55" s="154"/>
-      <c r="D55" s="154"/>
-      <c r="E55" s="154"/>
-      <c r="F55" s="154"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="154"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="154"/>
-      <c r="K55" s="154"/>
-      <c r="L55" s="154"/>
-      <c r="M55" s="154"/>
-      <c r="N55" s="154"/>
-      <c r="O55" s="154"/>
-      <c r="P55" s="154"/>
-      <c r="Q55" s="154"/>
-      <c r="R55" s="154"/>
-      <c r="S55" s="154"/>
-      <c r="T55" s="154"/>
-      <c r="U55" s="154"/>
-      <c r="V55" s="154"/>
-      <c r="W55" s="154"/>
-      <c r="X55" s="154"/>
-      <c r="Y55" s="154"/>
-      <c r="Z55" s="154"/>
-      <c r="AA55" s="154"/>
+      <c r="A55" s="103"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="104"/>
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104"/>
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
+      <c r="R55" s="104"/>
+      <c r="S55" s="104"/>
+      <c r="T55" s="104"/>
+      <c r="U55" s="104"/>
+      <c r="V55" s="104"/>
+      <c r="W55" s="104"/>
+      <c r="X55" s="104"/>
+      <c r="Y55" s="104"/>
+      <c r="Z55" s="104"/>
+      <c r="AA55" s="104"/>
       <c r="AE55" s="3"/>
     </row>
     <row r="56" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="153"/>
-      <c r="B56" s="154"/>
-      <c r="C56" s="154"/>
-      <c r="D56" s="154"/>
-      <c r="E56" s="154"/>
-      <c r="F56" s="154"/>
-      <c r="G56" s="154"/>
-      <c r="H56" s="154"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="154"/>
-      <c r="K56" s="154"/>
-      <c r="L56" s="154"/>
-      <c r="M56" s="154"/>
-      <c r="N56" s="154"/>
-      <c r="O56" s="154"/>
-      <c r="P56" s="154"/>
-      <c r="Q56" s="154"/>
-      <c r="R56" s="154"/>
-      <c r="S56" s="154"/>
-      <c r="T56" s="154"/>
-      <c r="U56" s="154"/>
-      <c r="V56" s="154"/>
-      <c r="W56" s="154"/>
-      <c r="X56" s="154"/>
-      <c r="Y56" s="154"/>
-      <c r="Z56" s="154"/>
-      <c r="AA56" s="154"/>
+      <c r="A56" s="103"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="104"/>
+      <c r="U56" s="104"/>
+      <c r="V56" s="104"/>
+      <c r="W56" s="104"/>
+      <c r="X56" s="104"/>
+      <c r="Y56" s="104"/>
+      <c r="Z56" s="104"/>
+      <c r="AA56" s="104"/>
     </row>
     <row r="57" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A57" s="95" t="s">
@@ -5093,11 +5114,11 @@
         <f>SUM(D60-C60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G60" s="91" t="s">
+      <c r="G60" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="91"/>
-      <c r="I60" s="92"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="90"/>
       <c r="J60" s="74" t="s">
         <v>9</v>
       </c>
@@ -5115,11 +5136,11 @@
         <f>SUM(M60-L60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P60" s="91" t="s">
+      <c r="P60" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q60" s="91"/>
-      <c r="R60" s="92"/>
+      <c r="Q60" s="89"/>
+      <c r="R60" s="90"/>
       <c r="S60" s="74" t="s">
         <v>8</v>
       </c>
@@ -5137,11 +5158,11 @@
         <f>SUM(V60-U60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y60" s="91" t="s">
+      <c r="Y60" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z60" s="91"/>
-      <c r="AA60" s="92"/>
+      <c r="Z60" s="89"/>
+      <c r="AA60" s="90"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
@@ -5161,11 +5182,11 @@
         <f t="shared" ref="F61:F68" si="16">SUM(D61-C61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G61" s="91" t="s">
+      <c r="G61" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="91"/>
-      <c r="I61" s="92"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="90"/>
       <c r="J61" s="74" t="s">
         <v>9</v>
       </c>
@@ -5183,11 +5204,11 @@
         <f t="shared" ref="O61:O68" si="17">SUM(M61-L61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P61" s="91" t="s">
+      <c r="P61" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q61" s="91"/>
-      <c r="R61" s="92"/>
+      <c r="Q61" s="89"/>
+      <c r="R61" s="90"/>
       <c r="S61" s="74" t="s">
         <v>8</v>
       </c>
@@ -5205,11 +5226,11 @@
         <f t="shared" ref="X61:X68" si="18">SUM(V61-U61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y61" s="91" t="s">
+      <c r="Y61" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z61" s="91"/>
-      <c r="AA61" s="92"/>
+      <c r="Z61" s="89"/>
+      <c r="AA61" s="90"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
@@ -5229,11 +5250,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G62" s="91" t="s">
+      <c r="G62" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="91"/>
-      <c r="I62" s="92"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="90"/>
       <c r="J62" s="74" t="s">
         <v>9</v>
       </c>
@@ -5251,11 +5272,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P62" s="91" t="s">
+      <c r="P62" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q62" s="91"/>
-      <c r="R62" s="92"/>
+      <c r="Q62" s="89"/>
+      <c r="R62" s="90"/>
       <c r="S62" s="74" t="s">
         <v>8</v>
       </c>
@@ -5273,11 +5294,11 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y62" s="91" t="s">
+      <c r="Y62" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z62" s="91"/>
-      <c r="AA62" s="92"/>
+      <c r="Z62" s="89"/>
+      <c r="AA62" s="90"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
@@ -5297,11 +5318,11 @@
         <f t="shared" si="16"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="G63" s="91" t="s">
+      <c r="G63" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="91"/>
-      <c r="I63" s="92"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="90"/>
       <c r="J63" s="74" t="s">
         <v>9</v>
       </c>
@@ -5319,11 +5340,11 @@
         <f t="shared" si="17"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P63" s="91" t="s">
+      <c r="P63" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q63" s="91"/>
-      <c r="R63" s="92"/>
+      <c r="Q63" s="89"/>
+      <c r="R63" s="90"/>
       <c r="S63" s="74" t="s">
         <v>8</v>
       </c>
@@ -5341,11 +5362,11 @@
         <f t="shared" si="18"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="Y63" s="91" t="s">
+      <c r="Y63" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z63" s="91"/>
-      <c r="AA63" s="92"/>
+      <c r="Z63" s="89"/>
+      <c r="AA63" s="90"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
@@ -5365,11 +5386,11 @@
         <f t="shared" si="16"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G64" s="91" t="s">
+      <c r="G64" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="91"/>
-      <c r="I64" s="92"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="90"/>
       <c r="J64" s="74" t="s">
         <v>9</v>
       </c>
@@ -5387,11 +5408,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P64" s="91" t="s">
+      <c r="P64" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q64" s="91"/>
-      <c r="R64" s="92"/>
+      <c r="Q64" s="89"/>
+      <c r="R64" s="90"/>
       <c r="S64" s="74" t="s">
         <v>8</v>
       </c>
@@ -5409,11 +5430,11 @@
         <f t="shared" si="18"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y64" s="91" t="s">
+      <c r="Y64" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z64" s="91"/>
-      <c r="AA64" s="92"/>
+      <c r="Z64" s="89"/>
+      <c r="AA64" s="90"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
@@ -5433,11 +5454,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G65" s="91" t="s">
+      <c r="G65" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="91"/>
-      <c r="I65" s="92"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="90"/>
       <c r="J65" s="74" t="s">
         <v>9</v>
       </c>
@@ -5455,11 +5476,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P65" s="91" t="s">
+      <c r="P65" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="91"/>
-      <c r="R65" s="92"/>
+      <c r="Q65" s="89"/>
+      <c r="R65" s="90"/>
       <c r="S65" s="74" t="s">
         <v>8</v>
       </c>
@@ -5477,11 +5498,11 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y65" s="91" t="s">
+      <c r="Y65" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z65" s="91"/>
-      <c r="AA65" s="92"/>
+      <c r="Z65" s="89"/>
+      <c r="AA65" s="90"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
@@ -5501,11 +5522,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G66" s="91" t="s">
+      <c r="G66" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="91"/>
-      <c r="I66" s="92"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="90"/>
       <c r="J66" s="74" t="s">
         <v>9</v>
       </c>
@@ -5523,11 +5544,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P66" s="91" t="s">
+      <c r="P66" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q66" s="91"/>
-      <c r="R66" s="92"/>
+      <c r="Q66" s="89"/>
+      <c r="R66" s="90"/>
       <c r="S66" s="74" t="s">
         <v>8</v>
       </c>
@@ -5545,11 +5566,11 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y66" s="91" t="s">
+      <c r="Y66" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z66" s="91"/>
-      <c r="AA66" s="92"/>
+      <c r="Z66" s="89"/>
+      <c r="AA66" s="90"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
@@ -5569,11 +5590,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G67" s="91" t="s">
+      <c r="G67" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="91"/>
-      <c r="I67" s="92"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="90"/>
       <c r="J67" s="74" t="s">
         <v>9</v>
       </c>
@@ -5591,11 +5612,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P67" s="91" t="s">
+      <c r="P67" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q67" s="91"/>
-      <c r="R67" s="92"/>
+      <c r="Q67" s="89"/>
+      <c r="R67" s="90"/>
       <c r="S67" s="74" t="s">
         <v>8</v>
       </c>
@@ -5613,11 +5634,11 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y67" s="91" t="s">
+      <c r="Y67" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z67" s="91"/>
-      <c r="AA67" s="92"/>
+      <c r="Z67" s="89"/>
+      <c r="AA67" s="90"/>
     </row>
     <row r="68" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="75" t="s">
@@ -5637,11 +5658,11 @@
         <f t="shared" si="16"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G68" s="89" t="s">
+      <c r="G68" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="89"/>
-      <c r="I68" s="90"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="92"/>
       <c r="J68" s="75" t="s">
         <v>9</v>
       </c>
@@ -5659,11 +5680,11 @@
         <f t="shared" si="17"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="P68" s="89" t="s">
+      <c r="P68" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="89"/>
-      <c r="R68" s="90"/>
+      <c r="Q68" s="91"/>
+      <c r="R68" s="92"/>
       <c r="S68" s="75" t="s">
         <v>8</v>
       </c>
@@ -5681,11 +5702,11 @@
         <f t="shared" si="18"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="Y68" s="89" t="s">
+      <c r="Y68" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="Z68" s="89"/>
-      <c r="AA68" s="90"/>
+      <c r="Z68" s="91"/>
+      <c r="AA68" s="92"/>
     </row>
     <row r="69" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F69" s="78">
@@ -5867,11 +5888,11 @@
         <f>SUM(D74-C74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G74" s="91" t="s">
+      <c r="G74" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="91"/>
-      <c r="I74" s="92"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="90"/>
       <c r="J74" s="74" t="s">
         <v>9</v>
       </c>
@@ -5889,11 +5910,11 @@
         <f>SUM(M74-L74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P74" s="91" t="s">
+      <c r="P74" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q74" s="91"/>
-      <c r="R74" s="92"/>
+      <c r="Q74" s="89"/>
+      <c r="R74" s="90"/>
       <c r="S74" s="74" t="s">
         <v>8</v>
       </c>
@@ -5911,11 +5932,11 @@
         <f>SUM(V74-U74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y74" s="91" t="s">
+      <c r="Y74" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z74" s="91"/>
-      <c r="AA74" s="92"/>
+      <c r="Z74" s="89"/>
+      <c r="AA74" s="90"/>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
@@ -5935,11 +5956,11 @@
         <f t="shared" ref="F75:F81" si="19">SUM(D75-C75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G75" s="91" t="s">
+      <c r="G75" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="91"/>
-      <c r="I75" s="92"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="90"/>
       <c r="J75" s="74" t="s">
         <v>9</v>
       </c>
@@ -5957,11 +5978,11 @@
         <f t="shared" ref="O75:O81" si="20">SUM(M75-L75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P75" s="91" t="s">
+      <c r="P75" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q75" s="91"/>
-      <c r="R75" s="92"/>
+      <c r="Q75" s="89"/>
+      <c r="R75" s="90"/>
       <c r="S75" s="74" t="s">
         <v>8</v>
       </c>
@@ -5979,11 +6000,11 @@
         <f t="shared" ref="X75:X81" si="21">SUM(V75-U75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y75" s="91" t="s">
+      <c r="Y75" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z75" s="91"/>
-      <c r="AA75" s="92"/>
+      <c r="Z75" s="89"/>
+      <c r="AA75" s="90"/>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
@@ -6003,11 +6024,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G76" s="91" t="s">
+      <c r="G76" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="91"/>
-      <c r="I76" s="92"/>
+      <c r="H76" s="89"/>
+      <c r="I76" s="90"/>
       <c r="J76" s="74" t="s">
         <v>9</v>
       </c>
@@ -6025,11 +6046,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P76" s="91" t="s">
+      <c r="P76" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q76" s="91"/>
-      <c r="R76" s="92"/>
+      <c r="Q76" s="89"/>
+      <c r="R76" s="90"/>
       <c r="S76" s="74" t="s">
         <v>8</v>
       </c>
@@ -6047,11 +6068,11 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y76" s="91" t="s">
+      <c r="Y76" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Z76" s="91"/>
-      <c r="AA76" s="92"/>
+      <c r="Z76" s="89"/>
+      <c r="AA76" s="90"/>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
@@ -6071,11 +6092,11 @@
         <f t="shared" si="19"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G77" s="91" t="s">
+      <c r="G77" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H77" s="91"/>
-      <c r="I77" s="92"/>
+      <c r="H77" s="89"/>
+      <c r="I77" s="90"/>
       <c r="J77" s="74" t="s">
         <v>9</v>
       </c>
@@ -6093,11 +6114,11 @@
         <f t="shared" si="20"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="P77" s="91" t="s">
+      <c r="P77" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q77" s="91"/>
-      <c r="R77" s="92"/>
+      <c r="Q77" s="89"/>
+      <c r="R77" s="90"/>
       <c r="S77" s="74" t="s">
         <v>8</v>
       </c>
@@ -6115,11 +6136,11 @@
         <f t="shared" si="21"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Y77" s="91" t="s">
+      <c r="Y77" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z77" s="91"/>
-      <c r="AA77" s="92"/>
+      <c r="Z77" s="89"/>
+      <c r="AA77" s="90"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
@@ -6139,11 +6160,11 @@
         <f t="shared" si="19"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G78" s="91" t="s">
+      <c r="G78" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H78" s="91"/>
-      <c r="I78" s="92"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="90"/>
       <c r="J78" s="74" t="s">
         <v>9</v>
       </c>
@@ -6161,11 +6182,11 @@
         <f t="shared" si="20"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P78" s="91" t="s">
+      <c r="P78" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q78" s="91"/>
-      <c r="R78" s="92"/>
+      <c r="Q78" s="89"/>
+      <c r="R78" s="90"/>
       <c r="S78" s="74" t="s">
         <v>8</v>
       </c>
@@ -6183,11 +6204,11 @@
         <f t="shared" si="21"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y78" s="91" t="s">
+      <c r="Y78" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z78" s="91"/>
-      <c r="AA78" s="92"/>
+      <c r="Z78" s="89"/>
+      <c r="AA78" s="90"/>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
@@ -6207,11 +6228,11 @@
         <f t="shared" si="19"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G79" s="91" t="s">
+      <c r="G79" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H79" s="91"/>
-      <c r="I79" s="92"/>
+      <c r="H79" s="89"/>
+      <c r="I79" s="90"/>
       <c r="J79" s="74" t="s">
         <v>9</v>
       </c>
@@ -6229,11 +6250,11 @@
         <f t="shared" si="20"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P79" s="91" t="s">
+      <c r="P79" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q79" s="91"/>
-      <c r="R79" s="92"/>
+      <c r="Q79" s="89"/>
+      <c r="R79" s="90"/>
       <c r="S79" s="74" t="s">
         <v>8</v>
       </c>
@@ -6251,11 +6272,11 @@
         <f t="shared" si="21"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y79" s="91" t="s">
+      <c r="Y79" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z79" s="91"/>
-      <c r="AA79" s="92"/>
+      <c r="Z79" s="89"/>
+      <c r="AA79" s="90"/>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
@@ -6275,11 +6296,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G80" s="91" t="s">
+      <c r="G80" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="91"/>
-      <c r="I80" s="92"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="90"/>
       <c r="J80" s="74" t="s">
         <v>9</v>
       </c>
@@ -6297,11 +6318,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P80" s="91" t="s">
+      <c r="P80" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q80" s="91"/>
-      <c r="R80" s="92"/>
+      <c r="Q80" s="89"/>
+      <c r="R80" s="90"/>
       <c r="S80" s="74" t="s">
         <v>8</v>
       </c>
@@ -6319,11 +6340,11 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y80" s="91" t="s">
+      <c r="Y80" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z80" s="91"/>
-      <c r="AA80" s="92"/>
+      <c r="Z80" s="89"/>
+      <c r="AA80" s="90"/>
     </row>
     <row r="81" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="75" t="s">
@@ -6343,11 +6364,11 @@
         <f t="shared" si="19"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="G81" s="89" t="s">
+      <c r="G81" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="H81" s="89"/>
-      <c r="I81" s="90"/>
+      <c r="H81" s="91"/>
+      <c r="I81" s="92"/>
       <c r="J81" s="86" t="s">
         <v>9</v>
       </c>
@@ -6365,11 +6386,11 @@
         <f t="shared" si="20"/>
         <v>0.125</v>
       </c>
-      <c r="P81" s="91" t="s">
+      <c r="P81" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q81" s="91"/>
-      <c r="R81" s="92"/>
+      <c r="Q81" s="89"/>
+      <c r="R81" s="90"/>
       <c r="S81" s="86" t="s">
         <v>8</v>
       </c>
@@ -6387,11 +6408,11 @@
         <f t="shared" si="21"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Y81" s="91" t="s">
+      <c r="Y81" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Z81" s="91"/>
-      <c r="AA81" s="92"/>
+      <c r="Z81" s="89"/>
+      <c r="AA81" s="90"/>
     </row>
     <row r="82" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F82" s="78">
@@ -6600,7 +6621,7 @@
       </c>
       <c r="AC86" s="26">
         <f>SUM(X96+O96+F95)</f>
-        <v>0.70138888888888917</v>
+        <v>1.6319444444444451</v>
       </c>
     </row>
     <row r="87" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -6629,17 +6650,25 @@
       <c r="J87" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K87" s="35"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
+      <c r="K87" s="35">
+        <v>43179</v>
+      </c>
+      <c r="L87" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M87" s="18">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="N87" s="19"/>
       <c r="O87" s="18">
         <f>SUM(M87-L87)</f>
-        <v>0</v>
-      </c>
-      <c r="P87" s="91"/>
-      <c r="Q87" s="91"/>
-      <c r="R87" s="92"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P87" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q87" s="162"/>
+      <c r="R87" s="163"/>
       <c r="S87" s="74" t="s">
         <v>8</v>
       </c>
@@ -6651,9 +6680,9 @@
         <f>SUM(V87-U87)</f>
         <v>0</v>
       </c>
-      <c r="Y87" s="91"/>
-      <c r="Z87" s="91"/>
-      <c r="AA87" s="92"/>
+      <c r="Y87" s="89"/>
+      <c r="Z87" s="89"/>
+      <c r="AA87" s="90"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
@@ -6681,17 +6710,25 @@
       <c r="J88" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K88" s="35"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
+      <c r="K88" s="35">
+        <v>43179</v>
+      </c>
+      <c r="L88" s="18">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="M88" s="18">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="N88" s="19"/>
       <c r="O88" s="18">
         <f t="shared" ref="O88:O94" si="24">SUM(M88-L88)</f>
-        <v>0</v>
-      </c>
-      <c r="P88" s="91"/>
-      <c r="Q88" s="91"/>
-      <c r="R88" s="92"/>
+        <v>6.5972222222222321E-2</v>
+      </c>
+      <c r="P88" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q88" s="162"/>
+      <c r="R88" s="163"/>
       <c r="S88" s="74" t="s">
         <v>8</v>
       </c>
@@ -6703,9 +6740,9 @@
         <f t="shared" ref="X88:X95" si="25">SUM(V88-U88)</f>
         <v>0</v>
       </c>
-      <c r="Y88" s="91"/>
-      <c r="Z88" s="91"/>
-      <c r="AA88" s="92"/>
+      <c r="Y88" s="89"/>
+      <c r="Z88" s="89"/>
+      <c r="AA88" s="90"/>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
@@ -6733,17 +6770,25 @@
       <c r="J89" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K89" s="35"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
+      <c r="K89" s="35">
+        <v>43181</v>
+      </c>
+      <c r="L89" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M89" s="18">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="N89" s="19"/>
       <c r="O89" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="91"/>
-      <c r="Q89" s="91"/>
-      <c r="R89" s="92"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="P89" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q89" s="162"/>
+      <c r="R89" s="163"/>
       <c r="S89" s="74" t="s">
         <v>8</v>
       </c>
@@ -6755,9 +6800,9 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y89" s="91"/>
-      <c r="Z89" s="91"/>
-      <c r="AA89" s="92"/>
+      <c r="Y89" s="89"/>
+      <c r="Z89" s="89"/>
+      <c r="AA89" s="90"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
@@ -6785,17 +6830,25 @@
       <c r="J90" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K90" s="35"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
+      <c r="K90" s="35">
+        <v>43183</v>
+      </c>
+      <c r="L90" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M90" s="18">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="N90" s="19"/>
       <c r="O90" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="P90" s="91"/>
-      <c r="Q90" s="91"/>
-      <c r="R90" s="92"/>
+        <v>0.125</v>
+      </c>
+      <c r="P90" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q90" s="162"/>
+      <c r="R90" s="163"/>
       <c r="S90" s="74" t="s">
         <v>8</v>
       </c>
@@ -6807,9 +6860,9 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y90" s="91"/>
-      <c r="Z90" s="91"/>
-      <c r="AA90" s="92"/>
+      <c r="Y90" s="89"/>
+      <c r="Z90" s="89"/>
+      <c r="AA90" s="90"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
@@ -6837,17 +6890,25 @@
       <c r="J91" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K91" s="35"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
+      <c r="K91" s="35">
+        <v>43186</v>
+      </c>
+      <c r="L91" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M91" s="18">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="N91" s="19"/>
       <c r="O91" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="P91" s="91"/>
-      <c r="Q91" s="91"/>
-      <c r="R91" s="92"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P91" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q91" s="162"/>
+      <c r="R91" s="163"/>
       <c r="S91" s="74" t="s">
         <v>8</v>
       </c>
@@ -6859,9 +6920,9 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y91" s="91"/>
-      <c r="Z91" s="91"/>
-      <c r="AA91" s="92"/>
+      <c r="Y91" s="89"/>
+      <c r="Z91" s="89"/>
+      <c r="AA91" s="90"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
@@ -6889,17 +6950,25 @@
       <c r="J92" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K92" s="35"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
+      <c r="K92" s="35">
+        <v>43186</v>
+      </c>
+      <c r="L92" s="18">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="M92" s="18">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="N92" s="19"/>
       <c r="O92" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="P92" s="91"/>
-      <c r="Q92" s="91"/>
-      <c r="R92" s="92"/>
+        <v>6.5972222222222321E-2</v>
+      </c>
+      <c r="P92" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q92" s="162"/>
+      <c r="R92" s="163"/>
       <c r="S92" s="74" t="s">
         <v>8</v>
       </c>
@@ -6911,9 +6980,9 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y92" s="91"/>
-      <c r="Z92" s="91"/>
-      <c r="AA92" s="92"/>
+      <c r="Y92" s="89"/>
+      <c r="Z92" s="89"/>
+      <c r="AA92" s="90"/>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
@@ -6933,25 +7002,33 @@
         <f t="shared" si="23"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G93" s="158" t="s">
+      <c r="G93" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H93" s="159"/>
-      <c r="I93" s="160"/>
+      <c r="H93" s="162"/>
+      <c r="I93" s="163"/>
       <c r="J93" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K93" s="35"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
+      <c r="K93" s="35">
+        <v>43188</v>
+      </c>
+      <c r="L93" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M93" s="18">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="N93" s="19"/>
       <c r="O93" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="P93" s="91"/>
-      <c r="Q93" s="91"/>
-      <c r="R93" s="92"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="P93" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q93" s="162"/>
+      <c r="R93" s="163"/>
       <c r="S93" s="74" t="s">
         <v>8</v>
       </c>
@@ -6963,9 +7040,9 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y93" s="91"/>
-      <c r="Z93" s="91"/>
-      <c r="AA93" s="92"/>
+      <c r="Y93" s="89"/>
+      <c r="Z93" s="89"/>
+      <c r="AA93" s="90"/>
     </row>
     <row r="94" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="75" t="s">
@@ -6985,25 +7062,33 @@
         <f t="shared" si="23"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G94" s="161" t="s">
+      <c r="G94" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="H94" s="162"/>
-      <c r="I94" s="163"/>
+      <c r="H94" s="159"/>
+      <c r="I94" s="160"/>
       <c r="J94" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="K94" s="35"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
+      <c r="K94" s="164">
+        <v>43191</v>
+      </c>
+      <c r="L94" s="165">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M94" s="165">
+        <v>0.75</v>
+      </c>
       <c r="N94" s="87"/>
       <c r="O94" s="18">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="P94" s="91"/>
-      <c r="Q94" s="91"/>
-      <c r="R94" s="92"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="P94" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q94" s="162"/>
+      <c r="R94" s="163"/>
       <c r="S94" s="86" t="s">
         <v>8</v>
       </c>
@@ -7015,9 +7100,9 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y94" s="91"/>
-      <c r="Z94" s="91"/>
-      <c r="AA94" s="92"/>
+      <c r="Y94" s="89"/>
+      <c r="Z94" s="89"/>
+      <c r="AA94" s="90"/>
     </row>
     <row r="95" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F95" s="78">
@@ -7027,17 +7112,25 @@
       <c r="J95" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="K95" s="83"/>
-      <c r="L95" s="84"/>
-      <c r="M95" s="84"/>
+      <c r="K95" s="83">
+        <v>43192</v>
+      </c>
+      <c r="L95" s="84">
+        <v>0.5625</v>
+      </c>
+      <c r="M95" s="84">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="N95" s="88"/>
       <c r="O95" s="52">
         <f>SUM(M95-L95-N95)</f>
-        <v>0</v>
-      </c>
-      <c r="P95" s="93"/>
-      <c r="Q95" s="93"/>
-      <c r="R95" s="94"/>
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="P95" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q95" s="159"/>
+      <c r="R95" s="160"/>
       <c r="S95" s="82" t="s">
         <v>8</v>
       </c>
@@ -7057,7 +7150,7 @@
       <c r="K96" s="3"/>
       <c r="O96" s="78">
         <f>SUM(O87:O95)</f>
-        <v>0</v>
+        <v>0.9305555555555558</v>
       </c>
       <c r="T96" s="3"/>
       <c r="X96" s="78">
@@ -7067,120 +7160,123 @@
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="A71:AA71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="A55:AA55"/>
-    <mergeCell ref="A56:AA56"/>
-    <mergeCell ref="A57:AA57"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="P94:R94"/>
+    <mergeCell ref="Y94:AA94"/>
+    <mergeCell ref="P95:R95"/>
+    <mergeCell ref="Y95:AA95"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="Y91:AA91"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="P92:R92"/>
+    <mergeCell ref="Y92:AA92"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="P93:R93"/>
+    <mergeCell ref="Y93:AA93"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="P88:R88"/>
+    <mergeCell ref="Y88:AA88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="Y89:AA89"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="Y90:AA90"/>
+    <mergeCell ref="A84:AA84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="Y85:AA85"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="Y86:AA86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="Y87:AA87"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="BB45:BD45"/>
+    <mergeCell ref="AJ46:AK46"/>
+    <mergeCell ref="BB46:BD46"/>
+    <mergeCell ref="AJ47:AK47"/>
+    <mergeCell ref="BB47:BD47"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AS44:AU44"/>
+    <mergeCell ref="BB44:BD44"/>
+    <mergeCell ref="A44:AA44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A31:AA31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="P20:R20"/>
     <mergeCell ref="G15:I15"/>
@@ -7205,123 +7301,120 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="A31:AA31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="BB45:BD45"/>
-    <mergeCell ref="AJ46:AK46"/>
-    <mergeCell ref="BB46:BD46"/>
-    <mergeCell ref="AJ47:AK47"/>
-    <mergeCell ref="BB47:BD47"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AS44:AU44"/>
-    <mergeCell ref="BB44:BD44"/>
-    <mergeCell ref="A44:AA44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="A84:AA84"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="Y85:AA85"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="P86:R86"/>
-    <mergeCell ref="Y86:AA86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="Y87:AA87"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="P88:R88"/>
-    <mergeCell ref="Y88:AA88"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="Y89:AA89"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="P90:R90"/>
-    <mergeCell ref="Y90:AA90"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="P94:R94"/>
-    <mergeCell ref="Y94:AA94"/>
-    <mergeCell ref="P95:R95"/>
-    <mergeCell ref="Y95:AA95"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="P91:R91"/>
-    <mergeCell ref="Y91:AA91"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="P92:R92"/>
-    <mergeCell ref="Y92:AA92"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="P93:R93"/>
-    <mergeCell ref="Y93:AA93"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="A55:AA55"/>
+    <mergeCell ref="A56:AA56"/>
+    <mergeCell ref="A57:AA57"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="A71:AA71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="Y79:AA79"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8F5A24-3A0C-4C64-83EA-114E7678234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651F5AB0-94BB-45C4-9B54-8897F9EFCF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="39">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -1946,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="L98" sqref="L98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D58" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="S97" sqref="S97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="AC86" s="26">
         <f>SUM(X96+O96+F95)</f>
-        <v>1.6319444444444451</v>
+        <v>2.5625000000000009</v>
       </c>
     </row>
     <row r="87" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -6672,17 +6672,25 @@
       <c r="S87" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="T87" s="35"/>
-      <c r="U87" s="18"/>
-      <c r="V87" s="18"/>
+      <c r="T87" s="35">
+        <v>43179</v>
+      </c>
+      <c r="U87" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V87" s="18">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="W87" s="19"/>
       <c r="X87" s="18">
         <f>SUM(V87-U87)</f>
-        <v>0</v>
-      </c>
-      <c r="Y87" s="89"/>
-      <c r="Z87" s="89"/>
-      <c r="AA87" s="90"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y87" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z87" s="162"/>
+      <c r="AA87" s="163"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
@@ -6732,17 +6740,25 @@
       <c r="S88" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="T88" s="35"/>
-      <c r="U88" s="18"/>
-      <c r="V88" s="18"/>
+      <c r="T88" s="35">
+        <v>43179</v>
+      </c>
+      <c r="U88" s="18">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="V88" s="18">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="W88" s="19"/>
       <c r="X88" s="18">
         <f t="shared" ref="X88:X95" si="25">SUM(V88-U88)</f>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="89"/>
-      <c r="Z88" s="89"/>
-      <c r="AA88" s="90"/>
+        <v>6.5972222222222321E-2</v>
+      </c>
+      <c r="Y88" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z88" s="162"/>
+      <c r="AA88" s="163"/>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
@@ -6792,17 +6808,25 @@
       <c r="S89" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="T89" s="35"/>
-      <c r="U89" s="18"/>
-      <c r="V89" s="18"/>
+      <c r="T89" s="35">
+        <v>43181</v>
+      </c>
+      <c r="U89" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V89" s="18">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="W89" s="19"/>
       <c r="X89" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="89"/>
-      <c r="Z89" s="89"/>
-      <c r="AA89" s="90"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y89" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z89" s="162"/>
+      <c r="AA89" s="163"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
@@ -6852,17 +6876,25 @@
       <c r="S90" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="T90" s="35"/>
-      <c r="U90" s="18"/>
-      <c r="V90" s="18"/>
+      <c r="T90" s="35">
+        <v>43183</v>
+      </c>
+      <c r="U90" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V90" s="18">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="W90" s="19"/>
       <c r="X90" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="89"/>
-      <c r="Z90" s="89"/>
-      <c r="AA90" s="90"/>
+        <v>0.125</v>
+      </c>
+      <c r="Y90" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z90" s="162"/>
+      <c r="AA90" s="163"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
@@ -6912,17 +6944,25 @@
       <c r="S91" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="35"/>
-      <c r="U91" s="18"/>
-      <c r="V91" s="18"/>
+      <c r="T91" s="35">
+        <v>43186</v>
+      </c>
+      <c r="U91" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V91" s="18">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="W91" s="19"/>
       <c r="X91" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Y91" s="89"/>
-      <c r="Z91" s="89"/>
-      <c r="AA91" s="90"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y91" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z91" s="162"/>
+      <c r="AA91" s="163"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
@@ -6972,17 +7012,25 @@
       <c r="S92" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="T92" s="35"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="18"/>
+      <c r="T92" s="35">
+        <v>43186</v>
+      </c>
+      <c r="U92" s="18">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="V92" s="18">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="W92" s="19"/>
       <c r="X92" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Y92" s="89"/>
-      <c r="Z92" s="89"/>
-      <c r="AA92" s="90"/>
+        <v>6.5972222222222321E-2</v>
+      </c>
+      <c r="Y92" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z92" s="162"/>
+      <c r="AA92" s="163"/>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
@@ -7032,17 +7080,25 @@
       <c r="S93" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="T93" s="35"/>
-      <c r="U93" s="18"/>
-      <c r="V93" s="18"/>
+      <c r="T93" s="35">
+        <v>43188</v>
+      </c>
+      <c r="U93" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V93" s="18">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="W93" s="19"/>
       <c r="X93" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Y93" s="89"/>
-      <c r="Z93" s="89"/>
-      <c r="AA93" s="90"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y93" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z93" s="162"/>
+      <c r="AA93" s="163"/>
     </row>
     <row r="94" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="75" t="s">
@@ -7092,17 +7148,25 @@
       <c r="S94" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="35"/>
-      <c r="U94" s="18"/>
-      <c r="V94" s="18"/>
+      <c r="T94" s="164">
+        <v>43191</v>
+      </c>
+      <c r="U94" s="165">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="V94" s="165">
+        <v>0.75</v>
+      </c>
       <c r="W94" s="87"/>
       <c r="X94" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Y94" s="89"/>
-      <c r="Z94" s="89"/>
-      <c r="AA94" s="90"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="Y94" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z94" s="162"/>
+      <c r="AA94" s="163"/>
     </row>
     <row r="95" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F95" s="78">
@@ -7134,17 +7198,25 @@
       <c r="S95" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="T95" s="83"/>
-      <c r="U95" s="84"/>
-      <c r="V95" s="84"/>
-      <c r="W95" s="85"/>
+      <c r="T95" s="83">
+        <v>43192</v>
+      </c>
+      <c r="U95" s="84">
+        <v>0.5625</v>
+      </c>
+      <c r="V95" s="84">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="W95" s="88"/>
       <c r="X95" s="52">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Y95" s="93"/>
-      <c r="Z95" s="93"/>
-      <c r="AA95" s="94"/>
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="Y95" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z95" s="159"/>
+      <c r="AA95" s="160"/>
     </row>
     <row r="96" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K96" s="3"/>
@@ -7155,7 +7227,7 @@
       <c r="T96" s="3"/>
       <c r="X96" s="78">
         <f>SUM(X87:X95)</f>
-        <v>0</v>
+        <v>0.9305555555555558</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuljahr\syp\Projekt\multiflexlbkv\multiflexlbkv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651F5AB0-94BB-45C4-9B54-8897F9EFCF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FDDCAD-52BA-41F5-9CAD-BD0E43FC648D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="39">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -224,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -1059,11 +1059,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1341,23 +1381,38 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1383,101 +1438,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1499,79 +1470,175 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1944,88 +2011,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD96"/>
+  <dimension ref="A1:BD116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D58" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="S97" sqref="S97"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F87" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="P117" sqref="P117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.85546875" style="2"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.85546875" style="2"/>
-    <col min="15" max="15" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.85546875" style="2"/>
-    <col min="19" max="19" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="10.85546875" style="2"/>
-    <col min="24" max="24" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="10.88671875" style="2"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.88671875" style="2"/>
+    <col min="15" max="15" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.88671875" style="2"/>
+    <col min="19" max="19" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="10.88671875" style="2"/>
+    <col min="24" max="24" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.88671875" style="2"/>
     <col min="28" max="28" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.85546875" style="2"/>
+    <col min="29" max="16384" width="10.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-    </row>
-    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+    </row>
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="145" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
-      <c r="P2" s="143" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
+      <c r="P2" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="Y2" s="145" t="s">
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="Y2" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="140"/>
-    </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="117"/>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -2044,11 +2111,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2067,11 +2134,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="112" t="s">
+      <c r="P3" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="113"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="119"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -2090,11 +2157,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="112" t="s">
+      <c r="Y3" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="113"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="119"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -2103,7 +2170,7 @@
         <v>1.1979166666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -2121,11 +2188,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="120" t="s">
+      <c r="G4" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="133"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -2143,11 +2210,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="121"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="133"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -2165,13 +2232,13 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="120" t="s">
+      <c r="Y4" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="121"/>
-    </row>
-    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="133"/>
+    </row>
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2189,11 +2256,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="132" t="s">
+      <c r="G5" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="132"/>
-      <c r="I5" s="133"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="138"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -2211,11 +2278,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="89" t="s">
+      <c r="P5" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="134"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="140"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -2233,13 +2300,13 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="132" t="s">
+      <c r="Y5" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="133"/>
-    </row>
-    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="138"/>
+    </row>
+    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -2257,11 +2324,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="132" t="s">
+      <c r="G6" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="132"/>
-      <c r="I6" s="133"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="138"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -2279,9 +2346,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="134"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="140"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -2299,13 +2366,13 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="89" t="s">
+      <c r="Y6" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="134"/>
-    </row>
-    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="139"/>
+      <c r="AA6" s="140"/>
+    </row>
+    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -2323,11 +2390,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="132" t="s">
+      <c r="G7" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="138"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -2345,9 +2412,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="134"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="140"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -2365,11 +2432,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="134"/>
-    </row>
-    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="140"/>
+    </row>
+    <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -2387,11 +2454,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="146" t="s">
+      <c r="G8" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -2409,11 +2476,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="89" t="s">
+      <c r="P8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="134"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="140"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -2431,11 +2498,11 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="134"/>
-    </row>
-    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="139"/>
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="140"/>
+    </row>
+    <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F9" s="6">
         <f>SUM(F4:F8)</f>
         <v>0.42361111111111116</v>
@@ -2485,7 +2552,7 @@
       <c r="Z9" s="141"/>
       <c r="AA9" s="142"/>
     </row>
-    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2503,7 +2570,7 @@
         <v>0.47569444444444436</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2512,7 +2579,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2521,73 +2588,73 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
+    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-    </row>
-    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="101"/>
+    </row>
+    <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="138" t="s">
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="117"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="138" t="s">
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="140"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="117"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="138" t="s">
+      <c r="T14" s="112"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="140"/>
-    </row>
-    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="117"/>
+    </row>
+    <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -2606,11 +2673,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="112"/>
-      <c r="I15" s="113"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="119"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2629,11 +2696,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="112" t="s">
+      <c r="P15" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="113"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="119"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2652,11 +2719,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="112" t="s">
+      <c r="Y15" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="112"/>
-      <c r="AA15" s="113"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="119"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2665,7 +2732,7 @@
         <v>4.5416666666666679</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
@@ -2683,11 +2750,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="120" t="s">
+      <c r="G16" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="133"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2705,11 +2772,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="107" t="s">
+      <c r="P16" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="109"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="122"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2727,13 +2794,13 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="107" t="s">
+      <c r="Y16" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="109"/>
-    </row>
-    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="122"/>
+    </row>
+    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
@@ -2751,11 +2818,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="132" t="s">
+      <c r="G17" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="132"/>
-      <c r="I17" s="133"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="138"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2795,11 +2862,11 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="150"/>
-    </row>
-    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="129"/>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="131"/>
+    </row>
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2817,11 +2884,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="120" t="s">
+      <c r="G18" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="133"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2839,11 +2906,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="107" t="s">
+      <c r="P18" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="109"/>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="122"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2861,13 +2928,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="107" t="s">
+      <c r="Y18" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="108"/>
-      <c r="AA18" s="109"/>
-    </row>
-    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="122"/>
+    </row>
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
@@ -2885,11 +2952,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="120" t="s">
+      <c r="G19" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2907,11 +2974,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="107" t="s">
+      <c r="P19" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="122"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2929,13 +2996,13 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="107" t="s">
+      <c r="Y19" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="108"/>
-      <c r="AA19" s="109"/>
-    </row>
-    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="122"/>
+    </row>
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
@@ -2953,11 +3020,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="132" t="s">
+      <c r="G20" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="132"/>
-      <c r="I20" s="133"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="138"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -2975,11 +3042,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="107" t="s">
+      <c r="P20" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="109"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="122"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2997,13 +3064,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="120" t="s">
+      <c r="Y20" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="121"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="133"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
@@ -3021,11 +3088,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="129" t="s">
+      <c r="G21" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -3065,13 +3132,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="122" t="s">
+      <c r="Y21" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="123"/>
-    </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z21" s="148"/>
+      <c r="AA21" s="149"/>
+    </row>
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>7</v>
       </c>
@@ -3089,11 +3156,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="120" t="s">
+      <c r="G22" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="133"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -3111,11 +3178,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="129" t="s">
+      <c r="P22" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="131"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="147"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -3133,13 +3200,13 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="120" t="s">
+      <c r="Y22" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="121"/>
-    </row>
-    <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="133"/>
+    </row>
+    <row r="23" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3157,11 +3224,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="118" t="s">
+      <c r="G23" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="154"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -3201,13 +3268,13 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="122" t="s">
+      <c r="Y23" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="123"/>
-    </row>
-    <row r="24" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="149"/>
+    </row>
+    <row r="24" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" s="6">
         <f>SUM(F16:F23)</f>
         <v>1.3055555555555558</v>
@@ -3229,11 +3296,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="120" t="s">
+      <c r="P24" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="121"/>
+      <c r="Q24" s="132"/>
+      <c r="R24" s="133"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -3251,13 +3318,13 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="122" t="s">
+      <c r="Y24" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="123"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z24" s="148"/>
+      <c r="AA24" s="149"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J25" s="38" t="s">
         <v>9</v>
       </c>
@@ -3275,11 +3342,11 @@
         <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="116" t="s">
+      <c r="P25" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="117"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="151"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -3297,21 +3364,21 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="116" t="s">
+      <c r="Y25" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="116"/>
-      <c r="AA25" s="117"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z25" s="150"/>
+      <c r="AA25" s="151"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -3329,11 +3396,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="129" t="s">
+      <c r="P26" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="131"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="147"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -3351,13 +3418,13 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="116" t="s">
+      <c r="Y26" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="117"/>
-    </row>
-    <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z26" s="150"/>
+      <c r="AA26" s="151"/>
+    </row>
+    <row r="27" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J27" s="48" t="s">
         <v>9</v>
       </c>
@@ -3375,11 +3442,11 @@
         <f>SUM(M27-L27)</f>
         <v>0.15625</v>
       </c>
-      <c r="P27" s="124" t="s">
+      <c r="P27" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="125"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="156"/>
       <c r="S27" s="38" t="s">
         <v>8</v>
       </c>
@@ -3397,18 +3464,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="122" t="s">
+      <c r="Y27" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="123"/>
-    </row>
-    <row r="28" spans="1:27" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="149"/>
+    </row>
+    <row r="28" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -3430,93 +3497,93 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="118" t="s">
+      <c r="Y28" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="118"/>
-      <c r="AA28" s="119"/>
-    </row>
-    <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z28" s="153"/>
+      <c r="AA28" s="154"/>
+    </row>
+    <row r="29" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="115"/>
-      <c r="Z29" s="115"/>
-      <c r="AA29" s="115"/>
-    </row>
-    <row r="31" spans="1:27" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="95" t="s">
+      <c r="Y29" s="152"/>
+      <c r="Z29" s="152"/>
+      <c r="AA29" s="152"/>
+    </row>
+    <row r="31" spans="1:27" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-    </row>
-    <row r="32" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="101"/>
+    </row>
+    <row r="32" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="138" t="s">
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="140"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="117"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="137"/>
-      <c r="P32" s="138" t="s">
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="139"/>
-      <c r="R32" s="140"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="117"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="136"/>
-      <c r="W32" s="136"/>
-      <c r="X32" s="137"/>
-      <c r="Y32" s="138" t="s">
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="113"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" s="139"/>
-      <c r="AA32" s="140"/>
-    </row>
-    <row r="33" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="117"/>
+    </row>
+    <row r="33" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -3535,11 +3602,11 @@
       <c r="F33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="112" t="s">
+      <c r="G33" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="113"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="119"/>
       <c r="J33" s="42" t="s">
         <v>9</v>
       </c>
@@ -3558,11 +3625,11 @@
       <c r="O33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="112" t="s">
+      <c r="P33" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="113"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="119"/>
       <c r="S33" s="13" t="s">
         <v>8</v>
       </c>
@@ -3581,11 +3648,11 @@
       <c r="X33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="112" t="s">
+      <c r="Y33" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="112"/>
-      <c r="AA33" s="113"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="119"/>
       <c r="AB33" s="27" t="s">
         <v>19</v>
       </c>
@@ -3594,7 +3661,7 @@
         <v>1.479166666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -3612,11 +3679,11 @@
         <f t="shared" ref="F34:F37" si="7">SUM(D34-C34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G34" s="107" t="s">
+      <c r="G34" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="108"/>
-      <c r="I34" s="109"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="122"/>
       <c r="J34" s="23" t="s">
         <v>9</v>
       </c>
@@ -3634,11 +3701,11 @@
         <f t="shared" ref="O34:O37" si="8">SUM(M34-L34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P34" s="107" t="s">
+      <c r="P34" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="108"/>
-      <c r="R34" s="109"/>
+      <c r="Q34" s="121"/>
+      <c r="R34" s="122"/>
       <c r="S34" s="38" t="s">
         <v>8</v>
       </c>
@@ -3656,13 +3723,13 @@
         <f t="shared" ref="X34:X35" si="9">SUM(V34-U34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y34" s="107" t="s">
+      <c r="Y34" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="Z34" s="108"/>
-      <c r="AA34" s="109"/>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="122"/>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>7</v>
       </c>
@@ -3680,11 +3747,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="108"/>
-      <c r="I35" s="109"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="122"/>
       <c r="J35" s="23" t="s">
         <v>9</v>
       </c>
@@ -3702,11 +3769,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P35" s="107" t="s">
+      <c r="P35" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="109"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="122"/>
       <c r="S35" s="38" t="s">
         <v>8</v>
       </c>
@@ -3724,13 +3791,13 @@
         <f t="shared" si="9"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y35" s="107" t="s">
+      <c r="Y35" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="108"/>
-      <c r="AA35" s="109"/>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="Z35" s="121"/>
+      <c r="AA35" s="122"/>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
@@ -3748,11 +3815,11 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G36" s="107" t="s">
+      <c r="G36" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="108"/>
-      <c r="I36" s="109"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="122"/>
       <c r="J36" s="23" t="s">
         <v>9</v>
       </c>
@@ -3770,11 +3837,11 @@
         <f t="shared" si="8"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P36" s="107" t="s">
+      <c r="P36" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="109"/>
+      <c r="Q36" s="121"/>
+      <c r="R36" s="122"/>
       <c r="S36" s="38" t="s">
         <v>8</v>
       </c>
@@ -3792,13 +3859,13 @@
         <f t="shared" ref="X36:X37" si="10">SUM(V36-U36)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y36" s="107" t="s">
+      <c r="Y36" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="Z36" s="108"/>
-      <c r="AA36" s="109"/>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="Z36" s="121"/>
+      <c r="AA36" s="122"/>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>7</v>
       </c>
@@ -3816,11 +3883,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G37" s="107" t="s">
+      <c r="G37" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="108"/>
-      <c r="I37" s="109"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="122"/>
       <c r="J37" s="23" t="s">
         <v>9</v>
       </c>
@@ -3838,11 +3905,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P37" s="107" t="s">
+      <c r="P37" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="109"/>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="122"/>
       <c r="S37" s="38" t="s">
         <v>8</v>
       </c>
@@ -3866,7 +3933,7 @@
       <c r="Z37" s="127"/>
       <c r="AA37" s="128"/>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>7</v>
       </c>
@@ -3884,11 +3951,11 @@
         <f>SUM(D38-C38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G38" s="107" t="s">
+      <c r="G38" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="108"/>
-      <c r="I38" s="109"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="122"/>
       <c r="J38" s="23" t="s">
         <v>9</v>
       </c>
@@ -3906,11 +3973,11 @@
         <f>SUM(M38-L38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P38" s="107" t="s">
+      <c r="P38" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="109"/>
+      <c r="Q38" s="121"/>
+      <c r="R38" s="122"/>
       <c r="S38" s="38" t="s">
         <v>8</v>
       </c>
@@ -3928,13 +3995,13 @@
         <f t="shared" ref="X38:X39" si="11">SUM(V38-U38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y38" s="107" t="s">
+      <c r="Y38" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="Z38" s="108"/>
-      <c r="AA38" s="109"/>
-    </row>
-    <row r="39" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z38" s="121"/>
+      <c r="AA38" s="122"/>
+    </row>
+    <row r="39" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
         <v>7</v>
       </c>
@@ -3952,11 +4019,11 @@
         <f>SUM(D39-C39)</f>
         <v>0.125</v>
       </c>
-      <c r="G39" s="151" t="s">
+      <c r="G39" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="152"/>
-      <c r="I39" s="153"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="125"/>
       <c r="J39" s="25" t="s">
         <v>9</v>
       </c>
@@ -3974,11 +4041,11 @@
         <f>SUM(M39-L39)</f>
         <v>0.125</v>
       </c>
-      <c r="P39" s="151" t="s">
+      <c r="P39" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="152"/>
-      <c r="R39" s="153"/>
+      <c r="Q39" s="124"/>
+      <c r="R39" s="125"/>
       <c r="S39" s="38" t="s">
         <v>8</v>
       </c>
@@ -3996,13 +4063,13 @@
         <f t="shared" si="11"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y39" s="107" t="s">
+      <c r="Y39" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="Z39" s="108"/>
-      <c r="AA39" s="109"/>
-    </row>
-    <row r="40" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="121"/>
+      <c r="AA39" s="122"/>
+    </row>
+    <row r="40" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="62"/>
       <c r="B40" s="63"/>
       <c r="C40" s="64"/>
@@ -4044,31 +4111,31 @@
         <f>SUM(V40-U40)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y40" s="107" t="s">
+      <c r="Y40" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="Z40" s="108"/>
-      <c r="AA40" s="109"/>
-    </row>
-    <row r="41" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z40" s="121"/>
+      <c r="AA40" s="122"/>
+    </row>
+    <row r="41" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="57"/>
       <c r="B41" s="46"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
       <c r="E41" s="4"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
       <c r="J41" s="57"/>
       <c r="K41" s="66"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
       <c r="N41" s="4"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="105"/>
-      <c r="R41" s="105"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
       <c r="S41" s="56" t="s">
         <v>8</v>
       </c>
@@ -4086,13 +4153,13 @@
         <f>SUM(V41-U41)</f>
         <v>0.125</v>
       </c>
-      <c r="Y41" s="151" t="s">
+      <c r="Y41" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="Z41" s="152"/>
-      <c r="AA41" s="153"/>
-    </row>
-    <row r="42" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z41" s="124"/>
+      <c r="AA41" s="125"/>
+    </row>
+    <row r="42" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="59"/>
       <c r="C42" s="4"/>
@@ -4108,9 +4175,9 @@
       <c r="M42" s="58"/>
       <c r="N42" s="4"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="105"/>
-      <c r="R42" s="105"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
       <c r="S42" s="62"/>
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
@@ -4124,7 +4191,7 @@
       <c r="Z42" s="65"/>
       <c r="AA42" s="65"/>
     </row>
-    <row r="43" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="59"/>
       <c r="C43" s="4"/>
@@ -4140,113 +4207,113 @@
       <c r="M43" s="58"/>
       <c r="N43" s="4"/>
       <c r="O43" s="58"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="106"/>
+      <c r="P43" s="108"/>
+      <c r="Q43" s="108"/>
+      <c r="R43" s="108"/>
       <c r="S43" s="57"/>
       <c r="T43" s="46"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
       <c r="W43" s="4"/>
       <c r="X43" s="58"/>
-      <c r="Y43" s="106"/>
-      <c r="Z43" s="106"/>
-      <c r="AA43" s="106"/>
-    </row>
-    <row r="44" spans="1:56" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="95" t="s">
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="108"/>
+      <c r="AA43" s="108"/>
+    </row>
+    <row r="44" spans="1:56" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="96"/>
-      <c r="U44" s="96"/>
-      <c r="V44" s="96"/>
-      <c r="W44" s="96"/>
-      <c r="X44" s="96"/>
-      <c r="Y44" s="96"/>
-      <c r="Z44" s="96"/>
-      <c r="AA44" s="96"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="101"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="101"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="101"/>
+      <c r="N44" s="101"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="101"/>
+      <c r="R44" s="101"/>
+      <c r="S44" s="101"/>
+      <c r="T44" s="101"/>
+      <c r="U44" s="101"/>
+      <c r="V44" s="101"/>
+      <c r="W44" s="101"/>
+      <c r="X44" s="101"/>
+      <c r="Y44" s="101"/>
+      <c r="Z44" s="101"/>
+      <c r="AA44" s="101"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="33"/>
       <c r="AG44" s="33"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="34"/>
-      <c r="AJ44" s="105"/>
-      <c r="AK44" s="105"/>
-      <c r="AL44" s="105"/>
+      <c r="AJ44" s="111"/>
+      <c r="AK44" s="111"/>
+      <c r="AL44" s="111"/>
       <c r="AM44" s="57"/>
       <c r="AN44" s="46"/>
       <c r="AO44" s="58"/>
       <c r="AP44" s="58"/>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="58"/>
-      <c r="AS44" s="106"/>
-      <c r="AT44" s="106"/>
-      <c r="AU44" s="106"/>
+      <c r="AS44" s="108"/>
+      <c r="AT44" s="108"/>
+      <c r="AU44" s="108"/>
       <c r="AV44" s="57"/>
       <c r="AW44" s="46"/>
       <c r="AX44" s="58"/>
       <c r="AY44" s="58"/>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="58"/>
-      <c r="BB44" s="106"/>
-      <c r="BC44" s="106"/>
-      <c r="BD44" s="106"/>
-    </row>
-    <row r="45" spans="1:56" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BB44" s="108"/>
+      <c r="BC44" s="108"/>
+      <c r="BD44" s="108"/>
+    </row>
+    <row r="45" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="138" t="s">
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="139"/>
-      <c r="I45" s="140"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="117"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="135"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="137"/>
-      <c r="P45" s="138" t="str">
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="115" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Q45" s="139"/>
-      <c r="R45" s="140"/>
+      <c r="Q45" s="116"/>
+      <c r="R45" s="117"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="135"/>
-      <c r="V45" s="136"/>
-      <c r="W45" s="136"/>
-      <c r="X45" s="137"/>
-      <c r="Y45" s="138" t="str">
+      <c r="T45" s="112"/>
+      <c r="U45" s="112"/>
+      <c r="V45" s="113"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="114"/>
+      <c r="Y45" s="115" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Z45" s="139"/>
-      <c r="AA45" s="140"/>
+      <c r="Z45" s="116"/>
+      <c r="AA45" s="117"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="4"/>
@@ -4262,20 +4329,20 @@
       <c r="AP45" s="58"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="58"/>
-      <c r="AS45" s="106"/>
-      <c r="AT45" s="106"/>
-      <c r="AU45" s="106"/>
+      <c r="AS45" s="108"/>
+      <c r="AT45" s="108"/>
+      <c r="AU45" s="108"/>
       <c r="AV45" s="57"/>
       <c r="AW45" s="46"/>
       <c r="AX45" s="58"/>
       <c r="AY45" s="58"/>
       <c r="AZ45" s="4"/>
       <c r="BA45" s="58"/>
-      <c r="BB45" s="106"/>
-      <c r="BC45" s="106"/>
-      <c r="BD45" s="106"/>
-    </row>
-    <row r="46" spans="1:56" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BB45" s="108"/>
+      <c r="BC45" s="108"/>
+      <c r="BD45" s="108"/>
+    </row>
+    <row r="46" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>7</v>
       </c>
@@ -4294,11 +4361,11 @@
       <c r="F46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="112" t="s">
+      <c r="G46" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="113"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="119"/>
       <c r="J46" s="42" t="s">
         <v>9</v>
       </c>
@@ -4317,11 +4384,11 @@
       <c r="O46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P46" s="112" t="s">
+      <c r="P46" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="112"/>
-      <c r="R46" s="113"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="119"/>
       <c r="S46" s="13" t="s">
         <v>8</v>
       </c>
@@ -4340,11 +4407,11 @@
       <c r="X46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y46" s="112" t="s">
+      <c r="Y46" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Z46" s="112"/>
-      <c r="AA46" s="113"/>
+      <c r="Z46" s="118"/>
+      <c r="AA46" s="119"/>
       <c r="AB46" s="27" t="s">
         <v>19</v>
       </c>
@@ -4358,8 +4425,8 @@
       <c r="AG46" s="58"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="114"/>
-      <c r="AK46" s="114"/>
+      <c r="AJ46" s="109"/>
+      <c r="AK46" s="109"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
@@ -4376,11 +4443,11 @@
       <c r="AY46" s="58"/>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="58"/>
-      <c r="BB46" s="106"/>
-      <c r="BC46" s="106"/>
-      <c r="BD46" s="106"/>
-    </row>
-    <row r="47" spans="1:56" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="BB46" s="108"/>
+      <c r="BC46" s="108"/>
+      <c r="BD46" s="108"/>
+    </row>
+    <row r="47" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>7</v>
       </c>
@@ -4398,11 +4465,11 @@
         <f t="shared" ref="F47:F50" si="12">SUM(D47-C47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="G47" s="107" t="s">
+      <c r="G47" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="108"/>
-      <c r="I47" s="109"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="122"/>
       <c r="J47" s="23" t="s">
         <v>9</v>
       </c>
@@ -4420,11 +4487,11 @@
         <f t="shared" ref="O47:O52" si="13">SUM(M47-L47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="P47" s="107" t="s">
+      <c r="P47" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="109"/>
+      <c r="Q47" s="121"/>
+      <c r="R47" s="122"/>
       <c r="S47" s="38" t="s">
         <v>8</v>
       </c>
@@ -4442,19 +4509,19 @@
         <f t="shared" ref="X47:X50" si="14">SUM(V47-U47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Y47" s="107" t="s">
+      <c r="Y47" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="108"/>
-      <c r="AA47" s="109"/>
+      <c r="Z47" s="121"/>
+      <c r="AA47" s="122"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="61"/>
       <c r="AF47" s="58"/>
       <c r="AG47" s="58"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="154"/>
-      <c r="AK47" s="154"/>
+      <c r="AJ47" s="110"/>
+      <c r="AK47" s="110"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
@@ -4471,11 +4538,11 @@
       <c r="AY47" s="4"/>
       <c r="AZ47" s="4"/>
       <c r="BA47" s="60"/>
-      <c r="BB47" s="154"/>
-      <c r="BC47" s="154"/>
-      <c r="BD47" s="154"/>
-    </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="BB47" s="110"/>
+      <c r="BC47" s="110"/>
+      <c r="BD47" s="110"/>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>7</v>
       </c>
@@ -4493,11 +4560,11 @@
         <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G48" s="107" t="s">
+      <c r="G48" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="108"/>
-      <c r="I48" s="109"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="122"/>
       <c r="J48" s="23" t="s">
         <v>9</v>
       </c>
@@ -4515,11 +4582,11 @@
         <f t="shared" si="13"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P48" s="107" t="s">
+      <c r="P48" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" s="108"/>
-      <c r="R48" s="109"/>
+      <c r="Q48" s="121"/>
+      <c r="R48" s="122"/>
       <c r="S48" s="38" t="s">
         <v>8</v>
       </c>
@@ -4537,14 +4604,14 @@
         <f t="shared" si="14"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y48" s="107" t="s">
+      <c r="Y48" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="Z48" s="108"/>
-      <c r="AA48" s="109"/>
+      <c r="Z48" s="121"/>
+      <c r="AA48" s="122"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>7</v>
       </c>
@@ -4562,11 +4629,11 @@
         <f t="shared" si="12"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G49" s="107" t="s">
+      <c r="G49" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="108"/>
-      <c r="I49" s="109"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="122"/>
       <c r="J49" s="23" t="s">
         <v>9</v>
       </c>
@@ -4584,11 +4651,11 @@
         <f t="shared" si="13"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="P49" s="107" t="s">
+      <c r="P49" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="Q49" s="108"/>
-      <c r="R49" s="109"/>
+      <c r="Q49" s="121"/>
+      <c r="R49" s="122"/>
       <c r="S49" s="38" t="s">
         <v>8</v>
       </c>
@@ -4606,14 +4673,14 @@
         <f t="shared" si="14"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="Y49" s="107" t="s">
+      <c r="Y49" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="108"/>
-      <c r="AA49" s="109"/>
+      <c r="Z49" s="121"/>
+      <c r="AA49" s="122"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>7</v>
       </c>
@@ -4631,11 +4698,11 @@
         <f t="shared" si="12"/>
         <v>0.23125000000000007</v>
       </c>
-      <c r="G50" s="107" t="s">
+      <c r="G50" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="108"/>
-      <c r="I50" s="109"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="122"/>
       <c r="J50" s="23" t="s">
         <v>9</v>
       </c>
@@ -4653,11 +4720,11 @@
         <f t="shared" si="13"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P50" s="107" t="s">
+      <c r="P50" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" s="108"/>
-      <c r="R50" s="109"/>
+      <c r="Q50" s="121"/>
+      <c r="R50" s="122"/>
       <c r="S50" s="38" t="s">
         <v>8</v>
       </c>
@@ -4675,14 +4742,14 @@
         <f t="shared" si="14"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y50" s="107" t="s">
+      <c r="Y50" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="Z50" s="108"/>
-      <c r="AA50" s="109"/>
+      <c r="Z50" s="121"/>
+      <c r="AA50" s="122"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>7</v>
       </c>
@@ -4702,11 +4769,11 @@
         <f>SUM(D51-C51)</f>
         <v>0.32291666666666669</v>
       </c>
-      <c r="G51" s="107" t="s">
+      <c r="G51" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="108"/>
-      <c r="I51" s="109"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="122"/>
       <c r="J51" s="23" t="s">
         <v>9</v>
       </c>
@@ -4724,11 +4791,11 @@
         <f>SUM(M51-L51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="P51" s="107" t="s">
+      <c r="P51" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="108"/>
-      <c r="R51" s="109"/>
+      <c r="Q51" s="121"/>
+      <c r="R51" s="122"/>
       <c r="S51" s="38" t="s">
         <v>8</v>
       </c>
@@ -4746,14 +4813,14 @@
         <f>SUM(V51-U51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="Y51" s="107" t="s">
+      <c r="Y51" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="Z51" s="108"/>
-      <c r="AA51" s="109"/>
+      <c r="Z51" s="121"/>
+      <c r="AA51" s="122"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="53" t="s">
         <v>7</v>
       </c>
@@ -4771,11 +4838,11 @@
         <f>SUM(D52-C52)</f>
         <v>0.17083333333333339</v>
       </c>
-      <c r="G52" s="107" t="s">
+      <c r="G52" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="108"/>
-      <c r="I52" s="109"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="122"/>
       <c r="J52" s="25" t="s">
         <v>9</v>
       </c>
@@ -4793,11 +4860,11 @@
         <f t="shared" si="13"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="P52" s="107" t="s">
+      <c r="P52" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="Q52" s="108"/>
-      <c r="R52" s="108"/>
+      <c r="Q52" s="121"/>
+      <c r="R52" s="121"/>
       <c r="S52" s="25" t="s">
         <v>8</v>
       </c>
@@ -4815,14 +4882,14 @@
         <f t="shared" ref="X52" si="15">SUM(V52-U52)</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="Y52" s="110" t="s">
+      <c r="Y52" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="Z52" s="110"/>
-      <c r="AA52" s="111"/>
+      <c r="Z52" s="157"/>
+      <c r="AA52" s="158"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62"/>
       <c r="B53" s="63"/>
       <c r="C53" s="64"/>
@@ -4856,169 +4923,169 @@
         <f>SUM(X47:X52)</f>
         <v>0.84375000000000022</v>
       </c>
-      <c r="Y53" s="105"/>
-      <c r="Z53" s="105"/>
-      <c r="AA53" s="105"/>
+      <c r="Y53" s="111"/>
+      <c r="Z53" s="111"/>
+      <c r="AA53" s="111"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57"/>
       <c r="B54" s="46"/>
       <c r="C54" s="58"/>
       <c r="D54" s="58"/>
       <c r="E54" s="4"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
       <c r="J54" s="57"/>
       <c r="K54" s="66"/>
       <c r="L54" s="58"/>
       <c r="M54" s="58"/>
       <c r="N54" s="4"/>
       <c r="O54" s="58"/>
-      <c r="P54" s="105"/>
-      <c r="Q54" s="105"/>
-      <c r="R54" s="105"/>
+      <c r="P54" s="111"/>
+      <c r="Q54" s="111"/>
+      <c r="R54" s="111"/>
       <c r="S54" s="57"/>
       <c r="T54" s="32"/>
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
       <c r="W54" s="33"/>
       <c r="X54" s="58"/>
-      <c r="Y54" s="106"/>
-      <c r="Z54" s="106"/>
-      <c r="AA54" s="106"/>
+      <c r="Y54" s="108"/>
+      <c r="Z54" s="108"/>
+      <c r="AA54" s="108"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="103"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="104"/>
-      <c r="M55" s="104"/>
-      <c r="N55" s="104"/>
-      <c r="O55" s="104"/>
-      <c r="P55" s="104"/>
-      <c r="Q55" s="104"/>
-      <c r="R55" s="104"/>
-      <c r="S55" s="104"/>
-      <c r="T55" s="104"/>
-      <c r="U55" s="104"/>
-      <c r="V55" s="104"/>
-      <c r="W55" s="104"/>
-      <c r="X55" s="104"/>
-      <c r="Y55" s="104"/>
-      <c r="Z55" s="104"/>
-      <c r="AA55" s="104"/>
+    <row r="55" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="159"/>
+      <c r="B55" s="160"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="160"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="160"/>
+      <c r="L55" s="160"/>
+      <c r="M55" s="160"/>
+      <c r="N55" s="160"/>
+      <c r="O55" s="160"/>
+      <c r="P55" s="160"/>
+      <c r="Q55" s="160"/>
+      <c r="R55" s="160"/>
+      <c r="S55" s="160"/>
+      <c r="T55" s="160"/>
+      <c r="U55" s="160"/>
+      <c r="V55" s="160"/>
+      <c r="W55" s="160"/>
+      <c r="X55" s="160"/>
+      <c r="Y55" s="160"/>
+      <c r="Z55" s="160"/>
+      <c r="AA55" s="160"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="103"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="104"/>
-      <c r="L56" s="104"/>
-      <c r="M56" s="104"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="104"/>
-      <c r="P56" s="104"/>
-      <c r="Q56" s="104"/>
-      <c r="R56" s="104"/>
-      <c r="S56" s="104"/>
-      <c r="T56" s="104"/>
-      <c r="U56" s="104"/>
-      <c r="V56" s="104"/>
-      <c r="W56" s="104"/>
-      <c r="X56" s="104"/>
-      <c r="Y56" s="104"/>
-      <c r="Z56" s="104"/>
-      <c r="AA56" s="104"/>
-    </row>
-    <row r="57" spans="1:31" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="95" t="s">
+    <row r="56" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="159"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="160"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="160"/>
+      <c r="L56" s="160"/>
+      <c r="M56" s="160"/>
+      <c r="N56" s="160"/>
+      <c r="O56" s="160"/>
+      <c r="P56" s="160"/>
+      <c r="Q56" s="160"/>
+      <c r="R56" s="160"/>
+      <c r="S56" s="160"/>
+      <c r="T56" s="160"/>
+      <c r="U56" s="160"/>
+      <c r="V56" s="160"/>
+      <c r="W56" s="160"/>
+      <c r="X56" s="160"/>
+      <c r="Y56" s="160"/>
+      <c r="Z56" s="160"/>
+      <c r="AA56" s="160"/>
+    </row>
+    <row r="57" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="96"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="96"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="96"/>
-      <c r="U57" s="96"/>
-      <c r="V57" s="96"/>
-      <c r="W57" s="96"/>
-      <c r="X57" s="96"/>
-      <c r="Y57" s="96"/>
-      <c r="Z57" s="96"/>
-      <c r="AA57" s="96"/>
-    </row>
-    <row r="58" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="101"/>
+      <c r="N57" s="101"/>
+      <c r="O57" s="101"/>
+      <c r="P57" s="101"/>
+      <c r="Q57" s="101"/>
+      <c r="R57" s="101"/>
+      <c r="S57" s="101"/>
+      <c r="T57" s="101"/>
+      <c r="U57" s="101"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
+      <c r="X57" s="101"/>
+      <c r="Y57" s="101"/>
+      <c r="Z57" s="101"/>
+      <c r="AA57" s="101"/>
+    </row>
+    <row r="58" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="70"/>
       <c r="B58" s="71"/>
       <c r="C58" s="70"/>
       <c r="D58" s="70"/>
       <c r="E58" s="70"/>
       <c r="F58" s="70"/>
-      <c r="G58" s="97" t="s">
+      <c r="G58" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="98"/>
-      <c r="I58" s="99"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="104"/>
       <c r="J58" s="70"/>
       <c r="K58" s="70"/>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
       <c r="N58" s="70"/>
       <c r="O58" s="70"/>
-      <c r="P58" s="97" t="str">
+      <c r="P58" s="102" t="str">
         <f>G58</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Q58" s="98"/>
-      <c r="R58" s="99"/>
+      <c r="Q58" s="103"/>
+      <c r="R58" s="104"/>
       <c r="S58" s="70"/>
       <c r="T58" s="70"/>
       <c r="U58" s="70"/>
       <c r="V58" s="70"/>
       <c r="W58" s="70"/>
       <c r="X58" s="70"/>
-      <c r="Y58" s="97" t="str">
+      <c r="Y58" s="102" t="str">
         <f>G58</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Z58" s="98"/>
-      <c r="AA58" s="99"/>
-    </row>
-    <row r="59" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z58" s="103"/>
+      <c r="AA58" s="104"/>
+    </row>
+    <row r="59" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="72" t="s">
         <v>7</v>
       </c>
@@ -5037,11 +5104,11 @@
       <c r="F59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="100" t="s">
+      <c r="G59" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
       <c r="J59" s="80" t="s">
         <v>9</v>
       </c>
@@ -5060,11 +5127,11 @@
       <c r="O59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P59" s="100" t="s">
+      <c r="P59" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="101"/>
-      <c r="R59" s="101"/>
+      <c r="Q59" s="106"/>
+      <c r="R59" s="106"/>
       <c r="S59" s="80" t="s">
         <v>8</v>
       </c>
@@ -5083,11 +5150,11 @@
       <c r="X59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="Y59" s="100" t="s">
+      <c r="Y59" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Z59" s="101"/>
-      <c r="AA59" s="102"/>
+      <c r="Z59" s="106"/>
+      <c r="AA59" s="107"/>
       <c r="AB59" s="81" t="s">
         <v>19</v>
       </c>
@@ -5096,7 +5163,7 @@
         <v>2.8437500000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>7</v>
       </c>
@@ -5114,11 +5181,11 @@
         <f>SUM(D60-C60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G60" s="89" t="s">
+      <c r="G60" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="89"/>
-      <c r="I60" s="90"/>
+      <c r="H60" s="139"/>
+      <c r="I60" s="161"/>
       <c r="J60" s="74" t="s">
         <v>9</v>
       </c>
@@ -5136,11 +5203,11 @@
         <f>SUM(M60-L60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P60" s="89" t="s">
+      <c r="P60" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Q60" s="89"/>
-      <c r="R60" s="90"/>
+      <c r="Q60" s="139"/>
+      <c r="R60" s="161"/>
       <c r="S60" s="74" t="s">
         <v>8</v>
       </c>
@@ -5158,13 +5225,13 @@
         <f>SUM(V60-U60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y60" s="89" t="s">
+      <c r="Y60" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Z60" s="89"/>
-      <c r="AA60" s="90"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z60" s="139"/>
+      <c r="AA60" s="161"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>7</v>
       </c>
@@ -5182,11 +5249,11 @@
         <f t="shared" ref="F61:F68" si="16">SUM(D61-C61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G61" s="89" t="s">
+      <c r="G61" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="89"/>
-      <c r="I61" s="90"/>
+      <c r="H61" s="139"/>
+      <c r="I61" s="161"/>
       <c r="J61" s="74" t="s">
         <v>9</v>
       </c>
@@ -5204,11 +5271,11 @@
         <f t="shared" ref="O61:O68" si="17">SUM(M61-L61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P61" s="89" t="s">
+      <c r="P61" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Q61" s="89"/>
-      <c r="R61" s="90"/>
+      <c r="Q61" s="139"/>
+      <c r="R61" s="161"/>
       <c r="S61" s="74" t="s">
         <v>8</v>
       </c>
@@ -5226,13 +5293,13 @@
         <f t="shared" ref="X61:X68" si="18">SUM(V61-U61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y61" s="89" t="s">
+      <c r="Y61" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Z61" s="89"/>
-      <c r="AA61" s="90"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z61" s="139"/>
+      <c r="AA61" s="161"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>7</v>
       </c>
@@ -5250,11 +5317,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G62" s="89" t="s">
+      <c r="G62" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="89"/>
-      <c r="I62" s="90"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="161"/>
       <c r="J62" s="74" t="s">
         <v>9</v>
       </c>
@@ -5272,11 +5339,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P62" s="89" t="s">
+      <c r="P62" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Q62" s="89"/>
-      <c r="R62" s="90"/>
+      <c r="Q62" s="139"/>
+      <c r="R62" s="161"/>
       <c r="S62" s="74" t="s">
         <v>8</v>
       </c>
@@ -5294,13 +5361,13 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y62" s="89" t="s">
+      <c r="Y62" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Z62" s="89"/>
-      <c r="AA62" s="90"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z62" s="139"/>
+      <c r="AA62" s="161"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>7</v>
       </c>
@@ -5318,11 +5385,11 @@
         <f t="shared" si="16"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="G63" s="89" t="s">
+      <c r="G63" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="89"/>
-      <c r="I63" s="90"/>
+      <c r="H63" s="139"/>
+      <c r="I63" s="161"/>
       <c r="J63" s="74" t="s">
         <v>9</v>
       </c>
@@ -5340,11 +5407,11 @@
         <f t="shared" si="17"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P63" s="89" t="s">
+      <c r="P63" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Q63" s="89"/>
-      <c r="R63" s="90"/>
+      <c r="Q63" s="139"/>
+      <c r="R63" s="161"/>
       <c r="S63" s="74" t="s">
         <v>8</v>
       </c>
@@ -5362,13 +5429,13 @@
         <f t="shared" si="18"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="Y63" s="89" t="s">
+      <c r="Y63" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Z63" s="89"/>
-      <c r="AA63" s="90"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z63" s="139"/>
+      <c r="AA63" s="161"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>7</v>
       </c>
@@ -5386,11 +5453,11 @@
         <f t="shared" si="16"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G64" s="89" t="s">
+      <c r="G64" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="89"/>
-      <c r="I64" s="90"/>
+      <c r="H64" s="139"/>
+      <c r="I64" s="161"/>
       <c r="J64" s="74" t="s">
         <v>9</v>
       </c>
@@ -5408,11 +5475,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P64" s="89" t="s">
+      <c r="P64" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Q64" s="89"/>
-      <c r="R64" s="90"/>
+      <c r="Q64" s="139"/>
+      <c r="R64" s="161"/>
       <c r="S64" s="74" t="s">
         <v>8</v>
       </c>
@@ -5430,13 +5497,13 @@
         <f t="shared" si="18"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y64" s="89" t="s">
+      <c r="Y64" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Z64" s="89"/>
-      <c r="AA64" s="90"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z64" s="139"/>
+      <c r="AA64" s="161"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>7</v>
       </c>
@@ -5454,11 +5521,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G65" s="89" t="s">
+      <c r="G65" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="89"/>
-      <c r="I65" s="90"/>
+      <c r="H65" s="139"/>
+      <c r="I65" s="161"/>
       <c r="J65" s="74" t="s">
         <v>9</v>
       </c>
@@ -5476,11 +5543,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P65" s="89" t="s">
+      <c r="P65" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="89"/>
-      <c r="R65" s="90"/>
+      <c r="Q65" s="139"/>
+      <c r="R65" s="161"/>
       <c r="S65" s="74" t="s">
         <v>8</v>
       </c>
@@ -5498,13 +5565,13 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y65" s="89" t="s">
+      <c r="Y65" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Z65" s="89"/>
-      <c r="AA65" s="90"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z65" s="139"/>
+      <c r="AA65" s="161"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>7</v>
       </c>
@@ -5522,11 +5589,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G66" s="89" t="s">
+      <c r="G66" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="89"/>
-      <c r="I66" s="90"/>
+      <c r="H66" s="139"/>
+      <c r="I66" s="161"/>
       <c r="J66" s="74" t="s">
         <v>9</v>
       </c>
@@ -5544,11 +5611,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P66" s="89" t="s">
+      <c r="P66" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Q66" s="89"/>
-      <c r="R66" s="90"/>
+      <c r="Q66" s="139"/>
+      <c r="R66" s="161"/>
       <c r="S66" s="74" t="s">
         <v>8</v>
       </c>
@@ -5566,13 +5633,13 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y66" s="89" t="s">
+      <c r="Y66" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Z66" s="89"/>
-      <c r="AA66" s="90"/>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z66" s="139"/>
+      <c r="AA66" s="161"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>7</v>
       </c>
@@ -5590,11 +5657,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G67" s="89" t="s">
+      <c r="G67" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="89"/>
-      <c r="I67" s="90"/>
+      <c r="H67" s="139"/>
+      <c r="I67" s="161"/>
       <c r="J67" s="74" t="s">
         <v>9</v>
       </c>
@@ -5612,11 +5679,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P67" s="89" t="s">
+      <c r="P67" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Q67" s="89"/>
-      <c r="R67" s="90"/>
+      <c r="Q67" s="139"/>
+      <c r="R67" s="161"/>
       <c r="S67" s="74" t="s">
         <v>8</v>
       </c>
@@ -5634,13 +5701,13 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y67" s="89" t="s">
+      <c r="Y67" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Z67" s="89"/>
-      <c r="AA67" s="90"/>
-    </row>
-    <row r="68" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z67" s="139"/>
+      <c r="AA67" s="161"/>
+    </row>
+    <row r="68" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="75" t="s">
         <v>7</v>
       </c>
@@ -5658,11 +5725,11 @@
         <f t="shared" si="16"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G68" s="91" t="s">
+      <c r="G68" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="91"/>
-      <c r="I68" s="92"/>
+      <c r="H68" s="162"/>
+      <c r="I68" s="163"/>
       <c r="J68" s="75" t="s">
         <v>9</v>
       </c>
@@ -5680,11 +5747,11 @@
         <f t="shared" si="17"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="P68" s="91" t="s">
+      <c r="P68" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="91"/>
-      <c r="R68" s="92"/>
+      <c r="Q68" s="162"/>
+      <c r="R68" s="163"/>
       <c r="S68" s="75" t="s">
         <v>8</v>
       </c>
@@ -5702,13 +5769,13 @@
         <f t="shared" si="18"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="Y68" s="91" t="s">
+      <c r="Y68" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="Z68" s="91"/>
-      <c r="AA68" s="92"/>
-    </row>
-    <row r="69" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z68" s="162"/>
+      <c r="AA68" s="163"/>
+    </row>
+    <row r="69" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F69" s="78">
         <f>SUM(F60:F68)</f>
         <v>0.97569444444444453</v>
@@ -5724,75 +5791,75 @@
         <v>0.97569444444444453</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="95" t="s">
+    <row r="71" spans="1:29" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="96"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="96"/>
-      <c r="L71" s="96"/>
-      <c r="M71" s="96"/>
-      <c r="N71" s="96"/>
-      <c r="O71" s="96"/>
-      <c r="P71" s="96"/>
-      <c r="Q71" s="96"/>
-      <c r="R71" s="96"/>
-      <c r="S71" s="96"/>
-      <c r="T71" s="96"/>
-      <c r="U71" s="96"/>
-      <c r="V71" s="96"/>
-      <c r="W71" s="96"/>
-      <c r="X71" s="96"/>
-      <c r="Y71" s="96"/>
-      <c r="Z71" s="96"/>
-      <c r="AA71" s="96"/>
-    </row>
-    <row r="72" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="101"/>
+      <c r="I71" s="101"/>
+      <c r="J71" s="101"/>
+      <c r="K71" s="101"/>
+      <c r="L71" s="101"/>
+      <c r="M71" s="101"/>
+      <c r="N71" s="101"/>
+      <c r="O71" s="101"/>
+      <c r="P71" s="101"/>
+      <c r="Q71" s="101"/>
+      <c r="R71" s="101"/>
+      <c r="S71" s="101"/>
+      <c r="T71" s="101"/>
+      <c r="U71" s="101"/>
+      <c r="V71" s="101"/>
+      <c r="W71" s="101"/>
+      <c r="X71" s="101"/>
+      <c r="Y71" s="101"/>
+      <c r="Z71" s="101"/>
+      <c r="AA71" s="101"/>
+    </row>
+    <row r="72" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="70"/>
       <c r="B72" s="71"/>
       <c r="C72" s="70"/>
       <c r="D72" s="70"/>
       <c r="E72" s="70"/>
       <c r="F72" s="70"/>
-      <c r="G72" s="97" t="s">
+      <c r="G72" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="98"/>
-      <c r="I72" s="99"/>
+      <c r="H72" s="103"/>
+      <c r="I72" s="104"/>
       <c r="J72" s="70"/>
       <c r="K72" s="70"/>
       <c r="L72" s="70"/>
       <c r="M72" s="70"/>
       <c r="N72" s="70"/>
       <c r="O72" s="70"/>
-      <c r="P72" s="97" t="str">
+      <c r="P72" s="102" t="str">
         <f>G72</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Q72" s="98"/>
-      <c r="R72" s="99"/>
+      <c r="Q72" s="103"/>
+      <c r="R72" s="104"/>
       <c r="S72" s="70"/>
       <c r="T72" s="70"/>
       <c r="U72" s="70"/>
       <c r="V72" s="70"/>
       <c r="W72" s="70"/>
       <c r="X72" s="70"/>
-      <c r="Y72" s="97" t="str">
+      <c r="Y72" s="102" t="str">
         <f>G72</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Z72" s="98"/>
-      <c r="AA72" s="99"/>
-    </row>
-    <row r="73" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z72" s="103"/>
+      <c r="AA72" s="104"/>
+    </row>
+    <row r="73" spans="1:29" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="72" t="s">
         <v>7</v>
       </c>
@@ -5811,11 +5878,11 @@
       <c r="F73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="100" t="s">
+      <c r="G73" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="101"/>
-      <c r="I73" s="101"/>
+      <c r="H73" s="106"/>
+      <c r="I73" s="106"/>
       <c r="J73" s="80" t="s">
         <v>9</v>
       </c>
@@ -5834,11 +5901,11 @@
       <c r="O73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P73" s="100" t="s">
+      <c r="P73" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Q73" s="101"/>
-      <c r="R73" s="101"/>
+      <c r="Q73" s="106"/>
+      <c r="R73" s="106"/>
       <c r="S73" s="80" t="s">
         <v>8</v>
       </c>
@@ -5857,11 +5924,11 @@
       <c r="X73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="Y73" s="100" t="s">
+      <c r="Y73" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Z73" s="101"/>
-      <c r="AA73" s="102"/>
+      <c r="Z73" s="106"/>
+      <c r="AA73" s="107"/>
       <c r="AB73" s="81" t="s">
         <v>19</v>
       </c>
@@ -5870,7 +5937,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>7</v>
       </c>
@@ -5888,11 +5955,11 @@
         <f>SUM(D74-C74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G74" s="89" t="s">
+      <c r="G74" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="89"/>
-      <c r="I74" s="90"/>
+      <c r="H74" s="139"/>
+      <c r="I74" s="161"/>
       <c r="J74" s="74" t="s">
         <v>9</v>
       </c>
@@ -5910,11 +5977,11 @@
         <f>SUM(M74-L74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P74" s="89" t="s">
+      <c r="P74" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Q74" s="89"/>
-      <c r="R74" s="90"/>
+      <c r="Q74" s="139"/>
+      <c r="R74" s="161"/>
       <c r="S74" s="74" t="s">
         <v>8</v>
       </c>
@@ -5932,13 +5999,13 @@
         <f>SUM(V74-U74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y74" s="89" t="s">
+      <c r="Y74" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Z74" s="89"/>
-      <c r="AA74" s="90"/>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z74" s="139"/>
+      <c r="AA74" s="161"/>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>7</v>
       </c>
@@ -5956,11 +6023,11 @@
         <f t="shared" ref="F75:F81" si="19">SUM(D75-C75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G75" s="89" t="s">
+      <c r="G75" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="89"/>
-      <c r="I75" s="90"/>
+      <c r="H75" s="139"/>
+      <c r="I75" s="161"/>
       <c r="J75" s="74" t="s">
         <v>9</v>
       </c>
@@ -5978,11 +6045,11 @@
         <f t="shared" ref="O75:O81" si="20">SUM(M75-L75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P75" s="89" t="s">
+      <c r="P75" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Q75" s="89"/>
-      <c r="R75" s="90"/>
+      <c r="Q75" s="139"/>
+      <c r="R75" s="161"/>
       <c r="S75" s="74" t="s">
         <v>8</v>
       </c>
@@ -6000,13 +6067,13 @@
         <f t="shared" ref="X75:X81" si="21">SUM(V75-U75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y75" s="89" t="s">
+      <c r="Y75" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Z75" s="89"/>
-      <c r="AA75" s="90"/>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z75" s="139"/>
+      <c r="AA75" s="161"/>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>7</v>
       </c>
@@ -6024,11 +6091,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G76" s="89" t="s">
+      <c r="G76" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="89"/>
-      <c r="I76" s="90"/>
+      <c r="H76" s="139"/>
+      <c r="I76" s="161"/>
       <c r="J76" s="74" t="s">
         <v>9</v>
       </c>
@@ -6046,11 +6113,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P76" s="89" t="s">
+      <c r="P76" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Q76" s="89"/>
-      <c r="R76" s="90"/>
+      <c r="Q76" s="139"/>
+      <c r="R76" s="161"/>
       <c r="S76" s="74" t="s">
         <v>8</v>
       </c>
@@ -6068,13 +6135,13 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y76" s="89" t="s">
+      <c r="Y76" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="Z76" s="89"/>
-      <c r="AA76" s="90"/>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z76" s="139"/>
+      <c r="AA76" s="161"/>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>7</v>
       </c>
@@ -6092,11 +6159,11 @@
         <f t="shared" si="19"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G77" s="89" t="s">
+      <c r="G77" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="H77" s="89"/>
-      <c r="I77" s="90"/>
+      <c r="H77" s="139"/>
+      <c r="I77" s="161"/>
       <c r="J77" s="74" t="s">
         <v>9</v>
       </c>
@@ -6114,11 +6181,11 @@
         <f t="shared" si="20"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="P77" s="89" t="s">
+      <c r="P77" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Q77" s="89"/>
-      <c r="R77" s="90"/>
+      <c r="Q77" s="139"/>
+      <c r="R77" s="161"/>
       <c r="S77" s="74" t="s">
         <v>8</v>
       </c>
@@ -6136,13 +6203,13 @@
         <f t="shared" si="21"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Y77" s="89" t="s">
+      <c r="Y77" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Z77" s="89"/>
-      <c r="AA77" s="90"/>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z77" s="139"/>
+      <c r="AA77" s="161"/>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>7</v>
       </c>
@@ -6160,11 +6227,11 @@
         <f t="shared" si="19"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G78" s="89" t="s">
+      <c r="G78" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="H78" s="89"/>
-      <c r="I78" s="90"/>
+      <c r="H78" s="139"/>
+      <c r="I78" s="161"/>
       <c r="J78" s="74" t="s">
         <v>9</v>
       </c>
@@ -6182,11 +6249,11 @@
         <f t="shared" si="20"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P78" s="89" t="s">
+      <c r="P78" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Q78" s="89"/>
-      <c r="R78" s="90"/>
+      <c r="Q78" s="139"/>
+      <c r="R78" s="161"/>
       <c r="S78" s="74" t="s">
         <v>8</v>
       </c>
@@ -6204,13 +6271,13 @@
         <f t="shared" si="21"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y78" s="89" t="s">
+      <c r="Y78" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Z78" s="89"/>
-      <c r="AA78" s="90"/>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z78" s="139"/>
+      <c r="AA78" s="161"/>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>7</v>
       </c>
@@ -6228,11 +6295,11 @@
         <f t="shared" si="19"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G79" s="89" t="s">
+      <c r="G79" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="H79" s="89"/>
-      <c r="I79" s="90"/>
+      <c r="H79" s="139"/>
+      <c r="I79" s="161"/>
       <c r="J79" s="74" t="s">
         <v>9</v>
       </c>
@@ -6250,11 +6317,11 @@
         <f t="shared" si="20"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P79" s="89" t="s">
+      <c r="P79" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Q79" s="89"/>
-      <c r="R79" s="90"/>
+      <c r="Q79" s="139"/>
+      <c r="R79" s="161"/>
       <c r="S79" s="74" t="s">
         <v>8</v>
       </c>
@@ -6272,13 +6339,13 @@
         <f t="shared" si="21"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y79" s="89" t="s">
+      <c r="Y79" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Z79" s="89"/>
-      <c r="AA79" s="90"/>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z79" s="139"/>
+      <c r="AA79" s="161"/>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>7</v>
       </c>
@@ -6296,11 +6363,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G80" s="89" t="s">
+      <c r="G80" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="89"/>
-      <c r="I80" s="90"/>
+      <c r="H80" s="139"/>
+      <c r="I80" s="161"/>
       <c r="J80" s="74" t="s">
         <v>9</v>
       </c>
@@ -6318,11 +6385,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P80" s="89" t="s">
+      <c r="P80" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Q80" s="89"/>
-      <c r="R80" s="90"/>
+      <c r="Q80" s="139"/>
+      <c r="R80" s="161"/>
       <c r="S80" s="74" t="s">
         <v>8</v>
       </c>
@@ -6340,13 +6407,13 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y80" s="89" t="s">
+      <c r="Y80" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Z80" s="89"/>
-      <c r="AA80" s="90"/>
-    </row>
-    <row r="81" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z80" s="139"/>
+      <c r="AA80" s="161"/>
+    </row>
+    <row r="81" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="75" t="s">
         <v>7</v>
       </c>
@@ -6364,11 +6431,11 @@
         <f t="shared" si="19"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="G81" s="91" t="s">
+      <c r="G81" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="H81" s="91"/>
-      <c r="I81" s="92"/>
+      <c r="H81" s="162"/>
+      <c r="I81" s="163"/>
       <c r="J81" s="86" t="s">
         <v>9</v>
       </c>
@@ -6386,11 +6453,11 @@
         <f t="shared" si="20"/>
         <v>0.125</v>
       </c>
-      <c r="P81" s="89" t="s">
+      <c r="P81" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Q81" s="89"/>
-      <c r="R81" s="90"/>
+      <c r="Q81" s="139"/>
+      <c r="R81" s="161"/>
       <c r="S81" s="86" t="s">
         <v>8</v>
       </c>
@@ -6408,13 +6475,13 @@
         <f t="shared" si="21"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Y81" s="89" t="s">
+      <c r="Y81" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Z81" s="89"/>
-      <c r="AA81" s="90"/>
-    </row>
-    <row r="82" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z81" s="139"/>
+      <c r="AA81" s="161"/>
+    </row>
+    <row r="82" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F82" s="78">
         <f>SUM(F74:F81)</f>
         <v>0.84027777777777779</v>
@@ -6438,11 +6505,11 @@
         <f>SUM(M82-L82-N82)</f>
         <v>0.14583333333333334</v>
       </c>
-      <c r="P82" s="93" t="s">
+      <c r="P82" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="Q82" s="93"/>
-      <c r="R82" s="94"/>
+      <c r="Q82" s="164"/>
+      <c r="R82" s="165"/>
       <c r="S82" s="82" t="s">
         <v>8</v>
       </c>
@@ -6460,13 +6527,13 @@
         <f t="shared" ref="X82" si="22">SUM(V82-U82)</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="Y82" s="93" t="s">
+      <c r="Y82" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="Z82" s="93"/>
-      <c r="AA82" s="94"/>
-    </row>
-    <row r="83" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z82" s="164"/>
+      <c r="AA82" s="165"/>
+    </row>
+    <row r="83" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K83" s="3"/>
       <c r="O83" s="78">
         <f>SUM(O74:O82)</f>
@@ -6478,75 +6545,75 @@
         <v>0.67361111111111116</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="95" t="s">
+    <row r="84" spans="1:29" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="96"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="96"/>
-      <c r="E84" s="96"/>
-      <c r="F84" s="96"/>
-      <c r="G84" s="96"/>
-      <c r="H84" s="96"/>
-      <c r="I84" s="96"/>
-      <c r="J84" s="96"/>
-      <c r="K84" s="96"/>
-      <c r="L84" s="96"/>
-      <c r="M84" s="96"/>
-      <c r="N84" s="96"/>
-      <c r="O84" s="96"/>
-      <c r="P84" s="96"/>
-      <c r="Q84" s="96"/>
-      <c r="R84" s="96"/>
-      <c r="S84" s="96"/>
-      <c r="T84" s="96"/>
-      <c r="U84" s="96"/>
-      <c r="V84" s="96"/>
-      <c r="W84" s="96"/>
-      <c r="X84" s="96"/>
-      <c r="Y84" s="96"/>
-      <c r="Z84" s="96"/>
-      <c r="AA84" s="96"/>
-    </row>
-    <row r="85" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="101"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="101"/>
+      <c r="F84" s="101"/>
+      <c r="G84" s="101"/>
+      <c r="H84" s="101"/>
+      <c r="I84" s="101"/>
+      <c r="J84" s="101"/>
+      <c r="K84" s="101"/>
+      <c r="L84" s="101"/>
+      <c r="M84" s="101"/>
+      <c r="N84" s="101"/>
+      <c r="O84" s="101"/>
+      <c r="P84" s="101"/>
+      <c r="Q84" s="101"/>
+      <c r="R84" s="101"/>
+      <c r="S84" s="101"/>
+      <c r="T84" s="101"/>
+      <c r="U84" s="101"/>
+      <c r="V84" s="101"/>
+      <c r="W84" s="101"/>
+      <c r="X84" s="101"/>
+      <c r="Y84" s="101"/>
+      <c r="Z84" s="101"/>
+      <c r="AA84" s="101"/>
+    </row>
+    <row r="85" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="70"/>
       <c r="B85" s="71"/>
       <c r="C85" s="70"/>
       <c r="D85" s="70"/>
       <c r="E85" s="70"/>
       <c r="F85" s="70"/>
-      <c r="G85" s="97" t="s">
+      <c r="G85" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="H85" s="98"/>
-      <c r="I85" s="99"/>
+      <c r="H85" s="103"/>
+      <c r="I85" s="104"/>
       <c r="J85" s="70"/>
       <c r="K85" s="70"/>
       <c r="L85" s="70"/>
       <c r="M85" s="70"/>
       <c r="N85" s="70"/>
       <c r="O85" s="70"/>
-      <c r="P85" s="97" t="str">
+      <c r="P85" s="102" t="str">
         <f>G85</f>
         <v>Sprint: März-Aprill</v>
       </c>
-      <c r="Q85" s="98"/>
-      <c r="R85" s="99"/>
+      <c r="Q85" s="103"/>
+      <c r="R85" s="104"/>
       <c r="S85" s="70"/>
       <c r="T85" s="70"/>
       <c r="U85" s="70"/>
       <c r="V85" s="70"/>
       <c r="W85" s="70"/>
       <c r="X85" s="70"/>
-      <c r="Y85" s="97" t="str">
+      <c r="Y85" s="102" t="str">
         <f>G85</f>
         <v>Sprint: März-Aprill</v>
       </c>
-      <c r="Z85" s="98"/>
-      <c r="AA85" s="99"/>
-    </row>
-    <row r="86" spans="1:29" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z85" s="103"/>
+      <c r="AA85" s="104"/>
+    </row>
+    <row r="86" spans="1:29" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="72" t="s">
         <v>7</v>
       </c>
@@ -6565,11 +6632,11 @@
       <c r="F86" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G86" s="100" t="s">
+      <c r="G86" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="H86" s="101"/>
-      <c r="I86" s="101"/>
+      <c r="H86" s="106"/>
+      <c r="I86" s="106"/>
       <c r="J86" s="80" t="s">
         <v>9</v>
       </c>
@@ -6588,11 +6655,11 @@
       <c r="O86" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P86" s="100" t="s">
+      <c r="P86" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Q86" s="101"/>
-      <c r="R86" s="101"/>
+      <c r="Q86" s="106"/>
+      <c r="R86" s="106"/>
       <c r="S86" s="80" t="s">
         <v>8</v>
       </c>
@@ -6611,11 +6678,11 @@
       <c r="X86" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="Y86" s="100" t="s">
+      <c r="Y86" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Z86" s="101"/>
-      <c r="AA86" s="102"/>
+      <c r="Z86" s="106"/>
+      <c r="AA86" s="107"/>
       <c r="AB86" s="81" t="s">
         <v>19</v>
       </c>
@@ -6624,7 +6691,7 @@
         <v>2.5625000000000009</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>7</v>
       </c>
@@ -6642,11 +6709,11 @@
         <f>SUM(D87-C87)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G87" s="155" t="s">
+      <c r="G87" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H87" s="156"/>
-      <c r="I87" s="157"/>
+      <c r="H87" s="98"/>
+      <c r="I87" s="99"/>
       <c r="J87" s="74" t="s">
         <v>9</v>
       </c>
@@ -6664,11 +6731,11 @@
         <f>SUM(M87-L87)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P87" s="161" t="s">
+      <c r="P87" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Q87" s="162"/>
-      <c r="R87" s="163"/>
+      <c r="Q87" s="95"/>
+      <c r="R87" s="96"/>
       <c r="S87" s="74" t="s">
         <v>8</v>
       </c>
@@ -6686,13 +6753,13 @@
         <f>SUM(V87-U87)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y87" s="161" t="s">
+      <c r="Y87" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Z87" s="162"/>
-      <c r="AA87" s="163"/>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z87" s="95"/>
+      <c r="AA87" s="96"/>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>7</v>
       </c>
@@ -6710,11 +6777,11 @@
         <f t="shared" ref="F88:F94" si="23">SUM(D88-C88)</f>
         <v>6.5972222222222321E-2</v>
       </c>
-      <c r="G88" s="155" t="s">
+      <c r="G88" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H88" s="156"/>
-      <c r="I88" s="157"/>
+      <c r="H88" s="98"/>
+      <c r="I88" s="99"/>
       <c r="J88" s="74" t="s">
         <v>9</v>
       </c>
@@ -6732,11 +6799,11 @@
         <f t="shared" ref="O88:O94" si="24">SUM(M88-L88)</f>
         <v>6.5972222222222321E-2</v>
       </c>
-      <c r="P88" s="161" t="s">
+      <c r="P88" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Q88" s="162"/>
-      <c r="R88" s="163"/>
+      <c r="Q88" s="95"/>
+      <c r="R88" s="96"/>
       <c r="S88" s="74" t="s">
         <v>8</v>
       </c>
@@ -6754,13 +6821,13 @@
         <f t="shared" ref="X88:X95" si="25">SUM(V88-U88)</f>
         <v>6.5972222222222321E-2</v>
       </c>
-      <c r="Y88" s="161" t="s">
+      <c r="Y88" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Z88" s="162"/>
-      <c r="AA88" s="163"/>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z88" s="95"/>
+      <c r="AA88" s="96"/>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>7</v>
       </c>
@@ -6778,11 +6845,11 @@
         <f t="shared" si="23"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G89" s="155" t="s">
+      <c r="G89" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="156"/>
-      <c r="I89" s="157"/>
+      <c r="H89" s="98"/>
+      <c r="I89" s="99"/>
       <c r="J89" s="74" t="s">
         <v>9</v>
       </c>
@@ -6800,11 +6867,11 @@
         <f t="shared" si="24"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P89" s="161" t="s">
+      <c r="P89" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Q89" s="162"/>
-      <c r="R89" s="163"/>
+      <c r="Q89" s="95"/>
+      <c r="R89" s="96"/>
       <c r="S89" s="74" t="s">
         <v>8</v>
       </c>
@@ -6822,13 +6889,13 @@
         <f t="shared" si="25"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y89" s="161" t="s">
+      <c r="Y89" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Z89" s="162"/>
-      <c r="AA89" s="163"/>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z89" s="95"/>
+      <c r="AA89" s="96"/>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>7</v>
       </c>
@@ -6846,11 +6913,11 @@
         <f t="shared" si="23"/>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G90" s="155" t="s">
+      <c r="G90" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H90" s="156"/>
-      <c r="I90" s="157"/>
+      <c r="H90" s="98"/>
+      <c r="I90" s="99"/>
       <c r="J90" s="74" t="s">
         <v>9</v>
       </c>
@@ -6868,11 +6935,11 @@
         <f t="shared" si="24"/>
         <v>0.125</v>
       </c>
-      <c r="P90" s="161" t="s">
+      <c r="P90" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Q90" s="162"/>
-      <c r="R90" s="163"/>
+      <c r="Q90" s="95"/>
+      <c r="R90" s="96"/>
       <c r="S90" s="74" t="s">
         <v>8</v>
       </c>
@@ -6890,13 +6957,13 @@
         <f t="shared" si="25"/>
         <v>0.125</v>
       </c>
-      <c r="Y90" s="161" t="s">
+      <c r="Y90" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Z90" s="162"/>
-      <c r="AA90" s="163"/>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z90" s="95"/>
+      <c r="AA90" s="96"/>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>7</v>
       </c>
@@ -6914,11 +6981,11 @@
         <f t="shared" si="23"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G91" s="155" t="s">
+      <c r="G91" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H91" s="156"/>
-      <c r="I91" s="157"/>
+      <c r="H91" s="98"/>
+      <c r="I91" s="99"/>
       <c r="J91" s="74" t="s">
         <v>9</v>
       </c>
@@ -6936,11 +7003,11 @@
         <f t="shared" si="24"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P91" s="161" t="s">
+      <c r="P91" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Q91" s="162"/>
-      <c r="R91" s="163"/>
+      <c r="Q91" s="95"/>
+      <c r="R91" s="96"/>
       <c r="S91" s="74" t="s">
         <v>8</v>
       </c>
@@ -6958,13 +7025,13 @@
         <f t="shared" si="25"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y91" s="161" t="s">
+      <c r="Y91" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Z91" s="162"/>
-      <c r="AA91" s="163"/>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z91" s="95"/>
+      <c r="AA91" s="96"/>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>7</v>
       </c>
@@ -6982,11 +7049,11 @@
         <f t="shared" si="23"/>
         <v>6.5972222222222321E-2</v>
       </c>
-      <c r="G92" s="155" t="s">
+      <c r="G92" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H92" s="156"/>
-      <c r="I92" s="157"/>
+      <c r="H92" s="98"/>
+      <c r="I92" s="99"/>
       <c r="J92" s="74" t="s">
         <v>9</v>
       </c>
@@ -7004,11 +7071,11 @@
         <f t="shared" si="24"/>
         <v>6.5972222222222321E-2</v>
       </c>
-      <c r="P92" s="161" t="s">
+      <c r="P92" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Q92" s="162"/>
-      <c r="R92" s="163"/>
+      <c r="Q92" s="95"/>
+      <c r="R92" s="96"/>
       <c r="S92" s="74" t="s">
         <v>8</v>
       </c>
@@ -7026,13 +7093,13 @@
         <f t="shared" si="25"/>
         <v>6.5972222222222321E-2</v>
       </c>
-      <c r="Y92" s="161" t="s">
+      <c r="Y92" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Z92" s="162"/>
-      <c r="AA92" s="163"/>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z92" s="95"/>
+      <c r="AA92" s="96"/>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>7</v>
       </c>
@@ -7050,11 +7117,11 @@
         <f t="shared" si="23"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G93" s="161" t="s">
+      <c r="G93" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="H93" s="162"/>
-      <c r="I93" s="163"/>
+      <c r="H93" s="95"/>
+      <c r="I93" s="96"/>
       <c r="J93" s="74" t="s">
         <v>9</v>
       </c>
@@ -7072,11 +7139,11 @@
         <f t="shared" si="24"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P93" s="161" t="s">
+      <c r="P93" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Q93" s="162"/>
-      <c r="R93" s="163"/>
+      <c r="Q93" s="95"/>
+      <c r="R93" s="96"/>
       <c r="S93" s="74" t="s">
         <v>8</v>
       </c>
@@ -7094,13 +7161,13 @@
         <f t="shared" si="25"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y93" s="161" t="s">
+      <c r="Y93" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Z93" s="162"/>
-      <c r="AA93" s="163"/>
-    </row>
-    <row r="94" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z93" s="95"/>
+      <c r="AA93" s="96"/>
+    </row>
+    <row r="94" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="75" t="s">
         <v>7</v>
       </c>
@@ -7118,21 +7185,21 @@
         <f t="shared" si="23"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G94" s="158" t="s">
+      <c r="G94" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="H94" s="159"/>
-      <c r="I94" s="160"/>
+      <c r="H94" s="92"/>
+      <c r="I94" s="93"/>
       <c r="J94" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="K94" s="164">
+      <c r="K94" s="89">
         <v>43191</v>
       </c>
-      <c r="L94" s="165">
+      <c r="L94" s="90">
         <v>0.58333333333333337</v>
       </c>
-      <c r="M94" s="165">
+      <c r="M94" s="90">
         <v>0.75</v>
       </c>
       <c r="N94" s="87"/>
@@ -7140,21 +7207,21 @@
         <f t="shared" si="24"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="P94" s="161" t="s">
+      <c r="P94" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Q94" s="162"/>
-      <c r="R94" s="163"/>
+      <c r="Q94" s="95"/>
+      <c r="R94" s="96"/>
       <c r="S94" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="164">
+      <c r="T94" s="89">
         <v>43191</v>
       </c>
-      <c r="U94" s="165">
+      <c r="U94" s="90">
         <v>0.58333333333333337</v>
       </c>
-      <c r="V94" s="165">
+      <c r="V94" s="90">
         <v>0.75</v>
       </c>
       <c r="W94" s="87"/>
@@ -7162,13 +7229,13 @@
         <f t="shared" si="25"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="Y94" s="161" t="s">
+      <c r="Y94" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="Z94" s="162"/>
-      <c r="AA94" s="163"/>
-    </row>
-    <row r="95" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z94" s="95"/>
+      <c r="AA94" s="96"/>
+    </row>
+    <row r="95" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F95" s="78">
         <f>SUM(F87:F94)</f>
         <v>0.70138888888888917</v>
@@ -7190,11 +7257,11 @@
         <f>SUM(M95-L95-N95)</f>
         <v>0.27083333333333337</v>
       </c>
-      <c r="P95" s="158" t="s">
+      <c r="P95" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="Q95" s="159"/>
-      <c r="R95" s="160"/>
+      <c r="Q95" s="92"/>
+      <c r="R95" s="93"/>
       <c r="S95" s="82" t="s">
         <v>8</v>
       </c>
@@ -7212,13 +7279,13 @@
         <f t="shared" si="25"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y95" s="158" t="s">
+      <c r="Y95" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="Z95" s="159"/>
-      <c r="AA95" s="160"/>
-    </row>
-    <row r="96" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z95" s="92"/>
+      <c r="AA95" s="93"/>
+    </row>
+    <row r="96" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K96" s="3"/>
       <c r="O96" s="78">
         <f>SUM(O87:O95)</f>
@@ -7230,41 +7297,1102 @@
         <v>0.9305555555555558</v>
       </c>
     </row>
+    <row r="98" spans="1:29" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A98" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="101"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="101"/>
+      <c r="H98" s="101"/>
+      <c r="I98" s="101"/>
+      <c r="J98" s="101"/>
+      <c r="K98" s="101"/>
+      <c r="L98" s="101"/>
+      <c r="M98" s="101"/>
+      <c r="N98" s="101"/>
+      <c r="O98" s="101"/>
+      <c r="P98" s="101"/>
+      <c r="Q98" s="101"/>
+      <c r="R98" s="101"/>
+      <c r="S98" s="101"/>
+      <c r="T98" s="101"/>
+      <c r="U98" s="101"/>
+      <c r="V98" s="101"/>
+      <c r="W98" s="101"/>
+      <c r="X98" s="101"/>
+      <c r="Y98" s="101"/>
+      <c r="Z98" s="101"/>
+      <c r="AA98" s="101"/>
+    </row>
+    <row r="99" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="70"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="H99" s="103"/>
+      <c r="I99" s="104"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="70"/>
+      <c r="L99" s="70"/>
+      <c r="M99" s="70"/>
+      <c r="N99" s="70"/>
+      <c r="O99" s="70"/>
+      <c r="P99" s="102" t="str">
+        <f>G99</f>
+        <v>Sprint: März-Aprill</v>
+      </c>
+      <c r="Q99" s="103"/>
+      <c r="R99" s="104"/>
+      <c r="S99" s="70"/>
+      <c r="T99" s="70"/>
+      <c r="U99" s="70"/>
+      <c r="V99" s="70"/>
+      <c r="W99" s="70"/>
+      <c r="X99" s="70"/>
+      <c r="Y99" s="102" t="str">
+        <f>G99</f>
+        <v>Sprint: März-Aprill</v>
+      </c>
+      <c r="Z99" s="103"/>
+      <c r="AA99" s="104"/>
+    </row>
+    <row r="100" spans="1:29" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="106"/>
+      <c r="I100" s="106"/>
+      <c r="J100" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="K100" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="L100" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="M100" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="P100" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="106"/>
+      <c r="R100" s="106"/>
+      <c r="S100" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U100" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="V100" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="106"/>
+      <c r="AA100" s="107"/>
+      <c r="AB100" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC100" s="26">
+        <f>SUM(X114+O114+F116)</f>
+        <v>0.87500000000000022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="35">
+        <v>43193</v>
+      </c>
+      <c r="C101" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D101" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E101" s="19"/>
+      <c r="F101" s="18">
+        <f t="shared" ref="F101:F111" si="26">SUM(D101-C101)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G101" s="97"/>
+      <c r="H101" s="98"/>
+      <c r="I101" s="99"/>
+      <c r="J101" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="35">
+        <v>43193</v>
+      </c>
+      <c r="L101" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M101" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N101" s="19"/>
+      <c r="O101" s="18">
+        <f t="shared" ref="O101:O113" si="27">SUM(M101-L101)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P101" s="94"/>
+      <c r="Q101" s="95"/>
+      <c r="R101" s="96"/>
+      <c r="S101" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="35">
+        <v>43193</v>
+      </c>
+      <c r="U101" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V101" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W101" s="19"/>
+      <c r="X101" s="18">
+        <f t="shared" ref="X101:X113" si="28">SUM(V101-U101)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y101" s="94"/>
+      <c r="Z101" s="95"/>
+      <c r="AA101" s="96"/>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="35">
+        <v>43193</v>
+      </c>
+      <c r="C102" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D102" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="E102" s="19"/>
+      <c r="F102" s="18">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G102" s="97"/>
+      <c r="H102" s="98"/>
+      <c r="I102" s="99"/>
+      <c r="J102" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K102" s="35">
+        <v>43193</v>
+      </c>
+      <c r="L102" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M102" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="N102" s="19"/>
+      <c r="O102" s="18">
+        <f t="shared" si="27"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P102" s="94"/>
+      <c r="Q102" s="95"/>
+      <c r="R102" s="96"/>
+      <c r="S102" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="35">
+        <v>43193</v>
+      </c>
+      <c r="U102" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V102" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="W102" s="19"/>
+      <c r="X102" s="18">
+        <f t="shared" si="28"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y102" s="94"/>
+      <c r="Z102" s="95"/>
+      <c r="AA102" s="96"/>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A103" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="35">
+        <v>43136</v>
+      </c>
+      <c r="C103" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D103" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E103" s="19"/>
+      <c r="F103" s="18">
+        <f t="shared" si="26"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G103" s="97"/>
+      <c r="H103" s="98"/>
+      <c r="I103" s="99"/>
+      <c r="J103" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K103" s="35">
+        <v>43195</v>
+      </c>
+      <c r="L103" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M103" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="N103" s="19"/>
+      <c r="O103" s="18">
+        <f t="shared" si="27"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="P103" s="94"/>
+      <c r="Q103" s="95"/>
+      <c r="R103" s="96"/>
+      <c r="S103" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T103" s="35">
+        <v>43136</v>
+      </c>
+      <c r="U103" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V103" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="W103" s="19"/>
+      <c r="X103" s="18">
+        <f t="shared" si="28"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y103" s="94"/>
+      <c r="Z103" s="95"/>
+      <c r="AA103" s="96"/>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="35">
+        <v>43197</v>
+      </c>
+      <c r="C104" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D104" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E104" s="19"/>
+      <c r="F104" s="18">
+        <f t="shared" si="26"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="G104" s="97"/>
+      <c r="H104" s="98"/>
+      <c r="I104" s="99"/>
+      <c r="J104" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="35">
+        <v>43196</v>
+      </c>
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="18">
+        <f>SUM(M104-L104)</f>
+        <v>0</v>
+      </c>
+      <c r="P104" s="94"/>
+      <c r="Q104" s="95"/>
+      <c r="R104" s="96"/>
+      <c r="S104" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T104" s="35">
+        <v>43209</v>
+      </c>
+      <c r="U104" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V104" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="W104" s="19"/>
+      <c r="X104" s="18">
+        <f t="shared" si="28"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y104" s="94"/>
+      <c r="Z104" s="95"/>
+      <c r="AA104" s="96"/>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A105" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="35">
+        <v>43209</v>
+      </c>
+      <c r="C105" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D105" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E105" s="19"/>
+      <c r="F105" s="18">
+        <f t="shared" si="26"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G105" s="97"/>
+      <c r="H105" s="98"/>
+      <c r="I105" s="99"/>
+      <c r="J105" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="35"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="18">
+        <f>SUM(M105-L105)</f>
+        <v>0</v>
+      </c>
+      <c r="P105" s="94"/>
+      <c r="Q105" s="95"/>
+      <c r="R105" s="96"/>
+      <c r="S105" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T105" s="35">
+        <v>43214</v>
+      </c>
+      <c r="U105" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V105" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W105" s="19"/>
+      <c r="X105" s="18">
+        <f t="shared" si="28"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y105" s="94"/>
+      <c r="Z105" s="95"/>
+      <c r="AA105" s="96"/>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A106" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="35">
+        <v>43211</v>
+      </c>
+      <c r="C106" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D106" s="18">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E106" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F106" s="18">
+        <f>SUM(D106-C106-E106)</f>
+        <v>0.15625</v>
+      </c>
+      <c r="G106" s="97"/>
+      <c r="H106" s="98"/>
+      <c r="I106" s="99"/>
+      <c r="J106" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" s="35"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="18">
+        <f>SUM(M106-L106)</f>
+        <v>0</v>
+      </c>
+      <c r="P106" s="94"/>
+      <c r="Q106" s="95"/>
+      <c r="R106" s="96"/>
+      <c r="S106" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T106" s="35">
+        <v>43214</v>
+      </c>
+      <c r="U106" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V106" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="W106" s="19"/>
+      <c r="X106" s="18">
+        <f t="shared" si="28"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y106" s="94"/>
+      <c r="Z106" s="95"/>
+      <c r="AA106" s="96"/>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="35">
+        <v>43214</v>
+      </c>
+      <c r="C107" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D107" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E107" s="19"/>
+      <c r="F107" s="18">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G107" s="94"/>
+      <c r="H107" s="95"/>
+      <c r="I107" s="96"/>
+      <c r="J107" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="35"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="18">
+        <f>SUM(M107-L107)</f>
+        <v>0</v>
+      </c>
+      <c r="P107" s="94"/>
+      <c r="Q107" s="95"/>
+      <c r="R107" s="96"/>
+      <c r="S107" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T107" s="35">
+        <v>43216</v>
+      </c>
+      <c r="U107" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V107" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="W107" s="19"/>
+      <c r="X107" s="18">
+        <f t="shared" si="28"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y107" s="94"/>
+      <c r="Z107" s="95"/>
+      <c r="AA107" s="96"/>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A108" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="35">
+        <v>43214</v>
+      </c>
+      <c r="C108" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D108" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="E108" s="19"/>
+      <c r="F108" s="18">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G108" s="94"/>
+      <c r="H108" s="95"/>
+      <c r="I108" s="96"/>
+      <c r="J108" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K108" s="35">
+        <v>43209</v>
+      </c>
+      <c r="L108" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M108" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="N108" s="19"/>
+      <c r="O108" s="18">
+        <f>SUM(M108-L108)</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="X108" s="18">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A109" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="35">
+        <v>43216</v>
+      </c>
+      <c r="C109" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D109" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E109" s="19"/>
+      <c r="F109" s="18">
+        <f t="shared" si="26"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G109" s="94"/>
+      <c r="H109" s="95"/>
+      <c r="I109" s="96"/>
+      <c r="J109" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K109" s="35">
+        <v>43214</v>
+      </c>
+      <c r="L109" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M109" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N109" s="19"/>
+      <c r="O109" s="18">
+        <f>SUM(M109-L109)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="X109" s="18">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A110" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="35">
+        <v>43217</v>
+      </c>
+      <c r="C110" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D110" s="18">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E110" s="19"/>
+      <c r="F110" s="18">
+        <f t="shared" si="26"/>
+        <v>6.5972222222222265E-2</v>
+      </c>
+      <c r="G110" s="94"/>
+      <c r="H110" s="95"/>
+      <c r="I110" s="96"/>
+      <c r="J110" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K110" s="35">
+        <v>43214</v>
+      </c>
+      <c r="L110" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M110" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="N110" s="19"/>
+      <c r="O110" s="18">
+        <f>SUM(M110-L110)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="X110" s="18">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="41">
+        <v>43220</v>
+      </c>
+      <c r="C111" s="36">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="D111" s="36">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="E111" s="37"/>
+      <c r="F111" s="18">
+        <f t="shared" si="26"/>
+        <v>0.15069444444444446</v>
+      </c>
+      <c r="G111" s="91"/>
+      <c r="H111" s="92"/>
+      <c r="I111" s="93"/>
+      <c r="J111" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="35">
+        <v>43216</v>
+      </c>
+      <c r="L111" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M111" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="N111" s="19"/>
+      <c r="O111" s="18">
+        <f t="shared" si="27"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="X111" s="18">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="171"/>
+      <c r="B112" s="172"/>
+      <c r="C112" s="173"/>
+      <c r="D112" s="173"/>
+      <c r="E112" s="174"/>
+      <c r="F112" s="170">
+        <f>SUM(F99:F111)</f>
+        <v>0.97708333333333353</v>
+      </c>
+      <c r="G112" s="168"/>
+      <c r="H112" s="167"/>
+      <c r="I112" s="169"/>
+      <c r="J112" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="K112" s="89"/>
+      <c r="L112" s="90"/>
+      <c r="M112" s="90"/>
+      <c r="N112" s="87"/>
+      <c r="O112" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P112" s="94"/>
+      <c r="Q112" s="95"/>
+      <c r="R112" s="96"/>
+      <c r="S112" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="T112" s="89"/>
+      <c r="U112" s="90"/>
+      <c r="V112" s="90"/>
+      <c r="W112" s="87"/>
+      <c r="X112" s="18">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y112" s="94"/>
+      <c r="Z112" s="95"/>
+      <c r="AA112" s="96"/>
+    </row>
+    <row r="113" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="58"/>
+      <c r="G113" s="167"/>
+      <c r="H113" s="167"/>
+      <c r="I113" s="167"/>
+      <c r="J113" s="166" t="s">
+        <v>9</v>
+      </c>
+      <c r="K113" s="83"/>
+      <c r="L113" s="84"/>
+      <c r="M113" s="84"/>
+      <c r="N113" s="88"/>
+      <c r="O113" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P113" s="91"/>
+      <c r="Q113" s="92"/>
+      <c r="R113" s="93"/>
+      <c r="S113" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="T113" s="83"/>
+      <c r="U113" s="84"/>
+      <c r="V113" s="84"/>
+      <c r="W113" s="88"/>
+      <c r="X113" s="18">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y113" s="91"/>
+      <c r="Z113" s="92"/>
+      <c r="AA113" s="93"/>
+    </row>
+    <row r="114" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="58"/>
+      <c r="G114" s="167"/>
+      <c r="H114" s="167"/>
+      <c r="I114" s="167"/>
+      <c r="K114" s="3"/>
+      <c r="O114" s="78">
+        <f>SUM(O101:O113)</f>
+        <v>0.43750000000000011</v>
+      </c>
+      <c r="T114" s="3"/>
+      <c r="X114" s="78">
+        <f>SUM(X101:X113)</f>
+        <v>0.43750000000000011</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="167"/>
+      <c r="H115" s="167"/>
+      <c r="I115" s="167"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="59"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="255">
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="P94:R94"/>
-    <mergeCell ref="Y94:AA94"/>
-    <mergeCell ref="P95:R95"/>
-    <mergeCell ref="Y95:AA95"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="P91:R91"/>
-    <mergeCell ref="Y91:AA91"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="P92:R92"/>
-    <mergeCell ref="Y92:AA92"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="P93:R93"/>
-    <mergeCell ref="Y93:AA93"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="P88:R88"/>
-    <mergeCell ref="Y88:AA88"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="Y89:AA89"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="P90:R90"/>
-    <mergeCell ref="Y90:AA90"/>
-    <mergeCell ref="A84:AA84"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="Y85:AA85"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="P86:R86"/>
-    <mergeCell ref="Y86:AA86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="Y87:AA87"/>
+  <mergeCells count="295">
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="P112:R112"/>
+    <mergeCell ref="Y112:AA112"/>
+    <mergeCell ref="P113:R113"/>
+    <mergeCell ref="Y113:AA113"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="P105:R105"/>
+    <mergeCell ref="Y105:AA105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="P106:R106"/>
+    <mergeCell ref="Y106:AA106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="P107:R107"/>
+    <mergeCell ref="Y107:AA107"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="P102:R102"/>
+    <mergeCell ref="Y102:AA102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="P103:R103"/>
+    <mergeCell ref="Y103:AA103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="P104:R104"/>
+    <mergeCell ref="Y104:AA104"/>
+    <mergeCell ref="A98:AA98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="P99:R99"/>
+    <mergeCell ref="Y99:AA99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="P100:R100"/>
+    <mergeCell ref="Y100:AA100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="P101:R101"/>
+    <mergeCell ref="Y101:AA101"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="A71:AA71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="A55:AA55"/>
+    <mergeCell ref="A56:AA56"/>
+    <mergeCell ref="A57:AA57"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y6:AA8"/>
+    <mergeCell ref="A13:AA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="A31:AA31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Y39:AA39"/>
     <mergeCell ref="AS45:AU45"/>
     <mergeCell ref="BB45:BD45"/>
     <mergeCell ref="AJ46:AK46"/>
@@ -7289,204 +8417,39 @@
     <mergeCell ref="Y45:AA45"/>
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="P46:R46"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A31:AA31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y6:AA8"/>
-    <mergeCell ref="A13:AA13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="A55:AA55"/>
-    <mergeCell ref="A56:AA56"/>
-    <mergeCell ref="A57:AA57"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="A71:AA71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="A84:AA84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="Y85:AA85"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="Y86:AA86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="Y87:AA87"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="P88:R88"/>
+    <mergeCell ref="Y88:AA88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="Y89:AA89"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="Y90:AA90"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="P94:R94"/>
+    <mergeCell ref="Y94:AA94"/>
+    <mergeCell ref="P95:R95"/>
+    <mergeCell ref="Y95:AA95"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="Y91:AA91"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="P92:R92"/>
+    <mergeCell ref="Y92:AA92"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="P93:R93"/>
+    <mergeCell ref="Y93:AA93"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7507,7 +8470,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuljahr\syp\Projekt\multiflexlbkv\multiflexlbkv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FDDCAD-52BA-41F5-9CAD-BD0E43FC648D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA05DB8-38BC-485C-8F18-A0A43A4CAA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="39">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -224,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1081,15 +1081,6 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1623,9 +1614,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1638,7 +1626,10 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2013,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F87" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="P117" sqref="P117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M87" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q114" sqref="Q114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7439,8 +7430,8 @@
         <v>19</v>
       </c>
       <c r="AC100" s="26">
-        <f>SUM(X114+O114+F116)</f>
-        <v>0.87500000000000022</v>
+        <f ca="1">SUM(X114+O111+F116)</f>
+        <v>1.3708333333333336</v>
       </c>
     </row>
     <row r="101" spans="1:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
@@ -7656,12 +7647,16 @@
       <c r="K104" s="35">
         <v>43196</v>
       </c>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
+      <c r="L104" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M104" s="18">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="N104" s="19"/>
       <c r="O104" s="18">
         <f>SUM(M104-L104)</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="P104" s="94"/>
       <c r="Q104" s="95"/>
@@ -7711,13 +7706,19 @@
       <c r="J105" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K105" s="35"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
+      <c r="K105" s="35">
+        <v>43209</v>
+      </c>
+      <c r="L105" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M105" s="18">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="N105" s="19"/>
       <c r="O105" s="18">
         <f>SUM(M105-L105)</f>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="P105" s="94"/>
       <c r="Q105" s="95"/>
@@ -7769,13 +7770,19 @@
       <c r="J106" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K106" s="35"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
+      <c r="K106" s="35">
+        <v>43213</v>
+      </c>
+      <c r="L106" s="18">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="M106" s="18">
+        <v>0.625</v>
+      </c>
       <c r="N106" s="19"/>
       <c r="O106" s="18">
         <f>SUM(M106-L106)</f>
-        <v>0</v>
+        <v>0.14444444444444443</v>
       </c>
       <c r="P106" s="94"/>
       <c r="Q106" s="95"/>
@@ -7825,13 +7832,19 @@
       <c r="J107" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K107" s="35"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
+      <c r="K107" s="35">
+        <v>43214</v>
+      </c>
+      <c r="L107" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M107" s="18">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="N107" s="19"/>
       <c r="O107" s="18">
         <f>SUM(M107-L107)</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="P107" s="94"/>
       <c r="Q107" s="95"/>
@@ -7882,19 +7895,22 @@
         <v>9</v>
       </c>
       <c r="K108" s="35">
-        <v>43209</v>
+        <v>43214</v>
       </c>
       <c r="L108" s="18">
-        <v>0.49305555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M108" s="18">
-        <v>0.52777777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="N108" s="19"/>
       <c r="O108" s="18">
         <f>SUM(M108-L108)</f>
-        <v>3.472222222222221E-2</v>
-      </c>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P108" s="94"/>
+      <c r="Q108" s="95"/>
+      <c r="R108" s="96"/>
       <c r="X108" s="18">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -7925,25 +7941,28 @@
         <v>9</v>
       </c>
       <c r="K109" s="35">
-        <v>43214</v>
+        <v>43216</v>
       </c>
       <c r="L109" s="18">
-        <v>0.33333333333333331</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="M109" s="18">
-        <v>0.41666666666666669</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="N109" s="19"/>
       <c r="O109" s="18">
         <f>SUM(M109-L109)</f>
-        <v>8.333333333333337E-2</v>
-      </c>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="P109" s="94"/>
+      <c r="Q109" s="95"/>
+      <c r="R109" s="96"/>
       <c r="X109" s="18">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19" t="s">
         <v>7</v>
       </c>
@@ -7964,29 +7983,32 @@
       <c r="G110" s="94"/>
       <c r="H110" s="95"/>
       <c r="I110" s="96"/>
-      <c r="J110" s="74" t="s">
+      <c r="J110" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="K110" s="35">
-        <v>43214</v>
-      </c>
-      <c r="L110" s="18">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M110" s="18">
+      <c r="K110" s="41">
+        <v>43220</v>
+      </c>
+      <c r="L110" s="36">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="M110" s="36">
         <v>0.75</v>
       </c>
-      <c r="N110" s="19"/>
-      <c r="O110" s="18">
+      <c r="N110" s="37"/>
+      <c r="O110" s="44">
         <f>SUM(M110-L110)</f>
-        <v>8.333333333333337E-2</v>
-      </c>
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="P110" s="91"/>
+      <c r="Q110" s="92"/>
+      <c r="R110" s="93"/>
       <c r="X110" s="18">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="37" t="s">
         <v>7</v>
       </c>
@@ -8007,56 +8029,46 @@
       <c r="G111" s="91"/>
       <c r="H111" s="92"/>
       <c r="I111" s="93"/>
-      <c r="J111" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="K111" s="35">
-        <v>43216</v>
-      </c>
-      <c r="L111" s="18">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="M111" s="18">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="N111" s="19"/>
-      <c r="O111" s="18">
-        <f t="shared" si="27"/>
-        <v>3.472222222222221E-2</v>
-      </c>
+      <c r="J111" s="4"/>
+      <c r="K111" s="46"/>
+      <c r="L111" s="58"/>
+      <c r="M111" s="58"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="78">
+        <f ca="1">SUM(O101:O113)</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="P111" s="167"/>
+      <c r="Q111" s="167"/>
+      <c r="R111" s="167"/>
       <c r="X111" s="18">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:29" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="171"/>
-      <c r="B112" s="172"/>
-      <c r="C112" s="173"/>
-      <c r="D112" s="173"/>
-      <c r="E112" s="174"/>
-      <c r="F112" s="170">
+      <c r="A112" s="170"/>
+      <c r="B112" s="171"/>
+      <c r="C112" s="172"/>
+      <c r="D112" s="172"/>
+      <c r="E112" s="173"/>
+      <c r="F112" s="169">
         <f>SUM(F99:F111)</f>
         <v>0.97708333333333353</v>
       </c>
       <c r="G112" s="168"/>
       <c r="H112" s="167"/>
-      <c r="I112" s="169"/>
-      <c r="J112" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="K112" s="89"/>
-      <c r="L112" s="90"/>
-      <c r="M112" s="90"/>
-      <c r="N112" s="87"/>
-      <c r="O112" s="18">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="P112" s="94"/>
-      <c r="Q112" s="95"/>
-      <c r="R112" s="96"/>
-      <c r="S112" s="86" t="s">
+      <c r="I112" s="167"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="46"/>
+      <c r="L112" s="58"/>
+      <c r="M112" s="58"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="58"/>
+      <c r="P112" s="167"/>
+      <c r="Q112" s="167"/>
+      <c r="R112" s="167"/>
+      <c r="S112" s="74" t="s">
         <v>8</v>
       </c>
       <c r="T112" s="89"/>
@@ -8081,21 +8093,16 @@
       <c r="G113" s="167"/>
       <c r="H113" s="167"/>
       <c r="I113" s="167"/>
-      <c r="J113" s="166" t="s">
-        <v>9</v>
-      </c>
-      <c r="K113" s="83"/>
-      <c r="L113" s="84"/>
-      <c r="M113" s="84"/>
-      <c r="N113" s="88"/>
-      <c r="O113" s="18">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="P113" s="91"/>
-      <c r="Q113" s="92"/>
-      <c r="R113" s="93"/>
-      <c r="S113" s="82" t="s">
+      <c r="J113" s="4"/>
+      <c r="K113" s="46"/>
+      <c r="L113" s="58"/>
+      <c r="M113" s="58"/>
+      <c r="N113" s="58"/>
+      <c r="O113" s="58"/>
+      <c r="P113" s="167"/>
+      <c r="Q113" s="167"/>
+      <c r="R113" s="167"/>
+      <c r="S113" s="166" t="s">
         <v>8</v>
       </c>
       <c r="T113" s="83"/>
@@ -8121,10 +8128,6 @@
       <c r="H114" s="167"/>
       <c r="I114" s="167"/>
       <c r="K114" s="3"/>
-      <c r="O114" s="78">
-        <f>SUM(O101:O113)</f>
-        <v>0.43750000000000011</v>
-      </c>
       <c r="T114" s="3"/>
       <c r="X114" s="78">
         <f>SUM(X101:X113)</f>
@@ -8154,7 +8157,7 @@
       <c r="I116" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="295">
+  <mergeCells count="299">
     <mergeCell ref="G115:I115"/>
     <mergeCell ref="P112:R112"/>
     <mergeCell ref="Y112:AA112"/>
@@ -8167,6 +8170,10 @@
     <mergeCell ref="G112:I112"/>
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="G114:I114"/>
+    <mergeCell ref="P108:R108"/>
+    <mergeCell ref="P109:R109"/>
+    <mergeCell ref="P110:R110"/>
+    <mergeCell ref="P111:R111"/>
     <mergeCell ref="G105:I105"/>
     <mergeCell ref="P105:R105"/>
     <mergeCell ref="Y105:AA105"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuljahr\syp\Projekt\multiflexlbkv\multiflexlbkv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA05DB8-38BC-485C-8F18-A0A43A4CAA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1DCF50-A994-47B8-AB9D-C5929FD7B3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="39">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -224,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1060,17 +1060,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dotted">
         <color auto="1"/>
       </left>
@@ -1094,7 +1083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1605,13 +1594,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1626,11 +1612,17 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2004,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M87" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q114" sqref="Q114"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K93" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q116" sqref="Q116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7430,7 +7422,7 @@
         <v>19</v>
       </c>
       <c r="AC100" s="26">
-        <f ca="1">SUM(X114+O111+F116)</f>
+        <f ca="1">SUM(X112+O111+F116)</f>
         <v>1.3708333333333336</v>
       </c>
     </row>
@@ -7665,7 +7657,7 @@
         <v>8</v>
       </c>
       <c r="T104" s="35">
-        <v>43209</v>
+        <v>43198</v>
       </c>
       <c r="U104" s="18">
         <v>0.49305555555555558</v>
@@ -7727,18 +7719,18 @@
         <v>8</v>
       </c>
       <c r="T105" s="35">
-        <v>43214</v>
+        <v>43209</v>
       </c>
       <c r="U105" s="18">
-        <v>0.33333333333333331</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="V105" s="18">
-        <v>0.41666666666666669</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="W105" s="19"/>
       <c r="X105" s="18">
         <f t="shared" si="28"/>
-        <v>8.333333333333337E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="Y105" s="94"/>
       <c r="Z105" s="95"/>
@@ -7791,10 +7783,10 @@
         <v>8</v>
       </c>
       <c r="T106" s="35">
-        <v>43214</v>
+        <v>43211</v>
       </c>
       <c r="U106" s="18">
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="V106" s="18">
         <v>0.75</v>
@@ -7802,7 +7794,7 @@
       <c r="W106" s="19"/>
       <c r="X106" s="18">
         <f t="shared" si="28"/>
-        <v>8.333333333333337E-2</v>
+        <v>0.14583333333333337</v>
       </c>
       <c r="Y106" s="94"/>
       <c r="Z106" s="95"/>
@@ -7853,18 +7845,18 @@
         <v>8</v>
       </c>
       <c r="T107" s="35">
-        <v>43216</v>
+        <v>43214</v>
       </c>
       <c r="U107" s="18">
-        <v>0.49305555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V107" s="18">
-        <v>0.52777777777777779</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="W107" s="19"/>
       <c r="X107" s="18">
         <f t="shared" si="28"/>
-        <v>3.472222222222221E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="Y107" s="94"/>
       <c r="Z107" s="95"/>
@@ -7911,10 +7903,26 @@
       <c r="P108" s="94"/>
       <c r="Q108" s="95"/>
       <c r="R108" s="96"/>
+      <c r="S108" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T108" s="35">
+        <v>43214</v>
+      </c>
+      <c r="U108" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V108" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="W108" s="19"/>
       <c r="X108" s="18">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y108" s="94"/>
+      <c r="Z108" s="95"/>
+      <c r="AA108" s="96"/>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
@@ -7957,10 +7965,26 @@
       <c r="P109" s="94"/>
       <c r="Q109" s="95"/>
       <c r="R109" s="96"/>
+      <c r="S109" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T109" s="35">
+        <v>43216</v>
+      </c>
+      <c r="U109" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="V109" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="W109" s="19"/>
       <c r="X109" s="18">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="Y109" s="94"/>
+      <c r="Z109" s="95"/>
+      <c r="AA109" s="96"/>
     </row>
     <row r="110" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19" t="s">
@@ -7983,7 +8007,7 @@
       <c r="G110" s="94"/>
       <c r="H110" s="95"/>
       <c r="I110" s="96"/>
-      <c r="J110" s="174" t="s">
+      <c r="J110" s="173" t="s">
         <v>9</v>
       </c>
       <c r="K110" s="41">
@@ -8003,10 +8027,26 @@
       <c r="P110" s="91"/>
       <c r="Q110" s="92"/>
       <c r="R110" s="93"/>
+      <c r="S110" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T110" s="35">
+        <v>43216</v>
+      </c>
+      <c r="U110" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V110" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="W110" s="19"/>
       <c r="X110" s="18">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Y110" s="94"/>
+      <c r="Z110" s="95"/>
+      <c r="AA110" s="96"/>
     </row>
     <row r="111" spans="1:29" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="37" t="s">
@@ -8038,101 +8078,106 @@
         <f ca="1">SUM(O101:O113)</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="P111" s="167"/>
-      <c r="Q111" s="167"/>
-      <c r="R111" s="167"/>
-      <c r="X111" s="18">
+      <c r="P111" s="166"/>
+      <c r="Q111" s="166"/>
+      <c r="R111" s="166"/>
+      <c r="S111" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="T111" s="175">
+        <v>1.2527777777777778</v>
+      </c>
+      <c r="U111" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="V111" s="36">
+        <v>0.86319444444444438</v>
+      </c>
+      <c r="W111" s="37"/>
+      <c r="X111" s="44">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
+        <v>0.23819444444444438</v>
+      </c>
+      <c r="Y111" s="91"/>
+      <c r="Z111" s="92"/>
+      <c r="AA111" s="93"/>
     </row>
     <row r="112" spans="1:29" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="170"/>
-      <c r="B112" s="171"/>
-      <c r="C112" s="172"/>
-      <c r="D112" s="172"/>
-      <c r="E112" s="173"/>
-      <c r="F112" s="169">
+      <c r="A112" s="169"/>
+      <c r="B112" s="170"/>
+      <c r="C112" s="171"/>
+      <c r="D112" s="171"/>
+      <c r="E112" s="172"/>
+      <c r="F112" s="168">
         <f>SUM(F99:F111)</f>
         <v>0.97708333333333353</v>
       </c>
-      <c r="G112" s="168"/>
-      <c r="H112" s="167"/>
-      <c r="I112" s="167"/>
+      <c r="G112" s="167"/>
+      <c r="H112" s="166"/>
+      <c r="I112" s="166"/>
       <c r="J112" s="4"/>
       <c r="K112" s="46"/>
       <c r="L112" s="58"/>
       <c r="M112" s="58"/>
       <c r="N112" s="4"/>
       <c r="O112" s="58"/>
-      <c r="P112" s="167"/>
-      <c r="Q112" s="167"/>
-      <c r="R112" s="167"/>
-      <c r="S112" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="T112" s="89"/>
-      <c r="U112" s="90"/>
-      <c r="V112" s="90"/>
-      <c r="W112" s="87"/>
-      <c r="X112" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y112" s="94"/>
-      <c r="Z112" s="95"/>
-      <c r="AA112" s="96"/>
-    </row>
-    <row r="113" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P112" s="166"/>
+      <c r="Q112" s="166"/>
+      <c r="R112" s="166"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="46"/>
+      <c r="U112" s="58"/>
+      <c r="V112" s="58"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="78">
+        <f ca="1">SUM(X101:X113)</f>
+        <v>0.93958333333333344</v>
+      </c>
+      <c r="Y112" s="166"/>
+      <c r="Z112" s="166"/>
+      <c r="AA112" s="166"/>
+    </row>
+    <row r="113" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="46"/>
       <c r="C113" s="58"/>
       <c r="D113" s="58"/>
       <c r="E113" s="4"/>
       <c r="F113" s="58"/>
-      <c r="G113" s="167"/>
-      <c r="H113" s="167"/>
-      <c r="I113" s="167"/>
+      <c r="G113" s="166"/>
+      <c r="H113" s="166"/>
+      <c r="I113" s="166"/>
       <c r="J113" s="4"/>
       <c r="K113" s="46"/>
       <c r="L113" s="58"/>
       <c r="M113" s="58"/>
       <c r="N113" s="58"/>
       <c r="O113" s="58"/>
-      <c r="P113" s="167"/>
-      <c r="Q113" s="167"/>
-      <c r="R113" s="167"/>
-      <c r="S113" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="T113" s="83"/>
-      <c r="U113" s="84"/>
-      <c r="V113" s="84"/>
-      <c r="W113" s="88"/>
-      <c r="X113" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y113" s="91"/>
-      <c r="Z113" s="92"/>
-      <c r="AA113" s="93"/>
-    </row>
-    <row r="114" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P113" s="166"/>
+      <c r="Q113" s="166"/>
+      <c r="R113" s="166"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="46"/>
+      <c r="U113" s="58"/>
+      <c r="V113" s="58"/>
+      <c r="W113" s="58"/>
+      <c r="X113" s="58"/>
+      <c r="Y113" s="166"/>
+      <c r="Z113" s="166"/>
+      <c r="AA113" s="166"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="46"/>
       <c r="C114" s="58"/>
       <c r="D114" s="58"/>
       <c r="E114" s="4"/>
       <c r="F114" s="58"/>
-      <c r="G114" s="167"/>
-      <c r="H114" s="167"/>
-      <c r="I114" s="167"/>
+      <c r="G114" s="166"/>
+      <c r="H114" s="166"/>
+      <c r="I114" s="166"/>
       <c r="K114" s="3"/>
       <c r="T114" s="3"/>
-      <c r="X114" s="78">
-        <f>SUM(X101:X113)</f>
-        <v>0.43750000000000011</v>
-      </c>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
@@ -8141,9 +8186,9 @@
       <c r="D115" s="58"/>
       <c r="E115" s="4"/>
       <c r="F115" s="58"/>
-      <c r="G115" s="167"/>
-      <c r="H115" s="167"/>
-      <c r="I115" s="167"/>
+      <c r="G115" s="166"/>
+      <c r="H115" s="166"/>
+      <c r="I115" s="166"/>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
@@ -8157,7 +8202,7 @@
       <c r="I116" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="299">
+  <mergeCells count="303">
     <mergeCell ref="G115:I115"/>
     <mergeCell ref="P112:R112"/>
     <mergeCell ref="Y112:AA112"/>
@@ -8174,6 +8219,10 @@
     <mergeCell ref="P109:R109"/>
     <mergeCell ref="P110:R110"/>
     <mergeCell ref="P111:R111"/>
+    <mergeCell ref="Y108:AA108"/>
+    <mergeCell ref="Y109:AA109"/>
+    <mergeCell ref="Y110:AA110"/>
+    <mergeCell ref="Y111:AA111"/>
     <mergeCell ref="G105:I105"/>
     <mergeCell ref="P105:R105"/>
     <mergeCell ref="Y105:AA105"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuljahr\syp\Projekt\multiflexlbkv\multiflexlbkv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1DCF50-A994-47B8-AB9D-C5929FD7B3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A49F4E-280C-49AC-BF86-882567DC3B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="45">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -155,6 +155,24 @@
   </si>
   <si>
     <t>Sprint: März-Aprill</t>
+  </si>
+  <si>
+    <t>Sprint: Aprill</t>
+  </si>
+  <si>
+    <t>#5 Backend Code Bearbeiten</t>
+  </si>
+  <si>
+    <t>#4 Userstories auf Issues Zuordnen / #6 UI Design</t>
+  </si>
+  <si>
+    <t>#U6 UI Design</t>
+  </si>
+  <si>
+    <t>#7 Stamdaten Editiren Löschen</t>
+  </si>
+  <si>
+    <t>#3 Zeitauzeichnung auf UserStories / #U6 UI Design</t>
   </si>
 </sst>
 </file>
@@ -1996,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K93" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q116" sqref="Q116"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P88" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="X116" sqref="X116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2012,11 +2030,13 @@
     <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="10.88671875" style="2"/>
     <col min="15" max="15" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.88671875" style="2"/>
+    <col min="16" max="17" width="10.88671875" style="2"/>
+    <col min="18" max="18" width="37.33203125" style="2" customWidth="1"/>
     <col min="19" max="19" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="23" width="10.88671875" style="2"/>
     <col min="24" max="24" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10.88671875" style="2"/>
+    <col min="25" max="26" width="10.88671875" style="2"/>
+    <col min="27" max="27" width="34.33203125" style="2" customWidth="1"/>
     <col min="28" max="28" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="10.88671875" style="2"/>
   </cols>
@@ -7319,7 +7339,7 @@
       <c r="E99" s="70"/>
       <c r="F99" s="70"/>
       <c r="G99" s="102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H99" s="103"/>
       <c r="I99" s="104"/>
@@ -7331,7 +7351,7 @@
       <c r="O99" s="70"/>
       <c r="P99" s="102" t="str">
         <f>G99</f>
-        <v>Sprint: März-Aprill</v>
+        <v>Sprint: Aprill</v>
       </c>
       <c r="Q99" s="103"/>
       <c r="R99" s="104"/>
@@ -7343,7 +7363,7 @@
       <c r="X99" s="70"/>
       <c r="Y99" s="102" t="str">
         <f>G99</f>
-        <v>Sprint: März-Aprill</v>
+        <v>Sprint: Aprill</v>
       </c>
       <c r="Z99" s="103"/>
       <c r="AA99" s="104"/>
@@ -7422,8 +7442,7 @@
         <v>19</v>
       </c>
       <c r="AC100" s="26">
-        <f ca="1">SUM(X112+O111+F116)</f>
-        <v>1.3708333333333336</v>
+        <v>2.8611111111111112</v>
       </c>
     </row>
     <row r="101" spans="1:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
@@ -7444,7 +7463,9 @@
         <f t="shared" ref="F101:F111" si="26">SUM(D101-C101)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G101" s="97"/>
+      <c r="G101" s="97" t="s">
+        <v>40</v>
+      </c>
       <c r="H101" s="98"/>
       <c r="I101" s="99"/>
       <c r="J101" s="74" t="s">
@@ -7464,7 +7485,9 @@
         <f t="shared" ref="O101:O113" si="27">SUM(M101-L101)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P101" s="94"/>
+      <c r="P101" s="94" t="s">
+        <v>41</v>
+      </c>
       <c r="Q101" s="95"/>
       <c r="R101" s="96"/>
       <c r="S101" s="74" t="s">
@@ -7484,7 +7507,9 @@
         <f t="shared" ref="X101:X113" si="28">SUM(V101-U101)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y101" s="94"/>
+      <c r="Y101" s="94" t="s">
+        <v>41</v>
+      </c>
       <c r="Z101" s="95"/>
       <c r="AA101" s="96"/>
     </row>
@@ -7506,7 +7531,9 @@
         <f t="shared" si="26"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G102" s="97"/>
+      <c r="G102" s="97" t="s">
+        <v>40</v>
+      </c>
       <c r="H102" s="98"/>
       <c r="I102" s="99"/>
       <c r="J102" s="74" t="s">
@@ -7526,7 +7553,9 @@
         <f t="shared" si="27"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P102" s="94"/>
+      <c r="P102" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Q102" s="95"/>
       <c r="R102" s="96"/>
       <c r="S102" s="74" t="s">
@@ -7546,7 +7575,9 @@
         <f t="shared" si="28"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y102" s="94"/>
+      <c r="Y102" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Z102" s="95"/>
       <c r="AA102" s="96"/>
     </row>
@@ -7568,7 +7599,9 @@
         <f t="shared" si="26"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G103" s="97"/>
+      <c r="G103" s="97" t="s">
+        <v>40</v>
+      </c>
       <c r="H103" s="98"/>
       <c r="I103" s="99"/>
       <c r="J103" s="74" t="s">
@@ -7588,7 +7621,9 @@
         <f t="shared" si="27"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P103" s="94"/>
+      <c r="P103" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Q103" s="95"/>
       <c r="R103" s="96"/>
       <c r="S103" s="74" t="s">
@@ -7608,7 +7643,9 @@
         <f t="shared" si="28"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y103" s="94"/>
+      <c r="Y103" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Z103" s="95"/>
       <c r="AA103" s="96"/>
     </row>
@@ -7630,7 +7667,9 @@
         <f t="shared" si="26"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="G104" s="97"/>
+      <c r="G104" s="97" t="s">
+        <v>40</v>
+      </c>
       <c r="H104" s="98"/>
       <c r="I104" s="99"/>
       <c r="J104" s="74" t="s">
@@ -7650,7 +7689,9 @@
         <f>SUM(M104-L104)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P104" s="94"/>
+      <c r="P104" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Q104" s="95"/>
       <c r="R104" s="96"/>
       <c r="S104" s="74" t="s">
@@ -7670,7 +7711,9 @@
         <f t="shared" si="28"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y104" s="94"/>
+      <c r="Y104" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Z104" s="95"/>
       <c r="AA104" s="96"/>
     </row>
@@ -7692,7 +7735,9 @@
         <f t="shared" si="26"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G105" s="97"/>
+      <c r="G105" s="97" t="s">
+        <v>40</v>
+      </c>
       <c r="H105" s="98"/>
       <c r="I105" s="99"/>
       <c r="J105" s="74" t="s">
@@ -7712,7 +7757,9 @@
         <f>SUM(M105-L105)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P105" s="94"/>
+      <c r="P105" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Q105" s="95"/>
       <c r="R105" s="96"/>
       <c r="S105" s="74" t="s">
@@ -7732,7 +7779,9 @@
         <f t="shared" si="28"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y105" s="94"/>
+      <c r="Y105" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Z105" s="95"/>
       <c r="AA105" s="96"/>
     </row>
@@ -7756,7 +7805,9 @@
         <f>SUM(D106-C106-E106)</f>
         <v>0.15625</v>
       </c>
-      <c r="G106" s="97"/>
+      <c r="G106" s="97" t="s">
+        <v>40</v>
+      </c>
       <c r="H106" s="98"/>
       <c r="I106" s="99"/>
       <c r="J106" s="74" t="s">
@@ -7776,7 +7827,9 @@
         <f>SUM(M106-L106)</f>
         <v>0.14444444444444443</v>
       </c>
-      <c r="P106" s="94"/>
+      <c r="P106" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Q106" s="95"/>
       <c r="R106" s="96"/>
       <c r="S106" s="74" t="s">
@@ -7796,7 +7849,9 @@
         <f t="shared" si="28"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="Y106" s="94"/>
+      <c r="Y106" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Z106" s="95"/>
       <c r="AA106" s="96"/>
     </row>
@@ -7818,9 +7873,11 @@
         <f t="shared" si="26"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G107" s="94"/>
-      <c r="H107" s="95"/>
-      <c r="I107" s="96"/>
+      <c r="G107" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="H107" s="98"/>
+      <c r="I107" s="99"/>
       <c r="J107" s="74" t="s">
         <v>9</v>
       </c>
@@ -7838,7 +7895,9 @@
         <f>SUM(M107-L107)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P107" s="94"/>
+      <c r="P107" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Q107" s="95"/>
       <c r="R107" s="96"/>
       <c r="S107" s="74" t="s">
@@ -7858,7 +7917,9 @@
         <f t="shared" si="28"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y107" s="94"/>
+      <c r="Y107" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Z107" s="95"/>
       <c r="AA107" s="96"/>
     </row>
@@ -7880,9 +7941,11 @@
         <f t="shared" si="26"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G108" s="94"/>
-      <c r="H108" s="95"/>
-      <c r="I108" s="96"/>
+      <c r="G108" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="H108" s="98"/>
+      <c r="I108" s="99"/>
       <c r="J108" s="74" t="s">
         <v>9</v>
       </c>
@@ -7900,7 +7963,9 @@
         <f>SUM(M108-L108)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P108" s="94"/>
+      <c r="P108" s="94" t="s">
+        <v>43</v>
+      </c>
       <c r="Q108" s="95"/>
       <c r="R108" s="96"/>
       <c r="S108" s="74" t="s">
@@ -7920,7 +7985,9 @@
         <f t="shared" si="28"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y108" s="94"/>
+      <c r="Y108" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Z108" s="95"/>
       <c r="AA108" s="96"/>
     </row>
@@ -7942,7 +8009,9 @@
         <f t="shared" si="26"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G109" s="94"/>
+      <c r="G109" s="94" t="s">
+        <v>43</v>
+      </c>
       <c r="H109" s="95"/>
       <c r="I109" s="96"/>
       <c r="J109" s="74" t="s">
@@ -7962,7 +8031,9 @@
         <f>SUM(M109-L109)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P109" s="94"/>
+      <c r="P109" s="94" t="s">
+        <v>43</v>
+      </c>
       <c r="Q109" s="95"/>
       <c r="R109" s="96"/>
       <c r="S109" s="74" t="s">
@@ -7982,7 +8053,9 @@
         <f t="shared" si="28"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y109" s="94"/>
+      <c r="Y109" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="Z109" s="95"/>
       <c r="AA109" s="96"/>
     </row>
@@ -8004,7 +8077,9 @@
         <f t="shared" si="26"/>
         <v>6.5972222222222265E-2</v>
       </c>
-      <c r="G110" s="94"/>
+      <c r="G110" s="94" t="s">
+        <v>43</v>
+      </c>
       <c r="H110" s="95"/>
       <c r="I110" s="96"/>
       <c r="J110" s="173" t="s">
@@ -8024,7 +8099,9 @@
         <f>SUM(M110-L110)</f>
         <v>0.26805555555555555</v>
       </c>
-      <c r="P110" s="91"/>
+      <c r="P110" s="91" t="s">
+        <v>44</v>
+      </c>
       <c r="Q110" s="92"/>
       <c r="R110" s="93"/>
       <c r="S110" s="74" t="s">
@@ -8044,7 +8121,9 @@
         <f t="shared" si="28"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y110" s="94"/>
+      <c r="Y110" s="94" t="s">
+        <v>43</v>
+      </c>
       <c r="Z110" s="95"/>
       <c r="AA110" s="96"/>
     </row>
@@ -8066,7 +8145,9 @@
         <f t="shared" si="26"/>
         <v>0.15069444444444446</v>
       </c>
-      <c r="G111" s="91"/>
+      <c r="G111" s="91" t="s">
+        <v>43</v>
+      </c>
       <c r="H111" s="92"/>
       <c r="I111" s="93"/>
       <c r="J111" s="4"/>
@@ -8098,7 +8179,9 @@
         <f t="shared" si="28"/>
         <v>0.23819444444444438</v>
       </c>
-      <c r="Y111" s="91"/>
+      <c r="Y111" s="91" t="s">
+        <v>43</v>
+      </c>
       <c r="Z111" s="92"/>
       <c r="AA111" s="93"/>
     </row>
@@ -8130,7 +8213,7 @@
       <c r="V112" s="58"/>
       <c r="W112" s="4"/>
       <c r="X112" s="78">
-        <f ca="1">SUM(X101:X113)</f>
+        <f>SUM(X101:X111)</f>
         <v>0.93958333333333344</v>
       </c>
       <c r="Y112" s="166"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuljahr\syp\Projekt\multiflexlbkv\multiflexlbkv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A49F4E-280C-49AC-BF86-882567DC3B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2722AA-031B-4147-A2A1-1F52673776A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1097,11 +1097,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1385,6 +1398,51 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1394,23 +1452,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1436,17 +1479,119 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1468,19 +1613,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1492,155 +1652,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2015,7 +2037,7 @@
   <dimension ref="A1:BD116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="P88" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="X116" sqref="X116"/>
+      <selection activeCell="AA115" sqref="AA115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2042,58 +2064,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="136" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="117"/>
-      <c r="P2" s="134" t="s">
+      <c r="H2" s="160"/>
+      <c r="I2" s="161"/>
+      <c r="P2" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="Y2" s="136" t="s">
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="Y2" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="117"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="161"/>
     </row>
     <row r="3" spans="1:29" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -2114,11 +2136,11 @@
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="118" t="s">
+      <c r="G3" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="119"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="134"/>
       <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2137,11 +2159,11 @@
       <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="118" t="s">
+      <c r="P3" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="119"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="134"/>
       <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
@@ -2160,11 +2182,11 @@
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="118" t="s">
+      <c r="Y3" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="119"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="134"/>
       <c r="AB3" s="27" t="s">
         <v>19</v>
       </c>
@@ -2191,11 +2213,11 @@
         <f>D4-C4-E4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="132"/>
-      <c r="I4" s="133"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="142"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
@@ -2213,11 +2235,11 @@
         <f t="shared" ref="O4:O9" si="0">M4-L4-N4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P4" s="132" t="s">
+      <c r="P4" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="133"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="142"/>
       <c r="S4" s="23" t="s">
         <v>8</v>
       </c>
@@ -2235,11 +2257,11 @@
         <f t="shared" ref="X4:X9" si="1">V4-U4-W4</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y4" s="132" t="s">
+      <c r="Y4" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="133"/>
+      <c r="Z4" s="141"/>
+      <c r="AA4" s="142"/>
     </row>
     <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2259,11 +2281,11 @@
         <f>D5-C5-E5</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="137"/>
-      <c r="I5" s="138"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="154"/>
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
@@ -2281,11 +2303,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="P5" s="139" t="s">
+      <c r="P5" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="140"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="155"/>
       <c r="S5" s="23" t="s">
         <v>8</v>
       </c>
@@ -2303,11 +2325,11 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Y5" s="137" t="s">
+      <c r="Y5" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="138"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="154"/>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
@@ -2327,11 +2349,11 @@
         <f>D6-C6-E6</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="G6" s="137" t="s">
+      <c r="G6" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="137"/>
-      <c r="I6" s="138"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="154"/>
       <c r="J6" s="23" t="s">
         <v>9</v>
       </c>
@@ -2349,9 +2371,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="140"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="155"/>
       <c r="S6" s="23" t="s">
         <v>8</v>
       </c>
@@ -2369,11 +2391,11 @@
         <f t="shared" si="1"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Y6" s="139" t="s">
+      <c r="Y6" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="139"/>
-      <c r="AA6" s="140"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="155"/>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -2393,11 +2415,11 @@
         <f>D7-C7-E7</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="G7" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="137"/>
-      <c r="I7" s="138"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="154"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
@@ -2415,9 +2437,9 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="140"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="155"/>
       <c r="S7" s="23" t="s">
         <v>8</v>
       </c>
@@ -2435,9 +2457,9 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="118"/>
+      <c r="AA7" s="155"/>
     </row>
     <row r="8" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
@@ -2457,11 +2479,11 @@
         <f>D8-C8-E8</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G8" s="143" t="s">
+      <c r="G8" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="168"/>
       <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
@@ -2479,11 +2501,11 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P8" s="139" t="s">
+      <c r="P8" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="140"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="155"/>
       <c r="S8" s="23" t="s">
         <v>8</v>
       </c>
@@ -2501,9 +2523,9 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y8" s="139"/>
-      <c r="Z8" s="139"/>
-      <c r="AA8" s="140"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="118"/>
+      <c r="AA8" s="155"/>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F9" s="6">
@@ -2527,11 +2549,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P9" s="141" t="s">
+      <c r="P9" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="142"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="163"/>
       <c r="S9" s="24" t="s">
         <v>8</v>
       </c>
@@ -2549,11 +2571,11 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Y9" s="141" t="s">
+      <c r="Y9" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="142"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="163"/>
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="8"/>
@@ -2592,70 +2614,70 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="111"/>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="115" t="s">
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="116"/>
-      <c r="I14" s="117"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="161"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="115" t="s">
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="117"/>
+      <c r="Q14" s="160"/>
+      <c r="R14" s="161"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="112"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="115" t="s">
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="157"/>
+      <c r="W14" s="157"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="117"/>
+      <c r="Z14" s="160"/>
+      <c r="AA14" s="161"/>
     </row>
     <row r="15" spans="1:29" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2676,11 +2698,11 @@
       <c r="F15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="118" t="s">
+      <c r="G15" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="134"/>
       <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2699,11 +2721,11 @@
       <c r="O15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="118" t="s">
+      <c r="P15" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="119"/>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="134"/>
       <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2722,11 +2744,11 @@
       <c r="X15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="118" t="s">
+      <c r="Y15" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="119"/>
+      <c r="Z15" s="133"/>
+      <c r="AA15" s="134"/>
       <c r="AB15" s="27" t="s">
         <v>19</v>
       </c>
@@ -2753,11 +2775,11 @@
         <f>D16-C16-E16</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G16" s="132" t="s">
+      <c r="G16" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="132"/>
-      <c r="I16" s="133"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="142"/>
       <c r="J16" s="23" t="s">
         <v>9</v>
       </c>
@@ -2775,11 +2797,11 @@
         <f t="shared" ref="O16:O18" si="2">M16-L16-N16</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P16" s="120" t="s">
+      <c r="P16" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="122"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="130"/>
       <c r="S16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2797,11 +2819,11 @@
         <f t="shared" ref="X16:X28" si="3">V16-U16-W16</f>
         <v>0.18750000000000006</v>
       </c>
-      <c r="Y16" s="120" t="s">
+      <c r="Y16" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="122"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="130"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -2821,11 +2843,11 @@
         <f t="shared" ref="F17:F21" si="4">D17-C17-E17</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G17" s="137" t="s">
+      <c r="G17" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="137"/>
-      <c r="I17" s="138"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="154"/>
       <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
@@ -2843,11 +2865,11 @@
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="P17" s="126" t="s">
+      <c r="P17" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="128"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="149"/>
       <c r="S17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2865,9 +2887,9 @@
         <f t="shared" si="3"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="Y17" s="129"/>
-      <c r="Z17" s="130"/>
-      <c r="AA17" s="131"/>
+      <c r="Y17" s="169"/>
+      <c r="Z17" s="170"/>
+      <c r="AA17" s="171"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -2887,11 +2909,11 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="G18" s="132" t="s">
+      <c r="G18" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="132"/>
-      <c r="I18" s="133"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
       <c r="J18" s="23" t="s">
         <v>9</v>
       </c>
@@ -2909,11 +2931,11 @@
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="P18" s="120" t="s">
+      <c r="P18" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="122"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="130"/>
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
@@ -2931,11 +2953,11 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y18" s="120" t="s">
+      <c r="Y18" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="122"/>
+      <c r="Z18" s="129"/>
+      <c r="AA18" s="130"/>
     </row>
     <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -2955,11 +2977,11 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G19" s="132" t="s">
+      <c r="G19" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="132"/>
-      <c r="I19" s="133"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
       <c r="J19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2977,11 +2999,11 @@
         <f>M19-L19-N19</f>
         <v>0.15625</v>
       </c>
-      <c r="P19" s="120" t="s">
+      <c r="P19" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="122"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="130"/>
       <c r="S19" s="23" t="s">
         <v>8</v>
       </c>
@@ -2999,11 +3021,11 @@
         <f>V19-U19-W19</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="Y19" s="120" t="s">
+      <c r="Y19" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="122"/>
+      <c r="Z19" s="129"/>
+      <c r="AA19" s="130"/>
     </row>
     <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -3023,11 +3045,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G20" s="137" t="s">
+      <c r="G20" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="137"/>
-      <c r="I20" s="138"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="154"/>
       <c r="J20" s="23" t="s">
         <v>9</v>
       </c>
@@ -3045,11 +3067,11 @@
         <f>M20-L20-N20</f>
         <v>9.375E-2</v>
       </c>
-      <c r="P20" s="120" t="s">
+      <c r="P20" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="121"/>
-      <c r="R20" s="122"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="130"/>
       <c r="S20" s="23" t="s">
         <v>8</v>
       </c>
@@ -3067,11 +3089,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y20" s="132" t="s">
+      <c r="Y20" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="132"/>
-      <c r="AA20" s="133"/>
+      <c r="Z20" s="141"/>
+      <c r="AA20" s="142"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -3091,11 +3113,11 @@
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G21" s="145" t="s">
+      <c r="G21" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="146"/>
-      <c r="I21" s="147"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="152"/>
       <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
@@ -3113,11 +3135,11 @@
         <f>M21-L21-N21</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="P21" s="126" t="s">
+      <c r="P21" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="128"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="149"/>
       <c r="S21" s="38" t="s">
         <v>8</v>
       </c>
@@ -3135,11 +3157,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y21" s="148" t="s">
+      <c r="Y21" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="149"/>
+      <c r="Z21" s="143"/>
+      <c r="AA21" s="144"/>
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
@@ -3159,11 +3181,11 @@
         <f>SUM(D22-C22)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G22" s="132" t="s">
+      <c r="G22" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="132"/>
-      <c r="I22" s="133"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="142"/>
       <c r="J22" s="38" t="s">
         <v>9</v>
       </c>
@@ -3181,11 +3203,11 @@
         <f>M22-L22-N22</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="P22" s="145" t="s">
+      <c r="P22" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="147"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="152"/>
       <c r="S22" s="23" t="s">
         <v>8</v>
       </c>
@@ -3203,11 +3225,11 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y22" s="132" t="s">
+      <c r="Y22" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="133"/>
+      <c r="Z22" s="141"/>
+      <c r="AA22" s="142"/>
     </row>
     <row r="23" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
@@ -3227,11 +3249,11 @@
         <f t="shared" ref="F23" si="5">SUM(D23-C23)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G23" s="153" t="s">
+      <c r="G23" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="153"/>
-      <c r="I23" s="154"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="140"/>
       <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
@@ -3249,11 +3271,11 @@
         <f>M23-L23-N23</f>
         <v>0.125</v>
       </c>
-      <c r="P23" s="126" t="s">
+      <c r="P23" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="128"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="149"/>
       <c r="S23" s="38" t="s">
         <v>8</v>
       </c>
@@ -3271,11 +3293,11 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y23" s="148" t="s">
+      <c r="Y23" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="149"/>
+      <c r="Z23" s="143"/>
+      <c r="AA23" s="144"/>
     </row>
     <row r="24" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" s="6">
@@ -3299,11 +3321,11 @@
         <f>SUM(M24-L24)</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P24" s="132" t="s">
+      <c r="P24" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="132"/>
-      <c r="R24" s="133"/>
+      <c r="Q24" s="141"/>
+      <c r="R24" s="142"/>
       <c r="S24" s="38" t="s">
         <v>8</v>
       </c>
@@ -3321,11 +3343,11 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="Y24" s="148" t="s">
+      <c r="Y24" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="148"/>
-      <c r="AA24" s="149"/>
+      <c r="Z24" s="143"/>
+      <c r="AA24" s="144"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J25" s="38" t="s">
@@ -3345,11 +3367,11 @@
         <f t="shared" ref="O25" si="6">SUM(M25-L25)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="P25" s="150" t="s">
+      <c r="P25" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="151"/>
+      <c r="Q25" s="137"/>
+      <c r="R25" s="138"/>
       <c r="S25" s="38" t="s">
         <v>8</v>
       </c>
@@ -3367,11 +3389,11 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y25" s="150" t="s">
+      <c r="Y25" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="150"/>
-      <c r="AA25" s="151"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="138"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
@@ -3379,9 +3401,9 @@
       <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
@@ -3399,11 +3421,11 @@
         <f>SUM(M26-L26)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P26" s="145" t="s">
+      <c r="P26" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="147"/>
+      <c r="Q26" s="151"/>
+      <c r="R26" s="152"/>
       <c r="S26" s="38" t="s">
         <v>8</v>
       </c>
@@ -3421,11 +3443,11 @@
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="Y26" s="150" t="s">
+      <c r="Y26" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="150"/>
-      <c r="AA26" s="151"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="138"/>
     </row>
     <row r="27" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J27" s="48" t="s">
@@ -3445,11 +3467,11 @@
         <f>SUM(M27-L27)</f>
         <v>0.15625</v>
       </c>
-      <c r="P27" s="155" t="s">
+      <c r="P27" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="156"/>
+      <c r="Q27" s="145"/>
+      <c r="R27" s="146"/>
       <c r="S27" s="38" t="s">
         <v>8</v>
       </c>
@@ -3467,18 +3489,18 @@
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y27" s="148" t="s">
+      <c r="Y27" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="149"/>
+      <c r="Z27" s="143"/>
+      <c r="AA27" s="144"/>
     </row>
     <row r="28" spans="1:27" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
       <c r="O28" s="6">
         <f>SUM(O16:O27)</f>
         <v>1.5659722222222223</v>
@@ -3500,91 +3522,91 @@
         <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
-      <c r="Y28" s="153" t="s">
+      <c r="Y28" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="153"/>
-      <c r="AA28" s="154"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="140"/>
     </row>
     <row r="29" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
       <c r="X29" s="6">
         <f>SUM(X16:X28)</f>
         <v>1.6701388888888893</v>
       </c>
-      <c r="Y29" s="152"/>
-      <c r="Z29" s="152"/>
-      <c r="AA29" s="152"/>
+      <c r="Y29" s="136"/>
+      <c r="Z29" s="136"/>
+      <c r="AA29" s="136"/>
     </row>
     <row r="31" spans="1:27" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="101"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111"/>
     </row>
     <row r="32" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="115" t="s">
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="117"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="161"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="115" t="s">
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="117"/>
+      <c r="Q32" s="160"/>
+      <c r="R32" s="161"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="113"/>
-      <c r="W32" s="113"/>
-      <c r="X32" s="114"/>
-      <c r="Y32" s="115" t="s">
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="157"/>
+      <c r="W32" s="157"/>
+      <c r="X32" s="158"/>
+      <c r="Y32" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="117"/>
+      <c r="Z32" s="160"/>
+      <c r="AA32" s="161"/>
     </row>
     <row r="33" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
@@ -3605,11 +3627,11 @@
       <c r="F33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="118" t="s">
+      <c r="G33" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="134"/>
       <c r="J33" s="42" t="s">
         <v>9</v>
       </c>
@@ -3628,11 +3650,11 @@
       <c r="O33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="118" t="s">
+      <c r="P33" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="119"/>
+      <c r="Q33" s="133"/>
+      <c r="R33" s="134"/>
       <c r="S33" s="13" t="s">
         <v>8</v>
       </c>
@@ -3651,11 +3673,11 @@
       <c r="X33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="118" t="s">
+      <c r="Y33" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="118"/>
-      <c r="AA33" s="119"/>
+      <c r="Z33" s="133"/>
+      <c r="AA33" s="134"/>
       <c r="AB33" s="27" t="s">
         <v>19</v>
       </c>
@@ -3682,11 +3704,11 @@
         <f t="shared" ref="F34:F37" si="7">SUM(D34-C34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G34" s="120" t="s">
+      <c r="G34" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="130"/>
       <c r="J34" s="23" t="s">
         <v>9</v>
       </c>
@@ -3704,11 +3726,11 @@
         <f t="shared" ref="O34:O37" si="8">SUM(M34-L34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P34" s="120" t="s">
+      <c r="P34" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="121"/>
-      <c r="R34" s="122"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="130"/>
       <c r="S34" s="38" t="s">
         <v>8</v>
       </c>
@@ -3726,11 +3748,11 @@
         <f t="shared" ref="X34:X35" si="9">SUM(V34-U34)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y34" s="120" t="s">
+      <c r="Y34" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="Z34" s="121"/>
-      <c r="AA34" s="122"/>
+      <c r="Z34" s="129"/>
+      <c r="AA34" s="130"/>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -3750,11 +3772,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G35" s="120" t="s">
+      <c r="G35" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="121"/>
-      <c r="I35" s="122"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="130"/>
       <c r="J35" s="23" t="s">
         <v>9</v>
       </c>
@@ -3772,11 +3794,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P35" s="120" t="s">
+      <c r="P35" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="121"/>
-      <c r="R35" s="122"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="130"/>
       <c r="S35" s="38" t="s">
         <v>8</v>
       </c>
@@ -3794,11 +3816,11 @@
         <f t="shared" si="9"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y35" s="120" t="s">
+      <c r="Y35" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="121"/>
-      <c r="AA35" s="122"/>
+      <c r="Z35" s="129"/>
+      <c r="AA35" s="130"/>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -3818,11 +3840,11 @@
         <f t="shared" si="7"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G36" s="120" t="s">
+      <c r="G36" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="121"/>
-      <c r="I36" s="122"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="130"/>
       <c r="J36" s="23" t="s">
         <v>9</v>
       </c>
@@ -3840,11 +3862,11 @@
         <f t="shared" si="8"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P36" s="120" t="s">
+      <c r="P36" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="121"/>
-      <c r="R36" s="122"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="130"/>
       <c r="S36" s="38" t="s">
         <v>8</v>
       </c>
@@ -3862,11 +3884,11 @@
         <f t="shared" ref="X36:X37" si="10">SUM(V36-U36)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y36" s="120" t="s">
+      <c r="Y36" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="Z36" s="121"/>
-      <c r="AA36" s="122"/>
+      <c r="Z36" s="129"/>
+      <c r="AA36" s="130"/>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
@@ -3886,11 +3908,11 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G37" s="120" t="s">
+      <c r="G37" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="121"/>
-      <c r="I37" s="122"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="130"/>
       <c r="J37" s="23" t="s">
         <v>9</v>
       </c>
@@ -3908,11 +3930,11 @@
         <f t="shared" si="8"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P37" s="120" t="s">
+      <c r="P37" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="121"/>
-      <c r="R37" s="122"/>
+      <c r="Q37" s="129"/>
+      <c r="R37" s="130"/>
       <c r="S37" s="38" t="s">
         <v>8</v>
       </c>
@@ -3930,11 +3952,11 @@
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Y37" s="126" t="s">
+      <c r="Y37" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" s="127"/>
-      <c r="AA37" s="128"/>
+      <c r="Z37" s="148"/>
+      <c r="AA37" s="149"/>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
@@ -3954,11 +3976,11 @@
         <f>SUM(D38-C38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G38" s="120" t="s">
+      <c r="G38" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="121"/>
-      <c r="I38" s="122"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="130"/>
       <c r="J38" s="23" t="s">
         <v>9</v>
       </c>
@@ -3976,11 +3998,11 @@
         <f>SUM(M38-L38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P38" s="120" t="s">
+      <c r="P38" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="121"/>
-      <c r="R38" s="122"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="130"/>
       <c r="S38" s="38" t="s">
         <v>8</v>
       </c>
@@ -3998,11 +4020,11 @@
         <f t="shared" ref="X38:X39" si="11">SUM(V38-U38)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y38" s="120" t="s">
+      <c r="Y38" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="Z38" s="121"/>
-      <c r="AA38" s="122"/>
+      <c r="Z38" s="129"/>
+      <c r="AA38" s="130"/>
     </row>
     <row r="39" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
@@ -4022,11 +4044,11 @@
         <f>SUM(D39-C39)</f>
         <v>0.125</v>
       </c>
-      <c r="G39" s="123" t="s">
+      <c r="G39" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="124"/>
-      <c r="I39" s="125"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="174"/>
       <c r="J39" s="25" t="s">
         <v>9</v>
       </c>
@@ -4044,11 +4066,11 @@
         <f>SUM(M39-L39)</f>
         <v>0.125</v>
       </c>
-      <c r="P39" s="123" t="s">
+      <c r="P39" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="125"/>
+      <c r="Q39" s="173"/>
+      <c r="R39" s="174"/>
       <c r="S39" s="38" t="s">
         <v>8</v>
       </c>
@@ -4066,11 +4088,11 @@
         <f t="shared" si="11"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y39" s="120" t="s">
+      <c r="Y39" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="Z39" s="121"/>
-      <c r="AA39" s="122"/>
+      <c r="Z39" s="129"/>
+      <c r="AA39" s="130"/>
     </row>
     <row r="40" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="62"/>
@@ -4114,11 +4136,11 @@
         <f>SUM(V40-U40)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y40" s="120" t="s">
+      <c r="Y40" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="Z40" s="121"/>
-      <c r="AA40" s="122"/>
+      <c r="Z40" s="129"/>
+      <c r="AA40" s="130"/>
     </row>
     <row r="41" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="57"/>
@@ -4127,18 +4149,18 @@
       <c r="D41" s="58"/>
       <c r="E41" s="4"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="108"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
       <c r="J41" s="57"/>
       <c r="K41" s="66"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
       <c r="N41" s="4"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="111"/>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="111"/>
+      <c r="P41" s="126"/>
+      <c r="Q41" s="126"/>
+      <c r="R41" s="126"/>
       <c r="S41" s="56" t="s">
         <v>8</v>
       </c>
@@ -4156,11 +4178,11 @@
         <f>SUM(V41-U41)</f>
         <v>0.125</v>
       </c>
-      <c r="Y41" s="123" t="s">
+      <c r="Y41" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="Z41" s="124"/>
-      <c r="AA41" s="125"/>
+      <c r="Z41" s="173"/>
+      <c r="AA41" s="174"/>
     </row>
     <row r="42" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
@@ -4178,9 +4200,9 @@
       <c r="M42" s="58"/>
       <c r="N42" s="4"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
+      <c r="P42" s="126"/>
+      <c r="Q42" s="126"/>
+      <c r="R42" s="126"/>
       <c r="S42" s="62"/>
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
@@ -4210,113 +4232,113 @@
       <c r="M43" s="58"/>
       <c r="N43" s="4"/>
       <c r="O43" s="58"/>
-      <c r="P43" s="108"/>
-      <c r="Q43" s="108"/>
-      <c r="R43" s="108"/>
+      <c r="P43" s="127"/>
+      <c r="Q43" s="127"/>
+      <c r="R43" s="127"/>
       <c r="S43" s="57"/>
       <c r="T43" s="46"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
       <c r="W43" s="4"/>
       <c r="X43" s="58"/>
-      <c r="Y43" s="108"/>
-      <c r="Z43" s="108"/>
-      <c r="AA43" s="108"/>
+      <c r="Y43" s="127"/>
+      <c r="Z43" s="127"/>
+      <c r="AA43" s="127"/>
     </row>
     <row r="44" spans="1:56" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="100" t="s">
+      <c r="A44" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="101"/>
-      <c r="U44" s="101"/>
-      <c r="V44" s="101"/>
-      <c r="W44" s="101"/>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="101"/>
-      <c r="Z44" s="101"/>
-      <c r="AA44" s="101"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="111"/>
+      <c r="O44" s="111"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="111"/>
+      <c r="T44" s="111"/>
+      <c r="U44" s="111"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="111"/>
+      <c r="X44" s="111"/>
+      <c r="Y44" s="111"/>
+      <c r="Z44" s="111"/>
+      <c r="AA44" s="111"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="33"/>
       <c r="AG44" s="33"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="34"/>
-      <c r="AJ44" s="111"/>
-      <c r="AK44" s="111"/>
-      <c r="AL44" s="111"/>
+      <c r="AJ44" s="126"/>
+      <c r="AK44" s="126"/>
+      <c r="AL44" s="126"/>
       <c r="AM44" s="57"/>
       <c r="AN44" s="46"/>
       <c r="AO44" s="58"/>
       <c r="AP44" s="58"/>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="58"/>
-      <c r="AS44" s="108"/>
-      <c r="AT44" s="108"/>
-      <c r="AU44" s="108"/>
+      <c r="AS44" s="127"/>
+      <c r="AT44" s="127"/>
+      <c r="AU44" s="127"/>
       <c r="AV44" s="57"/>
       <c r="AW44" s="46"/>
       <c r="AX44" s="58"/>
       <c r="AY44" s="58"/>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="58"/>
-      <c r="BB44" s="108"/>
-      <c r="BC44" s="108"/>
-      <c r="BD44" s="108"/>
+      <c r="BB44" s="127"/>
+      <c r="BC44" s="127"/>
+      <c r="BD44" s="127"/>
     </row>
     <row r="45" spans="1:56" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="115" t="s">
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="116"/>
-      <c r="I45" s="117"/>
+      <c r="H45" s="160"/>
+      <c r="I45" s="161"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="112"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="115" t="str">
+      <c r="K45" s="156"/>
+      <c r="L45" s="156"/>
+      <c r="M45" s="157"/>
+      <c r="N45" s="157"/>
+      <c r="O45" s="158"/>
+      <c r="P45" s="159" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Q45" s="116"/>
-      <c r="R45" s="117"/>
+      <c r="Q45" s="160"/>
+      <c r="R45" s="161"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="112"/>
-      <c r="U45" s="112"/>
-      <c r="V45" s="113"/>
-      <c r="W45" s="113"/>
-      <c r="X45" s="114"/>
-      <c r="Y45" s="115" t="str">
+      <c r="T45" s="156"/>
+      <c r="U45" s="156"/>
+      <c r="V45" s="157"/>
+      <c r="W45" s="157"/>
+      <c r="X45" s="158"/>
+      <c r="Y45" s="159" t="str">
         <f>G45</f>
         <v>Sprint: Februar</v>
       </c>
-      <c r="Z45" s="116"/>
-      <c r="AA45" s="117"/>
+      <c r="Z45" s="160"/>
+      <c r="AA45" s="161"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="4"/>
@@ -4332,18 +4354,18 @@
       <c r="AP45" s="58"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="58"/>
-      <c r="AS45" s="108"/>
-      <c r="AT45" s="108"/>
-      <c r="AU45" s="108"/>
+      <c r="AS45" s="127"/>
+      <c r="AT45" s="127"/>
+      <c r="AU45" s="127"/>
       <c r="AV45" s="57"/>
       <c r="AW45" s="46"/>
       <c r="AX45" s="58"/>
       <c r="AY45" s="58"/>
       <c r="AZ45" s="4"/>
       <c r="BA45" s="58"/>
-      <c r="BB45" s="108"/>
-      <c r="BC45" s="108"/>
-      <c r="BD45" s="108"/>
+      <c r="BB45" s="127"/>
+      <c r="BC45" s="127"/>
+      <c r="BD45" s="127"/>
     </row>
     <row r="46" spans="1:56" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
@@ -4364,11 +4386,11 @@
       <c r="F46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="118" t="s">
+      <c r="G46" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="118"/>
-      <c r="I46" s="119"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="134"/>
       <c r="J46" s="42" t="s">
         <v>9</v>
       </c>
@@ -4387,11 +4409,11 @@
       <c r="O46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P46" s="118" t="s">
+      <c r="P46" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="119"/>
+      <c r="Q46" s="133"/>
+      <c r="R46" s="134"/>
       <c r="S46" s="13" t="s">
         <v>8</v>
       </c>
@@ -4410,11 +4432,11 @@
       <c r="X46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y46" s="118" t="s">
+      <c r="Y46" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="Z46" s="118"/>
-      <c r="AA46" s="119"/>
+      <c r="Z46" s="133"/>
+      <c r="AA46" s="134"/>
       <c r="AB46" s="27" t="s">
         <v>19</v>
       </c>
@@ -4428,8 +4450,8 @@
       <c r="AG46" s="58"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="109"/>
-      <c r="AK46" s="109"/>
+      <c r="AJ46" s="135"/>
+      <c r="AK46" s="135"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
@@ -4446,9 +4468,9 @@
       <c r="AY46" s="58"/>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="58"/>
-      <c r="BB46" s="108"/>
-      <c r="BC46" s="108"/>
-      <c r="BD46" s="108"/>
+      <c r="BB46" s="127"/>
+      <c r="BC46" s="127"/>
+      <c r="BD46" s="127"/>
     </row>
     <row r="47" spans="1:56" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -4468,11 +4490,11 @@
         <f t="shared" ref="F47:F50" si="12">SUM(D47-C47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="G47" s="120" t="s">
+      <c r="G47" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="121"/>
-      <c r="I47" s="122"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="130"/>
       <c r="J47" s="23" t="s">
         <v>9</v>
       </c>
@@ -4490,11 +4512,11 @@
         <f t="shared" ref="O47:O52" si="13">SUM(M47-L47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="P47" s="120" t="s">
+      <c r="P47" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="121"/>
-      <c r="R47" s="122"/>
+      <c r="Q47" s="129"/>
+      <c r="R47" s="130"/>
       <c r="S47" s="38" t="s">
         <v>8</v>
       </c>
@@ -4512,19 +4534,19 @@
         <f t="shared" ref="X47:X50" si="14">SUM(V47-U47)</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="Y47" s="120" t="s">
+      <c r="Y47" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="121"/>
-      <c r="AA47" s="122"/>
+      <c r="Z47" s="129"/>
+      <c r="AA47" s="130"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="61"/>
       <c r="AF47" s="58"/>
       <c r="AG47" s="58"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="110"/>
-      <c r="AK47" s="110"/>
+      <c r="AJ47" s="175"/>
+      <c r="AK47" s="175"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
@@ -4541,9 +4563,9 @@
       <c r="AY47" s="4"/>
       <c r="AZ47" s="4"/>
       <c r="BA47" s="60"/>
-      <c r="BB47" s="110"/>
-      <c r="BC47" s="110"/>
-      <c r="BD47" s="110"/>
+      <c r="BB47" s="175"/>
+      <c r="BC47" s="175"/>
+      <c r="BD47" s="175"/>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
@@ -4563,11 +4585,11 @@
         <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G48" s="120" t="s">
+      <c r="G48" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="121"/>
-      <c r="I48" s="122"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="130"/>
       <c r="J48" s="23" t="s">
         <v>9</v>
       </c>
@@ -4585,11 +4607,11 @@
         <f t="shared" si="13"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P48" s="120" t="s">
+      <c r="P48" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" s="121"/>
-      <c r="R48" s="122"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="130"/>
       <c r="S48" s="38" t="s">
         <v>8</v>
       </c>
@@ -4607,11 +4629,11 @@
         <f t="shared" si="14"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y48" s="120" t="s">
+      <c r="Y48" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="Z48" s="121"/>
-      <c r="AA48" s="122"/>
+      <c r="Z48" s="129"/>
+      <c r="AA48" s="130"/>
       <c r="AE48" s="3"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
@@ -4632,11 +4654,11 @@
         <f t="shared" si="12"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G49" s="120" t="s">
+      <c r="G49" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="121"/>
-      <c r="I49" s="122"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="130"/>
       <c r="J49" s="23" t="s">
         <v>9</v>
       </c>
@@ -4654,11 +4676,11 @@
         <f t="shared" si="13"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="P49" s="120" t="s">
+      <c r="P49" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="Q49" s="121"/>
-      <c r="R49" s="122"/>
+      <c r="Q49" s="129"/>
+      <c r="R49" s="130"/>
       <c r="S49" s="38" t="s">
         <v>8</v>
       </c>
@@ -4676,11 +4698,11 @@
         <f t="shared" si="14"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="Y49" s="120" t="s">
+      <c r="Y49" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="121"/>
-      <c r="AA49" s="122"/>
+      <c r="Z49" s="129"/>
+      <c r="AA49" s="130"/>
       <c r="AE49" s="3"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
@@ -4701,11 +4723,11 @@
         <f t="shared" si="12"/>
         <v>0.23125000000000007</v>
       </c>
-      <c r="G50" s="120" t="s">
+      <c r="G50" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="121"/>
-      <c r="I50" s="122"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="130"/>
       <c r="J50" s="23" t="s">
         <v>9</v>
       </c>
@@ -4723,11 +4745,11 @@
         <f t="shared" si="13"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P50" s="120" t="s">
+      <c r="P50" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" s="121"/>
-      <c r="R50" s="122"/>
+      <c r="Q50" s="129"/>
+      <c r="R50" s="130"/>
       <c r="S50" s="38" t="s">
         <v>8</v>
       </c>
@@ -4745,11 +4767,11 @@
         <f t="shared" si="14"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y50" s="120" t="s">
+      <c r="Y50" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="Z50" s="121"/>
-      <c r="AA50" s="122"/>
+      <c r="Z50" s="129"/>
+      <c r="AA50" s="130"/>
       <c r="AE50" s="3"/>
     </row>
     <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4772,11 +4794,11 @@
         <f>SUM(D51-C51)</f>
         <v>0.32291666666666669</v>
       </c>
-      <c r="G51" s="120" t="s">
+      <c r="G51" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="121"/>
-      <c r="I51" s="122"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="130"/>
       <c r="J51" s="23" t="s">
         <v>9</v>
       </c>
@@ -4794,11 +4816,11 @@
         <f>SUM(M51-L51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="P51" s="120" t="s">
+      <c r="P51" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="121"/>
-      <c r="R51" s="122"/>
+      <c r="Q51" s="129"/>
+      <c r="R51" s="130"/>
       <c r="S51" s="38" t="s">
         <v>8</v>
       </c>
@@ -4816,11 +4838,11 @@
         <f>SUM(V51-U51)</f>
         <v>0.23958333333333337</v>
       </c>
-      <c r="Y51" s="120" t="s">
+      <c r="Y51" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="Z51" s="121"/>
-      <c r="AA51" s="122"/>
+      <c r="Z51" s="129"/>
+      <c r="AA51" s="130"/>
       <c r="AE51" s="3"/>
     </row>
     <row r="52" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -4841,11 +4863,11 @@
         <f>SUM(D52-C52)</f>
         <v>0.17083333333333339</v>
       </c>
-      <c r="G52" s="120" t="s">
+      <c r="G52" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="121"/>
-      <c r="I52" s="122"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="130"/>
       <c r="J52" s="25" t="s">
         <v>9</v>
       </c>
@@ -4863,11 +4885,11 @@
         <f t="shared" si="13"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="P52" s="120" t="s">
+      <c r="P52" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="Q52" s="121"/>
-      <c r="R52" s="121"/>
+      <c r="Q52" s="129"/>
+      <c r="R52" s="129"/>
       <c r="S52" s="25" t="s">
         <v>8</v>
       </c>
@@ -4885,11 +4907,11 @@
         <f t="shared" ref="X52" si="15">SUM(V52-U52)</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="Y52" s="157" t="s">
+      <c r="Y52" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="Z52" s="157"/>
-      <c r="AA52" s="158"/>
+      <c r="Z52" s="131"/>
+      <c r="AA52" s="132"/>
       <c r="AE52" s="3"/>
     </row>
     <row r="53" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4926,9 +4948,9 @@
         <f>SUM(X47:X52)</f>
         <v>0.84375000000000022</v>
       </c>
-      <c r="Y53" s="111"/>
-      <c r="Z53" s="111"/>
-      <c r="AA53" s="111"/>
+      <c r="Y53" s="126"/>
+      <c r="Z53" s="126"/>
+      <c r="AA53" s="126"/>
       <c r="AE53" s="3"/>
     </row>
     <row r="54" spans="1:31" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
@@ -4938,118 +4960,118 @@
       <c r="D54" s="58"/>
       <c r="E54" s="4"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="108"/>
-      <c r="I54" s="108"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="127"/>
       <c r="J54" s="57"/>
       <c r="K54" s="66"/>
       <c r="L54" s="58"/>
       <c r="M54" s="58"/>
       <c r="N54" s="4"/>
       <c r="O54" s="58"/>
-      <c r="P54" s="111"/>
-      <c r="Q54" s="111"/>
-      <c r="R54" s="111"/>
+      <c r="P54" s="126"/>
+      <c r="Q54" s="126"/>
+      <c r="R54" s="126"/>
       <c r="S54" s="57"/>
       <c r="T54" s="32"/>
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
       <c r="W54" s="33"/>
       <c r="X54" s="58"/>
-      <c r="Y54" s="108"/>
-      <c r="Z54" s="108"/>
-      <c r="AA54" s="108"/>
+      <c r="Y54" s="127"/>
+      <c r="Z54" s="127"/>
+      <c r="AA54" s="127"/>
       <c r="AE54" s="3"/>
     </row>
     <row r="55" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="159"/>
-      <c r="B55" s="160"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="160"/>
-      <c r="E55" s="160"/>
-      <c r="F55" s="160"/>
-      <c r="G55" s="160"/>
-      <c r="H55" s="160"/>
-      <c r="I55" s="160"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="160"/>
-      <c r="L55" s="160"/>
-      <c r="M55" s="160"/>
-      <c r="N55" s="160"/>
-      <c r="O55" s="160"/>
-      <c r="P55" s="160"/>
-      <c r="Q55" s="160"/>
-      <c r="R55" s="160"/>
-      <c r="S55" s="160"/>
-      <c r="T55" s="160"/>
-      <c r="U55" s="160"/>
-      <c r="V55" s="160"/>
-      <c r="W55" s="160"/>
-      <c r="X55" s="160"/>
-      <c r="Y55" s="160"/>
-      <c r="Z55" s="160"/>
-      <c r="AA55" s="160"/>
+      <c r="A55" s="124"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="125"/>
+      <c r="M55" s="125"/>
+      <c r="N55" s="125"/>
+      <c r="O55" s="125"/>
+      <c r="P55" s="125"/>
+      <c r="Q55" s="125"/>
+      <c r="R55" s="125"/>
+      <c r="S55" s="125"/>
+      <c r="T55" s="125"/>
+      <c r="U55" s="125"/>
+      <c r="V55" s="125"/>
+      <c r="W55" s="125"/>
+      <c r="X55" s="125"/>
+      <c r="Y55" s="125"/>
+      <c r="Z55" s="125"/>
+      <c r="AA55" s="125"/>
       <c r="AE55" s="3"/>
     </row>
     <row r="56" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="159"/>
-      <c r="B56" s="160"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="160"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="160"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="160"/>
-      <c r="J56" s="160"/>
-      <c r="K56" s="160"/>
-      <c r="L56" s="160"/>
-      <c r="M56" s="160"/>
-      <c r="N56" s="160"/>
-      <c r="O56" s="160"/>
-      <c r="P56" s="160"/>
-      <c r="Q56" s="160"/>
-      <c r="R56" s="160"/>
-      <c r="S56" s="160"/>
-      <c r="T56" s="160"/>
-      <c r="U56" s="160"/>
-      <c r="V56" s="160"/>
-      <c r="W56" s="160"/>
-      <c r="X56" s="160"/>
-      <c r="Y56" s="160"/>
-      <c r="Z56" s="160"/>
-      <c r="AA56" s="160"/>
+      <c r="A56" s="124"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="125"/>
+      <c r="M56" s="125"/>
+      <c r="N56" s="125"/>
+      <c r="O56" s="125"/>
+      <c r="P56" s="125"/>
+      <c r="Q56" s="125"/>
+      <c r="R56" s="125"/>
+      <c r="S56" s="125"/>
+      <c r="T56" s="125"/>
+      <c r="U56" s="125"/>
+      <c r="V56" s="125"/>
+      <c r="W56" s="125"/>
+      <c r="X56" s="125"/>
+      <c r="Y56" s="125"/>
+      <c r="Z56" s="125"/>
+      <c r="AA56" s="125"/>
     </row>
     <row r="57" spans="1:31" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="100" t="s">
+      <c r="A57" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="101"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="101"/>
-      <c r="L57" s="101"/>
-      <c r="M57" s="101"/>
-      <c r="N57" s="101"/>
-      <c r="O57" s="101"/>
-      <c r="P57" s="101"/>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="101"/>
-      <c r="S57" s="101"/>
-      <c r="T57" s="101"/>
-      <c r="U57" s="101"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
-      <c r="X57" s="101"/>
-      <c r="Y57" s="101"/>
-      <c r="Z57" s="101"/>
-      <c r="AA57" s="101"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="111"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="111"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="111"/>
+      <c r="M57" s="111"/>
+      <c r="N57" s="111"/>
+      <c r="O57" s="111"/>
+      <c r="P57" s="111"/>
+      <c r="Q57" s="111"/>
+      <c r="R57" s="111"/>
+      <c r="S57" s="111"/>
+      <c r="T57" s="111"/>
+      <c r="U57" s="111"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
+      <c r="X57" s="111"/>
+      <c r="Y57" s="111"/>
+      <c r="Z57" s="111"/>
+      <c r="AA57" s="111"/>
     </row>
     <row r="58" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="70"/>
@@ -5058,35 +5080,35 @@
       <c r="D58" s="70"/>
       <c r="E58" s="70"/>
       <c r="F58" s="70"/>
-      <c r="G58" s="102" t="s">
+      <c r="G58" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="103"/>
-      <c r="I58" s="104"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="114"/>
       <c r="J58" s="70"/>
       <c r="K58" s="70"/>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
       <c r="N58" s="70"/>
       <c r="O58" s="70"/>
-      <c r="P58" s="102" t="str">
+      <c r="P58" s="112" t="str">
         <f>G58</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Q58" s="103"/>
-      <c r="R58" s="104"/>
+      <c r="Q58" s="113"/>
+      <c r="R58" s="114"/>
       <c r="S58" s="70"/>
       <c r="T58" s="70"/>
       <c r="U58" s="70"/>
       <c r="V58" s="70"/>
       <c r="W58" s="70"/>
       <c r="X58" s="70"/>
-      <c r="Y58" s="102" t="str">
+      <c r="Y58" s="112" t="str">
         <f>G58</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Z58" s="103"/>
-      <c r="AA58" s="104"/>
+      <c r="Z58" s="113"/>
+      <c r="AA58" s="114"/>
     </row>
     <row r="59" spans="1:31" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="72" t="s">
@@ -5107,11 +5129,11 @@
       <c r="F59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="105" t="s">
+      <c r="G59" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
       <c r="J59" s="80" t="s">
         <v>9</v>
       </c>
@@ -5130,11 +5152,11 @@
       <c r="O59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P59" s="105" t="s">
+      <c r="P59" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="106"/>
-      <c r="R59" s="106"/>
+      <c r="Q59" s="116"/>
+      <c r="R59" s="116"/>
       <c r="S59" s="80" t="s">
         <v>8</v>
       </c>
@@ -5153,11 +5175,11 @@
       <c r="X59" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="Y59" s="105" t="s">
+      <c r="Y59" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="Z59" s="106"/>
-      <c r="AA59" s="107"/>
+      <c r="Z59" s="116"/>
+      <c r="AA59" s="117"/>
       <c r="AB59" s="81" t="s">
         <v>19</v>
       </c>
@@ -5184,11 +5206,11 @@
         <f>SUM(D60-C60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G60" s="139" t="s">
+      <c r="G60" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="139"/>
-      <c r="I60" s="161"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="119"/>
       <c r="J60" s="74" t="s">
         <v>9</v>
       </c>
@@ -5206,11 +5228,11 @@
         <f>SUM(M60-L60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P60" s="139" t="s">
+      <c r="P60" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Q60" s="139"/>
-      <c r="R60" s="161"/>
+      <c r="Q60" s="118"/>
+      <c r="R60" s="119"/>
       <c r="S60" s="74" t="s">
         <v>8</v>
       </c>
@@ -5228,11 +5250,11 @@
         <f>SUM(V60-U60)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y60" s="139" t="s">
+      <c r="Y60" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Z60" s="139"/>
-      <c r="AA60" s="161"/>
+      <c r="Z60" s="118"/>
+      <c r="AA60" s="119"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
@@ -5252,11 +5274,11 @@
         <f t="shared" ref="F61:F68" si="16">SUM(D61-C61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G61" s="139" t="s">
+      <c r="G61" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="139"/>
-      <c r="I61" s="161"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="119"/>
       <c r="J61" s="74" t="s">
         <v>9</v>
       </c>
@@ -5274,11 +5296,11 @@
         <f t="shared" ref="O61:O68" si="17">SUM(M61-L61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P61" s="139" t="s">
+      <c r="P61" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Q61" s="139"/>
-      <c r="R61" s="161"/>
+      <c r="Q61" s="118"/>
+      <c r="R61" s="119"/>
       <c r="S61" s="74" t="s">
         <v>8</v>
       </c>
@@ -5296,11 +5318,11 @@
         <f t="shared" ref="X61:X68" si="18">SUM(V61-U61)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y61" s="139" t="s">
+      <c r="Y61" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Z61" s="139"/>
-      <c r="AA61" s="161"/>
+      <c r="Z61" s="118"/>
+      <c r="AA61" s="119"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
@@ -5320,11 +5342,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G62" s="139" t="s">
+      <c r="G62" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="139"/>
-      <c r="I62" s="161"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="119"/>
       <c r="J62" s="74" t="s">
         <v>9</v>
       </c>
@@ -5342,11 +5364,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P62" s="139" t="s">
+      <c r="P62" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Q62" s="139"/>
-      <c r="R62" s="161"/>
+      <c r="Q62" s="118"/>
+      <c r="R62" s="119"/>
       <c r="S62" s="74" t="s">
         <v>8</v>
       </c>
@@ -5364,11 +5386,11 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y62" s="139" t="s">
+      <c r="Y62" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Z62" s="139"/>
-      <c r="AA62" s="161"/>
+      <c r="Z62" s="118"/>
+      <c r="AA62" s="119"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
@@ -5388,11 +5410,11 @@
         <f t="shared" si="16"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="G63" s="139" t="s">
+      <c r="G63" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="139"/>
-      <c r="I63" s="161"/>
+      <c r="H63" s="118"/>
+      <c r="I63" s="119"/>
       <c r="J63" s="74" t="s">
         <v>9</v>
       </c>
@@ -5410,11 +5432,11 @@
         <f t="shared" si="17"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P63" s="139" t="s">
+      <c r="P63" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Q63" s="139"/>
-      <c r="R63" s="161"/>
+      <c r="Q63" s="118"/>
+      <c r="R63" s="119"/>
       <c r="S63" s="74" t="s">
         <v>8</v>
       </c>
@@ -5432,11 +5454,11 @@
         <f t="shared" si="18"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="Y63" s="139" t="s">
+      <c r="Y63" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Z63" s="139"/>
-      <c r="AA63" s="161"/>
+      <c r="Z63" s="118"/>
+      <c r="AA63" s="119"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
@@ -5456,11 +5478,11 @@
         <f t="shared" si="16"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G64" s="139" t="s">
+      <c r="G64" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="139"/>
-      <c r="I64" s="161"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="119"/>
       <c r="J64" s="74" t="s">
         <v>9</v>
       </c>
@@ -5478,11 +5500,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P64" s="139" t="s">
+      <c r="P64" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Q64" s="139"/>
-      <c r="R64" s="161"/>
+      <c r="Q64" s="118"/>
+      <c r="R64" s="119"/>
       <c r="S64" s="74" t="s">
         <v>8</v>
       </c>
@@ -5500,11 +5522,11 @@
         <f t="shared" si="18"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y64" s="139" t="s">
+      <c r="Y64" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Z64" s="139"/>
-      <c r="AA64" s="161"/>
+      <c r="Z64" s="118"/>
+      <c r="AA64" s="119"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
@@ -5524,11 +5546,11 @@
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G65" s="139" t="s">
+      <c r="G65" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="139"/>
-      <c r="I65" s="161"/>
+      <c r="H65" s="118"/>
+      <c r="I65" s="119"/>
       <c r="J65" s="74" t="s">
         <v>9</v>
       </c>
@@ -5546,11 +5568,11 @@
         <f t="shared" si="17"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P65" s="139" t="s">
+      <c r="P65" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="139"/>
-      <c r="R65" s="161"/>
+      <c r="Q65" s="118"/>
+      <c r="R65" s="119"/>
       <c r="S65" s="74" t="s">
         <v>8</v>
       </c>
@@ -5568,11 +5590,11 @@
         <f t="shared" si="18"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y65" s="139" t="s">
+      <c r="Y65" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Z65" s="139"/>
-      <c r="AA65" s="161"/>
+      <c r="Z65" s="118"/>
+      <c r="AA65" s="119"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
@@ -5592,11 +5614,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G66" s="139" t="s">
+      <c r="G66" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="139"/>
-      <c r="I66" s="161"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="119"/>
       <c r="J66" s="74" t="s">
         <v>9</v>
       </c>
@@ -5614,11 +5636,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P66" s="139" t="s">
+      <c r="P66" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Q66" s="139"/>
-      <c r="R66" s="161"/>
+      <c r="Q66" s="118"/>
+      <c r="R66" s="119"/>
       <c r="S66" s="74" t="s">
         <v>8</v>
       </c>
@@ -5636,11 +5658,11 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y66" s="139" t="s">
+      <c r="Y66" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Z66" s="139"/>
-      <c r="AA66" s="161"/>
+      <c r="Z66" s="118"/>
+      <c r="AA66" s="119"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
@@ -5660,11 +5682,11 @@
         <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="G67" s="139" t="s">
+      <c r="G67" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="139"/>
-      <c r="I67" s="161"/>
+      <c r="H67" s="118"/>
+      <c r="I67" s="119"/>
       <c r="J67" s="74" t="s">
         <v>9</v>
       </c>
@@ -5682,11 +5704,11 @@
         <f t="shared" si="17"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P67" s="139" t="s">
+      <c r="P67" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Q67" s="139"/>
-      <c r="R67" s="161"/>
+      <c r="Q67" s="118"/>
+      <c r="R67" s="119"/>
       <c r="S67" s="74" t="s">
         <v>8</v>
       </c>
@@ -5704,11 +5726,11 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="Y67" s="139" t="s">
+      <c r="Y67" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Z67" s="139"/>
-      <c r="AA67" s="161"/>
+      <c r="Z67" s="118"/>
+      <c r="AA67" s="119"/>
     </row>
     <row r="68" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="75" t="s">
@@ -5728,11 +5750,11 @@
         <f t="shared" si="16"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G68" s="162" t="s">
+      <c r="G68" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="162"/>
-      <c r="I68" s="163"/>
+      <c r="H68" s="120"/>
+      <c r="I68" s="121"/>
       <c r="J68" s="75" t="s">
         <v>9</v>
       </c>
@@ -5750,11 +5772,11 @@
         <f t="shared" si="17"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="P68" s="162" t="s">
+      <c r="P68" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="162"/>
-      <c r="R68" s="163"/>
+      <c r="Q68" s="120"/>
+      <c r="R68" s="121"/>
       <c r="S68" s="75" t="s">
         <v>8</v>
       </c>
@@ -5772,11 +5794,11 @@
         <f t="shared" si="18"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="Y68" s="162" t="s">
+      <c r="Y68" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="Z68" s="162"/>
-      <c r="AA68" s="163"/>
+      <c r="Z68" s="120"/>
+      <c r="AA68" s="121"/>
     </row>
     <row r="69" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F69" s="78">
@@ -5795,35 +5817,35 @@
       </c>
     </row>
     <row r="71" spans="1:29" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="100" t="s">
+      <c r="A71" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="101"/>
-      <c r="C71" s="101"/>
-      <c r="D71" s="101"/>
-      <c r="E71" s="101"/>
-      <c r="F71" s="101"/>
-      <c r="G71" s="101"/>
-      <c r="H71" s="101"/>
-      <c r="I71" s="101"/>
-      <c r="J71" s="101"/>
-      <c r="K71" s="101"/>
-      <c r="L71" s="101"/>
-      <c r="M71" s="101"/>
-      <c r="N71" s="101"/>
-      <c r="O71" s="101"/>
-      <c r="P71" s="101"/>
-      <c r="Q71" s="101"/>
-      <c r="R71" s="101"/>
-      <c r="S71" s="101"/>
-      <c r="T71" s="101"/>
-      <c r="U71" s="101"/>
-      <c r="V71" s="101"/>
-      <c r="W71" s="101"/>
-      <c r="X71" s="101"/>
-      <c r="Y71" s="101"/>
-      <c r="Z71" s="101"/>
-      <c r="AA71" s="101"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="111"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="111"/>
+      <c r="K71" s="111"/>
+      <c r="L71" s="111"/>
+      <c r="M71" s="111"/>
+      <c r="N71" s="111"/>
+      <c r="O71" s="111"/>
+      <c r="P71" s="111"/>
+      <c r="Q71" s="111"/>
+      <c r="R71" s="111"/>
+      <c r="S71" s="111"/>
+      <c r="T71" s="111"/>
+      <c r="U71" s="111"/>
+      <c r="V71" s="111"/>
+      <c r="W71" s="111"/>
+      <c r="X71" s="111"/>
+      <c r="Y71" s="111"/>
+      <c r="Z71" s="111"/>
+      <c r="AA71" s="111"/>
     </row>
     <row r="72" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="70"/>
@@ -5832,35 +5854,35 @@
       <c r="D72" s="70"/>
       <c r="E72" s="70"/>
       <c r="F72" s="70"/>
-      <c r="G72" s="102" t="s">
+      <c r="G72" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="103"/>
-      <c r="I72" s="104"/>
+      <c r="H72" s="113"/>
+      <c r="I72" s="114"/>
       <c r="J72" s="70"/>
       <c r="K72" s="70"/>
       <c r="L72" s="70"/>
       <c r="M72" s="70"/>
       <c r="N72" s="70"/>
       <c r="O72" s="70"/>
-      <c r="P72" s="102" t="str">
+      <c r="P72" s="112" t="str">
         <f>G72</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Q72" s="103"/>
-      <c r="R72" s="104"/>
+      <c r="Q72" s="113"/>
+      <c r="R72" s="114"/>
       <c r="S72" s="70"/>
       <c r="T72" s="70"/>
       <c r="U72" s="70"/>
       <c r="V72" s="70"/>
       <c r="W72" s="70"/>
       <c r="X72" s="70"/>
-      <c r="Y72" s="102" t="str">
+      <c r="Y72" s="112" t="str">
         <f>G72</f>
         <v>Sprint: Februar-März</v>
       </c>
-      <c r="Z72" s="103"/>
-      <c r="AA72" s="104"/>
+      <c r="Z72" s="113"/>
+      <c r="AA72" s="114"/>
     </row>
     <row r="73" spans="1:29" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="72" t="s">
@@ -5881,11 +5903,11 @@
       <c r="F73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="105" t="s">
+      <c r="G73" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="106"/>
-      <c r="I73" s="106"/>
+      <c r="H73" s="116"/>
+      <c r="I73" s="116"/>
       <c r="J73" s="80" t="s">
         <v>9</v>
       </c>
@@ -5904,11 +5926,11 @@
       <c r="O73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P73" s="105" t="s">
+      <c r="P73" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="Q73" s="106"/>
-      <c r="R73" s="106"/>
+      <c r="Q73" s="116"/>
+      <c r="R73" s="116"/>
       <c r="S73" s="80" t="s">
         <v>8</v>
       </c>
@@ -5927,11 +5949,11 @@
       <c r="X73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="Y73" s="105" t="s">
+      <c r="Y73" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="Z73" s="106"/>
-      <c r="AA73" s="107"/>
+      <c r="Z73" s="116"/>
+      <c r="AA73" s="117"/>
       <c r="AB73" s="81" t="s">
         <v>19</v>
       </c>
@@ -5958,11 +5980,11 @@
         <f>SUM(D74-C74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G74" s="139" t="s">
+      <c r="G74" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="139"/>
-      <c r="I74" s="161"/>
+      <c r="H74" s="118"/>
+      <c r="I74" s="119"/>
       <c r="J74" s="74" t="s">
         <v>9</v>
       </c>
@@ -5980,11 +6002,11 @@
         <f>SUM(M74-L74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P74" s="139" t="s">
+      <c r="P74" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Q74" s="139"/>
-      <c r="R74" s="161"/>
+      <c r="Q74" s="118"/>
+      <c r="R74" s="119"/>
       <c r="S74" s="74" t="s">
         <v>8</v>
       </c>
@@ -6002,11 +6024,11 @@
         <f>SUM(V74-U74)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y74" s="139" t="s">
+      <c r="Y74" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Z74" s="139"/>
-      <c r="AA74" s="161"/>
+      <c r="Z74" s="118"/>
+      <c r="AA74" s="119"/>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
@@ -6026,11 +6048,11 @@
         <f t="shared" ref="F75:F81" si="19">SUM(D75-C75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G75" s="139" t="s">
+      <c r="G75" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="139"/>
-      <c r="I75" s="161"/>
+      <c r="H75" s="118"/>
+      <c r="I75" s="119"/>
       <c r="J75" s="74" t="s">
         <v>9</v>
       </c>
@@ -6048,11 +6070,11 @@
         <f t="shared" ref="O75:O81" si="20">SUM(M75-L75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P75" s="139" t="s">
+      <c r="P75" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Q75" s="139"/>
-      <c r="R75" s="161"/>
+      <c r="Q75" s="118"/>
+      <c r="R75" s="119"/>
       <c r="S75" s="74" t="s">
         <v>8</v>
       </c>
@@ -6070,11 +6092,11 @@
         <f t="shared" ref="X75:X81" si="21">SUM(V75-U75)</f>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y75" s="139" t="s">
+      <c r="Y75" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Z75" s="139"/>
-      <c r="AA75" s="161"/>
+      <c r="Z75" s="118"/>
+      <c r="AA75" s="119"/>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
@@ -6094,11 +6116,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G76" s="139" t="s">
+      <c r="G76" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="139"/>
-      <c r="I76" s="161"/>
+      <c r="H76" s="118"/>
+      <c r="I76" s="119"/>
       <c r="J76" s="74" t="s">
         <v>9</v>
       </c>
@@ -6116,11 +6138,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P76" s="139" t="s">
+      <c r="P76" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Q76" s="139"/>
-      <c r="R76" s="161"/>
+      <c r="Q76" s="118"/>
+      <c r="R76" s="119"/>
       <c r="S76" s="74" t="s">
         <v>8</v>
       </c>
@@ -6138,11 +6160,11 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y76" s="139" t="s">
+      <c r="Y76" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Z76" s="139"/>
-      <c r="AA76" s="161"/>
+      <c r="Z76" s="118"/>
+      <c r="AA76" s="119"/>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
@@ -6162,11 +6184,11 @@
         <f t="shared" si="19"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G77" s="139" t="s">
+      <c r="G77" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="H77" s="139"/>
-      <c r="I77" s="161"/>
+      <c r="H77" s="118"/>
+      <c r="I77" s="119"/>
       <c r="J77" s="74" t="s">
         <v>9</v>
       </c>
@@ -6184,11 +6206,11 @@
         <f t="shared" si="20"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="P77" s="139" t="s">
+      <c r="P77" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Q77" s="139"/>
-      <c r="R77" s="161"/>
+      <c r="Q77" s="118"/>
+      <c r="R77" s="119"/>
       <c r="S77" s="74" t="s">
         <v>8</v>
       </c>
@@ -6206,11 +6228,11 @@
         <f t="shared" si="21"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Y77" s="139" t="s">
+      <c r="Y77" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Z77" s="139"/>
-      <c r="AA77" s="161"/>
+      <c r="Z77" s="118"/>
+      <c r="AA77" s="119"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
@@ -6230,11 +6252,11 @@
         <f t="shared" si="19"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G78" s="139" t="s">
+      <c r="G78" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="H78" s="139"/>
-      <c r="I78" s="161"/>
+      <c r="H78" s="118"/>
+      <c r="I78" s="119"/>
       <c r="J78" s="74" t="s">
         <v>9</v>
       </c>
@@ -6252,11 +6274,11 @@
         <f t="shared" si="20"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P78" s="139" t="s">
+      <c r="P78" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Q78" s="139"/>
-      <c r="R78" s="161"/>
+      <c r="Q78" s="118"/>
+      <c r="R78" s="119"/>
       <c r="S78" s="74" t="s">
         <v>8</v>
       </c>
@@ -6274,11 +6296,11 @@
         <f t="shared" si="21"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y78" s="139" t="s">
+      <c r="Y78" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Z78" s="139"/>
-      <c r="AA78" s="161"/>
+      <c r="Z78" s="118"/>
+      <c r="AA78" s="119"/>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
@@ -6298,11 +6320,11 @@
         <f t="shared" si="19"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="G79" s="139" t="s">
+      <c r="G79" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="H79" s="139"/>
-      <c r="I79" s="161"/>
+      <c r="H79" s="118"/>
+      <c r="I79" s="119"/>
       <c r="J79" s="74" t="s">
         <v>9</v>
       </c>
@@ -6320,11 +6342,11 @@
         <f t="shared" si="20"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="P79" s="139" t="s">
+      <c r="P79" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Q79" s="139"/>
-      <c r="R79" s="161"/>
+      <c r="Q79" s="118"/>
+      <c r="R79" s="119"/>
       <c r="S79" s="74" t="s">
         <v>8</v>
       </c>
@@ -6342,11 +6364,11 @@
         <f t="shared" si="21"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="Y79" s="139" t="s">
+      <c r="Y79" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Z79" s="139"/>
-      <c r="AA79" s="161"/>
+      <c r="Z79" s="118"/>
+      <c r="AA79" s="119"/>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
@@ -6366,11 +6388,11 @@
         <f t="shared" si="19"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="G80" s="139" t="s">
+      <c r="G80" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="139"/>
-      <c r="I80" s="161"/>
+      <c r="H80" s="118"/>
+      <c r="I80" s="119"/>
       <c r="J80" s="74" t="s">
         <v>9</v>
       </c>
@@ -6388,11 +6410,11 @@
         <f t="shared" si="20"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="P80" s="139" t="s">
+      <c r="P80" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Q80" s="139"/>
-      <c r="R80" s="161"/>
+      <c r="Q80" s="118"/>
+      <c r="R80" s="119"/>
       <c r="S80" s="74" t="s">
         <v>8</v>
       </c>
@@ -6410,11 +6432,11 @@
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="Y80" s="139" t="s">
+      <c r="Y80" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Z80